--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DocEmerson\Github\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54A94F1-545B-47E5-BFBE-B4EA291D5859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C37AE0-7E14-464A-BF72-1791FFBC8731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-5040" windowWidth="20640" windowHeight="11310" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10770" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
   </bookViews>
   <sheets>
     <sheet name="5_Diario" sheetId="5" r:id="rId1"/>
@@ -185,10 +185,19 @@
     <definedName name="VAR">#REF!</definedName>
     <definedName name="VENTAS">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -736,7 +745,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,12 +785,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,15 +2108,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2292,6 +2286,15 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2361,22 +2364,22 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2669,9 +2672,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>834887</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>65585</xdr:rowOff>
+      <xdr:colOff>815837</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>84635</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1510748" cy="986611"/>
     <xdr:pic>
@@ -2695,7 +2698,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4658139" y="19195098"/>
+          <a:off x="4711562" y="19420385"/>
           <a:ext cx="1510748" cy="986611"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2715,7 +2718,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>404191</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>13252</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2506435" cy="280205"/>
@@ -31711,10 +31714,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X137"/>
+  <dimension ref="A1:X135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -31807,10 +31810,10 @@
       <c r="I4" s="219"/>
       <c r="J4" s="219"/>
       <c r="K4" s="219"/>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="130" t="s">
+      <c r="M4" s="196" t="s">
         <v>19</v>
       </c>
     </row>
@@ -31825,10 +31828,10 @@
       <c r="I5" s="220"/>
       <c r="J5" s="220"/>
       <c r="K5" s="220"/>
-      <c r="L5" s="131" t="s">
+      <c r="L5" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="131" t="s">
+      <c r="M5" s="197" t="s">
         <v>21</v>
       </c>
     </row>
@@ -31852,7 +31855,7 @@
       <c r="K7" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="197" t="s">
+      <c r="L7" s="194" t="s">
         <v>89</v>
       </c>
       <c r="M7" s="11"/>
@@ -31957,60 +31960,60 @@
         <v>124</v>
       </c>
       <c r="D15" s="234"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="185"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="182"/>
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="235"/>
       <c r="D16" s="236"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="189"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="186"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="235"/>
       <c r="D17" s="236"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="189"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="186"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="235"/>
       <c r="D18" s="236"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="189"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="186"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="235"/>
       <c r="D19" s="236"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="189"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="186"/>
       <c r="M19" s="18"/>
       <c r="O19" s="19"/>
     </row>
@@ -32020,27 +32023,27 @@
         <v>0</v>
       </c>
       <c r="D20" s="238"/>
-      <c r="E20" s="190">
+      <c r="E20" s="187">
         <f>SUM(E15:E19)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="191" t="e">
+      <c r="F20" s="188" t="e">
         <f>+ROUND(SUMPRODUCT(E15:E19,F15:F19)/SUM(E15:E19),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="192" t="e">
+      <c r="G20" s="189" t="e">
         <f>+SUMPRODUCT(E15:E19,G15:G19)/SUM(E15:E19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="192" t="e">
+      <c r="H20" s="189" t="e">
         <f>+SUMPRODUCT(E15:E19,H15:H19)/SUM(E15:E19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="191">
+      <c r="I20" s="188">
         <f>SUM(I15:I19)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="193">
+      <c r="J20" s="190">
         <f>SUM(J15:J19)</f>
         <v>0</v>
       </c>
@@ -32052,9 +32055,9 @@
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
       <c r="M21" s="11"/>
       <c r="O21" s="19"/>
     </row>
@@ -32065,14 +32068,14 @@
       </c>
       <c r="D22" s="239"/>
       <c r="E22" s="239"/>
-      <c r="F22" s="176" t="s">
+      <c r="F22" s="173" t="s">
         <v>94</v>
       </c>
       <c r="H22" s="200" t="s">
         <v>87</v>
       </c>
       <c r="I22" s="200"/>
-      <c r="J22" s="195">
+      <c r="J22" s="192">
         <v>0</v>
       </c>
       <c r="K22" s="102"/>
@@ -32087,7 +32090,7 @@
       </c>
       <c r="D23" s="239"/>
       <c r="E23" s="239"/>
-      <c r="F23" s="176" t="s">
+      <c r="F23" s="173" t="s">
         <v>95</v>
       </c>
       <c r="M23" s="11"/>
@@ -32101,7 +32104,7 @@
       </c>
       <c r="D24" s="241"/>
       <c r="E24" s="242"/>
-      <c r="F24" s="196" t="s">
+      <c r="F24" s="193" t="s">
         <v>96</v>
       </c>
       <c r="M24" s="11"/>
@@ -32210,16 +32213,16 @@
         <v>97</v>
       </c>
       <c r="D32" s="246"/>
-      <c r="E32" s="170" t="s">
+      <c r="E32" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="171" t="s">
+      <c r="F32" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="172" t="s">
+      <c r="G32" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="173" t="s">
+      <c r="H32" s="170" t="s">
         <v>92</v>
       </c>
       <c r="L32" s="103"/>
@@ -32230,10 +32233,10 @@
       <c r="B33" s="13"/>
       <c r="C33" s="198"/>
       <c r="D33" s="199"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="177"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="174"/>
       <c r="L33" s="103"/>
       <c r="M33" s="11"/>
       <c r="P33" s="19"/>
@@ -32242,10 +32245,10 @@
       <c r="B34" s="13"/>
       <c r="C34" s="198"/>
       <c r="D34" s="199"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="177"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="174"/>
       <c r="L34" s="103"/>
       <c r="M34" s="11"/>
       <c r="P34" s="19"/>
@@ -32254,10 +32257,10 @@
       <c r="B35" s="13"/>
       <c r="C35" s="198"/>
       <c r="D35" s="199"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="177"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="174"/>
       <c r="L35" s="103"/>
       <c r="M35" s="11"/>
       <c r="P35" s="19"/>
@@ -32266,10 +32269,10 @@
       <c r="B36" s="13"/>
       <c r="C36" s="198"/>
       <c r="D36" s="199"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="177"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="174"/>
       <c r="L36" s="103"/>
       <c r="M36" s="11"/>
       <c r="P36" s="19"/>
@@ -32278,10 +32281,10 @@
       <c r="B37" s="13"/>
       <c r="C37" s="198"/>
       <c r="D37" s="199"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="177"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="174"/>
       <c r="L37" s="103"/>
       <c r="M37" s="11"/>
       <c r="P37" s="19"/>
@@ -32290,10 +32293,10 @@
       <c r="B38" s="13"/>
       <c r="C38" s="252"/>
       <c r="D38" s="253"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="177"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="174"/>
       <c r="L38" s="103"/>
       <c r="M38" s="11"/>
       <c r="P38" s="19"/>
@@ -32302,10 +32305,10 @@
       <c r="B39" s="13"/>
       <c r="C39" s="252"/>
       <c r="D39" s="253"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="175"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="177"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="174"/>
       <c r="L39" s="103"/>
       <c r="M39" s="11"/>
       <c r="P39" s="19"/>
@@ -32314,10 +32317,10 @@
       <c r="B40" s="13"/>
       <c r="C40" s="198"/>
       <c r="D40" s="199"/>
-      <c r="E40" s="174"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="177"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="174"/>
       <c r="L40" s="103"/>
       <c r="M40" s="11"/>
       <c r="P40" s="19"/>
@@ -32328,16 +32331,16 @@
         <v>0</v>
       </c>
       <c r="D41" s="268"/>
-      <c r="E41" s="178">
+      <c r="E41" s="175">
         <f>+SUM(E32:E40)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="179"/>
-      <c r="G41" s="180">
+      <c r="F41" s="176"/>
+      <c r="G41" s="177">
         <f>+SUM(G32:G40)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="181">
+      <c r="H41" s="178">
         <f>+SUM(H32:H40)</f>
         <v>0</v>
       </c>
@@ -32480,16 +32483,16 @@
       </c>
       <c r="D50" s="259"/>
       <c r="E50" s="260"/>
-      <c r="F50" s="164" t="s">
+      <c r="F50" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="G50" s="165" t="s">
+      <c r="G50" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="165" t="s">
+      <c r="H50" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="I50" s="166" t="s">
+      <c r="I50" s="163" t="s">
         <v>103</v>
       </c>
       <c r="L50" s="103"/>
@@ -32508,10 +32511,10 @@
       <c r="C51" s="261"/>
       <c r="D51" s="262"/>
       <c r="E51" s="263"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="168"/>
-      <c r="I51" s="169"/>
+      <c r="F51" s="164"/>
+      <c r="G51" s="165"/>
+      <c r="H51" s="165"/>
+      <c r="I51" s="166"/>
       <c r="L51" s="104"/>
       <c r="M51" s="11"/>
       <c r="N51" s="36"/>
@@ -33129,7 +33132,7 @@
         <v>106</v>
       </c>
       <c r="I77" s="257"/>
-      <c r="J77" s="160" t="s">
+      <c r="J77" s="157" t="s">
         <v>107</v>
       </c>
       <c r="K77" s="106"/>
@@ -33143,12 +33146,12 @@
         <v>104</v>
       </c>
       <c r="D78" s="61"/>
-      <c r="E78" s="159" t="s">
+      <c r="E78" s="156" t="s">
         <v>105</v>
       </c>
       <c r="H78" s="256"/>
       <c r="I78" s="257"/>
-      <c r="J78" s="160"/>
+      <c r="J78" s="157"/>
       <c r="K78" s="106"/>
       <c r="L78" s="103"/>
       <c r="M78" s="11"/>
@@ -33158,11 +33161,11 @@
       <c r="B79" s="13"/>
       <c r="C79" s="62"/>
       <c r="D79" s="63"/>
-      <c r="E79" s="158"/>
+      <c r="E79" s="155"/>
       <c r="H79" s="284"/>
       <c r="I79" s="285"/>
-      <c r="J79" s="161"/>
-      <c r="K79" s="162"/>
+      <c r="J79" s="158"/>
+      <c r="K79" s="159"/>
       <c r="L79" s="103"/>
       <c r="M79" s="11"/>
       <c r="N79" s="36"/>
@@ -33171,11 +33174,11 @@
       <c r="B80" s="13"/>
       <c r="C80" s="19"/>
       <c r="D80" s="107"/>
-      <c r="E80" s="163"/>
+      <c r="E80" s="160"/>
       <c r="H80" s="108"/>
       <c r="I80" s="108"/>
       <c r="J80" s="109"/>
-      <c r="K80" s="162"/>
+      <c r="K80" s="159"/>
       <c r="L80" s="103"/>
       <c r="M80" s="11"/>
       <c r="N80" s="36"/>
@@ -33245,14 +33248,14 @@
         <v>108</v>
       </c>
       <c r="D85" s="210"/>
-      <c r="E85" s="153" t="s">
+      <c r="E85" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="F85" s="133"/>
-      <c r="H85" s="154" t="s">
+      <c r="F85" s="130"/>
+      <c r="H85" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="I85" s="155" t="s">
+      <c r="I85" s="152" t="s">
         <v>111</v>
       </c>
       <c r="J85" s="95"/>
@@ -33265,10 +33268,10 @@
       <c r="B86" s="13"/>
       <c r="C86" s="209"/>
       <c r="D86" s="210"/>
-      <c r="E86" s="153"/>
-      <c r="F86" s="133"/>
-      <c r="H86" s="154"/>
-      <c r="I86" s="155"/>
+      <c r="E86" s="150"/>
+      <c r="F86" s="130"/>
+      <c r="H86" s="151"/>
+      <c r="I86" s="152"/>
       <c r="J86" s="95"/>
       <c r="K86" s="95"/>
       <c r="L86" s="103"/>
@@ -33279,10 +33282,10 @@
       <c r="B87" s="13"/>
       <c r="C87" s="209"/>
       <c r="D87" s="210"/>
-      <c r="E87" s="153"/>
-      <c r="F87" s="133"/>
-      <c r="H87" s="156"/>
-      <c r="I87" s="157"/>
+      <c r="E87" s="150"/>
+      <c r="F87" s="130"/>
+      <c r="H87" s="153"/>
+      <c r="I87" s="154"/>
       <c r="J87" s="95"/>
       <c r="K87" s="95"/>
       <c r="L87" s="103"/>
@@ -33293,8 +33296,8 @@
       <c r="B88" s="13"/>
       <c r="C88" s="209"/>
       <c r="D88" s="210"/>
-      <c r="E88" s="153"/>
-      <c r="F88" s="133"/>
+      <c r="E88" s="150"/>
+      <c r="F88" s="130"/>
       <c r="L88" s="103"/>
       <c r="M88" s="11"/>
     </row>
@@ -33302,8 +33305,8 @@
       <c r="B89" s="13"/>
       <c r="C89" s="213"/>
       <c r="D89" s="214"/>
-      <c r="E89" s="153"/>
-      <c r="F89" s="133"/>
+      <c r="E89" s="150"/>
+      <c r="F89" s="130"/>
       <c r="L89" s="103"/>
       <c r="M89" s="11"/>
     </row>
@@ -33311,8 +33314,8 @@
       <c r="B90" s="13"/>
       <c r="C90" s="211"/>
       <c r="D90" s="212"/>
-      <c r="E90" s="158"/>
-      <c r="F90" s="133"/>
+      <c r="E90" s="155"/>
+      <c r="F90" s="130"/>
       <c r="L90" s="103"/>
       <c r="M90" s="11"/>
     </row>
@@ -33402,22 +33405,22 @@
         <v>112</v>
       </c>
       <c r="D96" s="210"/>
-      <c r="E96" s="141" t="s">
+      <c r="E96" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="F96" s="142" t="s">
+      <c r="F96" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="H96" s="143" t="s">
+      <c r="H96" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="I96" s="144" t="s">
+      <c r="I96" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="J96" s="144" t="s">
+      <c r="J96" s="141" t="s">
         <v>117</v>
       </c>
-      <c r="K96" s="144" t="s">
+      <c r="K96" s="141" t="s">
         <v>118</v>
       </c>
       <c r="L96" s="103"/>
@@ -33428,12 +33431,12 @@
       <c r="B97" s="13"/>
       <c r="C97" s="209"/>
       <c r="D97" s="210"/>
-      <c r="E97" s="141"/>
-      <c r="F97" s="142"/>
-      <c r="H97" s="145"/>
-      <c r="I97" s="146"/>
-      <c r="J97" s="146"/>
-      <c r="K97" s="147"/>
+      <c r="E97" s="138"/>
+      <c r="F97" s="139"/>
+      <c r="H97" s="142"/>
+      <c r="I97" s="143"/>
+      <c r="J97" s="143"/>
+      <c r="K97" s="144"/>
       <c r="L97" s="103"/>
       <c r="M97" s="11"/>
       <c r="N97" s="36"/>
@@ -33442,12 +33445,12 @@
       <c r="B98" s="13"/>
       <c r="C98" s="209"/>
       <c r="D98" s="210"/>
-      <c r="E98" s="141"/>
-      <c r="F98" s="142"/>
-      <c r="H98" s="148"/>
-      <c r="I98" s="149"/>
-      <c r="J98" s="149"/>
-      <c r="K98" s="150"/>
+      <c r="E98" s="138"/>
+      <c r="F98" s="139"/>
+      <c r="H98" s="145"/>
+      <c r="I98" s="146"/>
+      <c r="J98" s="146"/>
+      <c r="K98" s="147"/>
       <c r="L98" s="103"/>
       <c r="M98" s="11"/>
       <c r="N98" s="36"/>
@@ -33456,8 +33459,8 @@
       <c r="B99" s="13"/>
       <c r="C99" s="211"/>
       <c r="D99" s="212"/>
-      <c r="E99" s="151"/>
-      <c r="F99" s="152"/>
+      <c r="E99" s="148"/>
+      <c r="F99" s="149"/>
       <c r="L99" s="103"/>
       <c r="M99" s="11"/>
     </row>
@@ -33560,14 +33563,14 @@
         <v>119</v>
       </c>
       <c r="D107" s="210"/>
-      <c r="E107" s="132" t="s">
+      <c r="E107" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="F107" s="133"/>
-      <c r="H107" s="134" t="s">
+      <c r="F107" s="130"/>
+      <c r="H107" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="I107" s="135" t="s">
+      <c r="I107" s="132" t="s">
         <v>122</v>
       </c>
       <c r="J107" s="95"/>
@@ -33580,10 +33583,10 @@
       <c r="B108" s="13"/>
       <c r="C108" s="209"/>
       <c r="D108" s="210"/>
-      <c r="E108" s="132"/>
-      <c r="F108" s="133"/>
-      <c r="H108" s="136"/>
-      <c r="I108" s="137"/>
+      <c r="E108" s="129"/>
+      <c r="F108" s="130"/>
+      <c r="H108" s="133"/>
+      <c r="I108" s="134"/>
       <c r="J108" s="95"/>
       <c r="K108" s="95"/>
       <c r="L108" s="103"/>
@@ -33594,10 +33597,10 @@
       <c r="B109" s="13"/>
       <c r="C109" s="209"/>
       <c r="D109" s="210"/>
-      <c r="E109" s="132"/>
-      <c r="F109" s="133"/>
-      <c r="H109" s="138"/>
-      <c r="I109" s="139"/>
+      <c r="E109" s="129"/>
+      <c r="F109" s="130"/>
+      <c r="H109" s="135"/>
+      <c r="I109" s="136"/>
       <c r="J109" s="95"/>
       <c r="K109" s="95"/>
       <c r="L109" s="103"/>
@@ -33608,8 +33611,8 @@
       <c r="B110" s="13"/>
       <c r="C110" s="209"/>
       <c r="D110" s="210"/>
-      <c r="E110" s="132"/>
-      <c r="F110" s="133"/>
+      <c r="E110" s="129"/>
+      <c r="F110" s="130"/>
       <c r="L110" s="103"/>
       <c r="M110" s="11"/>
     </row>
@@ -33617,8 +33620,8 @@
       <c r="B111" s="13"/>
       <c r="C111" s="213"/>
       <c r="D111" s="214"/>
-      <c r="E111" s="132"/>
-      <c r="F111" s="133"/>
+      <c r="E111" s="129"/>
+      <c r="F111" s="130"/>
       <c r="L111" s="103"/>
       <c r="M111" s="11"/>
     </row>
@@ -33626,8 +33629,8 @@
       <c r="B112" s="13"/>
       <c r="C112" s="213"/>
       <c r="D112" s="214"/>
-      <c r="E112" s="132"/>
-      <c r="F112" s="133"/>
+      <c r="E112" s="129"/>
+      <c r="F112" s="130"/>
       <c r="L112" s="103"/>
       <c r="M112" s="11"/>
     </row>
@@ -33635,8 +33638,8 @@
       <c r="B113" s="13"/>
       <c r="C113" s="211"/>
       <c r="D113" s="212"/>
-      <c r="E113" s="140"/>
-      <c r="F113" s="133"/>
+      <c r="E113" s="137"/>
+      <c r="F113" s="130"/>
       <c r="L113" s="103"/>
       <c r="M113" s="11"/>
     </row>
@@ -33689,112 +33692,122 @@
       <c r="M119" s="11"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B120" s="71"/>
-      <c r="C120" s="72"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="72"/>
-      <c r="K120" s="72"/>
-      <c r="L120" s="72"/>
-      <c r="M120" s="11"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="75"/>
+      <c r="E120" s="75"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="75"/>
+      <c r="H120" s="75"/>
+      <c r="I120" s="75"/>
+      <c r="J120" s="75"/>
+      <c r="K120" s="75"/>
+      <c r="L120" s="75"/>
+      <c r="M120" s="77"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B121" s="71"/>
-      <c r="I121" s="114"/>
-      <c r="M121" s="11"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="109"/>
+      <c r="D121" s="115"/>
+      <c r="E121" s="115"/>
+      <c r="F121" s="116"/>
+      <c r="G121" s="115"/>
+      <c r="H121" s="115"/>
+      <c r="I121" s="115"/>
+      <c r="J121" s="115"/>
+      <c r="K121" s="115"/>
+      <c r="L121" s="115"/>
+      <c r="M121" s="77"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B122" s="13"/>
-      <c r="C122" s="74"/>
-      <c r="D122" s="75"/>
-      <c r="E122" s="75"/>
-      <c r="F122" s="76"/>
-      <c r="G122" s="75"/>
-      <c r="H122" s="75"/>
-      <c r="I122" s="75"/>
-      <c r="J122" s="75"/>
-      <c r="K122" s="75"/>
-      <c r="L122" s="75"/>
-      <c r="M122" s="77"/>
+    <row r="122" spans="1:14" s="82" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="78"/>
+      <c r="B122" s="79"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="81"/>
+      <c r="E122" s="81"/>
+      <c r="F122" s="81"/>
+      <c r="G122" s="81"/>
+      <c r="H122" s="81"/>
+      <c r="I122" s="81"/>
+      <c r="J122" s="81"/>
+      <c r="K122" s="72"/>
+      <c r="L122" s="72"/>
+      <c r="M122" s="11"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B123" s="13"/>
-      <c r="C123" s="109"/>
-      <c r="D123" s="115"/>
-      <c r="E123" s="115"/>
-      <c r="F123" s="116"/>
-      <c r="G123" s="115"/>
-      <c r="H123" s="115"/>
-      <c r="I123" s="115"/>
-      <c r="J123" s="115"/>
-      <c r="K123" s="115"/>
-      <c r="L123" s="115"/>
-      <c r="M123" s="77"/>
+    <row r="123" spans="1:14" s="82" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="83"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="11"/>
     </row>
     <row r="124" spans="1:14" s="82" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="78"/>
-      <c r="B124" s="79"/>
-      <c r="C124" s="80"/>
-      <c r="D124" s="81"/>
-      <c r="E124" s="81"/>
-      <c r="F124" s="81"/>
-      <c r="G124" s="81"/>
-      <c r="H124" s="81"/>
-      <c r="I124" s="81"/>
-      <c r="J124" s="81"/>
-      <c r="K124" s="72"/>
-      <c r="L124" s="72"/>
-      <c r="M124" s="11"/>
+      <c r="B124" s="83"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="117"/>
     </row>
-    <row r="125" spans="1:14" s="82" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="83"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="11"/>
+    <row r="125" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="B125" s="84"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
+      <c r="K125" s="118"/>
+      <c r="M125" s="117"/>
+      <c r="N125" s="85"/>
     </row>
-    <row r="126" spans="1:14" s="82" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="83"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
+      <c r="C126" s="119"/>
+      <c r="D126" s="102"/>
+      <c r="E126" s="102"/>
+      <c r="F126" s="102"/>
+      <c r="G126" s="102"/>
+      <c r="H126" s="102"/>
+      <c r="I126" s="102"/>
       <c r="M126" s="117"/>
     </row>
-    <row r="127" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B127" s="84"/>
-      <c r="D127" s="85"/>
-      <c r="E127" s="85"/>
-      <c r="F127" s="85"/>
-      <c r="G127" s="85"/>
-      <c r="H127" s="85"/>
-      <c r="I127" s="85"/>
-      <c r="J127" s="85"/>
-      <c r="K127" s="118"/>
+    <row r="127" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="86"/>
+      <c r="C127" s="119"/>
+      <c r="D127" s="120"/>
+      <c r="E127" s="120"/>
+      <c r="F127" s="120"/>
+      <c r="G127" s="120"/>
+      <c r="H127" s="120"/>
+      <c r="I127" s="120"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
       <c r="M127" s="117"/>
-      <c r="N127" s="85"/>
     </row>
     <row r="128" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="83"/>
-      <c r="C128" s="119"/>
+      <c r="B128" s="13"/>
       <c r="D128" s="102"/>
       <c r="E128" s="102"/>
-      <c r="F128" s="102"/>
+      <c r="F128" s="102" t="s">
+        <v>85</v>
+      </c>
       <c r="G128" s="102"/>
       <c r="H128" s="102"/>
-      <c r="I128" s="102"/>
+      <c r="I128" s="121"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
       <c r="M128" s="117"/>
     </row>
     <row r="129" spans="2:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="86"/>
-      <c r="C129" s="119"/>
-      <c r="D129" s="120"/>
-      <c r="E129" s="120"/>
-      <c r="F129" s="120"/>
-      <c r="G129" s="120"/>
-      <c r="H129" s="120"/>
-      <c r="I129" s="120"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="122"/>
+      <c r="D129" s="102"/>
+      <c r="E129" s="102"/>
+      <c r="F129" s="102"/>
+      <c r="G129" s="102"/>
+      <c r="H129" s="102"/>
+      <c r="I129" s="121"/>
       <c r="J129"/>
       <c r="K129"/>
       <c r="L129"/>
@@ -33802,69 +33815,40 @@
     </row>
     <row r="130" spans="2:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13"/>
+      <c r="C130" s="122"/>
       <c r="D130" s="102"/>
       <c r="E130" s="102"/>
-      <c r="F130" s="102" t="s">
-        <v>85</v>
-      </c>
+      <c r="F130" s="102"/>
       <c r="G130" s="102"/>
       <c r="H130" s="102"/>
-      <c r="I130" s="121"/>
+      <c r="I130" s="123"/>
       <c r="J130"/>
       <c r="K130"/>
       <c r="L130"/>
       <c r="M130" s="117"/>
     </row>
     <row r="131" spans="2:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="13"/>
-      <c r="C131" s="122"/>
-      <c r="D131" s="102"/>
-      <c r="E131" s="102"/>
-      <c r="F131" s="102"/>
-      <c r="G131" s="102"/>
-      <c r="H131" s="102"/>
-      <c r="I131" s="121"/>
-      <c r="J131"/>
-      <c r="K131"/>
-      <c r="L131"/>
-      <c r="M131" s="117"/>
+      <c r="B131" s="87"/>
+      <c r="C131" s="88"/>
+      <c r="D131" s="89"/>
+      <c r="E131" s="89"/>
+      <c r="F131" s="89"/>
+      <c r="G131" s="89"/>
+      <c r="H131" s="89"/>
+      <c r="I131" s="89"/>
+      <c r="J131" s="124"/>
+      <c r="K131" s="124"/>
+      <c r="L131" s="124"/>
+      <c r="M131" s="125"/>
     </row>
-    <row r="132" spans="2:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="13"/>
-      <c r="C132" s="122"/>
-      <c r="D132" s="102"/>
-      <c r="E132" s="102"/>
-      <c r="F132" s="102"/>
-      <c r="G132" s="102"/>
-      <c r="H132" s="102"/>
-      <c r="I132" s="123"/>
-      <c r="J132"/>
-      <c r="K132"/>
-      <c r="L132"/>
-      <c r="M132" s="117"/>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C133" s="90"/>
     </row>
-    <row r="133" spans="2:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="87"/>
-      <c r="C133" s="88"/>
-      <c r="D133" s="89"/>
-      <c r="E133" s="89"/>
-      <c r="F133" s="89"/>
-      <c r="G133" s="89"/>
-      <c r="H133" s="89"/>
-      <c r="I133" s="89"/>
-      <c r="J133" s="124"/>
-      <c r="K133" s="124"/>
-      <c r="L133" s="124"/>
-      <c r="M133" s="125"/>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C134" s="90"/>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C135" s="90"/>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C136" s="90"/>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C137" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="71">

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C37AE0-7E14-464A-BF72-1791FFBC8731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669BCFA9-3421-4EB8-BAF1-E1F861BE98B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10770" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
   </bookViews>
   <sheets>
     <sheet name="5_Diario" sheetId="5" r:id="rId1"/>
@@ -117,10 +117,12 @@
     <definedName name="DIARIO">#REF!</definedName>
     <definedName name="Firmas">INDEX('[6]DATOS CORREOS'!$L$2:$L$9,MATCH(#REF!,'[6]DATOS CORREOS'!$K$2:$K$9,0))</definedName>
     <definedName name="GasNaturalAsociado_Items">'5_Diario'!$C$15:$J$16</definedName>
+    <definedName name="GasNaturalSeco_Items">'5_Diario'!$C$28:$H$29</definedName>
     <definedName name="GGG">#REF!</definedName>
     <definedName name="HORARIO">#REF!</definedName>
     <definedName name="HORAS">#REF!</definedName>
     <definedName name="INVROMT">#REF!</definedName>
+    <definedName name="LiquidosGasNaturalProduccionVentas_Items">'5_Diario'!$C$38:$I$39</definedName>
     <definedName name="MAR">#REF!</definedName>
     <definedName name="MARCIANITO">#REF!</definedName>
     <definedName name="MARCIANITO20">#REF!</definedName>
@@ -184,6 +186,14 @@
     <definedName name="TTRC">#REF!</definedName>
     <definedName name="VAR">#REF!</definedName>
     <definedName name="VENTAS">#REF!</definedName>
+    <definedName name="VolumenProduccionEnel_Items">'5_Diario'!$C$73:$E$74</definedName>
+    <definedName name="VolumenProduccionGasNaturalEnel_Items">'5_Diario'!$H$73:$I$74</definedName>
+    <definedName name="VolumenProduccionLiquidoGasNatural_Items">'5_Diario'!$H$80:$K$81</definedName>
+    <definedName name="VolumenProduccionLoteIvLiquidoGasNatural_Items">'5_Diario'!$H$89:$I$90</definedName>
+    <definedName name="VolumenProduccionLoteIvUnnaEnegia_Items">'5_Diario'!$C$89:$E$90</definedName>
+    <definedName name="VolumenProduccionLoteXGnaTotalCnpc_Items">'5_Diario'!$C$66:$E$67</definedName>
+    <definedName name="VolumenProduccionLoteXLiquidoGasNatural_Items">'5_Diario'!$H$65:$J$66</definedName>
+    <definedName name="VolumenProduccionPetroperu_Items">'5_Diario'!$C$80:$F$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -204,10 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
-  <si>
-    <t>TOTAL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
   <si>
     <t>Volumen</t>
   </si>
@@ -482,18 +489,6 @@
     <t>{{Fecha}}</t>
   </si>
   <si>
-    <t>{{Volumen}}</t>
-  </si>
-  <si>
-    <t>{{Calorifico}}</t>
-  </si>
-  <si>
-    <t>{{EnergiaDiaria}}</t>
-  </si>
-  <si>
-    <t>{{VolumenPromedio}}</t>
-  </si>
-  <si>
     <t>{{GasProcesado}}</t>
   </si>
   <si>
@@ -503,88 +498,79 @@
     <t>{{UtilizacionPlantaParinias}}</t>
   </si>
   <si>
-    <t>{{Distribucion}}</t>
-  </si>
-  <si>
     <t>{{EficienciaRecuperacionLgn}}</t>
-  </si>
-  <si>
-    <t>{{Producto}}</t>
-  </si>
-  <si>
-    <t>{{ProduccionDiaria}}</t>
-  </si>
-  <si>
-    <t>{{ProduccionMensual}}</t>
-  </si>
-  <si>
-    <t>{{VentaDiaria}}</t>
-  </si>
-  <si>
-    <t>{{VentaMensual}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionLoteXGnaTotalCnpcNombre}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionLoteXGnaTotalCnpcVolumen}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionLoteXLiquidoGasNaturalNombre}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionLoteXLiquidoGasNaturalVolumen}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionEnelNombre}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionEnelVolumen}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionGasNaturalEnelNombre}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionGasNaturalEnelVolumen}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionPetroperuSuministro}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionPetroperuGnaRecibido}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionPetroperuGnsTrasferido}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionLiquidoGasNaturalProduccion}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionLiquidoGasNaturalLoteZ69}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionLiquidoGasNaturalLoteVi}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionLiquidoGasNaturalLoteI}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionLoteIvUnnaEnegiaNombre}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionLoteIvUnnaEnegiaVolumen}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionLoteIvLiquidoGasNaturalNombre}}</t>
-  </si>
-  <si>
-    <t>{{VolumenProduccionLoteIvLiquidoGasNaturalVolumen}}</t>
   </si>
   <si>
     <t>{{Comentario}}</t>
   </si>
   <si>
     <t>{{item.Lote}}</t>
+  </si>
+  <si>
+    <t>{{item.Volumen}}</t>
+  </si>
+  <si>
+    <t>{{item.Calorifico}}</t>
+  </si>
+  <si>
+    <t>{{item.Riqueza}}</t>
+  </si>
+  <si>
+    <t>{{item.RiquezaBls}}</t>
+  </si>
+  <si>
+    <t>{{item.EnergiaDiaria}}</t>
+  </si>
+  <si>
+    <t>{{item.VolumenPromedio}}</t>
+  </si>
+  <si>
+    <t>{{HoraPlantaFs}}</t>
+  </si>
+  <si>
+    <t>{{item.Distribucion}}</t>
+  </si>
+  <si>
+    <t>{{item.Producto}}</t>
+  </si>
+  <si>
+    <t>{{item.ProduccionDiaria}}</t>
+  </si>
+  <si>
+    <t>{{item.ProduccionMensual}}</t>
+  </si>
+  <si>
+    <t>{{item.VentaDiaria}}</t>
+  </si>
+  <si>
+    <t>{{item.VentaMensual}}</t>
+  </si>
+  <si>
+    <t>{{item.Nombre}}</t>
+  </si>
+  <si>
+    <t>{{item.Suministro}}</t>
+  </si>
+  <si>
+    <t>{{item.GnaRecibido}}</t>
+  </si>
+  <si>
+    <t>{{item.GnsTrasferido}}</t>
+  </si>
+  <si>
+    <t>{{item.Produccion}}</t>
+  </si>
+  <si>
+    <t>{{item.LoteZ69}}</t>
+  </si>
+  <si>
+    <t>{{item.LoteVi}}</t>
+  </si>
+  <si>
+    <t>{{item.LoteI}}</t>
+  </si>
+  <si>
+    <t>{{GasAlfare}}</t>
   </si>
 </sst>
 </file>
@@ -745,18 +731,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -789,7 +769,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1068,17 +1048,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1168,47 +1137,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1431,36 +1359,6 @@
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1629,36 +1527,6 @@
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
@@ -1721,19 +1589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -1789,6 +1644,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
@@ -1801,31 +1695,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="271">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1838,38 +1732,38 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1880,12 +1774,12 @@
     <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1894,7 +1788,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1903,91 +1797,52 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="69" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="61" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1996,39 +1851,39 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2037,13 +1892,13 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2097,9 +1952,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2108,78 +1963,47 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="42" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="44" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="40" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
@@ -2192,52 +2016,43 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2249,7 +2064,7 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2261,19 +2076,7 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2286,88 +2089,217 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="68" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2379,209 +2311,106 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="59" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="45" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2673,7 +2502,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>815837</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>84635</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1510748" cy="986611"/>
@@ -2718,7 +2547,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>404191</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>13252</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2506435" cy="280205"/>
@@ -31714,10 +31543,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X135"/>
+  <dimension ref="A1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L99" sqref="D99:L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -31726,7 +31555,7 @@
     <col min="2" max="2" width="4.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="10" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" style="4" customWidth="1"/>
@@ -31753,126 +31582,126 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="218" t="s">
+      <c r="E1" s="228" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="221" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="222"/>
+      <c r="M1" s="232"/>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
-      <c r="C2" s="98"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="223" t="s">
-        <v>16</v>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="233" t="s">
+        <v>15</v>
       </c>
-      <c r="M2" s="224"/>
+      <c r="M2" s="234"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="98"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
-      <c r="K3" s="219"/>
-      <c r="L3" s="225" t="s">
-        <v>17</v>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="235" t="s">
+        <v>16</v>
       </c>
-      <c r="M3" s="226"/>
+      <c r="M3" s="236"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
-      <c r="C4" s="98"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="219"/>
-      <c r="K4" s="219"/>
-      <c r="L4" s="195" t="s">
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="229"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="163" t="s">
         <v>18</v>
-      </c>
-      <c r="M4" s="196" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="197" t="s">
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="164" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="164" t="s">
         <v>20</v>
-      </c>
-      <c r="M5" s="197" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="12" x14ac:dyDescent="0.2">
-      <c r="B6" s="126"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="128"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="115"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
-      <c r="D7" s="99"/>
-      <c r="K7" s="100" t="s">
-        <v>22</v>
+      <c r="D7" s="86"/>
+      <c r="K7" s="87" t="s">
+        <v>21</v>
       </c>
-      <c r="L7" s="194" t="s">
-        <v>89</v>
+      <c r="L7" s="161" t="s">
+        <v>88</v>
       </c>
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
-      <c r="D8" s="99"/>
-      <c r="K8" s="100"/>
+      <c r="D8" s="86"/>
+      <c r="K8" s="87"/>
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="K9" s="100"/>
-      <c r="L9" s="101"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="11"/>
       <c r="P9" s="12"/>
     </row>
@@ -31882,590 +31711,626 @@
     </row>
     <row r="11" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
-      <c r="C11" s="228" t="s">
-        <v>24</v>
+      <c r="C11" s="174" t="s">
+        <v>23</v>
       </c>
-      <c r="D11" s="227"/>
-      <c r="E11" s="227"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="227"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="227"/>
-      <c r="J11" s="229"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="184"/>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="231"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="231"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="231"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="232"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="238"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="238"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="239"/>
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
-      <c r="C13" s="228" t="s">
+      <c r="C13" s="174" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="184"/>
+      <c r="E13" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="229"/>
-      <c r="E13" s="59" t="s">
+      <c r="F13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="G13" s="175" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="175"/>
+      <c r="I13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="227" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="227"/>
-      <c r="I13" s="26" t="s">
-        <v>28</v>
-      </c>
       <c r="J13" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
-      <c r="C14" s="230"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="93" t="s">
-        <v>67</v>
+      <c r="C14" s="237"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="80" t="s">
+        <v>66</v>
       </c>
-      <c r="F14" s="91" t="s">
-        <v>5</v>
+      <c r="F14" s="78" t="s">
+        <v>4</v>
       </c>
-      <c r="G14" s="91" t="s">
-        <v>13</v>
+      <c r="G14" s="78" t="s">
+        <v>12</v>
       </c>
-      <c r="H14" s="91" t="s">
-        <v>71</v>
+      <c r="H14" s="78" t="s">
+        <v>70</v>
       </c>
-      <c r="I14" s="91" t="s">
-        <v>29</v>
+      <c r="I14" s="78" t="s">
+        <v>28</v>
       </c>
-      <c r="J14" s="92" t="s">
-        <v>67</v>
+      <c r="J14" s="79" t="s">
+        <v>66</v>
       </c>
       <c r="M14" s="11"/>
     </row>
     <row r="15" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
-      <c r="C15" s="233" t="s">
-        <v>124</v>
+      <c r="C15" s="209" t="s">
+        <v>94</v>
       </c>
-      <c r="D15" s="234"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="182"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="152" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="151" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="153" t="s">
+        <v>100</v>
+      </c>
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
-      <c r="C16" s="235"/>
-      <c r="D16" s="236"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="186"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="157"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="186"/>
-      <c r="M17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="M17" s="11"/>
+      <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
-      <c r="C18" s="235"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="186"/>
-      <c r="M18" s="18"/>
+      <c r="C18" s="213" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="145" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="240" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="240"/>
+      <c r="J18" s="159" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="89"/>
+      <c r="M18" s="11"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="20"/>
     </row>
-    <row r="19" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
-      <c r="C19" s="235"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="186"/>
-      <c r="M19" s="18"/>
-      <c r="O19" s="19"/>
+      <c r="C19" s="213" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="145" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="20"/>
     </row>
-    <row r="20" spans="2:16" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
-      <c r="C20" s="237" t="s">
-        <v>0</v>
+      <c r="C20" s="214" t="s">
+        <v>32</v>
       </c>
-      <c r="D20" s="238"/>
-      <c r="E20" s="187">
-        <f>SUM(E15:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="188" t="e">
-        <f>+ROUND(SUMPRODUCT(E15:E19,F15:F19)/SUM(E15:E19),2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="189" t="e">
-        <f>+SUMPRODUCT(E15:E19,G15:G19)/SUM(E15:E19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="189" t="e">
-        <f>+SUMPRODUCT(E15:E19,H15:H19)/SUM(E15:E19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="188">
-        <f>SUM(I15:I19)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="190">
-        <f>SUM(J15:J19)</f>
-        <v>0</v>
+      <c r="D20" s="215"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="160" t="s">
+        <v>91</v>
       </c>
       <c r="M20" s="11"/>
-      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
     </row>
-    <row r="21" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
-      <c r="H21" s="191"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
       <c r="M21" s="11"/>
-      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-      <c r="C22" s="239" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="239"/>
-      <c r="E22" s="239"/>
-      <c r="F22" s="173" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="200" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="200"/>
-      <c r="J22" s="192">
-        <v>0</v>
-      </c>
-      <c r="K22" s="102"/>
-      <c r="M22" s="11"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="20"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
-      <c r="C23" s="239" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="239"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="173" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" s="11"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="20"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
-      <c r="C24" s="240" t="s">
+    <row r="22" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
+      <c r="C22" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="241"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="193" t="s">
-        <v>96</v>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="M22" s="11"/>
+      <c r="P22" s="19"/>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="M23" s="11"/>
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
+      <c r="C24" s="217" t="s">
+        <v>34</v>
       </c>
+      <c r="D24" s="223"/>
+      <c r="E24" s="223"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="224"/>
       <c r="M24" s="11"/>
       <c r="P24" s="19"/>
     </row>
-    <row r="25" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
+      <c r="C25" s="225"/>
+      <c r="D25" s="226"/>
+      <c r="E25" s="226"/>
+      <c r="F25" s="226"/>
+      <c r="G25" s="226"/>
+      <c r="H25" s="227"/>
       <c r="M25" s="11"/>
       <c r="P25" s="19"/>
     </row>
-    <row r="26" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="99" t="s">
-        <v>34</v>
+    <row r="26" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
+      <c r="C26" s="217" t="s">
+        <v>35</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="P26" s="19"/>
     </row>
-    <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
+      <c r="C27" s="219"/>
+      <c r="D27" s="220"/>
+      <c r="E27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="90"/>
       <c r="M27" s="11"/>
       <c r="P27" s="19"/>
     </row>
-    <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="C28" s="203" t="s">
-        <v>35</v>
+      <c r="C28" s="221" t="s">
+        <v>102</v>
       </c>
-      <c r="D28" s="247"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="247"/>
-      <c r="G28" s="247"/>
-      <c r="H28" s="248"/>
+      <c r="D28" s="222"/>
+      <c r="E28" s="141" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="142" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="143" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="90"/>
       <c r="M28" s="11"/>
       <c r="P28" s="19"/>
     </row>
-    <row r="29" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
-      <c r="C29" s="249"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="250"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="251"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="149"/>
+      <c r="L29" s="90"/>
       <c r="M29" s="11"/>
       <c r="P29" s="19"/>
     </row>
-    <row r="30" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
-      <c r="C30" s="203" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="204"/>
-      <c r="E30" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="L30" s="90"/>
       <c r="M30" s="11"/>
       <c r="P30" s="19"/>
     </row>
-    <row r="31" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="243"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="16" t="s">
-        <v>67</v>
+    <row r="31" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="86" t="s">
+        <v>83</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="103"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="L31" s="90"/>
       <c r="M31" s="11"/>
       <c r="P31" s="19"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
-      <c r="C32" s="245" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="246"/>
-      <c r="E32" s="167" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="168" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="169" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="170" t="s">
-        <v>92</v>
-      </c>
-      <c r="L32" s="103"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="L32" s="90"/>
       <c r="M32" s="11"/>
       <c r="P32" s="19"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
-      <c r="C33" s="198"/>
-      <c r="D33" s="199"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="174"/>
-      <c r="L33" s="103"/>
+      <c r="C33" s="263" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="264"/>
+      <c r="E33" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33"/>
+      <c r="L33" s="90"/>
       <c r="M33" s="11"/>
       <c r="P33" s="19"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="174"/>
-      <c r="L34" s="103"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="L34" s="90"/>
       <c r="M34" s="11"/>
       <c r="P34" s="19"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="174"/>
-      <c r="L35" s="103"/>
+      <c r="C35" s="196" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="197"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="205" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="184"/>
+      <c r="L35" s="90"/>
       <c r="M35" s="11"/>
       <c r="P35" s="19"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="199"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="174"/>
-      <c r="L36" s="103"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="90"/>
       <c r="M36" s="11"/>
       <c r="P36" s="19"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="199"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="174"/>
-      <c r="L37" s="103"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="90"/>
       <c r="M37" s="11"/>
       <c r="P37" s="19"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="35"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
-      <c r="C38" s="252"/>
-      <c r="D38" s="253"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="174"/>
-      <c r="L38" s="103"/>
+      <c r="C38" s="185" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="186"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="135" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" s="137" t="s">
+        <v>107</v>
+      </c>
+      <c r="L38" s="90"/>
       <c r="M38" s="11"/>
       <c r="P38" s="19"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="35"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="13"/>
-      <c r="C39" s="252"/>
-      <c r="D39" s="253"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="174"/>
-      <c r="L39" s="103"/>
+    <row r="39" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="140"/>
+      <c r="L39" s="91"/>
       <c r="M39" s="11"/>
-      <c r="P39" s="19"/>
+      <c r="N39" s="36"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:24" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
-      <c r="C40" s="198"/>
-      <c r="D40" s="199"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="174"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="11"/>
-      <c r="P40" s="19"/>
-    </row>
-    <row r="41" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
-      <c r="C41" s="267" t="s">
+      <c r="C40" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39">
+        <f>'[6]2_Líquidos'!G18</f>
+        <v>999.91</v>
+      </c>
+      <c r="F40" s="39">
+        <f>'[6]2_Líquidos'!S$45</f>
+        <v>30111.289999999997</v>
+      </c>
+      <c r="G40" s="39">
+        <f>SUM(H38:H39)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="268"/>
-      <c r="E41" s="175">
-        <f>+SUM(E32:E40)</f>
+      <c r="H40" s="40">
+        <f>SUM(I38:I39)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="176"/>
-      <c r="G41" s="177">
-        <f>+SUM(G32:G40)</f>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="13"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="13"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="2:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="13"/>
+      <c r="C47" s="191" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="192"/>
+      <c r="E47" s="192"/>
+      <c r="F47" s="192"/>
+      <c r="G47" s="192"/>
+      <c r="H47" s="192"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="192"/>
+      <c r="K47" s="192"/>
+      <c r="L47" s="193"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="42"/>
+      <c r="P47" s="19"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="35"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B48" s="13"/>
+      <c r="C48" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" s="11"/>
+      <c r="P48" s="19"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="35"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B49" s="13"/>
+      <c r="C49" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="247" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="248" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="248">
         <v>0</v>
       </c>
-      <c r="H41" s="178">
-        <f>+SUM(H32:H40)</f>
+      <c r="H49" s="248">
         <v>0</v>
       </c>
-      <c r="L41" s="103"/>
-      <c r="M41" s="11"/>
-      <c r="P41" s="19"/>
-    </row>
-    <row r="42" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B42" s="13"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="11"/>
-      <c r="P42" s="19"/>
-    </row>
-    <row r="43" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B43" s="10"/>
-      <c r="C43" s="99" t="s">
-        <v>84</v>
+      <c r="I49" s="248">
+        <v>0</v>
       </c>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="11"/>
-      <c r="P43" s="19"/>
-    </row>
-    <row r="44" spans="2:16" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="13"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="L44" s="103"/>
-      <c r="M44" s="11"/>
-      <c r="P44" s="19"/>
-    </row>
-    <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="269" t="s">
-        <v>38</v>
+      <c r="J49" s="248">
+        <v>0</v>
       </c>
-      <c r="D45" s="270"/>
-      <c r="E45" s="25" t="s">
-        <v>98</v>
+      <c r="K49" s="248">
+        <v>0</v>
       </c>
-      <c r="G45"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="11"/>
-      <c r="P45" s="19"/>
-    </row>
-    <row r="46" spans="2:16" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="L46" s="103"/>
-      <c r="M46" s="11"/>
-      <c r="P46" s="19"/>
-    </row>
-    <row r="47" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="13"/>
-      <c r="C47" s="271" t="s">
-        <v>68</v>
+      <c r="L49" s="249">
+        <f>+COUNTIF(B52:K52,"&gt;1")</f>
+        <v>3</v>
       </c>
-      <c r="D47" s="272"/>
-      <c r="E47" s="273"/>
-      <c r="F47" s="280" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="227"/>
-      <c r="H47" s="227" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="229"/>
-      <c r="L47" s="103"/>
-      <c r="M47" s="11"/>
-      <c r="P47" s="19"/>
-    </row>
-    <row r="48" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="13"/>
-      <c r="C48" s="274"/>
-      <c r="D48" s="275"/>
-      <c r="E48" s="276"/>
-      <c r="F48" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="L48" s="103"/>
-      <c r="M48" s="11"/>
-      <c r="P48" s="19"/>
-    </row>
-    <row r="49" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="13"/>
-      <c r="C49" s="277"/>
-      <c r="D49" s="278"/>
-      <c r="E49" s="279"/>
-      <c r="F49" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="L49" s="103"/>
       <c r="M49" s="11"/>
       <c r="P49" s="19"/>
       <c r="R49" s="33"/>
@@ -32476,26 +32341,36 @@
       <c r="W49" s="34"/>
       <c r="X49" s="35"/>
     </row>
-    <row r="50" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
-      <c r="C50" s="258" t="s">
-        <v>99</v>
+      <c r="C50" s="47" t="s">
+        <v>6</v>
       </c>
-      <c r="D50" s="259"/>
-      <c r="E50" s="260"/>
-      <c r="F50" s="161" t="s">
-        <v>100</v>
+      <c r="D50" s="250" t="s">
+        <v>10</v>
       </c>
-      <c r="G50" s="162" t="s">
-        <v>101</v>
+      <c r="E50" s="251" t="s">
+        <v>10</v>
       </c>
-      <c r="H50" s="162" t="s">
-        <v>102</v>
+      <c r="F50" s="251" t="s">
+        <v>9</v>
       </c>
-      <c r="I50" s="163" t="s">
-        <v>103</v>
+      <c r="G50" s="251">
+        <v>0</v>
       </c>
-      <c r="L50" s="103"/>
+      <c r="H50" s="251">
+        <v>0</v>
+      </c>
+      <c r="I50" s="251">
+        <v>0</v>
+      </c>
+      <c r="J50" s="251">
+        <v>0</v>
+      </c>
+      <c r="K50" s="251">
+        <v>0</v>
+      </c>
+      <c r="L50" s="249"/>
       <c r="M50" s="11"/>
       <c r="P50" s="19"/>
       <c r="R50" s="33"/>
@@ -32506,83 +32381,328 @@
       <c r="W50" s="34"/>
       <c r="X50" s="35"/>
     </row>
-    <row r="51" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
-      <c r="C51" s="261"/>
-      <c r="D51" s="262"/>
-      <c r="E51" s="263"/>
-      <c r="F51" s="164"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="166"/>
-      <c r="L51" s="104"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="36"/>
-    </row>
-    <row r="52" spans="2:24" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="13"/>
-      <c r="C52" s="37" t="s">
-        <v>45</v>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B51" s="13"/>
+      <c r="C51" s="48" t="s">
+        <v>57</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="39">
-        <f>'[6]2_Líquidos'!G18</f>
-        <v>999.91</v>
+      <c r="D51" s="247" t="s">
+        <v>58</v>
       </c>
-      <c r="F52" s="39">
-        <f>'[6]2_Líquidos'!S$45</f>
-        <v>30111.289999999997</v>
+      <c r="E51" s="248" t="s">
+        <v>59</v>
       </c>
-      <c r="G52" s="39">
-        <f>SUM(H50:H51)</f>
+      <c r="F51" s="248" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="248">
         <v>0</v>
       </c>
-      <c r="H52" s="40">
-        <f>SUM(I50:I51)</f>
+      <c r="H51" s="248">
         <v>0</v>
       </c>
-      <c r="M52" s="11"/>
+      <c r="I51" s="248">
+        <v>0</v>
+      </c>
+      <c r="J51" s="248">
+        <v>0</v>
+      </c>
+      <c r="K51" s="248">
+        <v>0</v>
+      </c>
+      <c r="L51" s="249"/>
+      <c r="M51" s="18"/>
+      <c r="P51" s="19"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="35"/>
     </row>
-    <row r="53" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="13"/>
+      <c r="C52" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="252">
+        <v>13552</v>
+      </c>
+      <c r="E52" s="253">
+        <v>12074</v>
+      </c>
+      <c r="F52" s="253">
+        <v>11469</v>
+      </c>
+      <c r="G52" s="253">
+        <v>0</v>
+      </c>
+      <c r="H52" s="253">
+        <v>0</v>
+      </c>
+      <c r="I52" s="253">
+        <v>0</v>
+      </c>
+      <c r="J52" s="253">
+        <v>0</v>
+      </c>
+      <c r="K52" s="253">
+        <v>0</v>
+      </c>
+      <c r="L52" s="254">
+        <f>+SUM(B52:K52)</f>
+        <v>37095</v>
+      </c>
+      <c r="M52" s="18"/>
+      <c r="P52" s="19"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="35"/>
+    </row>
+    <row r="53" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="13"/>
-      <c r="M53" s="11"/>
+      <c r="C53" s="14"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="18"/>
+      <c r="P53" s="19"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="35"/>
     </row>
-    <row r="54" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
+      <c r="C54" s="191" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="192"/>
+      <c r="E54" s="192"/>
+      <c r="F54" s="192"/>
+      <c r="G54" s="192"/>
+      <c r="H54" s="192"/>
+      <c r="I54" s="192"/>
+      <c r="J54" s="192"/>
+      <c r="K54" s="192"/>
+      <c r="L54" s="193"/>
       <c r="M54" s="11"/>
+      <c r="P54" s="19"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="35"/>
     </row>
-    <row r="55" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
-      <c r="M55" s="11"/>
-    </row>
-    <row r="56" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="13"/>
-      <c r="M56" s="11"/>
-    </row>
-    <row r="57" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="13"/>
-      <c r="M57" s="11"/>
-    </row>
-    <row r="58" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="13"/>
-      <c r="M58" s="11"/>
-    </row>
-    <row r="59" spans="2:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="13"/>
-      <c r="C59" s="264" t="s">
+      <c r="C55" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="265"/>
-      <c r="E59" s="265"/>
-      <c r="F59" s="265"/>
-      <c r="G59" s="265"/>
-      <c r="H59" s="265"/>
-      <c r="I59" s="265"/>
-      <c r="J59" s="265"/>
-      <c r="K59" s="265"/>
-      <c r="L59" s="266"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="42"/>
+      <c r="D55" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="K55" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L55" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="M55" s="11"/>
+      <c r="P55" s="19"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="35"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B56" s="13"/>
+      <c r="C56" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="248">
+        <v>0</v>
+      </c>
+      <c r="F56" s="248">
+        <v>0</v>
+      </c>
+      <c r="G56" s="248">
+        <v>0</v>
+      </c>
+      <c r="H56" s="248">
+        <v>0</v>
+      </c>
+      <c r="I56" s="248">
+        <v>0</v>
+      </c>
+      <c r="J56" s="248">
+        <v>0</v>
+      </c>
+      <c r="K56" s="248">
+        <v>0</v>
+      </c>
+      <c r="L56" s="249">
+        <f>+COUNTIF(B59:K59,"&gt;1")</f>
+        <v>1</v>
+      </c>
+      <c r="M56" s="11"/>
+      <c r="P56" s="19"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="35"/>
+    </row>
+    <row r="57" spans="2:24" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B57" s="13"/>
+      <c r="C57" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="250" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="251">
+        <v>0</v>
+      </c>
+      <c r="F57" s="251">
+        <v>0</v>
+      </c>
+      <c r="G57" s="251">
+        <v>0</v>
+      </c>
+      <c r="H57" s="251">
+        <v>0</v>
+      </c>
+      <c r="I57" s="251">
+        <v>0</v>
+      </c>
+      <c r="J57" s="251">
+        <v>0</v>
+      </c>
+      <c r="K57" s="251">
+        <v>0</v>
+      </c>
+      <c r="L57" s="249"/>
+      <c r="M57" s="11"/>
+      <c r="P57" s="19"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="35"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B58" s="13"/>
+      <c r="C58" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="247" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="248">
+        <v>0</v>
+      </c>
+      <c r="F58" s="248">
+        <v>0</v>
+      </c>
+      <c r="G58" s="248">
+        <v>0</v>
+      </c>
+      <c r="H58" s="248">
+        <v>0</v>
+      </c>
+      <c r="I58" s="248">
+        <v>0</v>
+      </c>
+      <c r="J58" s="248">
+        <v>0</v>
+      </c>
+      <c r="K58" s="248">
+        <v>0</v>
+      </c>
+      <c r="L58" s="249"/>
+      <c r="M58" s="18"/>
+      <c r="P58" s="19"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="35"/>
+    </row>
+    <row r="59" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="13"/>
+      <c r="C59" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="252">
+        <v>13748</v>
+      </c>
+      <c r="E59" s="253">
+        <v>0</v>
+      </c>
+      <c r="F59" s="253">
+        <v>0</v>
+      </c>
+      <c r="G59" s="253">
+        <v>0</v>
+      </c>
+      <c r="H59" s="253">
+        <v>0</v>
+      </c>
+      <c r="I59" s="253">
+        <v>0</v>
+      </c>
+      <c r="J59" s="253">
+        <v>0</v>
+      </c>
+      <c r="K59" s="253">
+        <v>0</v>
+      </c>
+      <c r="L59" s="254">
+        <f>+SUM(B59:K59)</f>
+        <v>13748</v>
+      </c>
+      <c r="M59" s="18"/>
       <c r="P59" s="19"/>
       <c r="R59" s="33"/>
       <c r="S59" s="34"/>
@@ -32594,37 +32714,11 @@
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
-      <c r="C60" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="H60" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I60" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="J60" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="K60" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="L60" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="M60" s="11"/>
+      <c r="C60" s="14"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="18"/>
       <c r="P60" s="19"/>
       <c r="R60" s="33"/>
       <c r="S60" s="34"/>
@@ -32635,1271 +32729,684 @@
       <c r="X60" s="35"/>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B61" s="13"/>
-      <c r="C61" s="47" t="s">
-        <v>57</v>
+      <c r="B61" s="10"/>
+      <c r="C61" s="86" t="s">
+        <v>78</v>
       </c>
-      <c r="D61" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="49">
-        <v>0</v>
-      </c>
-      <c r="H61" s="49">
-        <v>0</v>
-      </c>
-      <c r="I61" s="49">
-        <v>0</v>
-      </c>
-      <c r="J61" s="49">
-        <v>0</v>
-      </c>
-      <c r="K61" s="49">
-        <v>0</v>
-      </c>
-      <c r="L61" s="50">
-        <f>+COUNTIF(B64:K64,"&gt;1")</f>
-        <v>3</v>
-      </c>
-      <c r="M61" s="11"/>
-      <c r="P61" s="19"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="34"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="34"/>
-      <c r="X61" s="35"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="36"/>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B62" s="13"/>
-      <c r="C62" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="52">
-        <v>0</v>
-      </c>
-      <c r="H62" s="52">
-        <v>0</v>
-      </c>
-      <c r="I62" s="52">
-        <v>0</v>
-      </c>
-      <c r="J62" s="52">
-        <v>0</v>
-      </c>
-      <c r="K62" s="52">
-        <v>0</v>
-      </c>
-      <c r="L62" s="53"/>
+    <row r="62" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="C62" s="14"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
       <c r="M62" s="11"/>
-      <c r="P62" s="19"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="35"/>
+      <c r="N62" s="36"/>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
-      <c r="C63" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" s="49">
-        <v>0</v>
-      </c>
-      <c r="H63" s="49">
-        <v>0</v>
-      </c>
-      <c r="I63" s="49">
-        <v>0</v>
-      </c>
-      <c r="J63" s="49">
-        <v>0</v>
-      </c>
-      <c r="K63" s="49">
-        <v>0</v>
-      </c>
-      <c r="L63" s="53"/>
-      <c r="M63" s="18"/>
-      <c r="P63" s="19"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="35"/>
-    </row>
-    <row r="64" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="13"/>
-      <c r="C64" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="56">
-        <v>13552</v>
-      </c>
-      <c r="E64" s="57">
-        <v>12074</v>
-      </c>
-      <c r="F64" s="57">
-        <v>11469</v>
-      </c>
-      <c r="G64" s="57">
-        <v>0</v>
-      </c>
-      <c r="H64" s="57">
-        <v>0</v>
-      </c>
-      <c r="I64" s="57">
-        <v>0</v>
-      </c>
-      <c r="J64" s="57">
-        <v>0</v>
-      </c>
-      <c r="K64" s="57">
-        <v>0</v>
-      </c>
-      <c r="L64" s="58">
-        <f>+SUM(B64:K64)</f>
-        <v>37095</v>
-      </c>
-      <c r="M64" s="18"/>
-      <c r="P64" s="19"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="34"/>
-      <c r="X64" s="35"/>
-    </row>
-    <row r="65" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="L65" s="103"/>
-      <c r="M65" s="18"/>
-      <c r="P65" s="19"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="35"/>
-    </row>
-    <row r="66" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="13"/>
-      <c r="C66" s="264" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="265"/>
-      <c r="E66" s="265"/>
-      <c r="F66" s="265"/>
-      <c r="G66" s="265"/>
-      <c r="H66" s="265"/>
-      <c r="I66" s="265"/>
-      <c r="J66" s="265"/>
-      <c r="K66" s="265"/>
-      <c r="L66" s="266"/>
-      <c r="M66" s="11"/>
-      <c r="P66" s="19"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="35"/>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B67" s="13"/>
-      <c r="C67" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G67" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="H67" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I67" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="J67" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="K67" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="L67" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="M67" s="11"/>
-      <c r="P67" s="19"/>
-      <c r="R67" s="33"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="34"/>
-      <c r="V67" s="34"/>
-      <c r="W67" s="34"/>
-      <c r="X67" s="35"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B68" s="13"/>
-      <c r="C68" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="49">
-        <v>0</v>
-      </c>
-      <c r="F68" s="49">
-        <v>0</v>
-      </c>
-      <c r="G68" s="49">
-        <v>0</v>
-      </c>
-      <c r="H68" s="49">
-        <v>0</v>
-      </c>
-      <c r="I68" s="49">
-        <v>0</v>
-      </c>
-      <c r="J68" s="49">
-        <v>0</v>
-      </c>
-      <c r="K68" s="49">
-        <v>0</v>
-      </c>
-      <c r="L68" s="50">
-        <f>+COUNTIF(B71:K71,"&gt;1")</f>
-        <v>1</v>
-      </c>
-      <c r="M68" s="11"/>
-      <c r="P68" s="19"/>
-      <c r="R68" s="33"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="34"/>
-      <c r="W68" s="34"/>
-      <c r="X68" s="35"/>
-    </row>
-    <row r="69" spans="2:24" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="13"/>
-      <c r="C69" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="52">
-        <v>0</v>
-      </c>
-      <c r="F69" s="52">
-        <v>0</v>
-      </c>
-      <c r="G69" s="52">
-        <v>0</v>
-      </c>
-      <c r="H69" s="52">
-        <v>0</v>
-      </c>
-      <c r="I69" s="52">
-        <v>0</v>
-      </c>
-      <c r="J69" s="52">
-        <v>0</v>
-      </c>
-      <c r="K69" s="52">
-        <v>0</v>
-      </c>
-      <c r="L69" s="53"/>
-      <c r="M69" s="11"/>
-      <c r="P69" s="19"/>
-      <c r="R69" s="33"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="35"/>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B70" s="13"/>
-      <c r="C70" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" s="48" t="s">
+      <c r="C63" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="49">
-        <v>0</v>
+      <c r="D63" s="177"/>
+      <c r="E63" s="178"/>
+      <c r="F63" s="14"/>
+      <c r="H63" s="206" t="s">
+        <v>67</v>
       </c>
-      <c r="F70" s="49">
-        <v>0</v>
+      <c r="I63" s="207"/>
+      <c r="J63" s="208"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="36"/>
+    </row>
+    <row r="64" spans="2:24" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B64" s="13"/>
+      <c r="C64" s="217" t="s">
+        <v>24</v>
       </c>
-      <c r="G70" s="49">
-        <v>0</v>
+      <c r="D64" s="218"/>
+      <c r="E64" s="23" t="s">
+        <v>25</v>
       </c>
-      <c r="H70" s="49">
-        <v>0</v>
+      <c r="H64" s="182" t="s">
+        <v>74</v>
       </c>
-      <c r="I70" s="49">
-        <v>0</v>
+      <c r="I64" s="183"/>
+      <c r="J64" s="27" t="s">
+        <v>77</v>
       </c>
-      <c r="J70" s="49">
-        <v>0</v>
+      <c r="K64" s="14"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="36"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="13"/>
+      <c r="C65" s="243"/>
+      <c r="D65" s="244"/>
+      <c r="E65" s="17" t="s">
+        <v>66</v>
       </c>
-      <c r="K70" s="49">
-        <v>0</v>
+      <c r="H65" s="257" t="s">
+        <v>108</v>
       </c>
-      <c r="L70" s="53"/>
-      <c r="M70" s="18"/>
-      <c r="P70" s="19"/>
-      <c r="R70" s="33"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="34"/>
-      <c r="W70" s="34"/>
-      <c r="X70" s="35"/>
+      <c r="I65" s="258"/>
+      <c r="J65" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65" s="93"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="36"/>
     </row>
-    <row r="71" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="13"/>
-      <c r="C71" s="55" t="s">
-        <v>1</v>
+    <row r="66" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="13"/>
+      <c r="C66" s="265" t="s">
+        <v>108</v>
       </c>
-      <c r="D71" s="56">
-        <v>13748</v>
+      <c r="D66" s="268"/>
+      <c r="E66" s="130" t="s">
+        <v>95</v>
       </c>
-      <c r="E71" s="57">
-        <v>0</v>
-      </c>
-      <c r="F71" s="57">
-        <v>0</v>
-      </c>
-      <c r="G71" s="57">
-        <v>0</v>
-      </c>
-      <c r="H71" s="57">
-        <v>0</v>
-      </c>
-      <c r="I71" s="57">
-        <v>0</v>
-      </c>
-      <c r="J71" s="57">
-        <v>0</v>
-      </c>
-      <c r="K71" s="57">
-        <v>0</v>
-      </c>
-      <c r="L71" s="58">
-        <f>+SUM(B71:K71)</f>
-        <v>13748</v>
-      </c>
-      <c r="M71" s="18"/>
-      <c r="P71" s="19"/>
-      <c r="R71" s="33"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="34"/>
-      <c r="W71" s="34"/>
-      <c r="X71" s="35"/>
+      <c r="H66" s="259"/>
+      <c r="I66" s="260"/>
+      <c r="J66" s="132"/>
+      <c r="K66" s="133"/>
+      <c r="L66" s="90"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="36"/>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B72" s="13"/>
-      <c r="C72" s="14"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="105"/>
-      <c r="L72" s="103"/>
-      <c r="M72" s="18"/>
-      <c r="P72" s="19"/>
-      <c r="R72" s="33"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="34"/>
-      <c r="W72" s="34"/>
-      <c r="X72" s="35"/>
+    <row r="67" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="13"/>
+      <c r="C67" s="266"/>
+      <c r="D67" s="267"/>
+      <c r="E67" s="130"/>
+      <c r="H67" s="261"/>
+      <c r="I67" s="261"/>
+      <c r="J67" s="262"/>
+      <c r="K67" s="133"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="36"/>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B73" s="10"/>
-      <c r="C73" s="99" t="s">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B68" s="13"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="134"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="95"/>
+      <c r="J68" s="96"/>
+      <c r="K68" s="133"/>
+      <c r="L68" s="90"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="36"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B69" s="10"/>
+      <c r="C69" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="E73" s="105"/>
-      <c r="F73" s="105"/>
-      <c r="M73" s="18"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="36"/>
+    </row>
+    <row r="70" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="10"/>
+      <c r="C70" s="86"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="36"/>
+    </row>
+    <row r="71" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="13"/>
+      <c r="C71" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="170"/>
+      <c r="E71" s="171"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="165" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71" s="166"/>
+      <c r="J71" s="81"/>
+      <c r="L71" s="90"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="36"/>
+      <c r="P71" s="51"/>
+    </row>
+    <row r="72" spans="2:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="13"/>
+      <c r="C72" s="174" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="175"/>
+      <c r="E72" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="51"/>
+      <c r="H72" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="90"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="36"/>
+    </row>
+    <row r="73" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="13"/>
+      <c r="C73" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="173"/>
+      <c r="E73" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="117"/>
+      <c r="H73" s="255" t="s">
+        <v>108</v>
+      </c>
+      <c r="I73" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="J73" s="82"/>
+      <c r="K73" s="82"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="11"/>
       <c r="N73" s="36"/>
     </row>
-    <row r="74" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="10"/>
-      <c r="C74" s="14"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
+    <row r="74" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="13"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="168"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="117"/>
+      <c r="H74" s="256"/>
+      <c r="I74" s="256"/>
+      <c r="L74" s="90"/>
       <c r="M74" s="11"/>
-      <c r="N74" s="36"/>
     </row>
-    <row r="75" spans="2:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
-      <c r="C75" s="215" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="216"/>
-      <c r="E75" s="217"/>
-      <c r="F75" s="14"/>
-      <c r="H75" s="281" t="s">
-        <v>68</v>
-      </c>
-      <c r="I75" s="282"/>
-      <c r="J75" s="283"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="103"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="L75" s="90"/>
       <c r="M75" s="11"/>
       <c r="N75" s="36"/>
     </row>
-    <row r="76" spans="2:24" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B76" s="13"/>
-      <c r="C76" s="203" t="s">
-        <v>25</v>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B76" s="10"/>
+      <c r="C76" s="86" t="s">
+        <v>80</v>
       </c>
-      <c r="D76" s="204"/>
-      <c r="E76" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="254" t="s">
-        <v>75</v>
-      </c>
-      <c r="I76" s="255"/>
-      <c r="J76" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K76" s="14"/>
-      <c r="L76" s="103"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="96"/>
+      <c r="L76" s="90"/>
       <c r="M76" s="11"/>
       <c r="N76" s="36"/>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="13"/>
-      <c r="C77" s="205"/>
-      <c r="D77" s="206"/>
-      <c r="E77" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H77" s="256" t="s">
-        <v>106</v>
-      </c>
-      <c r="I77" s="257"/>
-      <c r="J77" s="157" t="s">
-        <v>107</v>
-      </c>
-      <c r="K77" s="106"/>
-      <c r="L77" s="103"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="L77" s="90"/>
       <c r="M77" s="11"/>
       <c r="N77" s="36"/>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B78" s="13"/>
-      <c r="C78" s="60" t="s">
-        <v>104</v>
+      <c r="C78" s="176" t="s">
+        <v>69</v>
       </c>
-      <c r="D78" s="61"/>
-      <c r="E78" s="156" t="s">
-        <v>105</v>
+      <c r="D78" s="177"/>
+      <c r="E78" s="177"/>
+      <c r="F78" s="178"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="179" t="s">
+        <v>76</v>
       </c>
-      <c r="H78" s="256"/>
-      <c r="I78" s="257"/>
-      <c r="J78" s="157"/>
-      <c r="K78" s="106"/>
-      <c r="L78" s="103"/>
+      <c r="I78" s="180"/>
+      <c r="J78" s="180"/>
+      <c r="K78" s="181"/>
+      <c r="L78" s="90"/>
       <c r="M78" s="11"/>
       <c r="N78" s="36"/>
+      <c r="P78" s="51"/>
     </row>
-    <row r="79" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="155"/>
-      <c r="H79" s="284"/>
-      <c r="I79" s="285"/>
-      <c r="J79" s="158"/>
-      <c r="K79" s="159"/>
-      <c r="L79" s="103"/>
+      <c r="C79" s="245" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="246"/>
+      <c r="E79" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="H79" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="K79" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="L79" s="90"/>
       <c r="M79" s="11"/>
       <c r="N79" s="36"/>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="107"/>
-      <c r="E80" s="160"/>
-      <c r="H80" s="108"/>
-      <c r="I80" s="108"/>
-      <c r="J80" s="109"/>
-      <c r="K80" s="159"/>
-      <c r="L80" s="103"/>
+      <c r="C80" s="172" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" s="173"/>
+      <c r="E80" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="F80" s="123" t="s">
+        <v>111</v>
+      </c>
+      <c r="H80" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="I80" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="J80" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="K80" s="125" t="s">
+        <v>115</v>
+      </c>
+      <c r="L80" s="90"/>
       <c r="M80" s="11"/>
       <c r="N80" s="36"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B81" s="10"/>
-      <c r="C81" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="E81" s="105"/>
-      <c r="F81" s="105"/>
-      <c r="M81" s="18"/>
+    <row r="81" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="13"/>
+      <c r="C81" s="269"/>
+      <c r="D81" s="270"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="127"/>
+      <c r="H81" s="126"/>
+      <c r="I81" s="127"/>
+      <c r="J81" s="127"/>
+      <c r="K81" s="128"/>
+      <c r="L81" s="90"/>
+      <c r="M81" s="11"/>
       <c r="N81" s="36"/>
     </row>
-    <row r="82" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="10"/>
-      <c r="C82" s="99"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="36"/>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B82" s="13"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="96"/>
+      <c r="L82" s="90"/>
+      <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="13"/>
-      <c r="C83" s="286" t="s">
-        <v>72</v>
+      <c r="C83" s="241" t="s">
+        <v>65</v>
       </c>
-      <c r="D83" s="287"/>
-      <c r="E83" s="288"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="289" t="s">
-        <v>68</v>
+      <c r="D83" s="242"/>
+      <c r="E83" s="242"/>
+      <c r="F83" s="57" t="s">
+        <v>116</v>
       </c>
-      <c r="I83" s="290"/>
-      <c r="J83" s="94"/>
-      <c r="L83" s="103"/>
+      <c r="L83" s="90"/>
       <c r="M83" s="11"/>
-      <c r="N83" s="36"/>
-      <c r="P83" s="64"/>
     </row>
-    <row r="84" spans="2:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
-      <c r="C84" s="228" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" s="227"/>
-      <c r="E84" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F84" s="64"/>
-      <c r="H84" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="I84" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="103"/>
+      <c r="L84" s="90"/>
       <c r="M84" s="11"/>
       <c r="N84" s="36"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
     </row>
-    <row r="85" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="13"/>
-      <c r="C85" s="209" t="s">
-        <v>108</v>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B85" s="10"/>
+      <c r="C85" s="86" t="s">
+        <v>81</v>
       </c>
-      <c r="D85" s="210"/>
-      <c r="E85" s="150" t="s">
-        <v>109</v>
-      </c>
-      <c r="F85" s="130"/>
-      <c r="H85" s="151" t="s">
-        <v>110</v>
-      </c>
-      <c r="I85" s="152" t="s">
-        <v>111</v>
-      </c>
-      <c r="J85" s="95"/>
-      <c r="K85" s="95"/>
-      <c r="L85" s="103"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="L85" s="90"/>
       <c r="M85" s="11"/>
       <c r="N85" s="36"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="13"/>
-      <c r="C86" s="209"/>
-      <c r="D86" s="210"/>
-      <c r="E86" s="150"/>
-      <c r="F86" s="130"/>
-      <c r="H86" s="151"/>
-      <c r="I86" s="152"/>
-      <c r="J86" s="95"/>
-      <c r="K86" s="95"/>
-      <c r="L86" s="103"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="14"/>
+      <c r="L86" s="90"/>
       <c r="M86" s="11"/>
       <c r="N86" s="36"/>
     </row>
-    <row r="87" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="13"/>
-      <c r="C87" s="209"/>
-      <c r="D87" s="210"/>
-      <c r="E87" s="150"/>
-      <c r="F87" s="130"/>
-      <c r="H87" s="153"/>
-      <c r="I87" s="154"/>
-      <c r="J87" s="95"/>
-      <c r="K87" s="95"/>
-      <c r="L87" s="103"/>
+      <c r="C87" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="170"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="165" t="s">
+        <v>67</v>
+      </c>
+      <c r="I87" s="166"/>
+      <c r="L87" s="90"/>
       <c r="M87" s="11"/>
       <c r="N87" s="36"/>
+      <c r="P87" s="51"/>
     </row>
-    <row r="88" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
-      <c r="C88" s="209"/>
-      <c r="D88" s="210"/>
-      <c r="E88" s="150"/>
-      <c r="F88" s="130"/>
-      <c r="L88" s="103"/>
+      <c r="C88" s="174" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="175"/>
+      <c r="E88" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="51"/>
+      <c r="H88" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="I88" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="90"/>
       <c r="M88" s="11"/>
+      <c r="N88" s="36"/>
     </row>
     <row r="89" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
-      <c r="C89" s="213"/>
-      <c r="D89" s="214"/>
-      <c r="E89" s="150"/>
-      <c r="F89" s="130"/>
-      <c r="L89" s="103"/>
+      <c r="C89" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="173"/>
+      <c r="E89" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" s="117"/>
+      <c r="H89" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="I89" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="J89" s="82"/>
+      <c r="K89" s="82"/>
+      <c r="L89" s="90"/>
       <c r="M89" s="11"/>
+      <c r="N89" s="36"/>
     </row>
     <row r="90" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="13"/>
-      <c r="C90" s="211"/>
-      <c r="D90" s="212"/>
-      <c r="E90" s="155"/>
-      <c r="F90" s="130"/>
-      <c r="L90" s="103"/>
+      <c r="C90" s="172"/>
+      <c r="D90" s="173"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="117"/>
+      <c r="H90" s="120"/>
+      <c r="I90" s="121"/>
+      <c r="J90" s="82"/>
+      <c r="K90" s="82"/>
+      <c r="L90" s="90"/>
       <c r="M90" s="11"/>
+      <c r="N90" s="36"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
-      <c r="L91" s="103"/>
+      <c r="L91" s="34"/>
       <c r="M91" s="11"/>
-      <c r="N91" s="36"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B92" s="10"/>
-      <c r="C92" s="99" t="s">
-        <v>81</v>
+      <c r="C92" s="86" t="s">
+        <v>82</v>
       </c>
-      <c r="D92" s="108"/>
-      <c r="E92" s="109"/>
-      <c r="F92" s="109"/>
-      <c r="L92" s="103"/>
+      <c r="G92" s="97"/>
+      <c r="H92" s="98"/>
+      <c r="I92" s="99"/>
+      <c r="J92" s="100"/>
+      <c r="K92" s="100"/>
       <c r="M92" s="11"/>
-      <c r="N92" s="36"/>
     </row>
-    <row r="93" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="13"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="108"/>
-      <c r="E93" s="109"/>
-      <c r="F93" s="109"/>
-      <c r="L93" s="103"/>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B93" s="58"/>
+      <c r="I93" s="101"/>
       <c r="M93" s="11"/>
-      <c r="N93" s="36"/>
     </row>
-    <row r="94" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="13"/>
-      <c r="C94" s="215" t="s">
-        <v>70</v>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B94" s="58"/>
+      <c r="I94" s="101"/>
+      <c r="M94" s="11"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B95" s="58"/>
+      <c r="C95" s="59" t="s">
+        <v>93</v>
       </c>
-      <c r="D94" s="216"/>
-      <c r="E94" s="216"/>
-      <c r="F94" s="217"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="291" t="s">
-        <v>77</v>
-      </c>
-      <c r="I94" s="292"/>
-      <c r="J94" s="292"/>
-      <c r="K94" s="293"/>
-      <c r="L94" s="103"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="36"/>
-      <c r="P94" s="64"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="60"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="59"/>
+      <c r="M95" s="11"/>
     </row>
-    <row r="95" spans="2:16" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="13"/>
-      <c r="C95" s="207" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="208"/>
-      <c r="E95" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="F95" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="H95" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="I95" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="J95" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="K95" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="L95" s="103"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="36"/>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B96" s="58"/>
+      <c r="I96" s="101"/>
+      <c r="M96" s="11"/>
     </row>
-    <row r="96" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="13"/>
-      <c r="C96" s="209" t="s">
-        <v>112</v>
-      </c>
-      <c r="D96" s="210"/>
-      <c r="E96" s="138" t="s">
-        <v>113</v>
-      </c>
-      <c r="F96" s="139" t="s">
-        <v>114</v>
-      </c>
-      <c r="H96" s="140" t="s">
-        <v>115</v>
-      </c>
-      <c r="I96" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="J96" s="141" t="s">
-        <v>117</v>
-      </c>
-      <c r="K96" s="141" t="s">
-        <v>118</v>
-      </c>
-      <c r="L96" s="103"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="36"/>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B97" s="13"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="62"/>
+      <c r="J97" s="62"/>
+      <c r="K97" s="62"/>
+      <c r="L97" s="62"/>
+      <c r="M97" s="64"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B97" s="13"/>
-      <c r="C97" s="209"/>
-      <c r="D97" s="210"/>
-      <c r="E97" s="138"/>
-      <c r="F97" s="139"/>
-      <c r="H97" s="142"/>
-      <c r="I97" s="143"/>
-      <c r="J97" s="143"/>
-      <c r="K97" s="144"/>
-      <c r="L97" s="103"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="36"/>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B98" s="13"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="102"/>
+      <c r="E98" s="102"/>
+      <c r="F98" s="103"/>
+      <c r="G98" s="102"/>
+      <c r="H98" s="102"/>
+      <c r="I98" s="102"/>
+      <c r="J98" s="102"/>
+      <c r="K98" s="102"/>
+      <c r="L98" s="102"/>
+      <c r="M98" s="64"/>
     </row>
-    <row r="98" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="13"/>
-      <c r="C98" s="209"/>
-      <c r="D98" s="210"/>
-      <c r="E98" s="138"/>
-      <c r="F98" s="139"/>
-      <c r="H98" s="145"/>
-      <c r="I98" s="146"/>
-      <c r="J98" s="146"/>
-      <c r="K98" s="147"/>
-      <c r="L98" s="103"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="36"/>
-    </row>
-    <row r="99" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="13"/>
-      <c r="C99" s="211"/>
-      <c r="D99" s="212"/>
-      <c r="E99" s="148"/>
-      <c r="F99" s="149"/>
-      <c r="L99" s="103"/>
+    <row r="99" spans="1:14" s="69" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="65"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="68"/>
+      <c r="K99" s="59"/>
+      <c r="L99" s="59"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B100" s="13"/>
-      <c r="C100" s="108"/>
-      <c r="D100" s="108"/>
-      <c r="E100" s="109"/>
-      <c r="F100" s="109"/>
-      <c r="L100" s="103"/>
+    <row r="100" spans="1:14" s="69" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="70"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="13"/>
-      <c r="C101" s="201" t="s">
-        <v>66</v>
+    <row r="101" spans="1:14" s="69" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="70"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="104"/>
+    </row>
+    <row r="102" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="B102" s="71"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="105"/>
+      <c r="M102" s="104"/>
+      <c r="N102" s="72"/>
+    </row>
+    <row r="103" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="70"/>
+      <c r="C103" s="106"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="89"/>
+      <c r="F103" s="89"/>
+      <c r="G103" s="89"/>
+      <c r="H103" s="89"/>
+      <c r="I103" s="89"/>
+      <c r="M103" s="104"/>
+    </row>
+    <row r="104" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="73"/>
+      <c r="C104" s="106"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
+      <c r="F104" s="107"/>
+      <c r="G104" s="107"/>
+      <c r="H104" s="107"/>
+      <c r="I104" s="107"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104" s="104"/>
+    </row>
+    <row r="105" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="13"/>
+      <c r="D105" s="89"/>
+      <c r="E105" s="89"/>
+      <c r="F105" s="89" t="s">
+        <v>84</v>
       </c>
-      <c r="D101" s="202"/>
-      <c r="E101" s="202"/>
-      <c r="F101" s="70" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L101" s="103"/>
-      <c r="M101" s="11"/>
+      <c r="G105" s="89"/>
+      <c r="H105" s="89"/>
+      <c r="I105" s="108"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105" s="104"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B102" s="13"/>
-      <c r="L102" s="103"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="36"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
+    <row r="106" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="13"/>
+      <c r="C106" s="109"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="89"/>
+      <c r="F106" s="89"/>
+      <c r="G106" s="89"/>
+      <c r="H106" s="89"/>
+      <c r="I106" s="108"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106" s="104"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B103" s="10"/>
-      <c r="C103" s="99" t="s">
-        <v>82</v>
-      </c>
-      <c r="D103" s="94"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="L103" s="103"/>
-      <c r="M103" s="11"/>
-      <c r="N103" s="36"/>
+    <row r="107" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="13"/>
+      <c r="C107" s="109"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="89"/>
+      <c r="G107" s="89"/>
+      <c r="H107" s="89"/>
+      <c r="I107" s="110"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107" s="104"/>
     </row>
-    <row r="104" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="13"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="95"/>
-      <c r="F104" s="14"/>
-      <c r="L104" s="103"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="36"/>
+    <row r="108" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="74"/>
+      <c r="C108" s="75"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="111"/>
+      <c r="K108" s="111"/>
+      <c r="L108" s="111"/>
+      <c r="M108" s="112"/>
     </row>
-    <row r="105" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="13"/>
-      <c r="C105" s="286" t="s">
-        <v>30</v>
-      </c>
-      <c r="D105" s="287"/>
-      <c r="E105" s="288"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="289" t="s">
-        <v>68</v>
-      </c>
-      <c r="I105" s="290"/>
-      <c r="L105" s="103"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="36"/>
-      <c r="P105" s="64"/>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C110" s="77"/>
     </row>
-    <row r="106" spans="2:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="13"/>
-      <c r="C106" s="228" t="s">
-        <v>73</v>
-      </c>
-      <c r="D106" s="227"/>
-      <c r="E106" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F106" s="64"/>
-      <c r="H106" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="I106" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="103"/>
-      <c r="M106" s="11"/>
-      <c r="N106" s="36"/>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C111" s="77"/>
     </row>
-    <row r="107" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="13"/>
-      <c r="C107" s="209" t="s">
-        <v>119</v>
-      </c>
-      <c r="D107" s="210"/>
-      <c r="E107" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="F107" s="130"/>
-      <c r="H107" s="131" t="s">
-        <v>121</v>
-      </c>
-      <c r="I107" s="132" t="s">
-        <v>122</v>
-      </c>
-      <c r="J107" s="95"/>
-      <c r="K107" s="95"/>
-      <c r="L107" s="103"/>
-      <c r="M107" s="11"/>
-      <c r="N107" s="36"/>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="13"/>
-      <c r="C108" s="209"/>
-      <c r="D108" s="210"/>
-      <c r="E108" s="129"/>
-      <c r="F108" s="130"/>
-      <c r="H108" s="133"/>
-      <c r="I108" s="134"/>
-      <c r="J108" s="95"/>
-      <c r="K108" s="95"/>
-      <c r="L108" s="103"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="36"/>
-    </row>
-    <row r="109" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="13"/>
-      <c r="C109" s="209"/>
-      <c r="D109" s="210"/>
-      <c r="E109" s="129"/>
-      <c r="F109" s="130"/>
-      <c r="H109" s="135"/>
-      <c r="I109" s="136"/>
-      <c r="J109" s="95"/>
-      <c r="K109" s="95"/>
-      <c r="L109" s="103"/>
-      <c r="M109" s="11"/>
-      <c r="N109" s="36"/>
-    </row>
-    <row r="110" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="13"/>
-      <c r="C110" s="209"/>
-      <c r="D110" s="210"/>
-      <c r="E110" s="129"/>
-      <c r="F110" s="130"/>
-      <c r="L110" s="103"/>
-      <c r="M110" s="11"/>
-    </row>
-    <row r="111" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="13"/>
-      <c r="C111" s="213"/>
-      <c r="D111" s="214"/>
-      <c r="E111" s="129"/>
-      <c r="F111" s="130"/>
-      <c r="L111" s="103"/>
-      <c r="M111" s="11"/>
-    </row>
-    <row r="112" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="13"/>
-      <c r="C112" s="213"/>
-      <c r="D112" s="214"/>
-      <c r="E112" s="129"/>
-      <c r="F112" s="130"/>
-      <c r="L112" s="103"/>
-      <c r="M112" s="11"/>
-    </row>
-    <row r="113" spans="1:14" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="13"/>
-      <c r="C113" s="211"/>
-      <c r="D113" s="212"/>
-      <c r="E113" s="137"/>
-      <c r="F113" s="130"/>
-      <c r="L113" s="103"/>
-      <c r="M113" s="11"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B114" s="13"/>
-      <c r="L114" s="34"/>
-      <c r="M114" s="11"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B115" s="10"/>
-      <c r="C115" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="G115" s="110"/>
-      <c r="H115" s="111"/>
-      <c r="I115" s="112"/>
-      <c r="J115" s="113"/>
-      <c r="K115" s="113"/>
-      <c r="M115" s="11"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B116" s="71"/>
-      <c r="I116" s="114"/>
-      <c r="M116" s="11"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B117" s="71"/>
-      <c r="I117" s="114"/>
-      <c r="M117" s="11"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B118" s="71"/>
-      <c r="C118" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="D118" s="72"/>
-      <c r="E118" s="72"/>
-      <c r="F118" s="72"/>
-      <c r="G118" s="72"/>
-      <c r="H118" s="72"/>
-      <c r="I118" s="73"/>
-      <c r="J118" s="72"/>
-      <c r="K118" s="72"/>
-      <c r="L118" s="72"/>
-      <c r="M118" s="11"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B119" s="71"/>
-      <c r="I119" s="114"/>
-      <c r="M119" s="11"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B120" s="13"/>
-      <c r="C120" s="74"/>
-      <c r="D120" s="75"/>
-      <c r="E120" s="75"/>
-      <c r="F120" s="76"/>
-      <c r="G120" s="75"/>
-      <c r="H120" s="75"/>
-      <c r="I120" s="75"/>
-      <c r="J120" s="75"/>
-      <c r="K120" s="75"/>
-      <c r="L120" s="75"/>
-      <c r="M120" s="77"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B121" s="13"/>
-      <c r="C121" s="109"/>
-      <c r="D121" s="115"/>
-      <c r="E121" s="115"/>
-      <c r="F121" s="116"/>
-      <c r="G121" s="115"/>
-      <c r="H121" s="115"/>
-      <c r="I121" s="115"/>
-      <c r="J121" s="115"/>
-      <c r="K121" s="115"/>
-      <c r="L121" s="115"/>
-      <c r="M121" s="77"/>
-    </row>
-    <row r="122" spans="1:14" s="82" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="78"/>
-      <c r="B122" s="79"/>
-      <c r="C122" s="80"/>
-      <c r="D122" s="81"/>
-      <c r="E122" s="81"/>
-      <c r="F122" s="81"/>
-      <c r="G122" s="81"/>
-      <c r="H122" s="81"/>
-      <c r="I122" s="81"/>
-      <c r="J122" s="81"/>
-      <c r="K122" s="72"/>
-      <c r="L122" s="72"/>
-      <c r="M122" s="11"/>
-    </row>
-    <row r="123" spans="1:14" s="82" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="83"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="11"/>
-    </row>
-    <row r="124" spans="1:14" s="82" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="83"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="117"/>
-    </row>
-    <row r="125" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B125" s="84"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="85"/>
-      <c r="I125" s="85"/>
-      <c r="J125" s="85"/>
-      <c r="K125" s="118"/>
-      <c r="M125" s="117"/>
-      <c r="N125" s="85"/>
-    </row>
-    <row r="126" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="83"/>
-      <c r="C126" s="119"/>
-      <c r="D126" s="102"/>
-      <c r="E126" s="102"/>
-      <c r="F126" s="102"/>
-      <c r="G126" s="102"/>
-      <c r="H126" s="102"/>
-      <c r="I126" s="102"/>
-      <c r="M126" s="117"/>
-    </row>
-    <row r="127" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="86"/>
-      <c r="C127" s="119"/>
-      <c r="D127" s="120"/>
-      <c r="E127" s="120"/>
-      <c r="F127" s="120"/>
-      <c r="G127" s="120"/>
-      <c r="H127" s="120"/>
-      <c r="I127" s="120"/>
-      <c r="J127"/>
-      <c r="K127"/>
-      <c r="L127"/>
-      <c r="M127" s="117"/>
-    </row>
-    <row r="128" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="13"/>
-      <c r="D128" s="102"/>
-      <c r="E128" s="102"/>
-      <c r="F128" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="G128" s="102"/>
-      <c r="H128" s="102"/>
-      <c r="I128" s="121"/>
-      <c r="J128"/>
-      <c r="K128"/>
-      <c r="L128"/>
-      <c r="M128" s="117"/>
-    </row>
-    <row r="129" spans="2:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="13"/>
-      <c r="C129" s="122"/>
-      <c r="D129" s="102"/>
-      <c r="E129" s="102"/>
-      <c r="F129" s="102"/>
-      <c r="G129" s="102"/>
-      <c r="H129" s="102"/>
-      <c r="I129" s="121"/>
-      <c r="J129"/>
-      <c r="K129"/>
-      <c r="L129"/>
-      <c r="M129" s="117"/>
-    </row>
-    <row r="130" spans="2:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="13"/>
-      <c r="C130" s="122"/>
-      <c r="D130" s="102"/>
-      <c r="E130" s="102"/>
-      <c r="F130" s="102"/>
-      <c r="G130" s="102"/>
-      <c r="H130" s="102"/>
-      <c r="I130" s="123"/>
-      <c r="J130"/>
-      <c r="K130"/>
-      <c r="L130"/>
-      <c r="M130" s="117"/>
-    </row>
-    <row r="131" spans="2:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="87"/>
-      <c r="C131" s="88"/>
-      <c r="D131" s="89"/>
-      <c r="E131" s="89"/>
-      <c r="F131" s="89"/>
-      <c r="G131" s="89"/>
-      <c r="H131" s="89"/>
-      <c r="I131" s="89"/>
-      <c r="J131" s="124"/>
-      <c r="K131" s="124"/>
-      <c r="L131" s="124"/>
-      <c r="M131" s="125"/>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C133" s="90"/>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C134" s="90"/>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C135" s="90"/>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C112" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="C94:F94"/>
+  <mergeCells count="49">
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C59:L59"/>
-    <mergeCell ref="C66:L66"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C47:E49"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C28:H29"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C63:E63"/>
     <mergeCell ref="E1:K5"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L2:M2"/>
@@ -33907,22 +33414,39 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C11:J12"/>
     <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C24:H25"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C47:L47"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:E37"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="C87:E87"/>
     <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C75:E75"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669BCFA9-3421-4EB8-BAF1-E1F861BE98B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B70BB-D55F-4EC8-8C71-6C6A46AF124A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
   </bookViews>
@@ -549,9 +549,6 @@
     <t>{{item.Nombre}}</t>
   </si>
   <si>
-    <t>{{item.Suministro}}</t>
-  </si>
-  <si>
     <t>{{item.GnaRecibido}}</t>
   </si>
   <si>
@@ -571,6 +568,9 @@
   </si>
   <si>
     <t>{{GasAlfare}}</t>
+  </si>
+  <si>
+    <t>{{item.Suministrador}}</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -1368,21 +1368,6 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1592,34 +1577,6 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -1683,6 +1640,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
@@ -1695,7 +1737,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="270">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1776,10 +1818,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1788,7 +1830,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1800,16 +1842,16 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1830,7 +1872,7 @@
     <xf numFmtId="164" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="61" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="60" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1969,12 +2011,12 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1983,15 +2025,15 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2028,10 +2070,10 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2041,12 +2083,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2098,25 +2134,99 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="58" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="59" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2125,11 +2235,17 @@
     <xf numFmtId="170" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2140,20 +2256,20 @@
     <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2166,6 +2282,69 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2185,11 +2364,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2218,7 +2397,7 @@
     <xf numFmtId="164" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2230,150 +2409,10 @@
     <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="59" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="60" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2382,34 +2421,34 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -31545,8 +31584,8 @@
   </sheetPr>
   <dimension ref="A1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L99" sqref="D99:L99"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -31582,67 +31621,67 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="228" t="s">
+      <c r="E1" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="231" t="s">
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="232"/>
+      <c r="M1" s="218"/>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="85"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="233" t="s">
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="234"/>
+      <c r="M2" s="220"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="85"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="235" t="s">
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="236"/>
+      <c r="M3" s="222"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="85"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="229"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="162" t="s">
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="163" t="s">
+      <c r="M4" s="161" t="s">
         <v>18</v>
       </c>
     </row>
@@ -31650,17 +31689,17 @@
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="230"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="230"/>
-      <c r="L5" s="164" t="s">
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="164" t="s">
+      <c r="M5" s="162" t="s">
         <v>20</v>
       </c>
     </row>
@@ -31684,7 +31723,7 @@
       <c r="K7" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="161" t="s">
+      <c r="L7" s="159" t="s">
         <v>88</v>
       </c>
       <c r="M7" s="11"/>
@@ -31711,46 +31750,46 @@
     </row>
     <row r="11" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="175"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="184"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="210"/>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="238"/>
-      <c r="F12" s="238"/>
-      <c r="G12" s="238"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="238"/>
-      <c r="J12" s="239"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="225"/>
+      <c r="E12" s="225"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="225"/>
+      <c r="H12" s="225"/>
+      <c r="I12" s="225"/>
+      <c r="J12" s="226"/>
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
-      <c r="C13" s="174" t="s">
+      <c r="C13" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="184"/>
+      <c r="D13" s="210"/>
       <c r="E13" s="50" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="175" t="s">
+      <c r="G13" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="175"/>
+      <c r="H13" s="209"/>
       <c r="I13" s="26" t="s">
         <v>27</v>
       </c>
@@ -31761,8 +31800,8 @@
     </row>
     <row r="14" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="239"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="226"/>
       <c r="E14" s="80" t="s">
         <v>66</v>
       </c>
@@ -31785,40 +31824,40 @@
     </row>
     <row r="15" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
-      <c r="C15" s="209" t="s">
+      <c r="C15" s="227" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="210"/>
-      <c r="E15" s="150" t="s">
+      <c r="D15" s="228"/>
+      <c r="E15" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="151" t="s">
+      <c r="F15" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="152" t="s">
+      <c r="G15" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="151" t="s">
+      <c r="H15" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="151" t="s">
+      <c r="I15" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="153" t="s">
+      <c r="J15" s="151" t="s">
         <v>100</v>
       </c>
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="157"/>
+      <c r="C16" s="229"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="155"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -31826,27 +31865,27 @@
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
       <c r="M17" s="11"/>
       <c r="O17" s="19"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
-      <c r="C18" s="213" t="s">
+      <c r="C18" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="213"/>
-      <c r="E18" s="213"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="231"/>
       <c r="F18" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="240" t="s">
+      <c r="H18" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="240"/>
-      <c r="J18" s="159" t="s">
+      <c r="I18" s="189"/>
+      <c r="J18" s="157" t="s">
         <v>101</v>
       </c>
       <c r="K18" s="89"/>
@@ -31856,11 +31895,11 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
-      <c r="C19" s="213" t="s">
+      <c r="C19" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="231"/>
       <c r="F19" s="145" t="s">
         <v>90</v>
       </c>
@@ -31870,12 +31909,12 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
-      <c r="C20" s="214" t="s">
+      <c r="C20" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="216"/>
-      <c r="F20" s="160" t="s">
+      <c r="D20" s="233"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="158" t="s">
         <v>91</v>
       </c>
       <c r="M20" s="11"/>
@@ -31903,7 +31942,7 @@
       <c r="M22" s="11"/>
       <c r="P22" s="19"/>
     </row>
-    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -31915,44 +31954,50 @@
     </row>
     <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
-      <c r="C24" s="217" t="s">
+      <c r="C24" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="224"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="176"/>
       <c r="M24" s="11"/>
       <c r="P24" s="19"/>
     </row>
     <row r="25" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="226"/>
-      <c r="E25" s="226"/>
-      <c r="F25" s="226"/>
-      <c r="G25" s="226"/>
-      <c r="H25" s="227"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
       <c r="M25" s="11"/>
       <c r="P25" s="19"/>
     </row>
     <row r="26" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="217" t="s">
+      <c r="C26" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="218"/>
-      <c r="E26" s="22" t="s">
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="H26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="I26" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="J26" s="23" t="s">
         <v>27</v>
       </c>
       <c r="M26" s="11"/>
@@ -31960,54 +32005,60 @@
     </row>
     <row r="27" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
-      <c r="C27" s="219"/>
-      <c r="D27" s="220"/>
-      <c r="E27" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="C27" s="177"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="182"/>
       <c r="G27" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="24" t="s">
         <v>36</v>
       </c>
       <c r="L27" s="90"/>
       <c r="M27" s="11"/>
       <c r="P27" s="19"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="C28" s="221" t="s">
+      <c r="C28" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="222"/>
-      <c r="E28" s="141" t="s">
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="142" t="s">
+      <c r="H28" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="143" t="s">
+      <c r="I28" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="144" t="s">
+      <c r="J28" s="144" t="s">
         <v>99</v>
       </c>
       <c r="L28" s="90"/>
       <c r="M28" s="11"/>
       <c r="P28" s="19"/>
     </row>
-    <row r="29" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="149"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
       <c r="L29" s="90"/>
       <c r="M29" s="11"/>
       <c r="P29" s="19"/>
@@ -32049,10 +32100,10 @@
     </row>
     <row r="33" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
-      <c r="C33" s="263" t="s">
+      <c r="C33" s="241" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="264"/>
+      <c r="D33" s="242"/>
       <c r="E33" s="25" t="s">
         <v>92</v>
       </c>
@@ -32074,28 +32125,28 @@
     </row>
     <row r="35" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
-      <c r="C35" s="196" t="s">
+      <c r="C35" s="243" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="197"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="205" t="s">
+      <c r="D35" s="244"/>
+      <c r="E35" s="245"/>
+      <c r="F35" s="252" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175" t="s">
+      <c r="G35" s="209"/>
+      <c r="H35" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="184"/>
+      <c r="I35" s="210"/>
       <c r="L35" s="90"/>
       <c r="M35" s="11"/>
       <c r="P35" s="19"/>
     </row>
     <row r="36" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
-      <c r="C36" s="199"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="201"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="247"/>
+      <c r="E36" s="248"/>
       <c r="F36" s="28" t="s">
         <v>40</v>
       </c>
@@ -32114,9 +32165,9 @@
     </row>
     <row r="37" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="204"/>
+      <c r="C37" s="249"/>
+      <c r="D37" s="250"/>
+      <c r="E37" s="251"/>
       <c r="F37" s="31" t="s">
         <v>43</v>
       </c>
@@ -32142,11 +32193,11 @@
     </row>
     <row r="38" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
-      <c r="C38" s="185" t="s">
+      <c r="C38" s="211" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="186"/>
-      <c r="E38" s="187"/>
+      <c r="D38" s="212"/>
+      <c r="E38" s="213"/>
       <c r="F38" s="135" t="s">
         <v>104</v>
       </c>
@@ -32172,9 +32223,9 @@
     </row>
     <row r="39" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="190"/>
+      <c r="C39" s="235"/>
+      <c r="D39" s="236"/>
+      <c r="E39" s="237"/>
       <c r="F39" s="138"/>
       <c r="G39" s="139"/>
       <c r="H39" s="139"/>
@@ -32233,18 +32284,18 @@
     </row>
     <row r="47" spans="2:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="13"/>
-      <c r="C47" s="191" t="s">
+      <c r="C47" s="238" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="192"/>
-      <c r="E47" s="192"/>
-      <c r="F47" s="192"/>
-      <c r="G47" s="192"/>
-      <c r="H47" s="192"/>
-      <c r="I47" s="192"/>
-      <c r="J47" s="192"/>
-      <c r="K47" s="192"/>
-      <c r="L47" s="193"/>
+      <c r="D47" s="239"/>
+      <c r="E47" s="239"/>
+      <c r="F47" s="239"/>
+      <c r="G47" s="239"/>
+      <c r="H47" s="239"/>
+      <c r="I47" s="239"/>
+      <c r="J47" s="239"/>
+      <c r="K47" s="239"/>
+      <c r="L47" s="240"/>
       <c r="M47" s="41"/>
       <c r="N47" s="42"/>
       <c r="P47" s="19"/>
@@ -32303,31 +32354,31 @@
       <c r="C49" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="247" t="s">
+      <c r="D49" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="248" t="s">
+      <c r="E49" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="248" t="s">
+      <c r="F49" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="248">
+      <c r="G49" s="164">
         <v>0</v>
       </c>
-      <c r="H49" s="248">
+      <c r="H49" s="164">
         <v>0</v>
       </c>
-      <c r="I49" s="248">
+      <c r="I49" s="164">
         <v>0</v>
       </c>
-      <c r="J49" s="248">
+      <c r="J49" s="164">
         <v>0</v>
       </c>
-      <c r="K49" s="248">
+      <c r="K49" s="164">
         <v>0</v>
       </c>
-      <c r="L49" s="249">
+      <c r="L49" s="165">
         <f>+COUNTIF(B52:K52,"&gt;1")</f>
         <v>3</v>
       </c>
@@ -32346,31 +32397,31 @@
       <c r="C50" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="250" t="s">
+      <c r="D50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="251" t="s">
+      <c r="E50" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="251" t="s">
+      <c r="F50" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="251">
+      <c r="G50" s="167">
         <v>0</v>
       </c>
-      <c r="H50" s="251">
+      <c r="H50" s="167">
         <v>0</v>
       </c>
-      <c r="I50" s="251">
+      <c r="I50" s="167">
         <v>0</v>
       </c>
-      <c r="J50" s="251">
+      <c r="J50" s="167">
         <v>0</v>
       </c>
-      <c r="K50" s="251">
+      <c r="K50" s="167">
         <v>0</v>
       </c>
-      <c r="L50" s="249"/>
+      <c r="L50" s="165"/>
       <c r="M50" s="11"/>
       <c r="P50" s="19"/>
       <c r="R50" s="33"/>
@@ -32386,31 +32437,31 @@
       <c r="C51" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="247" t="s">
+      <c r="D51" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="248" t="s">
+      <c r="E51" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="248" t="s">
+      <c r="F51" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="G51" s="248">
+      <c r="G51" s="164">
         <v>0</v>
       </c>
-      <c r="H51" s="248">
+      <c r="H51" s="164">
         <v>0</v>
       </c>
-      <c r="I51" s="248">
+      <c r="I51" s="164">
         <v>0</v>
       </c>
-      <c r="J51" s="248">
+      <c r="J51" s="164">
         <v>0</v>
       </c>
-      <c r="K51" s="248">
+      <c r="K51" s="164">
         <v>0</v>
       </c>
-      <c r="L51" s="249"/>
+      <c r="L51" s="165"/>
       <c r="M51" s="18"/>
       <c r="P51" s="19"/>
       <c r="R51" s="33"/>
@@ -32426,31 +32477,31 @@
       <c r="C52" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="252">
+      <c r="D52" s="168">
         <v>13552</v>
       </c>
-      <c r="E52" s="253">
+      <c r="E52" s="169">
         <v>12074</v>
       </c>
-      <c r="F52" s="253">
+      <c r="F52" s="169">
         <v>11469</v>
       </c>
-      <c r="G52" s="253">
+      <c r="G52" s="169">
         <v>0</v>
       </c>
-      <c r="H52" s="253">
+      <c r="H52" s="169">
         <v>0</v>
       </c>
-      <c r="I52" s="253">
+      <c r="I52" s="169">
         <v>0</v>
       </c>
-      <c r="J52" s="253">
+      <c r="J52" s="169">
         <v>0</v>
       </c>
-      <c r="K52" s="253">
+      <c r="K52" s="169">
         <v>0</v>
       </c>
-      <c r="L52" s="254">
+      <c r="L52" s="170">
         <f>+SUM(B52:K52)</f>
         <v>37095</v>
       </c>
@@ -32482,18 +32533,18 @@
     </row>
     <row r="54" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
-      <c r="C54" s="191" t="s">
+      <c r="C54" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="192"/>
-      <c r="E54" s="192"/>
-      <c r="F54" s="192"/>
-      <c r="G54" s="192"/>
-      <c r="H54" s="192"/>
-      <c r="I54" s="192"/>
-      <c r="J54" s="192"/>
-      <c r="K54" s="192"/>
-      <c r="L54" s="193"/>
+      <c r="D54" s="239"/>
+      <c r="E54" s="239"/>
+      <c r="F54" s="239"/>
+      <c r="G54" s="239"/>
+      <c r="H54" s="239"/>
+      <c r="I54" s="239"/>
+      <c r="J54" s="239"/>
+      <c r="K54" s="239"/>
+      <c r="L54" s="240"/>
       <c r="M54" s="11"/>
       <c r="P54" s="19"/>
       <c r="R54" s="33"/>
@@ -32551,31 +32602,31 @@
       <c r="C56" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="247" t="s">
+      <c r="D56" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="248">
+      <c r="E56" s="164">
         <v>0</v>
       </c>
-      <c r="F56" s="248">
+      <c r="F56" s="164">
         <v>0</v>
       </c>
-      <c r="G56" s="248">
+      <c r="G56" s="164">
         <v>0</v>
       </c>
-      <c r="H56" s="248">
+      <c r="H56" s="164">
         <v>0</v>
       </c>
-      <c r="I56" s="248">
+      <c r="I56" s="164">
         <v>0</v>
       </c>
-      <c r="J56" s="248">
+      <c r="J56" s="164">
         <v>0</v>
       </c>
-      <c r="K56" s="248">
+      <c r="K56" s="164">
         <v>0</v>
       </c>
-      <c r="L56" s="249">
+      <c r="L56" s="165">
         <f>+COUNTIF(B59:K59,"&gt;1")</f>
         <v>1</v>
       </c>
@@ -32594,31 +32645,31 @@
       <c r="C57" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="250" t="s">
+      <c r="D57" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="251">
+      <c r="E57" s="167">
         <v>0</v>
       </c>
-      <c r="F57" s="251">
+      <c r="F57" s="167">
         <v>0</v>
       </c>
-      <c r="G57" s="251">
+      <c r="G57" s="167">
         <v>0</v>
       </c>
-      <c r="H57" s="251">
+      <c r="H57" s="167">
         <v>0</v>
       </c>
-      <c r="I57" s="251">
+      <c r="I57" s="167">
         <v>0</v>
       </c>
-      <c r="J57" s="251">
+      <c r="J57" s="167">
         <v>0</v>
       </c>
-      <c r="K57" s="251">
+      <c r="K57" s="167">
         <v>0</v>
       </c>
-      <c r="L57" s="249"/>
+      <c r="L57" s="165"/>
       <c r="M57" s="11"/>
       <c r="P57" s="19"/>
       <c r="R57" s="33"/>
@@ -32634,31 +32685,31 @@
       <c r="C58" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="247" t="s">
+      <c r="D58" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="248">
+      <c r="E58" s="164">
         <v>0</v>
       </c>
-      <c r="F58" s="248">
+      <c r="F58" s="164">
         <v>0</v>
       </c>
-      <c r="G58" s="248">
+      <c r="G58" s="164">
         <v>0</v>
       </c>
-      <c r="H58" s="248">
+      <c r="H58" s="164">
         <v>0</v>
       </c>
-      <c r="I58" s="248">
+      <c r="I58" s="164">
         <v>0</v>
       </c>
-      <c r="J58" s="248">
+      <c r="J58" s="164">
         <v>0</v>
       </c>
-      <c r="K58" s="248">
+      <c r="K58" s="164">
         <v>0</v>
       </c>
-      <c r="L58" s="249"/>
+      <c r="L58" s="165"/>
       <c r="M58" s="18"/>
       <c r="P58" s="19"/>
       <c r="R58" s="33"/>
@@ -32674,31 +32725,31 @@
       <c r="C59" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="252">
+      <c r="D59" s="168">
         <v>13748</v>
       </c>
-      <c r="E59" s="253">
+      <c r="E59" s="169">
         <v>0</v>
       </c>
-      <c r="F59" s="253">
+      <c r="F59" s="169">
         <v>0</v>
       </c>
-      <c r="G59" s="253">
+      <c r="G59" s="169">
         <v>0</v>
       </c>
-      <c r="H59" s="253">
+      <c r="H59" s="169">
         <v>0</v>
       </c>
-      <c r="I59" s="253">
+      <c r="I59" s="169">
         <v>0</v>
       </c>
-      <c r="J59" s="253">
+      <c r="J59" s="169">
         <v>0</v>
       </c>
-      <c r="K59" s="253">
+      <c r="K59" s="169">
         <v>0</v>
       </c>
-      <c r="L59" s="254">
+      <c r="L59" s="170">
         <f>+SUM(B59:K59)</f>
         <v>13748</v>
       </c>
@@ -32748,17 +32799,17 @@
     </row>
     <row r="63" spans="2:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
-      <c r="C63" s="176" t="s">
+      <c r="C63" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="177"/>
-      <c r="E63" s="178"/>
+      <c r="D63" s="203"/>
+      <c r="E63" s="204"/>
       <c r="F63" s="14"/>
-      <c r="H63" s="206" t="s">
+      <c r="H63" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="I63" s="207"/>
-      <c r="J63" s="208"/>
+      <c r="I63" s="254"/>
+      <c r="J63" s="255"/>
       <c r="K63" s="14"/>
       <c r="L63" s="90"/>
       <c r="M63" s="11"/>
@@ -32766,17 +32817,17 @@
     </row>
     <row r="64" spans="2:24" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
-      <c r="C64" s="217" t="s">
+      <c r="C64" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="218"/>
+      <c r="D64" s="181"/>
       <c r="E64" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H64" s="182" t="s">
+      <c r="H64" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="I64" s="183"/>
+      <c r="I64" s="206"/>
       <c r="J64" s="27" t="s">
         <v>77</v>
       </c>
@@ -32787,15 +32838,15 @@
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="13"/>
-      <c r="C65" s="243"/>
-      <c r="D65" s="244"/>
+      <c r="C65" s="192"/>
+      <c r="D65" s="193"/>
       <c r="E65" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H65" s="257" t="s">
+      <c r="H65" s="207" t="s">
         <v>108</v>
       </c>
-      <c r="I65" s="258"/>
+      <c r="I65" s="208"/>
       <c r="J65" s="131" t="s">
         <v>95</v>
       </c>
@@ -32806,15 +32857,15 @@
     </row>
     <row r="66" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="13"/>
-      <c r="C66" s="265" t="s">
+      <c r="C66" s="268" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="268"/>
+      <c r="D66" s="269"/>
       <c r="E66" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="H66" s="259"/>
-      <c r="I66" s="260"/>
+      <c r="H66" s="258"/>
+      <c r="I66" s="259"/>
       <c r="J66" s="132"/>
       <c r="K66" s="133"/>
       <c r="L66" s="90"/>
@@ -32823,12 +32874,12 @@
     </row>
     <row r="67" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
-      <c r="C67" s="266"/>
-      <c r="D67" s="267"/>
+      <c r="C67" s="256"/>
+      <c r="D67" s="257"/>
       <c r="E67" s="130"/>
-      <c r="H67" s="261"/>
-      <c r="I67" s="261"/>
-      <c r="J67" s="262"/>
+      <c r="H67" s="173"/>
+      <c r="I67" s="173"/>
+      <c r="J67" s="174"/>
       <c r="K67" s="133"/>
       <c r="L67" s="90"/>
       <c r="M67" s="11"/>
@@ -32867,17 +32918,17 @@
     </row>
     <row r="71" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="13"/>
-      <c r="C71" s="169" t="s">
+      <c r="C71" s="260" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="170"/>
-      <c r="E71" s="171"/>
+      <c r="D71" s="261"/>
+      <c r="E71" s="262"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
-      <c r="H71" s="165" t="s">
+      <c r="H71" s="263" t="s">
         <v>67</v>
       </c>
-      <c r="I71" s="166"/>
+      <c r="I71" s="264"/>
       <c r="J71" s="81"/>
       <c r="L71" s="90"/>
       <c r="M71" s="11"/>
@@ -32886,10 +32937,10 @@
     </row>
     <row r="72" spans="2:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
-      <c r="C72" s="174" t="s">
+      <c r="C72" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="D72" s="175"/>
+      <c r="D72" s="209"/>
       <c r="E72" s="27" t="s">
         <v>73</v>
       </c>
@@ -32908,18 +32959,18 @@
     </row>
     <row r="73" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
-      <c r="C73" s="172" t="s">
+      <c r="C73" s="196" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="173"/>
+      <c r="D73" s="197"/>
       <c r="E73" s="129" t="s">
         <v>95</v>
       </c>
       <c r="F73" s="117"/>
-      <c r="H73" s="255" t="s">
+      <c r="H73" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="I73" s="155" t="s">
+      <c r="I73" s="153" t="s">
         <v>95</v>
       </c>
       <c r="J73" s="82"/>
@@ -32930,12 +32981,12 @@
     </row>
     <row r="74" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="13"/>
-      <c r="C74" s="167"/>
-      <c r="D74" s="168"/>
+      <c r="C74" s="200"/>
+      <c r="D74" s="201"/>
       <c r="E74" s="130"/>
       <c r="F74" s="117"/>
-      <c r="H74" s="256"/>
-      <c r="I74" s="256"/>
+      <c r="H74" s="172"/>
+      <c r="I74" s="172"/>
       <c r="L74" s="90"/>
       <c r="M74" s="11"/>
     </row>
@@ -32973,19 +33024,19 @@
     </row>
     <row r="78" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B78" s="13"/>
-      <c r="C78" s="176" t="s">
+      <c r="C78" s="202" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="177"/>
-      <c r="E78" s="177"/>
-      <c r="F78" s="178"/>
+      <c r="D78" s="203"/>
+      <c r="E78" s="203"/>
+      <c r="F78" s="204"/>
       <c r="G78" s="14"/>
-      <c r="H78" s="179" t="s">
+      <c r="H78" s="265" t="s">
         <v>76</v>
       </c>
-      <c r="I78" s="180"/>
-      <c r="J78" s="180"/>
-      <c r="K78" s="181"/>
+      <c r="I78" s="266"/>
+      <c r="J78" s="266"/>
+      <c r="K78" s="267"/>
       <c r="L78" s="90"/>
       <c r="M78" s="11"/>
       <c r="N78" s="36"/>
@@ -32993,10 +33044,10 @@
     </row>
     <row r="79" spans="2:16" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
-      <c r="C79" s="245" t="s">
+      <c r="C79" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="246"/>
+      <c r="D79" s="195"/>
       <c r="E79" s="52" t="s">
         <v>68</v>
       </c>
@@ -33021,27 +33072,27 @@
     </row>
     <row r="80" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
-      <c r="C80" s="172" t="s">
+      <c r="C80" s="196" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="197"/>
+      <c r="E80" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="173"/>
-      <c r="E80" s="122" t="s">
+      <c r="F80" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="F80" s="123" t="s">
+      <c r="H80" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="H80" s="124" t="s">
+      <c r="I80" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="I80" s="125" t="s">
+      <c r="J80" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="J80" s="125" t="s">
+      <c r="K80" s="125" t="s">
         <v>114</v>
-      </c>
-      <c r="K80" s="125" t="s">
-        <v>115</v>
       </c>
       <c r="L80" s="90"/>
       <c r="M80" s="11"/>
@@ -33049,8 +33100,8 @@
     </row>
     <row r="81" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="13"/>
-      <c r="C81" s="269"/>
-      <c r="D81" s="270"/>
+      <c r="C81" s="198"/>
+      <c r="D81" s="199"/>
       <c r="E81" s="127"/>
       <c r="F81" s="127"/>
       <c r="H81" s="126"/>
@@ -33072,13 +33123,13 @@
     </row>
     <row r="83" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="13"/>
-      <c r="C83" s="241" t="s">
+      <c r="C83" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="D83" s="242"/>
-      <c r="E83" s="242"/>
+      <c r="D83" s="191"/>
+      <c r="E83" s="191"/>
       <c r="F83" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L83" s="90"/>
       <c r="M83" s="11"/>
@@ -33115,17 +33166,17 @@
     </row>
     <row r="87" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="13"/>
-      <c r="C87" s="169" t="s">
+      <c r="C87" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="170"/>
-      <c r="E87" s="171"/>
+      <c r="D87" s="261"/>
+      <c r="E87" s="262"/>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
-      <c r="H87" s="165" t="s">
+      <c r="H87" s="263" t="s">
         <v>67</v>
       </c>
-      <c r="I87" s="166"/>
+      <c r="I87" s="264"/>
       <c r="L87" s="90"/>
       <c r="M87" s="11"/>
       <c r="N87" s="36"/>
@@ -33133,10 +33184,10 @@
     </row>
     <row r="88" spans="2:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
-      <c r="C88" s="174" t="s">
+      <c r="C88" s="223" t="s">
         <v>72</v>
       </c>
-      <c r="D88" s="175"/>
+      <c r="D88" s="209"/>
       <c r="E88" s="27" t="s">
         <v>73</v>
       </c>
@@ -33155,10 +33206,10 @@
     </row>
     <row r="89" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
-      <c r="C89" s="172" t="s">
+      <c r="C89" s="196" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="173"/>
+      <c r="D89" s="197"/>
       <c r="E89" s="116" t="s">
         <v>95</v>
       </c>
@@ -33177,8 +33228,8 @@
     </row>
     <row r="90" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="13"/>
-      <c r="C90" s="172"/>
-      <c r="D90" s="173"/>
+      <c r="C90" s="196"/>
+      <c r="D90" s="197"/>
       <c r="E90" s="116"/>
       <c r="F90" s="117"/>
       <c r="H90" s="120"/>
@@ -33398,7 +33449,40 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:E37"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="E1:K5"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C11:J12"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C47:L47"/>
+    <mergeCell ref="C54:L54"/>
     <mergeCell ref="C83:E83"/>
     <mergeCell ref="C64:D65"/>
     <mergeCell ref="C79:D79"/>
@@ -33406,47 +33490,14 @@
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="E1:K5"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C11:J12"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C24:H25"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C47:L47"/>
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:E37"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="H66:I66"/>
     <mergeCell ref="C78:F78"/>
     <mergeCell ref="C71:E71"/>
     <mergeCell ref="C72:D72"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C24:J25"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnnaReportesOperativos5\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B70BB-D55F-4EC8-8C71-6C6A46AF124A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897DC1AD-B06E-4C23-A3B5-F1CDF99C73E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
   </bookViews>
   <sheets>
     <sheet name="5_Diario" sheetId="5" r:id="rId1"/>
@@ -117,12 +117,12 @@
     <definedName name="DIARIO">#REF!</definedName>
     <definedName name="Firmas">INDEX('[6]DATOS CORREOS'!$L$2:$L$9,MATCH(#REF!,'[6]DATOS CORREOS'!$K$2:$K$9,0))</definedName>
     <definedName name="GasNaturalAsociado_Items">'5_Diario'!$C$15:$J$16</definedName>
-    <definedName name="GasNaturalSeco_Items">'5_Diario'!$C$28:$H$29</definedName>
+    <definedName name="GasNaturalSeco_Items">'5_Diario'!$C$27:$J$28</definedName>
     <definedName name="GGG">#REF!</definedName>
     <definedName name="HORARIO">#REF!</definedName>
     <definedName name="HORAS">#REF!</definedName>
     <definedName name="INVROMT">#REF!</definedName>
-    <definedName name="LiquidosGasNaturalProduccionVentas_Items">'5_Diario'!$C$38:$I$39</definedName>
+    <definedName name="LiquidosGasNaturalProduccionVentas_Items">'5_Diario'!$C$37:$I$38</definedName>
     <definedName name="MAR">#REF!</definedName>
     <definedName name="MARCIANITO">#REF!</definedName>
     <definedName name="MARCIANITO20">#REF!</definedName>
@@ -186,35 +186,26 @@
     <definedName name="TTRC">#REF!</definedName>
     <definedName name="VAR">#REF!</definedName>
     <definedName name="VENTAS">#REF!</definedName>
-    <definedName name="VolumenProduccionEnel_Items">'5_Diario'!$C$73:$E$74</definedName>
-    <definedName name="VolumenProduccionGasNaturalEnel_Items">'5_Diario'!$H$73:$I$74</definedName>
-    <definedName name="VolumenProduccionLiquidoGasNatural_Items">'5_Diario'!$H$80:$K$81</definedName>
-    <definedName name="VolumenProduccionLoteIvLiquidoGasNatural_Items">'5_Diario'!$H$89:$I$90</definedName>
-    <definedName name="VolumenProduccionLoteIvUnnaEnegia_Items">'5_Diario'!$C$89:$E$90</definedName>
-    <definedName name="VolumenProduccionLoteXGnaTotalCnpc_Items">'5_Diario'!$C$66:$E$67</definedName>
+    <definedName name="VolumenProduccionEnel_Items">'5_Diario'!$C$74:$F$75</definedName>
+    <definedName name="VolumenProduccionGasNaturalEnel_Items">'5_Diario'!$H$72:$J$73</definedName>
+    <definedName name="VolumenProduccionLiquidoGasNatural_Items">'5_Diario'!$H$81:$K$82</definedName>
+    <definedName name="VolumenProduccionLoteIvLiquidoGasNatural_Items">'5_Diario'!$H$90:$I$91</definedName>
+    <definedName name="VolumenProduccionLoteIvUnnaEnegia_Items">'5_Diario'!$C$90:$E$91</definedName>
+    <definedName name="VolumenProduccionLoteXGnaTotalCnpc_Items">'5_Diario'!$C$65:$E$66</definedName>
     <definedName name="VolumenProduccionLoteXLiquidoGasNatural_Items">'5_Diario'!$H$65:$J$66</definedName>
-    <definedName name="VolumenProduccionPetroperu_Items">'5_Diario'!$C$80:$F$81</definedName>
+    <definedName name="VolumenProduccionPetroperu_Items">'5_Diario'!$C$81:$F$82</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
   <si>
     <t>Volumen</t>
   </si>
@@ -321,9 +312,6 @@
   </si>
   <si>
     <t xml:space="preserve"> GAS NATURAL SECO (GNS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISTRIBUCION </t>
   </si>
   <si>
     <t xml:space="preserve">MMBTU  </t>
@@ -567,10 +555,10 @@
     <t>{{item.LoteI}}</t>
   </si>
   <si>
-    <t>{{GasAlfare}}</t>
+    <t>{{item.Suministrador}}</t>
   </si>
   <si>
-    <t>{{item.Suministrador}}</t>
+    <t>DISTRIBUCION</t>
   </si>
 </sst>
 </file>
@@ -587,7 +575,7 @@
     <numFmt numFmtId="170" formatCode="0.0_)"/>
     <numFmt numFmtId="171" formatCode="#,##0.00000000000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -665,13 +653,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -680,13 +661,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -769,21 +743,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="62">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -967,60 +930,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1030,19 +943,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1302,28 +1202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1483,32 +1361,6 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
       <top style="thin">
         <color theme="1"/>
       </top>
@@ -1575,30 +1427,41 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1606,38 +1469,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1655,36 +1490,38 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1693,34 +1530,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1737,34 +1550,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="249">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1774,158 +1584,119 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="50" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="60" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1934,10 +1705,10 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1949,21 +1720,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1979,203 +1746,414 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="40" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="48" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="49" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2184,272 +2162,57 @@
     <xf numFmtId="164" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="58" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="59" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2541,7 +2304,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>815837</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>84635</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1510748" cy="986611"/>
@@ -2586,7 +2349,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>404191</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>13252</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2506435" cy="280205"/>
@@ -2653,7 +2416,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="BOL"/>
@@ -2694,7 +2457,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Correción 4606B"/>
@@ -2769,7 +2532,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ROMT"/>
@@ -23649,7 +23412,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABLAS"/>
@@ -24258,7 +24021,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="..."/>
@@ -24355,7 +24118,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="XXXXXXX"/>
@@ -29438,7 +29201,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="..."/>
@@ -29614,7 +29377,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FECHA"/>
@@ -29900,7 +29663,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="COMPRAS DE GAS"/>
@@ -31260,7 +31023,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="MOLLENDO DIARIO"/>
@@ -31582,10 +31345,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X112"/>
+  <dimension ref="A1:X113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q78" sqref="Q78"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -31621,67 +31384,67 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="214" t="s">
+      <c r="E1" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="217" t="s">
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="218"/>
+      <c r="M1" s="203"/>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
-      <c r="C2" s="85"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="219" t="s">
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="220"/>
+      <c r="M2" s="205"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="85"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="221" t="s">
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="222"/>
+      <c r="M3" s="207"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
-      <c r="C4" s="85"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="160" t="s">
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="161" t="s">
+      <c r="M4" s="120" t="s">
         <v>18</v>
       </c>
     </row>
@@ -31689,49 +31452,49 @@
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="162" t="s">
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="201"/>
+      <c r="L5" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="162" t="s">
+      <c r="M5" s="121" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="12" x14ac:dyDescent="0.2">
-      <c r="B6" s="113"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="115"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
-      <c r="D7" s="86"/>
-      <c r="K7" s="87" t="s">
+      <c r="D7" s="71"/>
+      <c r="K7" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="159" t="s">
-        <v>88</v>
+      <c r="L7" s="118" t="s">
+        <v>87</v>
       </c>
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
-      <c r="D8" s="86"/>
-      <c r="K8" s="87"/>
+      <c r="D8" s="71"/>
+      <c r="K8" s="72"/>
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
@@ -31739,8 +31502,8 @@
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="73"/>
       <c r="M9" s="11"/>
       <c r="P9" s="12"/>
     </row>
@@ -31750,175 +31513,175 @@
     </row>
     <row r="11" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
-      <c r="C11" s="223" t="s">
+      <c r="C11" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="210"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="208"/>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="225"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="225"/>
-      <c r="H12" s="225"/>
-      <c r="I12" s="225"/>
-      <c r="J12" s="226"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="211"/>
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
-      <c r="C13" s="223" t="s">
+      <c r="C13" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="210"/>
-      <c r="E13" s="50" t="s">
+      <c r="D13" s="208"/>
+      <c r="E13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="209" t="s">
+      <c r="G13" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="209"/>
-      <c r="I13" s="26" t="s">
+      <c r="H13" s="171"/>
+      <c r="I13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="27" t="s">
-        <v>85</v>
+      <c r="J13" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="226"/>
-      <c r="E14" s="80" t="s">
-        <v>66</v>
+      <c r="C14" s="209"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="65" t="s">
+        <v>65</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="78" t="s">
-        <v>70</v>
+      <c r="H14" s="63" t="s">
+        <v>69</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="79" t="s">
-        <v>66</v>
+      <c r="J14" s="64" t="s">
+        <v>65</v>
       </c>
       <c r="M14" s="11"/>
     </row>
     <row r="15" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
-      <c r="C15" s="227" t="s">
+      <c r="C15" s="191" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="192"/>
+      <c r="E15" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="228"/>
-      <c r="E15" s="148" t="s">
+      <c r="F15" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="149" t="s">
+      <c r="G15" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="150" t="s">
+      <c r="H15" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="149" t="s">
+      <c r="I15" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="149" t="s">
+      <c r="J15" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="151" t="s">
-        <v>100</v>
-      </c>
-      <c r="M15" s="18"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
-      <c r="C16" s="229"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="155"/>
-      <c r="M16" s="18"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="115"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
       <c r="M17" s="11"/>
-      <c r="O17" s="19"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
-      <c r="C18" s="231" t="s">
+      <c r="C18" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="231"/>
-      <c r="E18" s="231"/>
-      <c r="F18" s="145" t="s">
-        <v>89</v>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="107" t="s">
+        <v>88</v>
       </c>
-      <c r="H18" s="189" t="s">
-        <v>86</v>
+      <c r="H18" s="212" t="s">
+        <v>85</v>
       </c>
-      <c r="I18" s="189"/>
-      <c r="J18" s="157" t="s">
-        <v>101</v>
+      <c r="I18" s="212"/>
+      <c r="J18" s="130" t="s">
+        <v>100</v>
       </c>
-      <c r="K18" s="89"/>
+      <c r="K18" s="74"/>
       <c r="M18" s="11"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="19"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
-      <c r="C19" s="231" t="s">
+      <c r="C19" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="231"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="145" t="s">
-        <v>90</v>
+      <c r="D19" s="195"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="107" t="s">
+        <v>89</v>
       </c>
       <c r="M19" s="11"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="19"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
-      <c r="C20" s="232" t="s">
+      <c r="C20" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="233"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="158" t="s">
-        <v>91</v>
+      <c r="D20" s="197"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="117" t="s">
+        <v>90</v>
       </c>
       <c r="M20" s="11"/>
-      <c r="P20" s="19"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="2:16" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
@@ -31928,11 +31691,11 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="M21" s="11"/>
-      <c r="P21" s="19"/>
+      <c r="P21" s="18"/>
     </row>
-    <row r="22" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="71" t="s">
         <v>33</v>
       </c>
       <c r="D22"/>
@@ -31940,9 +31703,9 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="M22" s="11"/>
-      <c r="P22" s="19"/>
+      <c r="P22" s="18"/>
     </row>
-    <row r="23" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -31950,1524 +31713,1547 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="M23" s="11"/>
-      <c r="P23" s="19"/>
+      <c r="P23" s="18"/>
     </row>
-    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="228" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="176"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="229"/>
+      <c r="H24" s="230"/>
+      <c r="L24" s="75"/>
       <c r="M24" s="11"/>
-      <c r="P24" s="19"/>
+      <c r="P24" s="18"/>
     </row>
-    <row r="25" spans="2:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
+      <c r="C25" s="175" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="231"/>
+      <c r="E25" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="75"/>
       <c r="M25" s="11"/>
-      <c r="P25" s="19"/>
+      <c r="P25" s="18"/>
     </row>
-    <row r="26" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="179" t="s">
+      <c r="C26" s="232"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="22" t="s">
-        <v>25</v>
+      <c r="L26" s="75"/>
+      <c r="M26" s="11"/>
+      <c r="P26" s="18"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="13"/>
+      <c r="C27" s="184" t="s">
+        <v>101</v>
       </c>
-      <c r="H26" s="22" t="s">
-        <v>26</v>
+      <c r="D27" s="185"/>
+      <c r="E27" s="135" t="s">
+        <v>94</v>
       </c>
-      <c r="I26" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="P26" s="19"/>
-    </row>
-    <row r="27" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="90"/>
-      <c r="M27" s="11"/>
-      <c r="P27" s="19"/>
-    </row>
-    <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-      <c r="C28" s="183" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="141" t="s">
+      <c r="F27" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="142" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" s="143" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="144" t="s">
+      <c r="G27" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="L28" s="90"/>
+      <c r="H27" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="75"/>
+      <c r="M27" s="11"/>
+      <c r="P27" s="18"/>
+    </row>
+    <row r="28" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="134"/>
+      <c r="L28" s="75"/>
       <c r="M28" s="11"/>
-      <c r="P28" s="19"/>
+      <c r="P28" s="18"/>
     </row>
-    <row r="29" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="147"/>
-      <c r="L29" s="90"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="L29" s="75"/>
       <c r="M29" s="11"/>
-      <c r="P29" s="19"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="13"/>
-      <c r="C30"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="71" t="s">
+        <v>82</v>
+      </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="L30" s="90"/>
+      <c r="L30" s="75"/>
       <c r="M30" s="11"/>
-      <c r="P30" s="19"/>
+      <c r="P30" s="18"/>
     </row>
-    <row r="31" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="86" t="s">
-        <v>83</v>
-      </c>
+    <row r="31" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="L31" s="90"/>
+      <c r="L31" s="75"/>
       <c r="M31" s="11"/>
-      <c r="P31" s="19"/>
+      <c r="P31" s="18"/>
     </row>
-    <row r="32" spans="2:16" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
+      <c r="C32" s="215" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="216"/>
+      <c r="E32" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="G32"/>
-      <c r="L32" s="90"/>
+      <c r="L32" s="75"/>
       <c r="M32" s="11"/>
-      <c r="P32" s="19"/>
+      <c r="P32" s="18"/>
     </row>
-    <row r="33" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
-      <c r="C33" s="241" t="s">
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="11"/>
+      <c r="P33" s="18"/>
+    </row>
+    <row r="34" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="13"/>
+      <c r="C34" s="217" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="218"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="242"/>
-      <c r="E33" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="11"/>
-      <c r="P33" s="19"/>
-    </row>
-    <row r="34" spans="2:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="11"/>
-      <c r="P34" s="19"/>
-    </row>
-    <row r="35" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="13"/>
-      <c r="C35" s="243" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="244"/>
-      <c r="E35" s="245"/>
-      <c r="F35" s="252" t="s">
+      <c r="G34" s="171"/>
+      <c r="H34" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="209"/>
-      <c r="H35" s="209" t="s">
+      <c r="I34" s="208"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="11"/>
+      <c r="P34" s="18"/>
+    </row>
+    <row r="35" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="13"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="221"/>
+      <c r="F35" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="210"/>
-      <c r="L35" s="90"/>
+      <c r="G35" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="75"/>
       <c r="M35" s="11"/>
-      <c r="P35" s="19"/>
+      <c r="P35" s="18"/>
     </row>
     <row r="36" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="247"/>
-      <c r="E36" s="248"/>
-      <c r="F36" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="29" t="s">
+      <c r="C36" s="222"/>
+      <c r="D36" s="223"/>
+      <c r="E36" s="224"/>
+      <c r="F36" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="30" t="s">
-        <v>41</v>
+      <c r="G36" s="138" t="s">
+        <v>42</v>
       </c>
-      <c r="L36" s="90"/>
+      <c r="H36" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="139" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="75"/>
       <c r="M36" s="11"/>
-      <c r="P36" s="19"/>
+      <c r="P36" s="18"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="29"/>
     </row>
-    <row r="37" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
-      <c r="C37" s="249"/>
-      <c r="D37" s="250"/>
-      <c r="E37" s="251"/>
-      <c r="F37" s="31" t="s">
+      <c r="C37" s="234" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="235"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="142" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="L37" s="75"/>
+      <c r="M37" s="11"/>
+      <c r="P37" s="18"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="29"/>
+    </row>
+    <row r="38" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="C38" s="213"/>
+      <c r="D38" s="214"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="141"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="11"/>
+      <c r="P38" s="18"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="29"/>
+    </row>
+    <row r="39" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="13"/>
+      <c r="C39" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="L37" s="90"/>
-      <c r="M37" s="11"/>
-      <c r="P37" s="19"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="35"/>
-    </row>
-    <row r="38" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13"/>
-      <c r="C38" s="211" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="212"/>
-      <c r="E38" s="213"/>
-      <c r="F38" s="135" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="136" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="136" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" s="137" t="s">
-        <v>107</v>
-      </c>
-      <c r="L38" s="90"/>
-      <c r="M38" s="11"/>
-      <c r="P38" s="19"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="35"/>
-    </row>
-    <row r="39" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="235"/>
-      <c r="D39" s="236"/>
-      <c r="E39" s="237"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="140"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="36"/>
-    </row>
-    <row r="40" spans="2:24" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-      <c r="C40" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39">
+      <c r="D39" s="227"/>
+      <c r="E39" s="31">
         <f>'[6]2_Líquidos'!G18</f>
         <v>999.91</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F39" s="31">
         <f>'[6]2_Líquidos'!S$45</f>
         <v>30111.289999999997</v>
       </c>
-      <c r="G40" s="39">
-        <f>SUM(H38:H39)</f>
+      <c r="G39" s="31">
+        <f>SUM(H37:H38)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="40">
-        <f>SUM(I38:I39)</f>
+      <c r="H39" s="32">
+        <f>SUM(I37:I38)</f>
         <v>0</v>
       </c>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B40" s="13"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="2:24" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
-      <c r="M45" s="11"/>
+      <c r="C45" s="236" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="237"/>
+      <c r="E45" s="237"/>
+      <c r="F45" s="237"/>
+      <c r="G45" s="237"/>
+      <c r="H45" s="237"/>
+      <c r="I45" s="237"/>
+      <c r="J45" s="237"/>
+      <c r="K45" s="237"/>
+      <c r="L45" s="238"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="34"/>
+      <c r="P45" s="18"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="29"/>
     </row>
-    <row r="46" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
-      <c r="M46" s="11"/>
-    </row>
-    <row r="47" spans="2:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
-      <c r="C47" s="238" t="s">
+      <c r="C46" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="239"/>
-      <c r="E47" s="239"/>
-      <c r="F47" s="239"/>
-      <c r="G47" s="239"/>
-      <c r="H47" s="239"/>
-      <c r="I47" s="239"/>
-      <c r="J47" s="239"/>
-      <c r="K47" s="239"/>
-      <c r="L47" s="240"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="42"/>
-      <c r="P47" s="19"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="35"/>
+      <c r="D46" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="P46" s="18"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="29"/>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B47" s="13"/>
+      <c r="C47" s="147" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="123">
+        <v>0</v>
+      </c>
+      <c r="H47" s="123">
+        <v>0</v>
+      </c>
+      <c r="I47" s="123">
+        <v>0</v>
+      </c>
+      <c r="J47" s="123">
+        <v>0</v>
+      </c>
+      <c r="K47" s="123">
+        <v>0</v>
+      </c>
+      <c r="L47" s="124">
+        <f>+COUNTIF(B50:K50,"&gt;1")</f>
+        <v>3</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="P47" s="18"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="29"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
-      <c r="C48" s="43" t="s">
-        <v>46</v>
+      <c r="C48" s="147" t="s">
+        <v>6</v>
       </c>
-      <c r="D48" s="44" t="s">
-        <v>47</v>
+      <c r="D48" s="125" t="s">
+        <v>10</v>
       </c>
-      <c r="E48" s="45" t="s">
-        <v>48</v>
+      <c r="E48" s="126" t="s">
+        <v>10</v>
       </c>
-      <c r="F48" s="45" t="s">
-        <v>49</v>
+      <c r="F48" s="126" t="s">
+        <v>9</v>
       </c>
-      <c r="G48" s="45" t="s">
-        <v>50</v>
+      <c r="G48" s="126">
+        <v>0</v>
       </c>
-      <c r="H48" s="45" t="s">
-        <v>51</v>
+      <c r="H48" s="126">
+        <v>0</v>
       </c>
-      <c r="I48" s="45" t="s">
-        <v>52</v>
+      <c r="I48" s="126">
+        <v>0</v>
       </c>
-      <c r="J48" s="45" t="s">
-        <v>53</v>
+      <c r="J48" s="126">
+        <v>0</v>
       </c>
-      <c r="K48" s="45" t="s">
-        <v>54</v>
+      <c r="K48" s="126">
+        <v>0</v>
       </c>
-      <c r="L48" s="46" t="s">
-        <v>55</v>
-      </c>
+      <c r="L48" s="124"/>
       <c r="M48" s="11"/>
-      <c r="P48" s="19"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="35"/>
+      <c r="P48" s="18"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="29"/>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="163" t="s">
-        <v>8</v>
+      <c r="D49" s="122" t="s">
+        <v>57</v>
       </c>
-      <c r="E49" s="164" t="s">
-        <v>8</v>
+      <c r="E49" s="123" t="s">
+        <v>58</v>
       </c>
-      <c r="F49" s="164" t="s">
-        <v>8</v>
+      <c r="F49" s="123" t="s">
+        <v>59</v>
       </c>
-      <c r="G49" s="164">
+      <c r="G49" s="123">
         <v>0</v>
       </c>
-      <c r="H49" s="164">
+      <c r="H49" s="123">
         <v>0</v>
       </c>
-      <c r="I49" s="164">
+      <c r="I49" s="123">
         <v>0</v>
       </c>
-      <c r="J49" s="164">
+      <c r="J49" s="123">
         <v>0</v>
       </c>
-      <c r="K49" s="164">
+      <c r="K49" s="123">
         <v>0</v>
       </c>
-      <c r="L49" s="165">
-        <f>+COUNTIF(B52:K52,"&gt;1")</f>
-        <v>3</v>
-      </c>
-      <c r="M49" s="11"/>
-      <c r="P49" s="19"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="35"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="17"/>
+      <c r="P49" s="18"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="29"/>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
-      <c r="C50" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="166" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="167" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="167" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="167">
+      <c r="C50" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="H50" s="167">
+      <c r="D50" s="127">
+        <v>13552</v>
+      </c>
+      <c r="E50" s="128">
+        <v>12074</v>
+      </c>
+      <c r="F50" s="128">
+        <v>11469</v>
+      </c>
+      <c r="G50" s="128">
         <v>0</v>
       </c>
-      <c r="I50" s="167">
+      <c r="H50" s="128">
         <v>0</v>
       </c>
-      <c r="J50" s="167">
+      <c r="I50" s="128">
         <v>0</v>
       </c>
-      <c r="K50" s="167">
+      <c r="J50" s="128">
         <v>0</v>
       </c>
-      <c r="L50" s="165"/>
-      <c r="M50" s="11"/>
-      <c r="P50" s="19"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="35"/>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B51" s="13"/>
-      <c r="C51" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="163" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="164" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" s="164" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="164">
+      <c r="K50" s="128">
         <v>0</v>
       </c>
-      <c r="H51" s="164">
-        <v>0</v>
+      <c r="L50" s="129">
+        <f>+SUM(B50:K50)</f>
+        <v>37095</v>
       </c>
-      <c r="I51" s="164">
-        <v>0</v>
-      </c>
-      <c r="J51" s="164">
-        <v>0</v>
-      </c>
-      <c r="K51" s="164">
-        <v>0</v>
-      </c>
-      <c r="L51" s="165"/>
-      <c r="M51" s="18"/>
-      <c r="P51" s="19"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="35"/>
+      <c r="M50" s="17"/>
+      <c r="P50" s="18"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="29"/>
+    </row>
+    <row r="51" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="17"/>
+      <c r="P51" s="18"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="29"/>
     </row>
     <row r="52" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="13"/>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="236" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="237"/>
+      <c r="E52" s="237"/>
+      <c r="F52" s="237"/>
+      <c r="G52" s="237"/>
+      <c r="H52" s="237"/>
+      <c r="I52" s="237"/>
+      <c r="J52" s="237"/>
+      <c r="K52" s="237"/>
+      <c r="L52" s="238"/>
+      <c r="M52" s="11"/>
+      <c r="P52" s="18"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="29"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B53" s="13"/>
+      <c r="C53" s="146" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M53" s="11"/>
+      <c r="P53" s="18"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="29"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B54" s="13"/>
+      <c r="C54" s="147" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="123">
         <v>0</v>
       </c>
-      <c r="D52" s="168">
-        <v>13552</v>
-      </c>
-      <c r="E52" s="169">
-        <v>12074</v>
-      </c>
-      <c r="F52" s="169">
-        <v>11469</v>
-      </c>
-      <c r="G52" s="169">
+      <c r="F54" s="123">
         <v>0</v>
       </c>
-      <c r="H52" s="169">
+      <c r="G54" s="123">
         <v>0</v>
       </c>
-      <c r="I52" s="169">
+      <c r="H54" s="123">
         <v>0</v>
       </c>
-      <c r="J52" s="169">
+      <c r="I54" s="123">
         <v>0</v>
       </c>
-      <c r="K52" s="169">
+      <c r="J54" s="123">
         <v>0</v>
       </c>
-      <c r="L52" s="170">
-        <f>+SUM(B52:K52)</f>
-        <v>37095</v>
+      <c r="K54" s="123">
+        <v>0</v>
       </c>
-      <c r="M52" s="18"/>
-      <c r="P52" s="19"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="35"/>
+      <c r="L54" s="124">
+        <f>+COUNTIF(B57:K57,"&gt;1")</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="11"/>
+      <c r="P54" s="18"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="29"/>
     </row>
-    <row r="53" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="18"/>
-      <c r="P53" s="19"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="35"/>
-    </row>
-    <row r="54" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
-      <c r="C54" s="238" t="s">
-        <v>61</v>
+    <row r="55" spans="2:24" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B55" s="13"/>
+      <c r="C55" s="147" t="s">
+        <v>6</v>
       </c>
-      <c r="D54" s="239"/>
-      <c r="E54" s="239"/>
-      <c r="F54" s="239"/>
-      <c r="G54" s="239"/>
-      <c r="H54" s="239"/>
-      <c r="I54" s="239"/>
-      <c r="J54" s="239"/>
-      <c r="K54" s="239"/>
-      <c r="L54" s="240"/>
-      <c r="M54" s="11"/>
-      <c r="P54" s="19"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="35"/>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B55" s="13"/>
-      <c r="C55" s="43" t="s">
-        <v>46</v>
+      <c r="D55" s="125" t="s">
+        <v>11</v>
       </c>
-      <c r="D55" s="44" t="s">
-        <v>47</v>
+      <c r="E55" s="126">
+        <v>0</v>
       </c>
-      <c r="E55" s="45" t="s">
-        <v>48</v>
+      <c r="F55" s="126">
+        <v>0</v>
       </c>
-      <c r="F55" s="45" t="s">
-        <v>49</v>
+      <c r="G55" s="126">
+        <v>0</v>
       </c>
-      <c r="G55" s="45" t="s">
-        <v>50</v>
+      <c r="H55" s="126">
+        <v>0</v>
       </c>
-      <c r="H55" s="45" t="s">
-        <v>51</v>
+      <c r="I55" s="126">
+        <v>0</v>
       </c>
-      <c r="I55" s="45" t="s">
-        <v>52</v>
+      <c r="J55" s="126">
+        <v>0</v>
       </c>
-      <c r="J55" s="45" t="s">
-        <v>53</v>
+      <c r="K55" s="126">
+        <v>0</v>
       </c>
-      <c r="K55" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="L55" s="46" t="s">
-        <v>55</v>
-      </c>
+      <c r="L55" s="124"/>
       <c r="M55" s="11"/>
-      <c r="P55" s="19"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="35"/>
+      <c r="P55" s="18"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="29"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="163" t="s">
-        <v>7</v>
+      <c r="D56" s="122" t="s">
+        <v>61</v>
       </c>
-      <c r="E56" s="164">
+      <c r="E56" s="123">
         <v>0</v>
       </c>
-      <c r="F56" s="164">
+      <c r="F56" s="123">
         <v>0</v>
       </c>
-      <c r="G56" s="164">
+      <c r="G56" s="123">
         <v>0</v>
       </c>
-      <c r="H56" s="164">
+      <c r="H56" s="123">
         <v>0</v>
       </c>
-      <c r="I56" s="164">
+      <c r="I56" s="123">
         <v>0</v>
       </c>
-      <c r="J56" s="164">
+      <c r="J56" s="123">
         <v>0</v>
       </c>
-      <c r="K56" s="164">
+      <c r="K56" s="123">
         <v>0</v>
       </c>
-      <c r="L56" s="165">
-        <f>+COUNTIF(B59:K59,"&gt;1")</f>
-        <v>1</v>
-      </c>
-      <c r="M56" s="11"/>
-      <c r="P56" s="19"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="34"/>
-      <c r="X56" s="35"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="17"/>
+      <c r="P56" s="18"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="29"/>
     </row>
-    <row r="57" spans="2:24" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
-      <c r="C57" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="166" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="167">
+      <c r="C57" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="167">
+      <c r="D57" s="127">
+        <v>13748</v>
+      </c>
+      <c r="E57" s="128">
         <v>0</v>
       </c>
-      <c r="G57" s="167">
+      <c r="F57" s="128">
         <v>0</v>
       </c>
-      <c r="H57" s="167">
+      <c r="G57" s="128">
         <v>0</v>
       </c>
-      <c r="I57" s="167">
+      <c r="H57" s="128">
         <v>0</v>
       </c>
-      <c r="J57" s="167">
+      <c r="I57" s="128">
         <v>0</v>
       </c>
-      <c r="K57" s="167">
+      <c r="J57" s="128">
         <v>0</v>
       </c>
-      <c r="L57" s="165"/>
-      <c r="M57" s="11"/>
-      <c r="P57" s="19"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="34"/>
-      <c r="X57" s="35"/>
+      <c r="K57" s="128">
+        <v>0</v>
+      </c>
+      <c r="L57" s="129">
+        <f>+SUM(B57:K57)</f>
+        <v>13748</v>
+      </c>
+      <c r="M57" s="17"/>
+      <c r="P57" s="18"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="29"/>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
-      <c r="C58" s="48" t="s">
-        <v>57</v>
+      <c r="C58" s="14"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="17"/>
+      <c r="P58" s="18"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="29"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="17"/>
+      <c r="P59" s="18"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="29"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B60" s="10"/>
+      <c r="C60" s="71" t="s">
+        <v>77</v>
       </c>
-      <c r="D58" s="163" t="s">
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="30"/>
+    </row>
+    <row r="61" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="C61" s="71"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="30"/>
+    </row>
+    <row r="62" spans="2:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="10"/>
+      <c r="C62" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="164">
-        <v>0</v>
+      <c r="D62" s="171"/>
+      <c r="E62" s="245"/>
+      <c r="F62" s="76"/>
+      <c r="H62" s="163" t="s">
+        <v>66</v>
       </c>
-      <c r="F58" s="164">
-        <v>0</v>
+      <c r="I62" s="163"/>
+      <c r="J62" s="163"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="30"/>
+    </row>
+    <row r="63" spans="2:24" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B63" s="10"/>
+      <c r="C63" s="239" t="s">
+        <v>24</v>
       </c>
-      <c r="G58" s="164">
-        <v>0</v>
+      <c r="D63" s="240"/>
+      <c r="E63" s="132" t="s">
+        <v>25</v>
       </c>
-      <c r="H58" s="164">
-        <v>0</v>
+      <c r="F63" s="76"/>
+      <c r="H63" s="163" t="s">
+        <v>73</v>
       </c>
-      <c r="I58" s="164">
-        <v>0</v>
+      <c r="I63" s="163"/>
+      <c r="J63" s="163" t="s">
+        <v>76</v>
       </c>
-      <c r="J58" s="164">
-        <v>0</v>
+      <c r="M63" s="17"/>
+      <c r="N63" s="30"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B64" s="10"/>
+      <c r="C64" s="239"/>
+      <c r="D64" s="240"/>
+      <c r="E64" s="16" t="s">
+        <v>65</v>
       </c>
-      <c r="K58" s="164">
-        <v>0</v>
+      <c r="F64" s="76"/>
+      <c r="H64" s="163"/>
+      <c r="I64" s="163"/>
+      <c r="J64" s="163"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="30"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="10"/>
+      <c r="C65" s="193" t="s">
+        <v>107</v>
       </c>
-      <c r="L58" s="165"/>
-      <c r="M58" s="18"/>
-      <c r="P58" s="19"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="35"/>
+      <c r="D65" s="242"/>
+      <c r="E65" s="144" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" s="76"/>
+      <c r="H65" s="248" t="s">
+        <v>107</v>
+      </c>
+      <c r="I65" s="248"/>
+      <c r="J65" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="M65" s="17"/>
+      <c r="N65" s="30"/>
     </row>
-    <row r="59" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="13"/>
-      <c r="C59" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="168">
-        <v>13748</v>
-      </c>
-      <c r="E59" s="169">
-        <v>0</v>
-      </c>
-      <c r="F59" s="169">
-        <v>0</v>
-      </c>
-      <c r="G59" s="169">
-        <v>0</v>
-      </c>
-      <c r="H59" s="169">
-        <v>0</v>
-      </c>
-      <c r="I59" s="169">
-        <v>0</v>
-      </c>
-      <c r="J59" s="169">
-        <v>0</v>
-      </c>
-      <c r="K59" s="169">
-        <v>0</v>
-      </c>
-      <c r="L59" s="170">
-        <f>+SUM(B59:K59)</f>
-        <v>13748</v>
-      </c>
-      <c r="M59" s="18"/>
-      <c r="P59" s="19"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="35"/>
+    <row r="66" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+      <c r="C66" s="243"/>
+      <c r="D66" s="244"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="76"/>
+      <c r="H66" s="246"/>
+      <c r="I66" s="246"/>
+      <c r="J66" s="161"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="30"/>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="L60" s="90"/>
-      <c r="M60" s="18"/>
-      <c r="P60" s="19"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="35"/>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B67" s="10"/>
+      <c r="C67" s="71"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="30"/>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B61" s="10"/>
-      <c r="C61" s="86" t="s">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B68" s="10"/>
+      <c r="C68" s="71"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="30"/>
+    </row>
+    <row r="69" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="13"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="106"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="30"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B70" s="10"/>
+      <c r="C70" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="36"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="163" t="s">
+        <v>66</v>
+      </c>
+      <c r="I70" s="163"/>
+      <c r="J70" s="163"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="30"/>
     </row>
-    <row r="62" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
-      <c r="C62" s="14"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="36"/>
+    <row r="71" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="10"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="163" t="s">
+        <v>73</v>
+      </c>
+      <c r="I71" s="163"/>
+      <c r="J71" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="M71" s="17"/>
+      <c r="N71" s="30"/>
     </row>
-    <row r="63" spans="2:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="13"/>
-      <c r="C63" s="202" t="s">
+    <row r="72" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="C72" s="177" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="178"/>
+      <c r="E72" s="179"/>
+      <c r="F72" s="76"/>
+      <c r="H72" s="248" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="248"/>
+      <c r="J72" s="247" t="s">
+        <v>94</v>
+      </c>
+      <c r="M72" s="17"/>
+      <c r="N72" s="30"/>
+    </row>
+    <row r="73" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="13"/>
+      <c r="C73" s="241" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="225"/>
+      <c r="E73" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="39"/>
+      <c r="H73" s="246"/>
+      <c r="I73" s="246"/>
+      <c r="J73" s="161"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="30"/>
+    </row>
+    <row r="74" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="13"/>
+      <c r="C74" s="164" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="165"/>
+      <c r="E74" s="159" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="75"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="30"/>
+    </row>
+    <row r="75" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="13"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="167"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="39"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="75"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="30"/>
+    </row>
+    <row r="76" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="13"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="106"/>
+      <c r="F76" s="100"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="11"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B77" s="10"/>
+      <c r="C77" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="78"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="30"/>
+    </row>
+    <row r="78" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="13"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="30"/>
+    </row>
+    <row r="79" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="13"/>
+      <c r="C79" s="188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="189"/>
+      <c r="E79" s="189"/>
+      <c r="F79" s="190"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="172" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79" s="173"/>
+      <c r="J79" s="173"/>
+      <c r="K79" s="174"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="30"/>
+      <c r="P79" s="39"/>
+    </row>
+    <row r="80" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="13"/>
+      <c r="C80" s="182" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="183"/>
+      <c r="E80" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="203"/>
-      <c r="E63" s="204"/>
-      <c r="F63" s="14"/>
-      <c r="H63" s="253" t="s">
-        <v>67</v>
+      <c r="H80" s="150" t="s">
+        <v>37</v>
       </c>
-      <c r="I63" s="254"/>
-      <c r="J63" s="255"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="36"/>
+      <c r="I80" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="K80" s="152" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="75"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="30"/>
     </row>
-    <row r="64" spans="2:24" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B64" s="13"/>
-      <c r="C64" s="179" t="s">
-        <v>24</v>
+    <row r="81" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="13"/>
+      <c r="C81" s="184" t="s">
+        <v>114</v>
       </c>
-      <c r="D64" s="181"/>
-      <c r="E64" s="23" t="s">
-        <v>25</v>
+      <c r="D81" s="185"/>
+      <c r="E81" s="156" t="s">
+        <v>108</v>
       </c>
-      <c r="H64" s="205" t="s">
-        <v>74</v>
+      <c r="F81" s="157" t="s">
+        <v>109</v>
       </c>
-      <c r="I64" s="206"/>
-      <c r="J64" s="27" t="s">
-        <v>77</v>
+      <c r="H81" s="145" t="s">
+        <v>110</v>
       </c>
-      <c r="K64" s="14"/>
-      <c r="L64" s="90"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="36"/>
+      <c r="I81" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="J81" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="K81" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="L81" s="75"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="30"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="13"/>
-      <c r="C65" s="192"/>
-      <c r="D65" s="193"/>
-      <c r="E65" s="17" t="s">
+    <row r="82" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="13"/>
+      <c r="C82" s="186"/>
+      <c r="D82" s="187"/>
+      <c r="E82" s="133"/>
+      <c r="F82" s="134"/>
+      <c r="H82" s="153"/>
+      <c r="I82" s="154"/>
+      <c r="J82" s="154"/>
+      <c r="K82" s="155"/>
+      <c r="L82" s="75"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="30"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B83" s="13"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="L83" s="75"/>
+      <c r="M83" s="11"/>
+    </row>
+    <row r="84" spans="2:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="13"/>
+      <c r="C84" s="180" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="181"/>
+      <c r="E84" s="181"/>
+      <c r="F84" s="42"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="11"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B85" s="13"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B86" s="10"/>
+      <c r="C86" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="66"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="30"/>
+    </row>
+    <row r="87" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="13"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="14"/>
+      <c r="L87" s="75"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="30"/>
+    </row>
+    <row r="88" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="13"/>
+      <c r="C88" s="177" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="178"/>
+      <c r="E88" s="179"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="H65" s="207" t="s">
-        <v>108</v>
-      </c>
-      <c r="I65" s="208"/>
-      <c r="J65" s="131" t="s">
-        <v>95</v>
-      </c>
-      <c r="K65" s="93"/>
-      <c r="L65" s="90"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="36"/>
+      <c r="I88" s="176"/>
+      <c r="L88" s="75"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="30"/>
+      <c r="P88" s="39"/>
     </row>
-    <row r="66" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="13"/>
-      <c r="C66" s="268" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="269"/>
-      <c r="E66" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="H66" s="258"/>
-      <c r="I66" s="259"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="133"/>
-      <c r="L66" s="90"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="36"/>
-    </row>
-    <row r="67" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="13"/>
-      <c r="C67" s="256"/>
-      <c r="D67" s="257"/>
-      <c r="E67" s="130"/>
-      <c r="H67" s="173"/>
-      <c r="I67" s="173"/>
-      <c r="J67" s="174"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="90"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="36"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B68" s="13"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="134"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="95"/>
-      <c r="J68" s="96"/>
-      <c r="K68" s="133"/>
-      <c r="L68" s="90"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="36"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B69" s="10"/>
-      <c r="C69" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="36"/>
-    </row>
-    <row r="70" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="10"/>
-      <c r="C70" s="86"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="92"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="36"/>
-    </row>
-    <row r="71" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="13"/>
-      <c r="C71" s="260" t="s">
+    <row r="89" spans="2:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="13"/>
+      <c r="C89" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="261"/>
-      <c r="E71" s="262"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="263" t="s">
-        <v>67</v>
+      <c r="D89" s="171"/>
+      <c r="E89" s="23" t="s">
+        <v>72</v>
       </c>
-      <c r="I71" s="264"/>
-      <c r="J71" s="81"/>
-      <c r="L71" s="90"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="36"/>
-      <c r="P71" s="51"/>
-    </row>
-    <row r="72" spans="2:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="13"/>
-      <c r="C72" s="223" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="209"/>
-      <c r="E72" s="27" t="s">
+      <c r="F89" s="39"/>
+      <c r="H89" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F72" s="51"/>
-      <c r="H72" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="I72" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="90"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="36"/>
-    </row>
-    <row r="73" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="13"/>
-      <c r="C73" s="196" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" s="197"/>
-      <c r="E73" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="F73" s="117"/>
-      <c r="H73" s="171" t="s">
-        <v>108</v>
-      </c>
-      <c r="I73" s="153" t="s">
-        <v>95</v>
-      </c>
-      <c r="J73" s="82"/>
-      <c r="K73" s="82"/>
-      <c r="L73" s="90"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="36"/>
-    </row>
-    <row r="74" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="13"/>
-      <c r="C74" s="200"/>
-      <c r="D74" s="201"/>
-      <c r="E74" s="130"/>
-      <c r="F74" s="117"/>
-      <c r="H74" s="172"/>
-      <c r="I74" s="172"/>
-      <c r="L74" s="90"/>
-      <c r="M74" s="11"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B75" s="13"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="95"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="L75" s="90"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="36"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B76" s="10"/>
-      <c r="C76" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="95"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="L76" s="90"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="36"/>
-    </row>
-    <row r="77" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="13"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="95"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="L77" s="90"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="36"/>
-    </row>
-    <row r="78" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="13"/>
-      <c r="C78" s="202" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="203"/>
-      <c r="E78" s="203"/>
-      <c r="F78" s="204"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="265" t="s">
+      <c r="I89" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="I78" s="266"/>
-      <c r="J78" s="266"/>
-      <c r="K78" s="267"/>
-      <c r="L78" s="90"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="36"/>
-      <c r="P78" s="51"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="75"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="30"/>
     </row>
-    <row r="79" spans="2:16" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="13"/>
-      <c r="C79" s="194" t="s">
-        <v>24</v>
+    <row r="90" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="13"/>
+      <c r="C90" s="168" t="s">
+        <v>107</v>
       </c>
-      <c r="D79" s="195"/>
-      <c r="E79" s="52" t="s">
-        <v>68</v>
+      <c r="D90" s="169"/>
+      <c r="E90" s="99" t="s">
+        <v>94</v>
       </c>
-      <c r="F79" s="53" t="s">
-        <v>64</v>
+      <c r="F90" s="100"/>
+      <c r="H90" s="101" t="s">
+        <v>107</v>
       </c>
-      <c r="H79" s="54" t="s">
-        <v>38</v>
+      <c r="I90" s="102" t="s">
+        <v>94</v>
       </c>
-      <c r="I79" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="J79" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="K79" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="L79" s="90"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="36"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="67"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="30"/>
     </row>
-    <row r="80" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="13"/>
-      <c r="C80" s="196" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" s="197"/>
-      <c r="E80" s="122" t="s">
-        <v>109</v>
-      </c>
-      <c r="F80" s="123" t="s">
-        <v>110</v>
-      </c>
-      <c r="H80" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="I80" s="125" t="s">
-        <v>112</v>
-      </c>
-      <c r="J80" s="125" t="s">
-        <v>113</v>
-      </c>
-      <c r="K80" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="L80" s="90"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="36"/>
-    </row>
-    <row r="81" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="13"/>
-      <c r="C81" s="198"/>
-      <c r="D81" s="199"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="127"/>
-      <c r="H81" s="126"/>
-      <c r="I81" s="127"/>
-      <c r="J81" s="127"/>
-      <c r="K81" s="128"/>
-      <c r="L81" s="90"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="36"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B82" s="13"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="95"/>
-      <c r="E82" s="96"/>
-      <c r="F82" s="96"/>
-      <c r="L82" s="90"/>
-      <c r="M82" s="11"/>
-    </row>
-    <row r="83" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="13"/>
-      <c r="C83" s="190" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="191"/>
-      <c r="E83" s="191"/>
-      <c r="F83" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="L83" s="90"/>
-      <c r="M83" s="11"/>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B84" s="13"/>
-      <c r="L84" s="90"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B85" s="10"/>
-      <c r="C85" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="D85" s="81"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="L85" s="90"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="36"/>
-    </row>
-    <row r="86" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="13"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="14"/>
-      <c r="L86" s="90"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="36"/>
-    </row>
-    <row r="87" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
-      <c r="C87" s="260" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" s="261"/>
-      <c r="E87" s="262"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="263" t="s">
-        <v>67</v>
-      </c>
-      <c r="I87" s="264"/>
-      <c r="L87" s="90"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="36"/>
-      <c r="P87" s="51"/>
-    </row>
-    <row r="88" spans="2:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="13"/>
-      <c r="C88" s="223" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="209"/>
-      <c r="E88" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F88" s="51"/>
-      <c r="H88" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="I88" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="90"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="36"/>
-    </row>
-    <row r="89" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="13"/>
-      <c r="C89" s="196" t="s">
-        <v>108</v>
-      </c>
-      <c r="D89" s="197"/>
-      <c r="E89" s="116" t="s">
-        <v>95</v>
-      </c>
-      <c r="F89" s="117"/>
-      <c r="H89" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="I89" s="119" t="s">
-        <v>95</v>
-      </c>
-      <c r="J89" s="82"/>
-      <c r="K89" s="82"/>
-      <c r="L89" s="90"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="36"/>
-    </row>
-    <row r="90" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="13"/>
-      <c r="C90" s="196"/>
-      <c r="D90" s="197"/>
-      <c r="E90" s="116"/>
-      <c r="F90" s="117"/>
-      <c r="H90" s="120"/>
-      <c r="I90" s="121"/>
-      <c r="J90" s="82"/>
-      <c r="K90" s="82"/>
-      <c r="L90" s="90"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="36"/>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="13"/>
-      <c r="L91" s="34"/>
+      <c r="C91" s="168"/>
+      <c r="D91" s="169"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="100"/>
+      <c r="H91" s="103"/>
+      <c r="I91" s="104"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="75"/>
       <c r="M91" s="11"/>
+      <c r="N91" s="30"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B92" s="10"/>
-      <c r="C92" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="G92" s="97"/>
-      <c r="H92" s="98"/>
-      <c r="I92" s="99"/>
-      <c r="J92" s="100"/>
-      <c r="K92" s="100"/>
+      <c r="B92" s="13"/>
+      <c r="L92" s="28"/>
       <c r="M92" s="11"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B93" s="58"/>
-      <c r="I93" s="101"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" s="80"/>
+      <c r="H93" s="81"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="83"/>
+      <c r="K93" s="83"/>
       <c r="M93" s="11"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B94" s="58"/>
-      <c r="I94" s="101"/>
+      <c r="B94" s="43"/>
+      <c r="I94" s="84"/>
       <c r="M94" s="11"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B95" s="58"/>
-      <c r="C95" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="60"/>
-      <c r="J95" s="59"/>
-      <c r="K95" s="59"/>
-      <c r="L95" s="59"/>
+      <c r="B95" s="43"/>
+      <c r="I95" s="84"/>
       <c r="M95" s="11"/>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B96" s="58"/>
-      <c r="I96" s="101"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="44"/>
       <c r="M96" s="11"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B97" s="13"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="62"/>
-      <c r="K97" s="62"/>
-      <c r="L97" s="62"/>
-      <c r="M97" s="64"/>
+      <c r="B97" s="43"/>
+      <c r="I97" s="84"/>
+      <c r="M97" s="11"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="102"/>
-      <c r="E98" s="102"/>
-      <c r="F98" s="103"/>
-      <c r="G98" s="102"/>
-      <c r="H98" s="102"/>
-      <c r="I98" s="102"/>
-      <c r="J98" s="102"/>
-      <c r="K98" s="102"/>
-      <c r="L98" s="102"/>
-      <c r="M98" s="64"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
+      <c r="L98" s="47"/>
+      <c r="M98" s="49"/>
     </row>
-    <row r="99" spans="1:14" s="69" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="65"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="68"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="11"/>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B99" s="13"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="86"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="85"/>
+      <c r="M99" s="49"/>
     </row>
-    <row r="100" spans="1:14" s="69" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="70"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
+    <row r="100" spans="1:14" s="54" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="50"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="53"/>
+      <c r="J100" s="53"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="44"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="1:14" s="69" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="70"/>
+    <row r="101" spans="1:14" s="54" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="55"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="104"/>
+      <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B102" s="71"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
-      <c r="K102" s="105"/>
-      <c r="M102" s="104"/>
-      <c r="N102" s="72"/>
+    <row r="102" spans="1:14" s="54" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="55"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="87"/>
     </row>
-    <row r="103" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="70"/>
-      <c r="C103" s="106"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="89"/>
-      <c r="F103" s="89"/>
-      <c r="G103" s="89"/>
-      <c r="H103" s="89"/>
-      <c r="I103" s="89"/>
-      <c r="M103" s="104"/>
+    <row r="103" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="B103" s="56"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="57"/>
+      <c r="K103" s="88"/>
+      <c r="M103" s="87"/>
+      <c r="N103" s="57"/>
     </row>
     <row r="104" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="73"/>
-      <c r="C104" s="106"/>
-      <c r="D104" s="107"/>
-      <c r="E104" s="107"/>
-      <c r="F104" s="107"/>
-      <c r="G104" s="107"/>
-      <c r="H104" s="107"/>
-      <c r="I104" s="107"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104"/>
-      <c r="M104" s="104"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="74"/>
+      <c r="I104" s="74"/>
+      <c r="M104" s="87"/>
     </row>
     <row r="105" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="13"/>
-      <c r="D105" s="89"/>
-      <c r="E105" s="89"/>
-      <c r="F105" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="G105" s="89"/>
-      <c r="H105" s="89"/>
-      <c r="I105" s="108"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="89"/>
+      <c r="D105" s="90"/>
+      <c r="E105" s="90"/>
+      <c r="F105" s="90"/>
+      <c r="G105" s="90"/>
+      <c r="H105" s="90"/>
+      <c r="I105" s="90"/>
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105"/>
-      <c r="M105" s="104"/>
+      <c r="M105" s="87"/>
     </row>
     <row r="106" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
-      <c r="C106" s="109"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="89"/>
-      <c r="F106" s="89"/>
-      <c r="G106" s="89"/>
-      <c r="H106" s="89"/>
-      <c r="I106" s="108"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="G106" s="74"/>
+      <c r="H106" s="74"/>
+      <c r="I106" s="91"/>
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106"/>
-      <c r="M106" s="104"/>
+      <c r="M106" s="87"/>
     </row>
     <row r="107" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
-      <c r="C107" s="109"/>
-      <c r="D107" s="89"/>
-      <c r="E107" s="89"/>
-      <c r="F107" s="89"/>
-      <c r="G107" s="89"/>
-      <c r="H107" s="89"/>
-      <c r="I107" s="110"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="91"/>
       <c r="J107"/>
       <c r="K107"/>
       <c r="L107"/>
-      <c r="M107" s="104"/>
+      <c r="M107" s="87"/>
     </row>
     <row r="108" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="74"/>
-      <c r="C108" s="75"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="111"/>
-      <c r="K108" s="111"/>
-      <c r="L108" s="111"/>
-      <c r="M108" s="112"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="93"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108" s="87"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C110" s="77"/>
+    <row r="109" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="59"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="94"/>
+      <c r="K109" s="94"/>
+      <c r="L109" s="94"/>
+      <c r="M109" s="95"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C111" s="77"/>
+      <c r="C111" s="62"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C112" s="77"/>
+      <c r="C112" s="62"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
+  <mergeCells count="54">
+    <mergeCell ref="C45:L45"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
     <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:E37"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C34:E36"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
     <mergeCell ref="E1:K5"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L2:M2"/>
@@ -33475,29 +33261,25 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C11:J12"/>
     <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C47:L47"/>
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C84:E84"/>
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C24:J25"/>
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C79:F79"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnnaReportesOperativos5\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897DC1AD-B06E-4C23-A3B5-F1CDF99C73E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CE6E27-146B-4443-895B-B9B50FF604E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
   </bookViews>
   <sheets>
     <sheet name="5_Diario" sheetId="5" r:id="rId1"/>
@@ -116,13 +116,14 @@
     <definedName name="DESPACHO">#REF!</definedName>
     <definedName name="DIARIO">#REF!</definedName>
     <definedName name="Firmas">INDEX('[6]DATOS CORREOS'!$L$2:$L$9,MATCH(#REF!,'[6]DATOS CORREOS'!$K$2:$K$9,0))</definedName>
-    <definedName name="GasNaturalAsociado_Items">'5_Diario'!$C$15:$J$16</definedName>
-    <definedName name="GasNaturalSeco_Items">'5_Diario'!$C$27:$J$28</definedName>
+    <definedName name="GasNaturalAsociado_Items">'5_Diario'!$C$15:$L$16</definedName>
+    <definedName name="GasNaturalAsociado2_Items">'5_Diario'!#REF!</definedName>
+    <definedName name="GasNaturalSeco_Items">'5_Diario'!$C$28:$L$29</definedName>
     <definedName name="GGG">#REF!</definedName>
     <definedName name="HORARIO">#REF!</definedName>
     <definedName name="HORAS">#REF!</definedName>
     <definedName name="INVROMT">#REF!</definedName>
-    <definedName name="LiquidosGasNaturalProduccionVentas_Items">'5_Diario'!$C$37:$I$38</definedName>
+    <definedName name="LiquidosGasNaturalProduccionVentas_Items">'5_Diario'!$C$39:$L$40</definedName>
     <definedName name="MAR">#REF!</definedName>
     <definedName name="MARCIANITO">#REF!</definedName>
     <definedName name="MARCIANITO20">#REF!</definedName>
@@ -175,6 +176,8 @@
     <definedName name="SHELLPI500">#REF!</definedName>
     <definedName name="SKERO">#REF!</definedName>
     <definedName name="TANQUE2">#REF!</definedName>
+    <definedName name="TanqueDespachoGalCgn_Items">'5_Diario'!$C$51:$L$52</definedName>
+    <definedName name="TanqueDespachoGalGlp_Items">'5_Diario'!$C$45:$L$46</definedName>
     <definedName name="TE">[5]texaco!$A$8:$T$38</definedName>
     <definedName name="TEXCIESEL">#REF!</definedName>
     <definedName name="TEXDIESEL">#REF!</definedName>
@@ -186,29 +189,35 @@
     <definedName name="TTRC">#REF!</definedName>
     <definedName name="VAR">#REF!</definedName>
     <definedName name="VENTAS">#REF!</definedName>
-    <definedName name="VolumenProduccionEnel_Items">'5_Diario'!$C$74:$F$75</definedName>
-    <definedName name="VolumenProduccionGasNaturalEnel_Items">'5_Diario'!$H$72:$J$73</definedName>
-    <definedName name="VolumenProduccionLiquidoGasNatural_Items">'5_Diario'!$H$81:$K$82</definedName>
-    <definedName name="VolumenProduccionLoteIvLiquidoGasNatural_Items">'5_Diario'!$H$90:$I$91</definedName>
-    <definedName name="VolumenProduccionLoteIvUnnaEnegia_Items">'5_Diario'!$C$90:$E$91</definedName>
-    <definedName name="VolumenProduccionLoteXGnaTotalCnpc_Items">'5_Diario'!$C$65:$E$66</definedName>
-    <definedName name="VolumenProduccionLoteXLiquidoGasNatural_Items">'5_Diario'!$H$65:$J$66</definedName>
-    <definedName name="VolumenProduccionPetroperu_Items">'5_Diario'!$C$81:$F$82</definedName>
+    <definedName name="VolumenProduccionEnel_Items">'5_Diario'!#REF!</definedName>
+    <definedName name="VolumenProduccionGasNaturalEnel_Items">'5_Diario'!#REF!</definedName>
+    <definedName name="VolumenProduccionLiquidoGasNatural_Items">'5_Diario'!#REF!</definedName>
+    <definedName name="VolumenProduccionLoteIvLiquidoGasNatural_Items">'5_Diario'!#REF!</definedName>
+    <definedName name="VolumenProduccionLoteIvUnnaEnegia_Items">'5_Diario'!#REF!</definedName>
+    <definedName name="VolumenProduccionLoteXGnaTotalCnpc_Items">'5_Diario'!#REF!</definedName>
+    <definedName name="VolumenProduccionLoteXLiquidoGasNatural_Items">'5_Diario'!#REF!</definedName>
+    <definedName name="VolumenProduccionPetroperu_Items">'5_Diario'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
-  <si>
-    <t>Volumen</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="162">
   <si>
     <t>RIQUEZA</t>
   </si>
@@ -225,49 +234,16 @@
     <t>LOTE Z-69</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>TK-4601</t>
-  </si>
-  <si>
-    <t>TK-4607</t>
-  </si>
-  <si>
-    <t>LIMA GAS S.A.</t>
-  </si>
-  <si>
-    <t>PIURA GAS S.A.C.</t>
-  </si>
-  <si>
-    <t>AERO GAS DEL NORTE S.A.C.</t>
-  </si>
-  <si>
     <t>GAL/MPC</t>
   </si>
   <si>
-    <t>REPORTE DIARIO PGT</t>
-  </si>
-  <si>
-    <t>UNNA Energía-IG-F-003</t>
-  </si>
-  <si>
     <t>Versión / Fecha</t>
-  </si>
-  <si>
-    <t>05 / 21-07-23</t>
   </si>
   <si>
     <t>Rev:</t>
   </si>
   <si>
     <t>Aprob:</t>
-  </si>
-  <si>
-    <t>JPG</t>
-  </si>
-  <si>
-    <t>GOG</t>
   </si>
   <si>
     <t xml:space="preserve">     FECHA  :</t>
@@ -338,9 +314,6 @@
     <t>BLS</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL LGN </t>
-  </si>
-  <si>
     <t>TANQUE DE DESPACHO, PLACAS DE CISTERNAS Y VOLÚMENES DESPACHADOS DE GLP (GAL)</t>
   </si>
   <si>
@@ -374,25 +347,7 @@
     <t>Total gal. GLP</t>
   </si>
   <si>
-    <t>Tanque N°</t>
-  </si>
-  <si>
-    <t>Placa de Cisterna</t>
-  </si>
-  <si>
-    <t>BAA-982</t>
-  </si>
-  <si>
-    <t>C9K-983</t>
-  </si>
-  <si>
-    <t>F0G-980</t>
-  </si>
-  <si>
     <t>TANQUE DE DESPACHO, PLACAS DE CISTERNAS Y VOLÚMENES DESPACHADOS DE CGN (GAL)</t>
-  </si>
-  <si>
-    <t>F8R-976</t>
   </si>
   <si>
     <t>GNA TOTAL DE CNPC</t>
@@ -492,19 +447,10 @@
     <t>{{Comentario}}</t>
   </si>
   <si>
-    <t>{{item.Lote}}</t>
-  </si>
-  <si>
     <t>{{item.Volumen}}</t>
   </si>
   <si>
     <t>{{item.Calorifico}}</t>
-  </si>
-  <si>
-    <t>{{item.Riqueza}}</t>
-  </si>
-  <si>
-    <t>{{item.RiquezaBls}}</t>
   </si>
   <si>
     <t>{{item.EnergiaDiaria}}</t>
@@ -534,48 +480,272 @@
     <t>{{item.VentaMensual}}</t>
   </si>
   <si>
-    <t>{{item.Nombre}}</t>
+    <t>DISTRIBUCION</t>
   </si>
   <si>
-    <t>{{item.GnaRecibido}}</t>
+    <t>{{item.Lote}}</t>
   </si>
   <si>
-    <t>{{item.GnsTrasferido}}</t>
+    <t>{{item.Riqueza}}</t>
   </si>
   <si>
-    <t>{{item.Produccion}}</t>
+    <t>{{item.RiquezaBls}}</t>
   </si>
   <si>
-    <t>{{item.LoteZ69}}</t>
+    <t>{{item.Datos}}</t>
   </si>
   <si>
-    <t>{{item.LoteVi}}</t>
+    <t>{{item.Despacho1}}</t>
   </si>
   <si>
-    <t>{{item.LoteI}}</t>
+    <t>{{item.Despacho8}}</t>
   </si>
   <si>
-    <t>{{item.Suministrador}}</t>
+    <t>{{item.Total}}</t>
   </si>
   <si>
-    <t>DISTRIBUCION</t>
+    <t>{{item.Despacho7}}</t>
+  </si>
+  <si>
+    <t>{{item.Despacho6}}</t>
+  </si>
+  <si>
+    <t>{{item.Despacho5}}</t>
+  </si>
+  <si>
+    <t>{{item.Despacho4}}</t>
+  </si>
+  <si>
+    <t>{{item.Despacho3}}</t>
+  </si>
+  <si>
+    <t>{{item.Despacho2}}</t>
+  </si>
+  <si>
+    <t>VOLUMEN NOMINADO POR EGPSA</t>
+  </si>
+  <si>
+    <t>VOLUMEN ADICIONAL DISPONIBLE</t>
+  </si>
+  <si>
+    <t>GLP (BLS)</t>
+  </si>
+  <si>
+    <t>CGN (BLS)</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>{{VolumenNominadoEgpsa4}}</t>
+  </si>
+  <si>
+    <t>{{VolumenNominadoAdicional4}}</t>
+  </si>
+  <si>
+    <t>{{LiquidoGlp4}}</t>
+  </si>
+  <si>
+    <t>{{LiquidoCgn4}}</t>
+  </si>
+  <si>
+    <t>{{LiquidoTotal4}}</t>
+  </si>
+  <si>
+    <t>{{LiquidoGlp5}}</t>
+  </si>
+  <si>
+    <t>{{LiquidoCgn5}}</t>
+  </si>
+  <si>
+    <t>{{LiquidoTotal5}}</t>
+  </si>
+  <si>
+    <t>RECEPCIÓN DE GNA (RENOMINADO LOTE X)</t>
+  </si>
+  <si>
+    <t>GNS A ENEL</t>
+  </si>
+  <si>
+    <t>HUMEDAD DE GNA</t>
+  </si>
+  <si>
+    <t>GAS COMBUSTIBLE (VGC)</t>
+  </si>
+  <si>
+    <t>{{RecepcionDeGna5}}</t>
+  </si>
+  <si>
+    <t>{{GnsAEnel5}}</t>
+  </si>
+  <si>
+    <t>{{HumedadAgua5}}</t>
+  </si>
+  <si>
+    <t>{{GasFlare5}}</t>
+  </si>
+  <si>
+    <t>{{GasCombustible5}}</t>
+  </si>
+  <si>
+    <t>{{TotalDistribucion5}}</t>
+  </si>
+  <si>
+    <t>{{LoteZ69Gna}}</t>
+  </si>
+  <si>
+    <t>{{LoteViGna}}</t>
+  </si>
+  <si>
+    <t>{{LoteIGna}}</t>
+  </si>
+  <si>
+    <t>{{TotalGnaLotes}}</t>
+  </si>
+  <si>
+    <t>{{TotalGnsLotes}}</t>
+  </si>
+  <si>
+    <t>{{LoteZ69Gns}}</t>
+  </si>
+  <si>
+    <t>{{LoteViGns}}</t>
+  </si>
+  <si>
+    <t>{{LoteIGns}}</t>
+  </si>
+  <si>
+    <t>{{LoteZ69Glp}}</t>
+  </si>
+  <si>
+    <t>{{LoteZ69Cgn}}</t>
+  </si>
+  <si>
+    <t>{{LoteZ69Total}}</t>
+  </si>
+  <si>
+    <t>{{LoteViGlp}}</t>
+  </si>
+  <si>
+    <t>{{LoteViCgn}}</t>
+  </si>
+  <si>
+    <t>{{LoteViTotal}}</t>
+  </si>
+  <si>
+    <t>{{LoteIGlp}}</t>
+  </si>
+  <si>
+    <t>{{LoteICgn}}</t>
+  </si>
+  <si>
+    <t>{{LoteITotal}}</t>
+  </si>
+  <si>
+    <t>{{GasAlfare}}</t>
+  </si>
+  <si>
+    <t>VOLUMEN DE GNA</t>
+  </si>
+  <si>
+    <t>VENTA DE GNS A LIMAGAS</t>
+  </si>
+  <si>
+    <t>VENTA DE GNS A GASNORP</t>
+  </si>
+  <si>
+    <t>VENTA DE GNS A ENEL</t>
+  </si>
+  <si>
+    <t>VOLUMEN de GNS equiv. de LGN (VGL)</t>
+  </si>
+  <si>
+    <t>FLARE</t>
+  </si>
+  <si>
+    <t>{{VolumenVentaGna7}}</t>
+  </si>
+  <si>
+    <t>{{VentaGnsLimaGas7}}</t>
+  </si>
+  <si>
+    <t>{{VentaGnsGasnorp7}}</t>
+  </si>
+  <si>
+    <t>{{VentaAEnel7}}</t>
+  </si>
+  <si>
+    <t>{{GasCombustible7}}</t>
+  </si>
+  <si>
+    <t>{{VolumenEquivalente7}}</t>
+  </si>
+  <si>
+    <t>{{Flare7}}</t>
+  </si>
+  <si>
+    <t>{{VolumenGlp7}}</t>
+  </si>
+  <si>
+    <t>{{VolumenCgn7}}</t>
+  </si>
+  <si>
+    <t>{{VolumenTotal7}}</t>
+  </si>
+  <si>
+    <r>
+      <t>Representante</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNNA ENERGIA S.A</t>
+    </r>
+  </si>
+  <si>
+    <t>{{VersionFecha}}</t>
+  </si>
+  <si>
+    <t>{{NomCompania}}</t>
+  </si>
+  <si>
+    <t>{{Revisado}}</t>
+  </si>
+  <si>
+    <t>{{Aprobado}}</t>
+  </si>
+  <si>
+    <t>{{NombreReporte}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="[$-280A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="[$-280A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="169" formatCode="0_)"/>
-    <numFmt numFmtId="170" formatCode="0.0_)"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00000000000"/>
+    <numFmt numFmtId="168" formatCode="0_)"/>
+    <numFmt numFmtId="169" formatCode="0.0_)"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00000000000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -691,21 +861,26 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,18 +907,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9FBB5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -762,54 +931,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -851,51 +972,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -924,44 +1000,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1049,146 +1090,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1197,343 +1098,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1550,32 +1114,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="143">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1584,120 +1139,29 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="50" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1705,18 +1169,12 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1738,15 +1196,8 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1754,464 +1205,273 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="48" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="49" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2300,123 +1560,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>815837</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>84635</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1510748" cy="986611"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4711562" y="19420385"/>
-          <a:ext cx="1510748" cy="986611"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:softEdge rad="31750"/>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>404191</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>13252</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2506435" cy="280205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CuadroTexto 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4227443" y="20110174"/>
-          <a:ext cx="2506435" cy="280205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200" b="0"/>
-            <a:t>Representante</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200" b="0" baseline="0"/>
-            <a:t>UNNA ENERGIA S.A</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1200" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="BOL"/>
@@ -2457,7 +1605,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Correción 4606B"/>
@@ -2532,7 +1680,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ROMT"/>
@@ -23412,7 +22560,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABLAS"/>
@@ -24021,7 +23169,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="..."/>
@@ -24118,7 +23266,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="XXXXXXX"/>
@@ -29201,7 +28349,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="..."/>
@@ -29266,23 +28414,7 @@
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1">
-        <row r="4">
-          <cell r="J4">
-            <v>734.05</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18">
-            <v>999.91</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="S45">
-            <v>30111.289999999997</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
@@ -29377,7 +28509,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FECHA"/>
@@ -29663,7 +28795,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="COMPRAS DE GAS"/>
@@ -31023,7 +30155,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="MOLLENDO DIARIO"/>
@@ -31345,10 +30477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X113"/>
+  <dimension ref="A1:X276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -31380,1906 +30512,2599 @@
     <col min="25" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="199" t="s">
-        <v>13</v>
+      <c r="E1" s="126" t="s">
+        <v>161</v>
       </c>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="202" t="s">
-        <v>14</v>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="129" t="s">
+        <v>158</v>
       </c>
-      <c r="M1" s="203"/>
+      <c r="M1" s="130"/>
     </row>
-    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
-      <c r="C2" s="70"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="204" t="s">
-        <v>15</v>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="131" t="s">
+        <v>6</v>
       </c>
-      <c r="M2" s="205"/>
+      <c r="M2" s="132"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="70"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="206" t="s">
-        <v>16</v>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="133" t="s">
+        <v>157</v>
       </c>
-      <c r="M3" s="207"/>
+      <c r="M3" s="134"/>
     </row>
-    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
-      <c r="C4" s="70"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200"/>
-      <c r="L4" s="119" t="s">
-        <v>17</v>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="54" t="s">
+        <v>7</v>
       </c>
-      <c r="M4" s="120" t="s">
-        <v>18</v>
+      <c r="M4" s="55" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="121" t="s">
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="12" x14ac:dyDescent="0.2">
+      <c r="A6" s="74"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="74"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="74"/>
+      <c r="B7" s="101"/>
+      <c r="D7" s="29"/>
+      <c r="K7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="74"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="74"/>
+      <c r="B8" s="101"/>
+      <c r="D8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="M8" s="74"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="74"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="74"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="M10" s="74"/>
+    </row>
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="97"/>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="97"/>
+    </row>
+    <row r="13" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="120"/>
+      <c r="E13" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="74"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="123"/>
+      <c r="K14" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="74"/>
+    </row>
+    <row r="15" spans="1:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="116"/>
+      <c r="E15" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="124"/>
+      <c r="K15" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="98"/>
+    </row>
+    <row r="16" spans="1:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="98"/>
+    </row>
+    <row r="17" spans="1:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="M17" s="74"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="121"/>
+      <c r="J18" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="M18" s="74"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="121" t="s">
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="32"/>
+      <c r="M19" s="74"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="115" t="s">
         <v>20</v>
       </c>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="32"/>
+      <c r="M20" s="74"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="14"/>
     </row>
-    <row r="6" spans="2:16" ht="12" x14ac:dyDescent="0.2">
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="98"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="32"/>
+      <c r="M21" s="74"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="14"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="D7" s="71"/>
-      <c r="K7" s="72" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="32"/>
+      <c r="M22" s="74"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="74"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="D8" s="71"/>
-      <c r="K8" s="72"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="11"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="170" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="208"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="211"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="170" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="208"/>
-      <c r="E13" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="171" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="171"/>
-      <c r="I13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="211"/>
-      <c r="E14" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
-      <c r="C15" s="191" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="192"/>
-      <c r="E15" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="110" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="115"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="2:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="M17" s="11"/>
-      <c r="O17" s="18"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="195" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="195"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="107" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="212" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="212"/>
-      <c r="J18" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="74"/>
-      <c r="M18" s="11"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="19"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="C19" s="195" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="195"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="19"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-      <c r="C20" s="196" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="197"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="P20" s="18"/>
-    </row>
-    <row r="21" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="M21" s="11"/>
-      <c r="P21" s="18"/>
-    </row>
-    <row r="22" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="M22" s="11"/>
-      <c r="P22" s="18"/>
-    </row>
-    <row r="23" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="M23" s="11"/>
-      <c r="P23" s="18"/>
+      <c r="M23" s="74"/>
+      <c r="P23" s="13"/>
     </row>
-    <row r="24" spans="2:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="228" t="s">
-        <v>34</v>
+    <row r="24" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="M24" s="74"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="120" t="s">
+        <v>22</v>
       </c>
-      <c r="D24" s="229"/>
-      <c r="E24" s="229"/>
-      <c r="F24" s="229"/>
-      <c r="G24" s="229"/>
-      <c r="H24" s="230"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="11"/>
-      <c r="P24" s="18"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="74"/>
+      <c r="P25" s="13"/>
     </row>
-    <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="175" t="s">
-        <v>115</v>
+    <row r="26" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="122" t="s">
+        <v>85</v>
       </c>
-      <c r="D25" s="231"/>
-      <c r="E25" s="22" t="s">
-        <v>25</v>
+      <c r="D26" s="122"/>
+      <c r="E26" s="120" t="s">
+        <v>13</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>26</v>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120" t="s">
+        <v>14</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>86</v>
+      <c r="H26" s="120"/>
+      <c r="I26" s="122" t="s">
+        <v>67</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>27</v>
+      <c r="J26" s="120"/>
+      <c r="K26" s="122" t="s">
+        <v>15</v>
       </c>
-      <c r="L25" s="75"/>
-      <c r="M25" s="11"/>
-      <c r="P25" s="18"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="74"/>
+      <c r="P26" s="13"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="232"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="131" t="s">
-        <v>65</v>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122" t="s">
+        <v>46</v>
       </c>
-      <c r="F26" s="131" t="s">
-        <v>4</v>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122" t="s">
+        <v>3</v>
       </c>
-      <c r="G26" s="131" t="s">
-        <v>65</v>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122" t="s">
+        <v>46</v>
       </c>
-      <c r="H26" s="132" t="s">
-        <v>35</v>
+      <c r="J27" s="122"/>
+      <c r="K27" s="125" t="s">
+        <v>23</v>
       </c>
-      <c r="L26" s="75"/>
-      <c r="M26" s="11"/>
-      <c r="P26" s="18"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="74"/>
+      <c r="P27" s="13"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
-      <c r="C27" s="184" t="s">
-        <v>101</v>
+    <row r="28" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="142" t="s">
+        <v>79</v>
       </c>
-      <c r="D27" s="185"/>
-      <c r="E27" s="135" t="s">
-        <v>94</v>
+      <c r="D28" s="142"/>
+      <c r="E28" s="140" t="s">
+        <v>74</v>
       </c>
-      <c r="F27" s="113" t="s">
-        <v>95</v>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140" t="s">
+        <v>75</v>
       </c>
-      <c r="G27" s="135" t="s">
-        <v>99</v>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140" t="s">
+        <v>77</v>
       </c>
-      <c r="H27" s="136" t="s">
-        <v>98</v>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140" t="s">
+        <v>76</v>
       </c>
-      <c r="I27" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="L27" s="75"/>
-      <c r="M27" s="11"/>
-      <c r="P27" s="18"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="74"/>
+      <c r="P28" s="13"/>
     </row>
-    <row r="28" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="134"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="11"/>
-      <c r="P28" s="18"/>
+    <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="74"/>
+      <c r="P29" s="13"/>
     </row>
-    <row r="29" spans="2:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="11"/>
-      <c r="P29" s="18"/>
-    </row>
-    <row r="30" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="71" t="s">
-        <v>82</v>
-      </c>
+    <row r="30" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="11"/>
-      <c r="P30" s="18"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="74"/>
+      <c r="P30" s="13"/>
     </row>
-    <row r="31" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
+    <row r="31" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="11"/>
-      <c r="P31" s="18"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="74"/>
+      <c r="P31" s="13"/>
     </row>
-    <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="215" t="s">
-        <v>36</v>
+    <row r="32" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="29" t="s">
+        <v>63</v>
       </c>
-      <c r="D32" s="216"/>
-      <c r="E32" s="21" t="s">
-        <v>91</v>
-      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
       <c r="G32"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="11"/>
-      <c r="P32" s="18"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="74"/>
+      <c r="P32" s="13"/>
     </row>
-    <row r="33" spans="2:24" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
+    <row r="33" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="11"/>
-      <c r="P33" s="18"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="74"/>
+      <c r="P33" s="13"/>
     </row>
-    <row r="34" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
-      <c r="C34" s="217" t="s">
-        <v>66</v>
+    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="117" t="s">
+        <v>24</v>
       </c>
-      <c r="D34" s="218"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="225" t="s">
+      <c r="D34" s="117"/>
+      <c r="E34" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="74"/>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="74"/>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="120"/>
+      <c r="M36" s="74"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="74"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="74"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="74"/>
+      <c r="P38" s="13"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="19"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="L39" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" s="74"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="74"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="M41" s="74"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="M42" s="74"/>
+    </row>
+    <row r="43" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="119"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="21"/>
+      <c r="P43" s="13"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="19"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171" t="s">
+      <c r="I44" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="208"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="11"/>
-      <c r="P34" s="18"/>
-    </row>
-    <row r="35" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="13"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="221"/>
-      <c r="F35" s="24" t="s">
+      <c r="J44" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="K44" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="L44" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="M44" s="74"/>
+      <c r="P44" s="13"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="19"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="K45" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="M45" s="74"/>
+      <c r="P45" s="13"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="19"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="74"/>
+      <c r="P46" s="13"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="19"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" s="74"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="12"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="98"/>
+      <c r="P47" s="13"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="19"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48" s="74"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="12"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="98"/>
+      <c r="P48" s="13"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="19"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A49" s="74"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="119"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="119"/>
+      <c r="M49" s="74"/>
+      <c r="P49" s="13"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="19"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="75"/>
-      <c r="M35" s="11"/>
-      <c r="P35" s="18"/>
+      <c r="L50" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="M50" s="74"/>
+      <c r="P50" s="13"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="19"/>
     </row>
-    <row r="36" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
-      <c r="C36" s="222"/>
-      <c r="D36" s="223"/>
-      <c r="E36" s="224"/>
-      <c r="F36" s="137" t="s">
-        <v>42</v>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A51" s="74"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="65" t="s">
+        <v>89</v>
       </c>
-      <c r="G36" s="138" t="s">
-        <v>42</v>
+      <c r="D51" s="93" t="s">
+        <v>90</v>
       </c>
-      <c r="H36" s="137" t="s">
-        <v>42</v>
+      <c r="E51" s="93" t="s">
+        <v>98</v>
       </c>
-      <c r="I36" s="139" t="s">
-        <v>42</v>
+      <c r="F51" s="93" t="s">
+        <v>97</v>
       </c>
-      <c r="L36" s="75"/>
-      <c r="M36" s="11"/>
-      <c r="P36" s="18"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="29"/>
+      <c r="G51" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="J51" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="K51" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="L51" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="M51" s="74"/>
+      <c r="P51" s="13"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="19"/>
     </row>
-    <row r="37" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="13"/>
-      <c r="C37" s="234" t="s">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A52" s="74"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="98"/>
+      <c r="P52" s="13"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="19"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A53" s="74"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="12"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="98"/>
+      <c r="P53" s="13"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="19"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A54" s="74"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="12"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="98"/>
+      <c r="P54" s="13"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="19"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" s="74"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="20"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A56" s="74"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="29"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="20"/>
+    </row>
+    <row r="57" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="74"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="34"/>
+      <c r="H57" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="M57" s="98"/>
+      <c r="N57" s="20"/>
+    </row>
+    <row r="58" spans="1:24" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="74"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="120"/>
+      <c r="E58" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="34"/>
+      <c r="H58" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="M58" s="98"/>
+      <c r="N58" s="20"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A59" s="74"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="120"/>
+      <c r="E59" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="34"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="20"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A60" s="74"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="121" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="121"/>
+      <c r="E60" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="34"/>
+      <c r="H60" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" s="141"/>
+      <c r="J60" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="M60" s="98"/>
+      <c r="N60" s="20"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A61" s="74"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="121" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="121"/>
+      <c r="E61" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="34"/>
+      <c r="H61" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="235"/>
-      <c r="E37" s="235"/>
-      <c r="F37" s="142" t="s">
+      <c r="I61" s="141"/>
+      <c r="J61" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="M61" s="98"/>
+      <c r="N61" s="20"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A62" s="74"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="29"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="H62" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="142" t="s">
-        <v>104</v>
+      <c r="I62" s="141"/>
+      <c r="J62" s="58" t="s">
+        <v>108</v>
       </c>
-      <c r="H37" s="142" t="s">
-        <v>105</v>
+      <c r="M62" s="98"/>
+      <c r="N62" s="20"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A63" s="74"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="29"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="M63" s="98"/>
+      <c r="N63" s="20"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A64" s="74"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="29"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="M64" s="98"/>
+      <c r="N64" s="20"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="74"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="12" t="s">
+        <v>59</v>
       </c>
-      <c r="I37" s="143" t="s">
-        <v>106</v>
+      <c r="D65" s="12"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="M65" s="98"/>
+      <c r="N65" s="20"/>
+    </row>
+    <row r="66" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="74"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="51"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="74"/>
+      <c r="N66" s="20"/>
+    </row>
+    <row r="67" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="74"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="120" t="s">
+        <v>51</v>
       </c>
-      <c r="L37" s="75"/>
-      <c r="M37" s="11"/>
-      <c r="P37" s="18"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="29"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" s="122"/>
+      <c r="J67" s="122"/>
+      <c r="M67" s="98"/>
+      <c r="N67" s="20"/>
     </row>
-    <row r="38" spans="2:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="213"/>
-      <c r="D38" s="214"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="141"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="11"/>
-      <c r="P38" s="18"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="29"/>
+    <row r="68" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="74"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="120"/>
+      <c r="E68" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="I68" s="122"/>
+      <c r="J68" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="M68" s="98"/>
+      <c r="N68" s="20"/>
     </row>
-    <row r="39" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
-      <c r="C39" s="226" t="s">
-        <v>43</v>
+    <row r="69" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="74"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="115" t="s">
+        <v>112</v>
       </c>
-      <c r="D39" s="227"/>
-      <c r="E39" s="31">
-        <f>'[6]2_Líquidos'!G18</f>
-        <v>999.91</v>
+      <c r="D69" s="115"/>
+      <c r="E69" s="113" t="s">
+        <v>116</v>
       </c>
-      <c r="F39" s="31">
-        <f>'[6]2_Líquidos'!S$45</f>
-        <v>30111.289999999997</v>
+      <c r="F69" s="22"/>
+      <c r="H69" s="141" t="s">
+        <v>101</v>
       </c>
-      <c r="G39" s="31">
-        <f>SUM(H37:H38)</f>
-        <v>0</v>
+      <c r="I69" s="141"/>
+      <c r="J69" s="58" t="s">
+        <v>109</v>
       </c>
-      <c r="H39" s="32">
-        <f>SUM(I37:I38)</f>
-        <v>0</v>
+      <c r="K69" s="14"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="74"/>
+      <c r="N69" s="20"/>
+    </row>
+    <row r="70" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="74"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="115" t="s">
+        <v>113</v>
       </c>
-      <c r="M39" s="11"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="22"/>
+      <c r="H70" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70" s="141"/>
+      <c r="J70" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K70" s="14"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="20"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B40" s="13"/>
-      <c r="M40" s="11"/>
+    <row r="71" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="74"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="115" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="115"/>
+      <c r="E71" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="22"/>
+      <c r="H71" s="141" t="s">
+        <v>103</v>
+      </c>
+      <c r="I71" s="141"/>
+      <c r="J71" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="K71" s="14"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="74"/>
+      <c r="N71" s="20"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="M41" s="11"/>
+    <row r="72" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="74"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="115"/>
+      <c r="E72" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="74"/>
+      <c r="N72" s="20"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B42" s="13"/>
-      <c r="M42" s="11"/>
+    <row r="73" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="74"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="115"/>
+      <c r="E73" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="22"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="20"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B43" s="13"/>
-      <c r="M43" s="11"/>
+    <row r="74" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="74"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="115"/>
+      <c r="E74" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="F74" s="22"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="20"/>
     </row>
-    <row r="44" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="13"/>
-      <c r="M44" s="11"/>
+    <row r="75" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="74"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="22"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="74"/>
+      <c r="N75" s="20"/>
     </row>
-    <row r="45" spans="2:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="236" t="s">
+    <row r="76" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="74"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="22"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="74"/>
+      <c r="N76" s="20"/>
+    </row>
+    <row r="77" spans="1:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="74"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="50"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="74"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="74"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="36"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="74"/>
+      <c r="N78" s="20"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" s="74"/>
+      <c r="B79" s="74"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="20"/>
+    </row>
+    <row r="80" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="74"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="120"/>
+      <c r="E80" s="120"/>
+      <c r="F80" s="120"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="136" t="s">
+        <v>56</v>
+      </c>
+      <c r="I80" s="136"/>
+      <c r="J80" s="136"/>
+      <c r="K80" s="136"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="74"/>
+      <c r="N80" s="20"/>
+      <c r="P80" s="22"/>
+    </row>
+    <row r="81" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="74"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="120"/>
+      <c r="E81" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="237"/>
-      <c r="E45" s="237"/>
-      <c r="F45" s="237"/>
-      <c r="G45" s="237"/>
-      <c r="H45" s="237"/>
-      <c r="I45" s="237"/>
-      <c r="J45" s="237"/>
-      <c r="K45" s="237"/>
-      <c r="L45" s="238"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="34"/>
-      <c r="P45" s="18"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="29"/>
+      <c r="H81" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="K81" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="L81" s="33"/>
+      <c r="M81" s="74"/>
+      <c r="N81" s="20"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B46" s="13"/>
-      <c r="C46" s="146" t="s">
+    <row r="82" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="74"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="139"/>
+      <c r="E82" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="H82" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I82" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="J82" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="K82" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="L82" s="33"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="20"/>
+    </row>
+    <row r="83" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="74"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="139"/>
+      <c r="E83" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="H83" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="J83" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="K83" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="L83" s="33"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="20"/>
+    </row>
+    <row r="84" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="74"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="139"/>
+      <c r="E84" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="H84" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="I84" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="J84" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="K84" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="L84" s="33"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="20"/>
+    </row>
+    <row r="85" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="74"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="138" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="139"/>
+      <c r="E85" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="H85" s="82"/>
+      <c r="I85" s="82"/>
+      <c r="J85" s="82"/>
+      <c r="K85" s="82"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="74"/>
+      <c r="N85" s="20"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="74"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="74"/>
+    </row>
+    <row r="87" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="74"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="35" t="s">
-        <v>46</v>
+      <c r="D87" s="137"/>
+      <c r="E87" s="137"/>
+      <c r="F87" s="87" t="s">
+        <v>139</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="L87" s="33"/>
+      <c r="M87" s="74"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88" s="74"/>
+      <c r="B88" s="74"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="74"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" s="74"/>
+      <c r="B89" s="101"/>
+      <c r="C89" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="26"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="20"/>
+    </row>
+    <row r="90" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="74"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="12"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="74"/>
+      <c r="N90" s="20"/>
+    </row>
+    <row r="91" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="74"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="120"/>
+      <c r="E91" s="120"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="J46" s="36" t="s">
+      <c r="I91" s="122"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="74"/>
+      <c r="N91" s="20"/>
+      <c r="P91" s="22"/>
+    </row>
+    <row r="92" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="74"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="K46" s="36" t="s">
+      <c r="D92" s="120"/>
+      <c r="E92" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="L46" s="37" t="s">
+      <c r="F92" s="22"/>
+      <c r="H92" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="M46" s="11"/>
-      <c r="P46" s="18"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="29"/>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B47" s="13"/>
-      <c r="C47" s="147" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="122" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="123">
-        <v>0</v>
-      </c>
-      <c r="H47" s="123">
-        <v>0</v>
-      </c>
-      <c r="I47" s="123">
-        <v>0</v>
-      </c>
-      <c r="J47" s="123">
-        <v>0</v>
-      </c>
-      <c r="K47" s="123">
-        <v>0</v>
-      </c>
-      <c r="L47" s="124">
-        <f>+COUNTIF(B50:K50,"&gt;1")</f>
-        <v>3</v>
-      </c>
-      <c r="M47" s="11"/>
-      <c r="P47" s="18"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="29"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B48" s="13"/>
-      <c r="C48" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="125" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="126" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="126">
-        <v>0</v>
-      </c>
-      <c r="H48" s="126">
-        <v>0</v>
-      </c>
-      <c r="I48" s="126">
-        <v>0</v>
-      </c>
-      <c r="J48" s="126">
-        <v>0</v>
-      </c>
-      <c r="K48" s="126">
-        <v>0</v>
-      </c>
-      <c r="L48" s="124"/>
-      <c r="M48" s="11"/>
-      <c r="P48" s="18"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="29"/>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B49" s="13"/>
-      <c r="C49" s="148" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="122" t="s">
+      <c r="I92" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="123" t="s">
-        <v>58</v>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="74"/>
+      <c r="N92" s="20"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" s="74"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="135" t="s">
+        <v>140</v>
       </c>
-      <c r="F49" s="123" t="s">
-        <v>59</v>
+      <c r="D93" s="135"/>
+      <c r="E93" s="86" t="s">
+        <v>146</v>
       </c>
-      <c r="G49" s="123">
-        <v>0</v>
+      <c r="H93" s="88" t="s">
+        <v>101</v>
       </c>
-      <c r="H49" s="123">
-        <v>0</v>
+      <c r="I93" s="86" t="s">
+        <v>153</v>
       </c>
-      <c r="I49" s="123">
-        <v>0</v>
+      <c r="L93" s="18"/>
+      <c r="M93" s="74"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="74"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="135" t="s">
+        <v>141</v>
       </c>
-      <c r="J49" s="123">
-        <v>0</v>
+      <c r="D94" s="135"/>
+      <c r="E94" s="86" t="s">
+        <v>147</v>
       </c>
-      <c r="K49" s="123">
-        <v>0</v>
+      <c r="H94" s="88" t="s">
+        <v>102</v>
       </c>
-      <c r="L49" s="124"/>
-      <c r="M49" s="17"/>
-      <c r="P49" s="18"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="29"/>
+      <c r="I94" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="L94" s="18"/>
+      <c r="M94" s="74"/>
     </row>
-    <row r="50" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
-      <c r="C50" s="149" t="s">
-        <v>0</v>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="74"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="135" t="s">
+        <v>142</v>
       </c>
-      <c r="D50" s="127">
-        <v>13552</v>
+      <c r="D95" s="135"/>
+      <c r="E95" s="86" t="s">
+        <v>148</v>
       </c>
-      <c r="E50" s="128">
-        <v>12074</v>
+      <c r="H95" s="88" t="s">
+        <v>103</v>
       </c>
-      <c r="F50" s="128">
-        <v>11469</v>
+      <c r="I95" s="86" t="s">
+        <v>155</v>
       </c>
-      <c r="G50" s="128">
-        <v>0</v>
+      <c r="L95" s="18"/>
+      <c r="M95" s="74"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="74"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="135" t="s">
+        <v>143</v>
       </c>
-      <c r="H50" s="128">
-        <v>0</v>
+      <c r="D96" s="135"/>
+      <c r="E96" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="I50" s="128">
-        <v>0</v>
+      <c r="L96" s="18"/>
+      <c r="M96" s="74"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="74"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="135" t="s">
+        <v>115</v>
       </c>
-      <c r="J50" s="128">
-        <v>0</v>
+      <c r="D97" s="135"/>
+      <c r="E97" s="86" t="s">
+        <v>150</v>
       </c>
-      <c r="K50" s="128">
-        <v>0</v>
+      <c r="L97" s="18"/>
+      <c r="M97" s="74"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="74"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="135" t="s">
+        <v>144</v>
       </c>
-      <c r="L50" s="129">
-        <f>+SUM(B50:K50)</f>
-        <v>37095</v>
+      <c r="D98" s="135"/>
+      <c r="E98" s="86" t="s">
+        <v>151</v>
       </c>
-      <c r="M50" s="17"/>
-      <c r="P50" s="18"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="29"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="74"/>
     </row>
-    <row r="51" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="17"/>
-      <c r="P51" s="18"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="29"/>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="74"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="135" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="135"/>
+      <c r="E99" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="L99" s="18"/>
+      <c r="M99" s="74"/>
     </row>
-    <row r="52" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="13"/>
-      <c r="C52" s="236" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="237"/>
-      <c r="E52" s="237"/>
-      <c r="F52" s="237"/>
-      <c r="G52" s="237"/>
-      <c r="H52" s="237"/>
-      <c r="I52" s="237"/>
-      <c r="J52" s="237"/>
-      <c r="K52" s="237"/>
-      <c r="L52" s="238"/>
-      <c r="M52" s="11"/>
-      <c r="P52" s="18"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="29"/>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="74"/>
+      <c r="B100" s="74"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="74"/>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B53" s="13"/>
-      <c r="C53" s="146" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="I53" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="J53" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K53" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="L53" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="M53" s="11"/>
-      <c r="P53" s="18"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="29"/>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="74"/>
+      <c r="B101" s="74"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="74"/>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B54" s="13"/>
-      <c r="C54" s="147" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="123">
-        <v>0</v>
-      </c>
-      <c r="F54" s="123">
-        <v>0</v>
-      </c>
-      <c r="G54" s="123">
-        <v>0</v>
-      </c>
-      <c r="H54" s="123">
-        <v>0</v>
-      </c>
-      <c r="I54" s="123">
-        <v>0</v>
-      </c>
-      <c r="J54" s="123">
-        <v>0</v>
-      </c>
-      <c r="K54" s="123">
-        <v>0</v>
-      </c>
-      <c r="L54" s="124">
-        <f>+COUNTIF(B57:K57,"&gt;1")</f>
-        <v>1</v>
-      </c>
-      <c r="M54" s="11"/>
-      <c r="P54" s="18"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="29"/>
-    </row>
-    <row r="55" spans="2:24" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B55" s="13"/>
-      <c r="C55" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="126">
-        <v>0</v>
-      </c>
-      <c r="F55" s="126">
-        <v>0</v>
-      </c>
-      <c r="G55" s="126">
-        <v>0</v>
-      </c>
-      <c r="H55" s="126">
-        <v>0</v>
-      </c>
-      <c r="I55" s="126">
-        <v>0</v>
-      </c>
-      <c r="J55" s="126">
-        <v>0</v>
-      </c>
-      <c r="K55" s="126">
-        <v>0</v>
-      </c>
-      <c r="L55" s="124"/>
-      <c r="M55" s="11"/>
-      <c r="P55" s="18"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="29"/>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B56" s="13"/>
-      <c r="C56" s="148" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="123">
-        <v>0</v>
-      </c>
-      <c r="F56" s="123">
-        <v>0</v>
-      </c>
-      <c r="G56" s="123">
-        <v>0</v>
-      </c>
-      <c r="H56" s="123">
-        <v>0</v>
-      </c>
-      <c r="I56" s="123">
-        <v>0</v>
-      </c>
-      <c r="J56" s="123">
-        <v>0</v>
-      </c>
-      <c r="K56" s="123">
-        <v>0</v>
-      </c>
-      <c r="L56" s="124"/>
-      <c r="M56" s="17"/>
-      <c r="P56" s="18"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="29"/>
-    </row>
-    <row r="57" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="13"/>
-      <c r="C57" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="127">
-        <v>13748</v>
-      </c>
-      <c r="E57" s="128">
-        <v>0</v>
-      </c>
-      <c r="F57" s="128">
-        <v>0</v>
-      </c>
-      <c r="G57" s="128">
-        <v>0</v>
-      </c>
-      <c r="H57" s="128">
-        <v>0</v>
-      </c>
-      <c r="I57" s="128">
-        <v>0</v>
-      </c>
-      <c r="J57" s="128">
-        <v>0</v>
-      </c>
-      <c r="K57" s="128">
-        <v>0</v>
-      </c>
-      <c r="L57" s="129">
-        <f>+SUM(B57:K57)</f>
-        <v>13748</v>
-      </c>
-      <c r="M57" s="17"/>
-      <c r="P57" s="18"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="29"/>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="17"/>
-      <c r="P58" s="18"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="29"/>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="17"/>
-      <c r="P59" s="18"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="29"/>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B60" s="10"/>
-      <c r="C60" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="30"/>
-    </row>
-    <row r="61" spans="2:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
-      <c r="C61" s="71"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="30"/>
-    </row>
-    <row r="62" spans="2:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="10"/>
-      <c r="C62" s="170" t="s">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="74"/>
+      <c r="B102" s="101"/>
+      <c r="C102" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="171"/>
-      <c r="E62" s="245"/>
-      <c r="F62" s="76"/>
-      <c r="H62" s="163" t="s">
-        <v>66</v>
-      </c>
-      <c r="I62" s="163"/>
-      <c r="J62" s="163"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="30"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="M102" s="74"/>
     </row>
-    <row r="63" spans="2:24" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B63" s="10"/>
-      <c r="C63" s="239" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="240"/>
-      <c r="E63" s="132" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="76"/>
-      <c r="H63" s="163" t="s">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="74"/>
+      <c r="B103" s="102"/>
+      <c r="C103" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="I63" s="163"/>
-      <c r="J63" s="163" t="s">
-        <v>76</v>
-      </c>
-      <c r="M63" s="17"/>
-      <c r="N63" s="30"/>
+      <c r="I103" s="42"/>
+      <c r="M103" s="74"/>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B64" s="10"/>
-      <c r="C64" s="239"/>
-      <c r="D64" s="240"/>
-      <c r="E64" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F64" s="76"/>
-      <c r="H64" s="163"/>
-      <c r="I64" s="163"/>
-      <c r="J64" s="163"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="30"/>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="74"/>
+      <c r="B104" s="102"/>
+      <c r="I104" s="42"/>
+      <c r="M104" s="74"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="10"/>
-      <c r="C65" s="193" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="242"/>
-      <c r="E65" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="F65" s="76"/>
-      <c r="H65" s="248" t="s">
-        <v>107</v>
-      </c>
-      <c r="I65" s="248"/>
-      <c r="J65" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="M65" s="17"/>
-      <c r="N65" s="30"/>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="74"/>
+      <c r="B105" s="102"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="92"/>
+      <c r="I105" s="92"/>
+      <c r="J105" s="92"/>
+      <c r="K105" s="92"/>
+      <c r="L105" s="92"/>
+      <c r="M105" s="74"/>
     </row>
-    <row r="66" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
-      <c r="C66" s="243"/>
-      <c r="D66" s="244"/>
-      <c r="E66" s="105"/>
-      <c r="F66" s="76"/>
-      <c r="H66" s="246"/>
-      <c r="I66" s="246"/>
-      <c r="J66" s="161"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="30"/>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="74"/>
+      <c r="B106" s="102"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="92"/>
+      <c r="F106" s="92"/>
+      <c r="G106" s="92"/>
+      <c r="H106" s="92"/>
+      <c r="I106" s="92"/>
+      <c r="J106" s="92"/>
+      <c r="K106" s="92"/>
+      <c r="L106" s="92"/>
+      <c r="M106" s="74"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="10"/>
-      <c r="C67" s="71"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="30"/>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" s="74"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="92"/>
+      <c r="I107" s="92"/>
+      <c r="J107" s="92"/>
+      <c r="K107" s="92"/>
+      <c r="L107" s="92"/>
+      <c r="M107" s="100"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B68" s="10"/>
-      <c r="C68" s="71"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="30"/>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="74"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="72"/>
+      <c r="K108" s="72"/>
+      <c r="L108" s="72"/>
+      <c r="M108" s="100"/>
     </row>
-    <row r="69" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="13"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="106"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="30"/>
+    <row r="109" spans="1:14" s="23" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="70"/>
+      <c r="B109" s="103"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="74"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B70" s="10"/>
-      <c r="C70" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="163" t="s">
-        <v>66</v>
-      </c>
-      <c r="I70" s="163"/>
-      <c r="J70" s="163"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="30"/>
+    <row r="110" spans="1:14" s="23" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="70"/>
+      <c r="B110" s="103"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="91"/>
     </row>
-    <row r="71" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="10"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="163" t="s">
-        <v>73</v>
-      </c>
-      <c r="I71" s="163"/>
-      <c r="J71" s="162" t="s">
-        <v>76</v>
-      </c>
-      <c r="M71" s="17"/>
-      <c r="N71" s="30"/>
+    <row r="111" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="74"/>
+      <c r="B111" s="104"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="43"/>
+      <c r="M111" s="91"/>
+      <c r="N111" s="24"/>
     </row>
-    <row r="72" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="10"/>
-      <c r="C72" s="177" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" s="178"/>
-      <c r="E72" s="179"/>
-      <c r="F72" s="76"/>
-      <c r="H72" s="248" t="s">
-        <v>107</v>
-      </c>
-      <c r="I72" s="248"/>
-      <c r="J72" s="247" t="s">
-        <v>94</v>
-      </c>
-      <c r="M72" s="17"/>
-      <c r="N72" s="30"/>
+    <row r="112" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="74"/>
+      <c r="B112" s="103"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="M112" s="91"/>
     </row>
-    <row r="73" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="13"/>
-      <c r="C73" s="241" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="225"/>
-      <c r="E73" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F73" s="39"/>
-      <c r="H73" s="246"/>
-      <c r="I73" s="246"/>
-      <c r="J73" s="161"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="30"/>
+    <row r="113" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="74"/>
+      <c r="B113" s="105"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="45"/>
+      <c r="I113" s="45"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113" s="91"/>
     </row>
-    <row r="74" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="13"/>
-      <c r="C74" s="164" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="165"/>
-      <c r="E74" s="159" t="s">
-        <v>94</v>
-      </c>
-      <c r="F74" s="160" t="s">
-        <v>94</v>
-      </c>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="75"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="30"/>
-    </row>
-    <row r="75" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="13"/>
-      <c r="C75" s="166"/>
-      <c r="D75" s="167"/>
-      <c r="E75" s="158"/>
-      <c r="F75" s="39"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="30"/>
-    </row>
-    <row r="76" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="13"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="106"/>
-      <c r="F76" s="100"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="11"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B77" s="10"/>
-      <c r="C77" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="78"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="30"/>
-    </row>
-    <row r="78" spans="2:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="13"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="L78" s="75"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="30"/>
-    </row>
-    <row r="79" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="13"/>
-      <c r="C79" s="188" t="s">
-        <v>68</v>
-      </c>
-      <c r="D79" s="189"/>
-      <c r="E79" s="189"/>
-      <c r="F79" s="190"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="172" t="s">
-        <v>75</v>
-      </c>
-      <c r="I79" s="173"/>
-      <c r="J79" s="173"/>
-      <c r="K79" s="174"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="30"/>
-      <c r="P79" s="39"/>
-    </row>
-    <row r="80" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="13"/>
-      <c r="C80" s="182" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="183"/>
-      <c r="E80" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F80" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H80" s="150" t="s">
-        <v>37</v>
-      </c>
-      <c r="I80" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="J80" s="151" t="s">
-        <v>2</v>
-      </c>
-      <c r="K80" s="152" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="75"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="30"/>
-    </row>
-    <row r="81" spans="2:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="13"/>
-      <c r="C81" s="184" t="s">
-        <v>114</v>
-      </c>
-      <c r="D81" s="185"/>
-      <c r="E81" s="156" t="s">
-        <v>108</v>
-      </c>
-      <c r="F81" s="157" t="s">
-        <v>109</v>
-      </c>
-      <c r="H81" s="145" t="s">
-        <v>110</v>
-      </c>
-      <c r="I81" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="J81" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="K81" s="136" t="s">
-        <v>113</v>
-      </c>
-      <c r="L81" s="75"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="30"/>
-    </row>
-    <row r="82" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="13"/>
-      <c r="C82" s="186"/>
-      <c r="D82" s="187"/>
-      <c r="E82" s="133"/>
-      <c r="F82" s="134"/>
-      <c r="H82" s="153"/>
-      <c r="I82" s="154"/>
-      <c r="J82" s="154"/>
-      <c r="K82" s="155"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="30"/>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B83" s="13"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="78"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="11"/>
-    </row>
-    <row r="84" spans="2:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="13"/>
-      <c r="C84" s="180" t="s">
+    <row r="114" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="74"/>
+      <c r="B114" s="74"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D84" s="181"/>
-      <c r="E84" s="181"/>
-      <c r="F84" s="42"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="11"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="46"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114" s="91"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B85" s="13"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="14"/>
+    <row r="115" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="74"/>
+      <c r="B115" s="74"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="G115" s="114"/>
+      <c r="H115" s="114"/>
+      <c r="I115" s="114"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115" s="91"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B86" s="10"/>
-      <c r="C86" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D86" s="66"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="30"/>
+    <row r="116" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="74"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="48"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116" s="91"/>
     </row>
-    <row r="87" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="14"/>
-      <c r="L87" s="75"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="30"/>
+    <row r="117" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="74"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="90"/>
+      <c r="E117" s="90"/>
+      <c r="F117" s="90"/>
+      <c r="G117" s="90"/>
+      <c r="H117" s="90"/>
+      <c r="I117" s="90"/>
+      <c r="J117" s="91"/>
+      <c r="K117" s="91"/>
+      <c r="L117" s="91"/>
+      <c r="M117" s="91"/>
     </row>
-    <row r="88" spans="2:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="13"/>
-      <c r="C88" s="177" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" s="178"/>
-      <c r="E88" s="179"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="175" t="s">
-        <v>66</v>
-      </c>
-      <c r="I88" s="176"/>
-      <c r="L88" s="75"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="30"/>
-      <c r="P88" s="39"/>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="74"/>
+      <c r="M118" s="74"/>
     </row>
-    <row r="89" spans="2:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="13"/>
-      <c r="C89" s="170" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" s="171"/>
-      <c r="E89" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F89" s="39"/>
-      <c r="H89" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="I89" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="75"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="30"/>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="74"/>
+      <c r="C119" s="25"/>
+      <c r="M119" s="74"/>
     </row>
-    <row r="90" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="13"/>
-      <c r="C90" s="168" t="s">
-        <v>107</v>
-      </c>
-      <c r="D90" s="169"/>
-      <c r="E90" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="F90" s="100"/>
-      <c r="H90" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="I90" s="102" t="s">
-        <v>94</v>
-      </c>
-      <c r="J90" s="67"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="75"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="30"/>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="74"/>
+      <c r="C120" s="25"/>
+      <c r="M120" s="74"/>
     </row>
-    <row r="91" spans="2:16" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="13"/>
-      <c r="C91" s="168"/>
-      <c r="D91" s="169"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="100"/>
-      <c r="H91" s="103"/>
-      <c r="I91" s="104"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="75"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="30"/>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" s="74"/>
+      <c r="C121" s="25"/>
+      <c r="M121" s="74"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B92" s="13"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="11"/>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M122" s="74"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B93" s="10"/>
-      <c r="C93" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G93" s="80"/>
-      <c r="H93" s="81"/>
-      <c r="I93" s="82"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="83"/>
-      <c r="M93" s="11"/>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M123" s="74"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B94" s="43"/>
-      <c r="I94" s="84"/>
-      <c r="M94" s="11"/>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M124" s="74"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B95" s="43"/>
-      <c r="I95" s="84"/>
-      <c r="M95" s="11"/>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M125" s="74"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B96" s="43"/>
-      <c r="C96" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96" s="44"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="44"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="44"/>
-      <c r="K96" s="44"/>
-      <c r="L96" s="44"/>
-      <c r="M96" s="11"/>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M126" s="74"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B97" s="43"/>
-      <c r="I97" s="84"/>
-      <c r="M97" s="11"/>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M127" s="74"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B98" s="13"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="47"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-      <c r="L98" s="47"/>
-      <c r="M98" s="49"/>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M128" s="74"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B99" s="13"/>
-      <c r="C99" s="79"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="86"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="85"/>
-      <c r="I99" s="85"/>
-      <c r="J99" s="85"/>
-      <c r="K99" s="85"/>
-      <c r="L99" s="85"/>
-      <c r="M99" s="49"/>
+    <row r="129" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M129" s="74"/>
     </row>
-    <row r="100" spans="1:14" s="54" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="50"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="44"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="11"/>
+    <row r="130" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M130" s="74"/>
     </row>
-    <row r="101" spans="1:14" s="54" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="55"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="11"/>
+    <row r="131" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M131" s="74"/>
     </row>
-    <row r="102" spans="1:14" s="54" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="55"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="87"/>
+    <row r="132" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M132" s="74"/>
     </row>
-    <row r="103" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B103" s="56"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="57"/>
-      <c r="J103" s="57"/>
-      <c r="K103" s="88"/>
-      <c r="M103" s="87"/>
-      <c r="N103" s="57"/>
+    <row r="133" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M133" s="74"/>
     </row>
-    <row r="104" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="55"/>
-      <c r="C104" s="89"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
-      <c r="M104" s="87"/>
+    <row r="134" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M134" s="74"/>
     </row>
-    <row r="105" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="58"/>
-      <c r="C105" s="89"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="90"/>
-      <c r="F105" s="90"/>
-      <c r="G105" s="90"/>
-      <c r="H105" s="90"/>
-      <c r="I105" s="90"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="L105"/>
-      <c r="M105" s="87"/>
+    <row r="135" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M135" s="74"/>
     </row>
-    <row r="106" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="13"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="91"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106" s="87"/>
+    <row r="136" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M136" s="74"/>
     </row>
-    <row r="107" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="13"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="91"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107" s="87"/>
+    <row r="137" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M137" s="74"/>
     </row>
-    <row r="108" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="13"/>
-      <c r="C108" s="92"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="93"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
-      <c r="M108" s="87"/>
+    <row r="138" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M138" s="74"/>
     </row>
-    <row r="109" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="59"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="61"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="61"/>
-      <c r="J109" s="94"/>
-      <c r="K109" s="94"/>
-      <c r="L109" s="94"/>
-      <c r="M109" s="95"/>
+    <row r="139" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M139" s="74"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C111" s="62"/>
+    <row r="140" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M140" s="74"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C112" s="62"/>
+    <row r="141" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M141" s="74"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" s="62"/>
+    <row r="142" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M142" s="74"/>
+    </row>
+    <row r="143" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M143" s="74"/>
+    </row>
+    <row r="144" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M144" s="74"/>
+    </row>
+    <row r="145" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M145" s="74"/>
+    </row>
+    <row r="146" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M146" s="74"/>
+    </row>
+    <row r="147" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M147" s="74"/>
+    </row>
+    <row r="148" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M148" s="74"/>
+    </row>
+    <row r="149" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M149" s="74"/>
+    </row>
+    <row r="150" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M150" s="74"/>
+    </row>
+    <row r="151" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M151" s="74"/>
+    </row>
+    <row r="152" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M152" s="74"/>
+    </row>
+    <row r="153" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M153" s="74"/>
+    </row>
+    <row r="154" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M154" s="74"/>
+    </row>
+    <row r="155" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M155" s="74"/>
+    </row>
+    <row r="156" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M156" s="74"/>
+    </row>
+    <row r="157" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M157" s="74"/>
+    </row>
+    <row r="158" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M158" s="74"/>
+    </row>
+    <row r="159" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M159" s="74"/>
+    </row>
+    <row r="160" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M160" s="74"/>
+    </row>
+    <row r="161" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M161" s="74"/>
+    </row>
+    <row r="162" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M162" s="74"/>
+    </row>
+    <row r="163" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M163" s="74"/>
+    </row>
+    <row r="164" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M164" s="74"/>
+    </row>
+    <row r="165" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M165" s="74"/>
+    </row>
+    <row r="166" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M166" s="74"/>
+    </row>
+    <row r="167" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M167" s="74"/>
+    </row>
+    <row r="168" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M168" s="74"/>
+    </row>
+    <row r="169" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M169" s="74"/>
+    </row>
+    <row r="170" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M170" s="74"/>
+    </row>
+    <row r="171" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M171" s="74"/>
+    </row>
+    <row r="172" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M172" s="74"/>
+    </row>
+    <row r="173" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M173" s="74"/>
+    </row>
+    <row r="174" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M174" s="74"/>
+    </row>
+    <row r="175" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M175" s="74"/>
+    </row>
+    <row r="176" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M176" s="74"/>
+    </row>
+    <row r="177" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M177" s="74"/>
+    </row>
+    <row r="178" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M178" s="74"/>
+    </row>
+    <row r="179" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M179" s="74"/>
+    </row>
+    <row r="180" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M180" s="74"/>
+    </row>
+    <row r="181" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M181" s="74"/>
+    </row>
+    <row r="182" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M182" s="74"/>
+    </row>
+    <row r="183" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M183" s="74"/>
+    </row>
+    <row r="184" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M184" s="74"/>
+    </row>
+    <row r="185" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M185" s="74"/>
+    </row>
+    <row r="186" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M186" s="74"/>
+    </row>
+    <row r="187" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M187" s="74"/>
+    </row>
+    <row r="188" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M188" s="74"/>
+    </row>
+    <row r="189" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M189" s="74"/>
+    </row>
+    <row r="190" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M190" s="74"/>
+    </row>
+    <row r="191" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M191" s="74"/>
+    </row>
+    <row r="192" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M192" s="74"/>
+    </row>
+    <row r="193" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M193" s="74"/>
+    </row>
+    <row r="194" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M194" s="74"/>
+    </row>
+    <row r="195" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M195" s="74"/>
+    </row>
+    <row r="196" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M196" s="74"/>
+    </row>
+    <row r="197" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M197" s="74"/>
+    </row>
+    <row r="198" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M198" s="74"/>
+    </row>
+    <row r="199" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M199" s="74"/>
+    </row>
+    <row r="200" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M200" s="74"/>
+    </row>
+    <row r="201" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M201" s="74"/>
+    </row>
+    <row r="202" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M202" s="74"/>
+    </row>
+    <row r="203" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M203" s="74"/>
+    </row>
+    <row r="204" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M204" s="74"/>
+    </row>
+    <row r="205" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M205" s="74"/>
+    </row>
+    <row r="206" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M206" s="74"/>
+    </row>
+    <row r="207" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M207" s="74"/>
+    </row>
+    <row r="208" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M208" s="74"/>
+    </row>
+    <row r="209" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M209" s="74"/>
+    </row>
+    <row r="210" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M210" s="74"/>
+    </row>
+    <row r="211" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M211" s="74"/>
+    </row>
+    <row r="212" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M212" s="74"/>
+    </row>
+    <row r="213" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M213" s="74"/>
+    </row>
+    <row r="214" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M214" s="74"/>
+    </row>
+    <row r="215" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M215" s="74"/>
+    </row>
+    <row r="216" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M216" s="74"/>
+    </row>
+    <row r="217" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M217" s="74"/>
+    </row>
+    <row r="218" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M218" s="74"/>
+    </row>
+    <row r="219" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M219" s="74"/>
+    </row>
+    <row r="220" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M220" s="74"/>
+    </row>
+    <row r="221" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M221" s="74"/>
+    </row>
+    <row r="222" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M222" s="74"/>
+    </row>
+    <row r="223" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M223" s="74"/>
+    </row>
+    <row r="224" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M224" s="74"/>
+    </row>
+    <row r="225" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M225" s="74"/>
+    </row>
+    <row r="226" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M226" s="74"/>
+    </row>
+    <row r="227" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M227" s="74"/>
+    </row>
+    <row r="228" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M228" s="74"/>
+    </row>
+    <row r="229" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M229" s="74"/>
+    </row>
+    <row r="230" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M230" s="74"/>
+    </row>
+    <row r="231" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M231" s="74"/>
+    </row>
+    <row r="232" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M232" s="74"/>
+    </row>
+    <row r="233" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M233" s="74"/>
+    </row>
+    <row r="234" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M234" s="74"/>
+    </row>
+    <row r="235" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M235" s="74"/>
+    </row>
+    <row r="236" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M236" s="74"/>
+    </row>
+    <row r="237" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M237" s="74"/>
+    </row>
+    <row r="238" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M238" s="74"/>
+    </row>
+    <row r="239" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M239" s="74"/>
+    </row>
+    <row r="240" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M240" s="74"/>
+    </row>
+    <row r="241" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M241" s="74"/>
+    </row>
+    <row r="242" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M242" s="74"/>
+    </row>
+    <row r="243" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M243" s="74"/>
+    </row>
+    <row r="244" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M244" s="74"/>
+    </row>
+    <row r="245" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M245" s="74"/>
+    </row>
+    <row r="246" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M246" s="74"/>
+    </row>
+    <row r="247" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M247" s="74"/>
+    </row>
+    <row r="248" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M248" s="74"/>
+    </row>
+    <row r="249" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M249" s="74"/>
+    </row>
+    <row r="250" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M250" s="74"/>
+    </row>
+    <row r="251" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M251" s="74"/>
+    </row>
+    <row r="252" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M252" s="74"/>
+    </row>
+    <row r="253" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M253" s="74"/>
+    </row>
+    <row r="254" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M254" s="74"/>
+    </row>
+    <row r="255" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M255" s="74"/>
+    </row>
+    <row r="256" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M256" s="74"/>
+    </row>
+    <row r="257" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M257" s="74"/>
+    </row>
+    <row r="258" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M258" s="74"/>
+    </row>
+    <row r="259" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M259" s="74"/>
+    </row>
+    <row r="260" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M260" s="74"/>
+    </row>
+    <row r="261" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M261" s="74"/>
+    </row>
+    <row r="262" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M262" s="74"/>
+    </row>
+    <row r="263" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M263" s="74"/>
+    </row>
+    <row r="264" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M264" s="74"/>
+    </row>
+    <row r="265" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M265" s="74"/>
+    </row>
+    <row r="266" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M266" s="74"/>
+    </row>
+    <row r="267" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M267" s="74"/>
+    </row>
+    <row r="268" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M268" s="74"/>
+    </row>
+    <row r="269" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M269" s="74"/>
+    </row>
+    <row r="270" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M270" s="74"/>
+    </row>
+    <row r="271" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M271" s="74"/>
+    </row>
+    <row r="272" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M272" s="74"/>
+    </row>
+    <row r="273" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M273" s="74"/>
+    </row>
+    <row r="274" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M274" s="74"/>
+    </row>
+    <row r="275" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M275" s="74"/>
+    </row>
+    <row r="276" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M276" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C45:L45"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
+  <mergeCells count="89">
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="C36:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="H70:I70"/>
     <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H67:J67"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C34:E36"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:L12"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="E1:K5"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C11:J12"/>
-    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="H58:I59"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="J58:J59"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CE6E27-146B-4443-895B-B9B50FF604E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB44E3-0055-4A25-B6DB-0F1B097C298B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
   </bookViews>
@@ -118,12 +118,12 @@
     <definedName name="Firmas">INDEX('[6]DATOS CORREOS'!$L$2:$L$9,MATCH(#REF!,'[6]DATOS CORREOS'!$K$2:$K$9,0))</definedName>
     <definedName name="GasNaturalAsociado_Items">'5_Diario'!$C$15:$L$16</definedName>
     <definedName name="GasNaturalAsociado2_Items">'5_Diario'!#REF!</definedName>
-    <definedName name="GasNaturalSeco_Items">'5_Diario'!$C$28:$L$29</definedName>
+    <definedName name="GasNaturalSeco_Items">'5_Diario'!$C$31:$L$32</definedName>
     <definedName name="GGG">#REF!</definedName>
     <definedName name="HORARIO">#REF!</definedName>
     <definedName name="HORAS">#REF!</definedName>
     <definedName name="INVROMT">#REF!</definedName>
-    <definedName name="LiquidosGasNaturalProduccionVentas_Items">'5_Diario'!$C$39:$L$40</definedName>
+    <definedName name="LiquidosGasNaturalProduccionVentas_Items">'5_Diario'!$C$42:$L$43</definedName>
     <definedName name="MAR">#REF!</definedName>
     <definedName name="MARCIANITO">#REF!</definedName>
     <definedName name="MARCIANITO20">#REF!</definedName>
@@ -176,8 +176,8 @@
     <definedName name="SHELLPI500">#REF!</definedName>
     <definedName name="SKERO">#REF!</definedName>
     <definedName name="TANQUE2">#REF!</definedName>
-    <definedName name="TanqueDespachoGalCgn_Items">'5_Diario'!$C$51:$L$52</definedName>
-    <definedName name="TanqueDespachoGalGlp_Items">'5_Diario'!$C$45:$L$46</definedName>
+    <definedName name="TanqueDespachoGalCgn_Items">'5_Diario'!$C$54:$L$55</definedName>
+    <definedName name="TanqueDespachoGalGlp_Items">'5_Diario'!$C$48:$L$49</definedName>
     <definedName name="TE">[5]texaco!$A$8:$T$38</definedName>
     <definedName name="TEXCIESEL">#REF!</definedName>
     <definedName name="TEXDIESEL">#REF!</definedName>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
   <si>
     <t>RIQUEZA</t>
   </si>
@@ -603,9 +603,6 @@
     <t>{{TotalGnaLotes}}</t>
   </si>
   <si>
-    <t>{{TotalGnsLotes}}</t>
-  </si>
-  <si>
     <t>{{LoteZ69Gns}}</t>
   </si>
   <si>
@@ -736,7 +733,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="9">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-280A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -744,8 +742,9 @@
     <numFmt numFmtId="168" formatCode="0_)"/>
     <numFmt numFmtId="169" formatCode="0.0_)"/>
     <numFmt numFmtId="170" formatCode="#,##0.00000000000"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -879,8 +878,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,8 +915,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9FBB5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1102,8 +1112,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0"/>
@@ -1113,8 +1253,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="168">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1197,7 +1339,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1233,57 +1374,20 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1295,12 +1399,6 @@
     <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,58 +1408,12 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1372,53 +1424,217 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1433,10 +1649,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1445,37 +1661,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
+    <cellStyle name="Millares" xfId="10" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 103" xfId="7" xr:uid="{4D075321-6226-4E75-8B82-2AAB1BA391D0}"/>
     <cellStyle name="Normal 103 2" xfId="8" xr:uid="{B9FBBFF1-FFBF-4901-AA3D-072614B68FF6}"/>
@@ -1485,9 +1699,15 @@
     <cellStyle name="Normal 8" xfId="3" xr:uid="{2CE54D8D-AF5A-46DF-BCC1-BE2501ACDDDF}"/>
     <cellStyle name="Normal 93" xfId="1" xr:uid="{1454AE09-075B-48FF-A121-8B934E4A3F41}"/>
     <cellStyle name="Normal_Boleta diaria GMP-EEPSA" xfId="5" xr:uid="{9695ED9C-B92E-4A20-BAD7-9B3FA5D03A57}"/>
+    <cellStyle name="Porcentaje" xfId="9" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF9FBB5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1506,13 +1726,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>94432</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>26896</xdr:rowOff>
+      <xdr:rowOff>122146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>946797</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>122445</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1540,8 +1760,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="627832" y="26896"/>
-          <a:ext cx="1842965" cy="682289"/>
+          <a:off x="637357" y="122146"/>
+          <a:ext cx="1862015" cy="686099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30477,10 +30697,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X276"/>
+  <dimension ref="A1:X285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30516,67 +30736,67 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="126" t="s">
-        <v>161</v>
+      <c r="E1" s="152" t="s">
+        <v>160</v>
       </c>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="129" t="s">
-        <v>158</v>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="155" t="s">
+        <v>157</v>
       </c>
-      <c r="M1" s="130"/>
+      <c r="M1" s="156"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="28"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="131" t="s">
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="132"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="28"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="133" t="s">
-        <v>157</v>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="159" t="s">
+        <v>156</v>
       </c>
-      <c r="M3" s="134"/>
+      <c r="M3" s="160"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="28"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="54" t="s">
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="54" t="s">
         <v>8</v>
       </c>
     </row>
@@ -30584,307 +30804,307 @@
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="56" t="s">
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="88" t="s">
         <v>159</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="74"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="74"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="60"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="74"/>
-      <c r="B7" s="101"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="10"/>
       <c r="D7" s="29"/>
       <c r="K7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="74"/>
+      <c r="M7" s="82"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
-      <c r="B8" s="101"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="10"/>
       <c r="D8" s="29"/>
       <c r="K8" s="30"/>
-      <c r="M8" s="74"/>
+      <c r="M8" s="82"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="74"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="31"/>
-      <c r="M9" s="74"/>
+      <c r="M9" s="82"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="M10" s="74"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="76"/>
+      <c r="M10" s="82"/>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="120" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="97"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="83"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="97"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="83"/>
     </row>
     <row r="13" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="120" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="95" t="s">
+      <c r="D13" s="146"/>
+      <c r="E13" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="120" t="s">
+      <c r="G13" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="95" t="s">
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="95" t="s">
+      <c r="L13" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="74"/>
+      <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="94" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="94" t="s">
+      <c r="F14" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="123" t="s">
+      <c r="G14" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123" t="s">
+      <c r="H14" s="162"/>
+      <c r="I14" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="123"/>
-      <c r="K14" s="94" t="s">
+      <c r="J14" s="162"/>
+      <c r="K14" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="94" t="s">
+      <c r="L14" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="74"/>
+      <c r="M14" s="82"/>
     </row>
     <row r="15" spans="1:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="116" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="165" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="58" t="s">
+      <c r="D15" s="165"/>
+      <c r="E15" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="124" t="s">
+      <c r="G15" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124" t="s">
+      <c r="H15" s="163"/>
+      <c r="I15" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="124"/>
-      <c r="K15" s="62" t="s">
+      <c r="J15" s="134"/>
+      <c r="K15" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="98"/>
+      <c r="M15" s="84"/>
     </row>
-    <row r="16" spans="1:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="98"/>
+    <row r="16" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="60"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="84"/>
     </row>
-    <row r="17" spans="1:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
+    <row r="17" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="60"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="M17" s="74"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="M17" s="82"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="115" t="s">
+    <row r="18" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="109" t="s">
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="121" t="s">
+      <c r="H18" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="121"/>
-      <c r="J18" s="106" t="s">
+      <c r="I18" s="135"/>
+      <c r="J18" s="70" t="s">
         <v>78</v>
       </c>
       <c r="K18" s="32"/>
-      <c r="M18" s="74"/>
+      <c r="M18" s="82"/>
       <c r="O18" s="15"/>
       <c r="P18" s="14"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="115" t="s">
+    <row r="19" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="60"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="109" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="108"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="32"/>
-      <c r="M19" s="74"/>
+      <c r="M19" s="82"/>
       <c r="O19" s="15"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="115" t="s">
+    <row r="20" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="60"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="109" t="s">
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="108"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="32"/>
-      <c r="M20" s="74"/>
+      <c r="M20" s="82"/>
       <c r="O20" s="15"/>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="108"/>
+    <row r="21" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="60"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="32"/>
-      <c r="M21" s="74"/>
+      <c r="M21" s="82"/>
       <c r="O21" s="15"/>
       <c r="P21" s="14"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="74"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="111"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
+    <row r="22" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="60"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72"/>
       <c r="K22" s="32"/>
-      <c r="M22" s="74"/>
+      <c r="M22" s="82"/>
       <c r="O22" s="15"/>
       <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="74"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="29" t="s">
         <v>21</v>
       </c>
@@ -30892,460 +31112,399 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="M23" s="74"/>
+      <c r="M23" s="82"/>
       <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="76"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="M24" s="74"/>
+      <c r="M24" s="82"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="74"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="120" t="s">
+    <row r="25" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="60"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="74"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="82"/>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="74"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="122" t="s">
+    <row r="26" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="60"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="82"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="82"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="60"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="120" t="s">
+      <c r="D28" s="127"/>
+      <c r="E28" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120" t="s">
+      <c r="F28" s="115"/>
+      <c r="G28" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="120"/>
-      <c r="I26" s="122" t="s">
+      <c r="H28" s="115"/>
+      <c r="I28" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="120"/>
-      <c r="K26" s="122" t="s">
+      <c r="J28" s="124"/>
+      <c r="K28" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="122"/>
-      <c r="M26" s="74"/>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="74"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="122"/>
-      <c r="K27" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="125"/>
-      <c r="M27" s="74"/>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="74"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="142" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="142"/>
-      <c r="E28" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140" t="s">
-        <v>76</v>
-      </c>
-      <c r="L28" s="140"/>
-      <c r="M28" s="74"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="82"/>
       <c r="P28" s="13"/>
     </row>
-    <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="74"/>
+    <row r="29" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="60"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="82"/>
       <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="74"/>
-      <c r="B30" s="74"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="74"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="167" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="127"/>
+      <c r="K30" s="151" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="151"/>
+      <c r="M30" s="82"/>
       <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="74"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="143"/>
+      <c r="E31" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="144"/>
+      <c r="G31" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="134"/>
+      <c r="I31" s="144" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="144"/>
+      <c r="K31" s="134" t="s">
+        <v>76</v>
+      </c>
+      <c r="L31" s="134"/>
+      <c r="M31" s="82"/>
       <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="74"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="82"/>
       <c r="P32" s="13"/>
     </row>
     <row r="33" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="76"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="L33" s="33"/>
-      <c r="M33" s="74"/>
+      <c r="M33" s="82"/>
       <c r="P33" s="13"/>
     </row>
-    <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="74"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="117"/>
-      <c r="E34" s="112" t="s">
-        <v>72</v>
-      </c>
+    <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="60"/>
+      <c r="B34" s="76"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34"/>
       <c r="L34" s="33"/>
-      <c r="M34" s="74"/>
+      <c r="M34" s="82"/>
       <c r="P34" s="13"/>
     </row>
-    <row r="35" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35"/>
+    <row r="35" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="60"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="L35" s="33"/>
-      <c r="M35" s="74"/>
+      <c r="M35" s="82"/>
       <c r="P35" s="13"/>
     </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="122" t="s">
+    <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="60"/>
+      <c r="B36" s="76"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="82"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="60"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="166"/>
+      <c r="E37" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="82"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="60"/>
+      <c r="B38" s="76"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="82"/>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="60"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="120" t="s">
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120" t="s">
+      <c r="J39" s="146"/>
+      <c r="K39" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="L36" s="120"/>
-      <c r="M36" s="74"/>
-      <c r="P36" s="13"/>
+      <c r="L39" s="146"/>
+      <c r="M39" s="82"/>
+      <c r="P39" s="13"/>
     </row>
-    <row r="37" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="16" t="s">
+    <row r="40" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="60"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="J40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K40" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M37" s="74"/>
-      <c r="P37" s="13"/>
+      <c r="M40" s="82"/>
+      <c r="P40" s="13"/>
     </row>
-    <row r="38" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="74"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="60" t="s">
+    <row r="41" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="60"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="J38" s="60" t="s">
+      <c r="J41" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="60" t="s">
+      <c r="K41" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="L38" s="60" t="s">
+      <c r="L41" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="M38" s="74"/>
-      <c r="P38" s="13"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="19"/>
+      <c r="M41" s="82"/>
+      <c r="P41" s="13"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="19"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="119" t="s">
+    <row r="42" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="60"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="61" t="s">
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="J39" s="61" t="s">
+      <c r="J42" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="K39" s="61" t="s">
+      <c r="K42" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="L39" s="61" t="s">
+      <c r="L42" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="M39" s="74"/>
+      <c r="M42" s="82"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="74"/>
+    <row r="43" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="60"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="139"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="82"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74"/>
-      <c r="M41" s="74"/>
+    <row r="44" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="60"/>
+      <c r="B44" s="76"/>
+      <c r="M44" s="82"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="M42" s="74"/>
+    <row r="45" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="60"/>
+      <c r="B45" s="76"/>
+      <c r="M45" s="82"/>
     </row>
-    <row r="43" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="118" t="s">
+    <row r="46" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="60"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="21"/>
-      <c r="P43" s="13"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="19"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="K44" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="L44" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="74"/>
-      <c r="P44" s="13"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="19"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="74"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="G45" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="H45" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="J45" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="K45" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="L45" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="M45" s="74"/>
-      <c r="P45" s="13"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="19"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="74"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="74"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="21"/>
       <c r="P46" s="13"/>
       <c r="R46" s="17"/>
       <c r="S46" s="18"/>
@@ -31355,14 +31514,40 @@
       <c r="W46" s="18"/>
       <c r="X46" s="19"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="74"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="12"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="98"/>
+    <row r="47" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="60"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="L47" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="82"/>
       <c r="P47" s="13"/>
       <c r="R47" s="17"/>
       <c r="S47" s="18"/>
@@ -31372,14 +31557,40 @@
       <c r="W47" s="18"/>
       <c r="X47" s="19"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="12"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="98"/>
+    <row r="48" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="60"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="K48" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="L48" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="M48" s="82"/>
       <c r="P48" s="13"/>
       <c r="R48" s="17"/>
       <c r="S48" s="18"/>
@@ -31389,22 +31600,20 @@
       <c r="W48" s="18"/>
       <c r="X48" s="19"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="118" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="119"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="74"/>
+    <row r="49" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="60"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="82"/>
       <c r="P49" s="13"/>
       <c r="R49" s="17"/>
       <c r="S49" s="18"/>
@@ -31414,40 +31623,14 @@
       <c r="W49" s="18"/>
       <c r="X49" s="19"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="J50" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="K50" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="L50" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="74"/>
+    <row r="50" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="60"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="12"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="84"/>
       <c r="P50" s="13"/>
       <c r="R50" s="17"/>
       <c r="S50" s="18"/>
@@ -31457,40 +31640,14 @@
       <c r="W50" s="18"/>
       <c r="X50" s="19"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A51" s="74"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="F51" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="H51" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="I51" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="J51" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="K51" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="L51" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="M51" s="74"/>
+    <row r="51" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="60"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="12"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="84"/>
       <c r="P51" s="13"/>
       <c r="R51" s="17"/>
       <c r="S51" s="18"/>
@@ -31500,20 +31657,22 @@
       <c r="W51" s="18"/>
       <c r="X51" s="19"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A52" s="74"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="98"/>
+    <row r="52" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="60"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="145" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="139"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="139"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="139"/>
+      <c r="I52" s="139"/>
+      <c r="J52" s="139"/>
+      <c r="K52" s="139"/>
+      <c r="L52" s="139"/>
+      <c r="M52" s="82"/>
       <c r="P52" s="13"/>
       <c r="R52" s="17"/>
       <c r="S52" s="18"/>
@@ -31523,14 +31682,40 @@
       <c r="W52" s="18"/>
       <c r="X52" s="19"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A53" s="74"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="12"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="98"/>
+    <row r="53" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="60"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="L53" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="82"/>
       <c r="P53" s="13"/>
       <c r="R53" s="17"/>
       <c r="S53" s="18"/>
@@ -31540,14 +31725,40 @@
       <c r="W53" s="18"/>
       <c r="X53" s="19"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A54" s="74"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="12"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="98"/>
+    <row r="54" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="60"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="J54" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="K54" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="L54" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="M54" s="82"/>
       <c r="P54" s="13"/>
       <c r="R54" s="17"/>
       <c r="S54" s="18"/>
@@ -31557,1554 +31768,1829 @@
       <c r="W54" s="18"/>
       <c r="X54" s="19"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A55" s="74"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="29" t="s">
+    <row r="55" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="60"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="84"/>
+      <c r="P55" s="13"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="19"/>
+    </row>
+    <row r="56" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="60"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="12"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="84"/>
+      <c r="P56" s="13"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="19"/>
+    </row>
+    <row r="57" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="60"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="12"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="84"/>
+      <c r="P57" s="13"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="19"/>
+    </row>
+    <row r="58" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="60"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="M55" s="98"/>
-      <c r="N55" s="20"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="20"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A56" s="74"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="29"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="20"/>
+    <row r="59" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="60"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="29"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="20"/>
     </row>
-    <row r="57" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="74"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="120" t="s">
+    <row r="60" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="60"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="29"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="20"/>
+    </row>
+    <row r="61" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="60"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="120"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="34"/>
-      <c r="H57" s="122" t="s">
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="34"/>
+      <c r="H61" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="M57" s="98"/>
-      <c r="N57" s="20"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="119"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="20"/>
     </row>
-    <row r="58" spans="1:24" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="74"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="120" t="s">
+    <row r="62" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="60"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="120"/>
-      <c r="E58" s="68" t="s">
+      <c r="D62" s="115"/>
+      <c r="E62" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="34"/>
-      <c r="H58" s="122" t="s">
+      <c r="F62" s="34"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="121"/>
+      <c r="M62" s="84"/>
+      <c r="N62" s="20"/>
+    </row>
+    <row r="63" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="60"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="141"/>
+      <c r="E63" s="142"/>
+      <c r="F63" s="34"/>
+      <c r="H63" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122" t="s">
+      <c r="I63" s="119"/>
+      <c r="J63" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="M58" s="98"/>
-      <c r="N58" s="20"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="20"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A59" s="74"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="67" t="s">
+    <row r="64" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="60"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="34"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="122"/>
-      <c r="J59" s="122"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="20"/>
+      <c r="F64" s="34"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="121"/>
+      <c r="J64" s="113"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="20"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A60" s="74"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="121" t="s">
+    <row r="65" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="60"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="121"/>
-      <c r="E60" s="79" t="s">
+      <c r="D65" s="135"/>
+      <c r="E65" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="34"/>
-      <c r="H60" s="141" t="s">
+      <c r="F65" s="34"/>
+      <c r="H65" s="136" t="s">
         <v>101</v>
       </c>
-      <c r="I60" s="141"/>
-      <c r="J60" s="58" t="s">
+      <c r="I65" s="137"/>
+      <c r="J65" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="M60" s="98"/>
-      <c r="N60" s="20"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="20"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A61" s="74"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="121" t="s">
+    <row r="66" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="60"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="121"/>
-      <c r="E61" s="79" t="s">
+      <c r="D66" s="135"/>
+      <c r="E66" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="F61" s="34"/>
-      <c r="H61" s="141" t="s">
+      <c r="F66" s="34"/>
+      <c r="H66" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="I61" s="141"/>
-      <c r="J61" s="58" t="s">
+      <c r="I66" s="137"/>
+      <c r="J66" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="M61" s="98"/>
-      <c r="N61" s="20"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="20"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A62" s="74"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="29"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="H62" s="141" t="s">
+    <row r="67" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="60"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="29"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="H67" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="I62" s="141"/>
-      <c r="J62" s="58" t="s">
+      <c r="I67" s="138"/>
+      <c r="J67" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="M62" s="98"/>
-      <c r="N62" s="20"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="20"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A63" s="74"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="29"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="M63" s="98"/>
-      <c r="N63" s="20"/>
+    <row r="68" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="60"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="29"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="20"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A64" s="74"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="29"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="M64" s="98"/>
-      <c r="N64" s="20"/>
+    <row r="69" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="60"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="29"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="20"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="74"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="12" t="s">
+    <row r="70" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="60"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="M65" s="98"/>
-      <c r="N65" s="20"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="20"/>
     </row>
-    <row r="66" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="74"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="51"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="74"/>
-      <c r="N66" s="20"/>
+    <row r="71" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="60"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="50"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="82"/>
+      <c r="N71" s="20"/>
     </row>
-    <row r="67" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="74"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="120" t="s">
+    <row r="72" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="60"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="122" t="s">
+      <c r="D72" s="122"/>
+      <c r="E72" s="115"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="I67" s="122"/>
-      <c r="J67" s="122"/>
-      <c r="M67" s="98"/>
-      <c r="N67" s="20"/>
+      <c r="I72" s="124"/>
+      <c r="J72" s="119"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="20"/>
     </row>
-    <row r="68" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="74"/>
-      <c r="B68" s="101"/>
-      <c r="C68" s="120" t="s">
+    <row r="73" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="60"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="120"/>
+      <c r="I73" s="125"/>
+      <c r="J73" s="121"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="20"/>
+    </row>
+    <row r="74" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="60"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="D68" s="120"/>
-      <c r="E68" s="77" t="s">
+      <c r="D74" s="115"/>
+      <c r="E74" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="122" t="s">
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="I68" s="122"/>
-      <c r="J68" s="59" t="s">
+      <c r="I74" s="119"/>
+      <c r="J74" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="M68" s="98"/>
-      <c r="N68" s="20"/>
+      <c r="M74" s="84"/>
+      <c r="N74" s="20"/>
     </row>
-    <row r="69" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="74"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="115" t="s">
+    <row r="75" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="60"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="116"/>
+      <c r="D75" s="117"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="120"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="113"/>
+      <c r="M75" s="84"/>
+      <c r="N75" s="20"/>
+    </row>
+    <row r="76" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="60"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="115"/>
-      <c r="E69" s="113" t="s">
+      <c r="D76" s="133"/>
+      <c r="E76" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="H69" s="141" t="s">
+      <c r="F76" s="22"/>
+      <c r="H76" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="I69" s="141"/>
-      <c r="J69" s="58" t="s">
+      <c r="I76" s="138"/>
+      <c r="J76" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="K69" s="14"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="74"/>
-      <c r="N69" s="20"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="20"/>
     </row>
-    <row r="70" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="74"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="115" t="s">
+    <row r="77" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="60"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="D70" s="115"/>
-      <c r="E70" s="113" t="s">
+      <c r="D77" s="133"/>
+      <c r="E77" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="F70" s="22"/>
-      <c r="H70" s="141" t="s">
+      <c r="F77" s="22"/>
+      <c r="H77" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="I70" s="141"/>
-      <c r="J70" s="58" t="s">
+      <c r="I77" s="138"/>
+      <c r="J77" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="K70" s="14"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="74"/>
-      <c r="N70" s="20"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="82"/>
+      <c r="N77" s="20"/>
     </row>
-    <row r="71" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="74"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="115" t="s">
+    <row r="78" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="60"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="D71" s="115"/>
-      <c r="E71" s="113" t="s">
+      <c r="D78" s="133"/>
+      <c r="E78" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="F71" s="22"/>
-      <c r="H71" s="141" t="s">
+      <c r="F78" s="22"/>
+      <c r="H78" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="I71" s="141"/>
-      <c r="J71" s="58" t="s">
+      <c r="I78" s="138"/>
+      <c r="J78" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="K71" s="14"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="74"/>
-      <c r="N71" s="20"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="20"/>
     </row>
-    <row r="72" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="74"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="115" t="s">
+    <row r="79" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="60"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="115"/>
-      <c r="E72" s="113" t="s">
+      <c r="D79" s="133"/>
+      <c r="E79" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="F72" s="22"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="74"/>
-      <c r="N72" s="20"/>
+      <c r="F79" s="22"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="82"/>
+      <c r="N79" s="20"/>
     </row>
-    <row r="73" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="74"/>
-      <c r="B73" s="74"/>
-      <c r="C73" s="115" t="s">
+    <row r="80" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="60"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="115"/>
-      <c r="E73" s="113" t="s">
+      <c r="D80" s="133"/>
+      <c r="E80" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="F73" s="22"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="20"/>
+      <c r="F80" s="22"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="82"/>
+      <c r="N80" s="20"/>
     </row>
-    <row r="74" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="74"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="115" t="s">
+    <row r="81" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="60"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="115"/>
-      <c r="E74" s="113" t="s">
+      <c r="D81" s="133"/>
+      <c r="E81" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="F74" s="22"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="74"/>
-      <c r="N74" s="20"/>
-    </row>
-    <row r="75" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="74"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="22"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="74"/>
-      <c r="N75" s="20"/>
-    </row>
-    <row r="76" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="74"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="22"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="74"/>
-      <c r="N76" s="20"/>
-    </row>
-    <row r="77" spans="1:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="74"/>
-      <c r="B77" s="74"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="50"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="74"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="74"/>
-      <c r="B78" s="101"/>
-      <c r="C78" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D78" s="36"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="74"/>
-      <c r="N78" s="20"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="74"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="20"/>
-    </row>
-    <row r="80" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="74"/>
-      <c r="B80" s="74"/>
-      <c r="C80" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="120"/>
-      <c r="E80" s="120"/>
-      <c r="F80" s="120"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="136" t="s">
-        <v>56</v>
-      </c>
-      <c r="I80" s="136"/>
-      <c r="J80" s="136"/>
-      <c r="K80" s="136"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="74"/>
-      <c r="N80" s="20"/>
-      <c r="P80" s="22"/>
-    </row>
-    <row r="81" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="74"/>
-      <c r="B81" s="74"/>
-      <c r="C81" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="120"/>
-      <c r="E81" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="H81" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="I81" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="K81" s="80" t="s">
-        <v>2</v>
-      </c>
+      <c r="F81" s="22"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
       <c r="L81" s="33"/>
-      <c r="M81" s="74"/>
+      <c r="M81" s="82"/>
       <c r="N81" s="20"/>
     </row>
     <row r="82" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="74"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="138" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="139"/>
-      <c r="E82" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="F82" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="H82" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="I82" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="J82" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="K82" s="84" t="s">
-        <v>136</v>
-      </c>
+      <c r="A82" s="60"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="22"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
       <c r="L82" s="33"/>
-      <c r="M82" s="74"/>
+      <c r="M82" s="82"/>
       <c r="N82" s="20"/>
     </row>
     <row r="83" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="74"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="139"/>
-      <c r="E83" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="F83" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="H83" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="I83" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="J83" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="K83" s="84" t="s">
-        <v>137</v>
-      </c>
+      <c r="A83" s="60"/>
+      <c r="B83" s="76"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="22"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
       <c r="L83" s="33"/>
-      <c r="M83" s="74"/>
+      <c r="M83" s="82"/>
       <c r="N83" s="20"/>
     </row>
     <row r="84" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="74"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="138" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="139"/>
-      <c r="E84" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="F84" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="H84" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="I84" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="J84" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="K84" s="84" t="s">
-        <v>138</v>
-      </c>
+      <c r="A84" s="60"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="49"/>
       <c r="L84" s="33"/>
-      <c r="M84" s="74"/>
-      <c r="N84" s="20"/>
+      <c r="M84" s="82"/>
     </row>
     <row r="85" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="74"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="138" t="s">
-        <v>103</v>
+      <c r="A85" s="60"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="29" t="s">
+        <v>60</v>
       </c>
-      <c r="D85" s="139"/>
-      <c r="E85" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="F85" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="H85" s="82"/>
-      <c r="I85" s="82"/>
-      <c r="J85" s="82"/>
-      <c r="K85" s="82"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
       <c r="L85" s="33"/>
-      <c r="M85" s="74"/>
+      <c r="M85" s="82"/>
       <c r="N85" s="20"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="74"/>
-      <c r="B86" s="74"/>
+    <row r="86" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="60"/>
+      <c r="B86" s="76"/>
       <c r="C86" s="36"/>
       <c r="D86" s="36"/>
       <c r="E86" s="37"/>
       <c r="F86" s="37"/>
       <c r="L86" s="33"/>
-      <c r="M86" s="74"/>
+      <c r="M86" s="82"/>
+      <c r="N86" s="20"/>
     </row>
-    <row r="87" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="74"/>
-      <c r="B87" s="74"/>
-      <c r="C87" s="137" t="s">
-        <v>45</v>
+    <row r="87" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="60"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="146" t="s">
+        <v>49</v>
       </c>
-      <c r="D87" s="137"/>
-      <c r="E87" s="137"/>
-      <c r="F87" s="87" t="s">
-        <v>139</v>
+      <c r="D87" s="146"/>
+      <c r="E87" s="146"/>
+      <c r="F87" s="146"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="147" t="s">
+        <v>56</v>
       </c>
+      <c r="I87" s="147"/>
+      <c r="J87" s="147"/>
+      <c r="K87" s="147"/>
       <c r="L87" s="33"/>
-      <c r="M87" s="74"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="20"/>
+      <c r="P87" s="22"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="74"/>
-      <c r="B88" s="74"/>
+    <row r="88" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="60"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="146"/>
+      <c r="E88" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J88" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="K88" s="64" t="s">
+        <v>2</v>
+      </c>
       <c r="L88" s="33"/>
-      <c r="M88" s="74"/>
+      <c r="M88" s="82"/>
       <c r="N88" s="20"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="74"/>
-      <c r="B89" s="101"/>
-      <c r="C89" s="29" t="s">
-        <v>61</v>
+    <row r="89" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="60"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="149" t="s">
+        <v>4</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
+      <c r="D89" s="150"/>
+      <c r="E89" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="H89" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="I89" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="J89" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="K89" s="98" t="s">
+        <v>135</v>
+      </c>
       <c r="L89" s="33"/>
-      <c r="M89" s="74"/>
+      <c r="M89" s="82"/>
       <c r="N89" s="20"/>
     </row>
     <row r="90" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="74"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="12"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="150"/>
+      <c r="E90" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="H90" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="I90" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="J90" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="K90" s="98" t="s">
+        <v>136</v>
+      </c>
       <c r="L90" s="33"/>
-      <c r="M90" s="74"/>
+      <c r="M90" s="82"/>
       <c r="N90" s="20"/>
     </row>
-    <row r="91" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="74"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="120" t="s">
+    <row r="91" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="60"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="150"/>
+      <c r="E91" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="F91" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="H91" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="I91" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="J91" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="K91" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="L91" s="33"/>
+      <c r="M91" s="82"/>
+      <c r="N91" s="20"/>
+    </row>
+    <row r="92" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="60"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="149" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="150"/>
+      <c r="E92" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="F92" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="66"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="82"/>
+      <c r="N92" s="20"/>
+    </row>
+    <row r="93" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="60"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="82"/>
+    </row>
+    <row r="94" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="60"/>
+      <c r="B94" s="76"/>
+      <c r="C94" s="148" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="148"/>
+      <c r="E94" s="148"/>
+      <c r="F94" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="L94" s="33"/>
+      <c r="M94" s="82"/>
+    </row>
+    <row r="95" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="60"/>
+      <c r="B95" s="76"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="82"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+    </row>
+    <row r="96" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="60"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="82"/>
+      <c r="N96" s="20"/>
+    </row>
+    <row r="97" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="60"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="12"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="82"/>
+      <c r="N97" s="20"/>
+    </row>
+    <row r="98" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="60"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="120"/>
-      <c r="E91" s="120"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="122" t="s">
+      <c r="D98" s="122"/>
+      <c r="E98" s="115"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="I91" s="122"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="74"/>
-      <c r="N91" s="20"/>
-      <c r="P91" s="22"/>
+      <c r="I98" s="119"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="82"/>
+      <c r="N98" s="20"/>
+      <c r="P98" s="22"/>
     </row>
-    <row r="92" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="74"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="120" t="s">
+    <row r="99" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="60"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="123"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="120"/>
+      <c r="I99" s="121"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="82"/>
+      <c r="N99" s="20"/>
+      <c r="P99" s="22"/>
+    </row>
+    <row r="100" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="60"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="D92" s="120"/>
-      <c r="E92" s="78" t="s">
+      <c r="D100" s="115"/>
+      <c r="E100" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="F92" s="22"/>
-      <c r="H92" s="80" t="s">
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="I92" s="85" t="s">
+      <c r="I100" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="74"/>
-      <c r="N92" s="20"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="82"/>
+      <c r="N100" s="20"/>
+      <c r="P100" s="22"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A93" s="74"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="135" t="s">
+    <row r="101" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="60"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="117"/>
+      <c r="E101" s="113"/>
+      <c r="F101" s="22"/>
+      <c r="H101" s="129"/>
+      <c r="I101" s="131"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="82"/>
+      <c r="N101" s="20"/>
+    </row>
+    <row r="102" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="60"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="132" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" s="132"/>
+      <c r="E102" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="H102" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="I102" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="L102" s="18"/>
+      <c r="M102" s="82"/>
+    </row>
+    <row r="103" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="60"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="D93" s="135"/>
-      <c r="E93" s="86" t="s">
+      <c r="D103" s="132"/>
+      <c r="E103" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="H93" s="88" t="s">
-        <v>101</v>
+      <c r="H103" s="67" t="s">
+        <v>102</v>
       </c>
-      <c r="I93" s="86" t="s">
+      <c r="I103" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="L93" s="18"/>
-      <c r="M93" s="74"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="82"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94" s="74"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="135" t="s">
+    <row r="104" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="60"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="D94" s="135"/>
-      <c r="E94" s="86" t="s">
+      <c r="D104" s="132"/>
+      <c r="E104" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="H94" s="88" t="s">
-        <v>102</v>
+      <c r="H104" s="67" t="s">
+        <v>103</v>
       </c>
-      <c r="I94" s="86" t="s">
+      <c r="I104" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="L94" s="18"/>
-      <c r="M94" s="74"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="82"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A95" s="74"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="135" t="s">
+    <row r="105" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="60"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="D95" s="135"/>
-      <c r="E95" s="86" t="s">
+      <c r="D105" s="132"/>
+      <c r="E105" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="H95" s="88" t="s">
-        <v>103</v>
+      <c r="L105" s="18"/>
+      <c r="M105" s="82"/>
+    </row>
+    <row r="106" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="60"/>
+      <c r="B106" s="76"/>
+      <c r="C106" s="132" t="s">
+        <v>115</v>
       </c>
-      <c r="I95" s="86" t="s">
+      <c r="D106" s="132"/>
+      <c r="E106" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="L106" s="18"/>
+      <c r="M106" s="82"/>
+    </row>
+    <row r="107" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="60"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="D107" s="132"/>
+      <c r="E107" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="L107" s="18"/>
+      <c r="M107" s="82"/>
+    </row>
+    <row r="108" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="60"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="132" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108" s="132"/>
+      <c r="E108" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="L108" s="18"/>
+      <c r="M108" s="82"/>
+    </row>
+    <row r="109" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="60"/>
+      <c r="B109" s="76"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="82"/>
+    </row>
+    <row r="110" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="60"/>
+      <c r="B110" s="76"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="82"/>
+    </row>
+    <row r="111" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="60"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G111" s="38"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
+      <c r="M111" s="82"/>
+    </row>
+    <row r="112" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="60"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112" s="126"/>
+      <c r="E112" s="126"/>
+      <c r="F112" s="126"/>
+      <c r="G112" s="126"/>
+      <c r="H112" s="126"/>
+      <c r="I112" s="126"/>
+      <c r="J112" s="126"/>
+      <c r="K112" s="126"/>
+      <c r="L112" s="126"/>
+      <c r="M112" s="82"/>
+    </row>
+    <row r="113" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="60"/>
+      <c r="B113" s="77"/>
+      <c r="C113" s="126"/>
+      <c r="D113" s="126"/>
+      <c r="E113" s="126"/>
+      <c r="F113" s="126"/>
+      <c r="G113" s="126"/>
+      <c r="H113" s="126"/>
+      <c r="I113" s="126"/>
+      <c r="J113" s="126"/>
+      <c r="K113" s="126"/>
+      <c r="L113" s="126"/>
+      <c r="M113" s="82"/>
+    </row>
+    <row r="114" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="60"/>
+      <c r="B114" s="77"/>
+      <c r="C114" s="126"/>
+      <c r="D114" s="126"/>
+      <c r="E114" s="126"/>
+      <c r="F114" s="126"/>
+      <c r="G114" s="126"/>
+      <c r="H114" s="126"/>
+      <c r="I114" s="126"/>
+      <c r="J114" s="126"/>
+      <c r="K114" s="126"/>
+      <c r="L114" s="126"/>
+      <c r="M114" s="82"/>
+    </row>
+    <row r="115" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="60"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="126"/>
+      <c r="D115" s="126"/>
+      <c r="E115" s="126"/>
+      <c r="F115" s="126"/>
+      <c r="G115" s="126"/>
+      <c r="H115" s="126"/>
+      <c r="I115" s="126"/>
+      <c r="J115" s="126"/>
+      <c r="K115" s="126"/>
+      <c r="L115" s="126"/>
+      <c r="M115" s="82"/>
+    </row>
+    <row r="116" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="60"/>
+      <c r="B116" s="76"/>
+      <c r="C116" s="126"/>
+      <c r="D116" s="126"/>
+      <c r="E116" s="126"/>
+      <c r="F116" s="126"/>
+      <c r="G116" s="126"/>
+      <c r="H116" s="126"/>
+      <c r="I116" s="126"/>
+      <c r="J116" s="126"/>
+      <c r="K116" s="126"/>
+      <c r="L116" s="126"/>
+      <c r="M116" s="86"/>
+    </row>
+    <row r="117" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="60"/>
+      <c r="B117" s="76"/>
+      <c r="C117" s="126"/>
+      <c r="D117" s="126"/>
+      <c r="E117" s="126"/>
+      <c r="F117" s="126"/>
+      <c r="G117" s="126"/>
+      <c r="H117" s="126"/>
+      <c r="I117" s="126"/>
+      <c r="J117" s="126"/>
+      <c r="K117" s="126"/>
+      <c r="L117" s="126"/>
+      <c r="M117" s="86"/>
+    </row>
+    <row r="118" spans="1:14" s="23" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="59"/>
+      <c r="B118" s="78"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="82"/>
+    </row>
+    <row r="119" spans="1:14" s="23" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="59"/>
+      <c r="B119" s="78"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="87"/>
+    </row>
+    <row r="120" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="60"/>
+      <c r="B120" s="79"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="42"/>
+      <c r="M120" s="87"/>
+      <c r="N120" s="24"/>
+    </row>
+    <row r="121" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="60"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+      <c r="M121" s="87"/>
+    </row>
+    <row r="122" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="60"/>
+      <c r="B122" s="80"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="44"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122" s="87"/>
+    </row>
+    <row r="123" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="60"/>
+      <c r="B123" s="76"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="45"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123" s="87"/>
+    </row>
+    <row r="124" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="60"/>
+      <c r="B124" s="76"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="164" t="s">
         <v>155</v>
       </c>
-      <c r="L95" s="18"/>
-      <c r="M95" s="74"/>
+      <c r="G124" s="164"/>
+      <c r="H124" s="164"/>
+      <c r="I124" s="164"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124" s="87"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96" s="74"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="135" t="s">
-        <v>143</v>
-      </c>
-      <c r="D96" s="135"/>
-      <c r="E96" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="L96" s="18"/>
-      <c r="M96" s="74"/>
+    <row r="125" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="60"/>
+      <c r="B125" s="76"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="47"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125" s="87"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="74"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="135" t="s">
-        <v>115</v>
-      </c>
-      <c r="D97" s="135"/>
-      <c r="E97" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="L97" s="18"/>
-      <c r="M97" s="74"/>
+    <row r="126" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="60"/>
+      <c r="B126" s="76"/>
+      <c r="C126" s="92"/>
+      <c r="D126" s="93"/>
+      <c r="E126" s="93"/>
+      <c r="F126" s="93"/>
+      <c r="G126" s="93"/>
+      <c r="H126" s="93"/>
+      <c r="I126" s="93"/>
+      <c r="J126" s="94"/>
+      <c r="K126" s="94"/>
+      <c r="L126" s="94"/>
+      <c r="M126" s="87"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="74"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="135" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" s="135"/>
-      <c r="E98" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="L98" s="18"/>
-      <c r="M98" s="74"/>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="60"/>
+      <c r="B127" s="76"/>
+      <c r="M127" s="82"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="74"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="135" t="s">
-        <v>145</v>
-      </c>
-      <c r="D99" s="135"/>
-      <c r="E99" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="L99" s="18"/>
-      <c r="M99" s="74"/>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="60"/>
+      <c r="B128" s="76"/>
+      <c r="C128" s="25"/>
+      <c r="M128" s="82"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="74"/>
-      <c r="B100" s="74"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="74"/>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="60"/>
+      <c r="B129" s="76"/>
+      <c r="C129" s="25"/>
+      <c r="M129" s="82"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="74"/>
-      <c r="B101" s="74"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="74"/>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130" s="60"/>
+      <c r="B130" s="76"/>
+      <c r="C130" s="25"/>
+      <c r="M130" s="82"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="74"/>
-      <c r="B102" s="101"/>
-      <c r="C102" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G102" s="38"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="M102" s="74"/>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B131" s="76"/>
+      <c r="M131" s="82"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="74"/>
-      <c r="B103" s="102"/>
-      <c r="C103" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="I103" s="42"/>
-      <c r="M103" s="74"/>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B132" s="76"/>
+      <c r="M132" s="82"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="74"/>
-      <c r="B104" s="102"/>
-      <c r="I104" s="42"/>
-      <c r="M104" s="74"/>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B133" s="76"/>
+      <c r="M133" s="82"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="74"/>
-      <c r="B105" s="102"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="92"/>
-      <c r="H105" s="92"/>
-      <c r="I105" s="92"/>
-      <c r="J105" s="92"/>
-      <c r="K105" s="92"/>
-      <c r="L105" s="92"/>
-      <c r="M105" s="74"/>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B134" s="76"/>
+      <c r="M134" s="82"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="74"/>
-      <c r="B106" s="102"/>
-      <c r="C106" s="92"/>
-      <c r="D106" s="92"/>
-      <c r="E106" s="92"/>
-      <c r="F106" s="92"/>
-      <c r="G106" s="92"/>
-      <c r="H106" s="92"/>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
-      <c r="K106" s="92"/>
-      <c r="L106" s="92"/>
-      <c r="M106" s="74"/>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B135" s="76"/>
+      <c r="M135" s="82"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="74"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="92"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="92"/>
-      <c r="G107" s="92"/>
-      <c r="H107" s="92"/>
-      <c r="I107" s="92"/>
-      <c r="J107" s="92"/>
-      <c r="K107" s="92"/>
-      <c r="L107" s="92"/>
-      <c r="M107" s="100"/>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B136" s="76"/>
+      <c r="M136" s="82"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="74"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="72"/>
-      <c r="E108" s="72"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="72"/>
-      <c r="H108" s="72"/>
-      <c r="I108" s="72"/>
-      <c r="J108" s="72"/>
-      <c r="K108" s="72"/>
-      <c r="L108" s="72"/>
-      <c r="M108" s="100"/>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B137" s="76"/>
+      <c r="M137" s="82"/>
     </row>
-    <row r="109" spans="1:14" s="23" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="70"/>
-      <c r="B109" s="103"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="74"/>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B138" s="76"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="60"/>
+      <c r="F138" s="60"/>
+      <c r="G138" s="60"/>
+      <c r="H138" s="60"/>
+      <c r="I138" s="60"/>
+      <c r="J138" s="60"/>
+      <c r="K138" s="60"/>
+      <c r="L138" s="60"/>
+      <c r="M138" s="82"/>
     </row>
-    <row r="110" spans="1:14" s="23" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="70"/>
-      <c r="B110" s="103"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="91"/>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B139" s="76"/>
+      <c r="C139" s="60"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="60"/>
+      <c r="G139" s="60"/>
+      <c r="H139" s="60"/>
+      <c r="I139" s="60"/>
+      <c r="J139" s="60"/>
+      <c r="K139" s="60"/>
+      <c r="L139" s="60"/>
+      <c r="M139" s="82"/>
     </row>
-    <row r="111" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="74"/>
-      <c r="B111" s="104"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="43"/>
-      <c r="M111" s="91"/>
-      <c r="N111" s="24"/>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B140" s="76"/>
+      <c r="C140" s="60"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="60"/>
+      <c r="G140" s="60"/>
+      <c r="H140" s="60"/>
+      <c r="I140" s="60"/>
+      <c r="J140" s="60"/>
+      <c r="K140" s="60"/>
+      <c r="L140" s="60"/>
+      <c r="M140" s="82"/>
     </row>
-    <row r="112" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="74"/>
-      <c r="B112" s="103"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="32"/>
-      <c r="M112" s="91"/>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B141" s="76"/>
+      <c r="C141" s="60"/>
+      <c r="D141" s="60"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="60"/>
+      <c r="G141" s="60"/>
+      <c r="H141" s="60"/>
+      <c r="I141" s="60"/>
+      <c r="J141" s="60"/>
+      <c r="K141" s="60"/>
+      <c r="L141" s="60"/>
+      <c r="M141" s="82"/>
     </row>
-    <row r="113" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="74"/>
-      <c r="B113" s="105"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="45"/>
-      <c r="J113"/>
-      <c r="K113"/>
-      <c r="L113"/>
-      <c r="M113" s="91"/>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B142" s="89"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
+      <c r="H142" s="60"/>
+      <c r="I142" s="60"/>
+      <c r="J142" s="60"/>
+      <c r="K142" s="60"/>
+      <c r="L142" s="60"/>
+      <c r="M142" s="90"/>
     </row>
-    <row r="114" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="74"/>
-      <c r="B114" s="74"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G114" s="32"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="46"/>
-      <c r="J114"/>
-      <c r="K114"/>
-      <c r="L114"/>
-      <c r="M114" s="91"/>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B143" s="91"/>
+      <c r="C143" s="60"/>
+      <c r="D143" s="60"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="60"/>
+      <c r="G143" s="60"/>
+      <c r="H143" s="60"/>
+      <c r="I143" s="60"/>
+      <c r="J143" s="60"/>
+      <c r="K143" s="60"/>
+      <c r="L143" s="60"/>
+      <c r="M143" s="60"/>
+      <c r="N143" s="60"/>
     </row>
-    <row r="115" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="74"/>
-      <c r="B115" s="74"/>
-      <c r="C115" s="47"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="114" t="s">
-        <v>156</v>
-      </c>
-      <c r="G115" s="114"/>
-      <c r="H115" s="114"/>
-      <c r="I115" s="114"/>
-      <c r="J115"/>
-      <c r="K115"/>
-      <c r="L115"/>
-      <c r="M115" s="91"/>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="60"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="60"/>
+      <c r="E144" s="60"/>
+      <c r="F144" s="60"/>
+      <c r="G144" s="60"/>
+      <c r="H144" s="60"/>
+      <c r="I144" s="60"/>
+      <c r="J144" s="60"/>
+      <c r="K144" s="60"/>
+      <c r="L144" s="60"/>
+      <c r="M144" s="60"/>
+      <c r="N144" s="60"/>
     </row>
-    <row r="116" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="74"/>
-      <c r="B116" s="74"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="48"/>
-      <c r="J116"/>
-      <c r="K116"/>
-      <c r="L116"/>
-      <c r="M116" s="91"/>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="60"/>
+      <c r="E145" s="60"/>
+      <c r="F145" s="60"/>
+      <c r="G145" s="60"/>
+      <c r="H145" s="60"/>
+      <c r="I145" s="60"/>
+      <c r="J145" s="60"/>
+      <c r="K145" s="60"/>
+      <c r="L145" s="60"/>
+      <c r="M145" s="60"/>
+      <c r="N145" s="60"/>
     </row>
-    <row r="117" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="74"/>
-      <c r="B117" s="74"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="90"/>
-      <c r="E117" s="90"/>
-      <c r="F117" s="90"/>
-      <c r="G117" s="90"/>
-      <c r="H117" s="90"/>
-      <c r="I117" s="90"/>
-      <c r="J117" s="91"/>
-      <c r="K117" s="91"/>
-      <c r="L117" s="91"/>
-      <c r="M117" s="91"/>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M146" s="60"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" s="74"/>
-      <c r="M118" s="74"/>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M147" s="60"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A119" s="74"/>
-      <c r="C119" s="25"/>
-      <c r="M119" s="74"/>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M148" s="60"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" s="74"/>
-      <c r="C120" s="25"/>
-      <c r="M120" s="74"/>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M149" s="60"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A121" s="74"/>
-      <c r="C121" s="25"/>
-      <c r="M121" s="74"/>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M150" s="60"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M122" s="74"/>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M151" s="60"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M123" s="74"/>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M152" s="60"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M124" s="74"/>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M153" s="60"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M125" s="74"/>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M154" s="60"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M126" s="74"/>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M155" s="60"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M127" s="74"/>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M156" s="60"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M128" s="74"/>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M157" s="60"/>
     </row>
-    <row r="129" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M129" s="74"/>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C158" s="60"/>
+      <c r="D158" s="60"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="60"/>
+      <c r="G158" s="60"/>
+      <c r="H158" s="60"/>
+      <c r="I158" s="60"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="60"/>
+      <c r="L158" s="60"/>
+      <c r="M158" s="60"/>
     </row>
-    <row r="130" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M130" s="74"/>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M159" s="60"/>
     </row>
-    <row r="131" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M131" s="74"/>
-    </row>
-    <row r="132" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M132" s="74"/>
-    </row>
-    <row r="133" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M133" s="74"/>
-    </row>
-    <row r="134" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M134" s="74"/>
-    </row>
-    <row r="135" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M135" s="74"/>
-    </row>
-    <row r="136" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M136" s="74"/>
-    </row>
-    <row r="137" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M137" s="74"/>
-    </row>
-    <row r="138" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M138" s="74"/>
-    </row>
-    <row r="139" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M139" s="74"/>
-    </row>
-    <row r="140" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M140" s="74"/>
-    </row>
-    <row r="141" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M141" s="74"/>
-    </row>
-    <row r="142" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M142" s="74"/>
-    </row>
-    <row r="143" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M143" s="74"/>
-    </row>
-    <row r="144" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M144" s="74"/>
-    </row>
-    <row r="145" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M145" s="74"/>
-    </row>
-    <row r="146" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M146" s="74"/>
-    </row>
-    <row r="147" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M147" s="74"/>
-    </row>
-    <row r="148" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M148" s="74"/>
-    </row>
-    <row r="149" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M149" s="74"/>
-    </row>
-    <row r="150" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M150" s="74"/>
-    </row>
-    <row r="151" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M151" s="74"/>
-    </row>
-    <row r="152" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M152" s="74"/>
-    </row>
-    <row r="153" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M153" s="74"/>
-    </row>
-    <row r="154" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M154" s="74"/>
-    </row>
-    <row r="155" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M155" s="74"/>
-    </row>
-    <row r="156" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M156" s="74"/>
-    </row>
-    <row r="157" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M157" s="74"/>
-    </row>
-    <row r="158" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M158" s="74"/>
-    </row>
-    <row r="159" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M159" s="74"/>
-    </row>
-    <row r="160" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M160" s="74"/>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M160" s="60"/>
     </row>
     <row r="161" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M161" s="74"/>
+      <c r="M161" s="60"/>
     </row>
     <row r="162" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M162" s="74"/>
+      <c r="M162" s="60"/>
     </row>
     <row r="163" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M163" s="74"/>
+      <c r="M163" s="60"/>
     </row>
     <row r="164" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M164" s="74"/>
+      <c r="M164" s="60"/>
     </row>
     <row r="165" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M165" s="74"/>
+      <c r="M165" s="60"/>
     </row>
     <row r="166" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M166" s="74"/>
+      <c r="M166" s="60"/>
     </row>
     <row r="167" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M167" s="74"/>
+      <c r="M167" s="60"/>
     </row>
     <row r="168" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M168" s="74"/>
+      <c r="M168" s="60"/>
     </row>
     <row r="169" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M169" s="74"/>
+      <c r="M169" s="60"/>
     </row>
     <row r="170" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M170" s="74"/>
+      <c r="M170" s="60"/>
     </row>
     <row r="171" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M171" s="74"/>
+      <c r="M171" s="60"/>
     </row>
     <row r="172" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M172" s="74"/>
+      <c r="M172" s="60"/>
     </row>
     <row r="173" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M173" s="74"/>
+      <c r="M173" s="60"/>
     </row>
     <row r="174" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M174" s="74"/>
+      <c r="M174" s="60"/>
     </row>
     <row r="175" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M175" s="74"/>
+      <c r="M175" s="60"/>
     </row>
     <row r="176" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M176" s="74"/>
+      <c r="M176" s="60"/>
     </row>
     <row r="177" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M177" s="74"/>
+      <c r="M177" s="60"/>
     </row>
     <row r="178" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M178" s="74"/>
+      <c r="M178" s="60"/>
     </row>
     <row r="179" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M179" s="74"/>
+      <c r="M179" s="60"/>
     </row>
     <row r="180" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M180" s="74"/>
+      <c r="M180" s="60"/>
     </row>
     <row r="181" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M181" s="74"/>
+      <c r="M181" s="60"/>
     </row>
     <row r="182" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M182" s="74"/>
+      <c r="M182" s="60"/>
     </row>
     <row r="183" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M183" s="74"/>
+      <c r="M183" s="60"/>
     </row>
     <row r="184" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M184" s="74"/>
+      <c r="M184" s="60"/>
     </row>
     <row r="185" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M185" s="74"/>
+      <c r="M185" s="60"/>
     </row>
     <row r="186" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M186" s="74"/>
+      <c r="M186" s="60"/>
     </row>
     <row r="187" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M187" s="74"/>
+      <c r="M187" s="60"/>
     </row>
     <row r="188" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M188" s="74"/>
+      <c r="M188" s="60"/>
     </row>
     <row r="189" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M189" s="74"/>
+      <c r="M189" s="60"/>
     </row>
     <row r="190" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M190" s="74"/>
+      <c r="M190" s="60"/>
     </row>
     <row r="191" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M191" s="74"/>
+      <c r="M191" s="60"/>
     </row>
     <row r="192" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M192" s="74"/>
+      <c r="M192" s="60"/>
     </row>
     <row r="193" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M193" s="74"/>
+      <c r="M193" s="60"/>
     </row>
     <row r="194" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M194" s="74"/>
+      <c r="M194" s="60"/>
     </row>
     <row r="195" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M195" s="74"/>
+      <c r="M195" s="60"/>
     </row>
     <row r="196" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M196" s="74"/>
+      <c r="M196" s="60"/>
     </row>
     <row r="197" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M197" s="74"/>
+      <c r="M197" s="60"/>
     </row>
     <row r="198" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M198" s="74"/>
+      <c r="M198" s="60"/>
     </row>
     <row r="199" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M199" s="74"/>
+      <c r="M199" s="60"/>
     </row>
     <row r="200" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M200" s="74"/>
+      <c r="M200" s="60"/>
     </row>
     <row r="201" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M201" s="74"/>
+      <c r="M201" s="60"/>
     </row>
     <row r="202" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M202" s="74"/>
+      <c r="M202" s="60"/>
     </row>
     <row r="203" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M203" s="74"/>
+      <c r="M203" s="60"/>
     </row>
     <row r="204" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M204" s="74"/>
+      <c r="M204" s="60"/>
     </row>
     <row r="205" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M205" s="74"/>
+      <c r="M205" s="60"/>
     </row>
     <row r="206" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M206" s="74"/>
+      <c r="M206" s="60"/>
     </row>
     <row r="207" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M207" s="74"/>
+      <c r="M207" s="60"/>
     </row>
     <row r="208" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M208" s="74"/>
+      <c r="M208" s="60"/>
     </row>
     <row r="209" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M209" s="74"/>
+      <c r="M209" s="60"/>
     </row>
     <row r="210" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M210" s="74"/>
+      <c r="M210" s="60"/>
     </row>
     <row r="211" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M211" s="74"/>
+      <c r="M211" s="60"/>
     </row>
     <row r="212" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M212" s="74"/>
+      <c r="M212" s="60"/>
     </row>
     <row r="213" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M213" s="74"/>
+      <c r="M213" s="60"/>
     </row>
     <row r="214" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M214" s="74"/>
+      <c r="M214" s="60"/>
     </row>
     <row r="215" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M215" s="74"/>
+      <c r="M215" s="60"/>
     </row>
     <row r="216" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M216" s="74"/>
+      <c r="M216" s="60"/>
     </row>
     <row r="217" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M217" s="74"/>
+      <c r="M217" s="60"/>
     </row>
     <row r="218" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M218" s="74"/>
+      <c r="M218" s="60"/>
     </row>
     <row r="219" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M219" s="74"/>
+      <c r="M219" s="60"/>
     </row>
     <row r="220" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M220" s="74"/>
+      <c r="M220" s="60"/>
     </row>
     <row r="221" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M221" s="74"/>
+      <c r="M221" s="60"/>
     </row>
     <row r="222" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M222" s="74"/>
+      <c r="M222" s="60"/>
     </row>
     <row r="223" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M223" s="74"/>
+      <c r="M223" s="60"/>
     </row>
     <row r="224" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M224" s="74"/>
+      <c r="M224" s="60"/>
     </row>
     <row r="225" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M225" s="74"/>
+      <c r="M225" s="60"/>
     </row>
     <row r="226" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M226" s="74"/>
+      <c r="M226" s="60"/>
     </row>
     <row r="227" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M227" s="74"/>
+      <c r="M227" s="60"/>
     </row>
     <row r="228" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M228" s="74"/>
+      <c r="M228" s="60"/>
     </row>
     <row r="229" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M229" s="74"/>
+      <c r="M229" s="60"/>
     </row>
     <row r="230" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M230" s="74"/>
+      <c r="M230" s="60"/>
     </row>
     <row r="231" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M231" s="74"/>
+      <c r="M231" s="60"/>
     </row>
     <row r="232" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M232" s="74"/>
+      <c r="M232" s="60"/>
     </row>
     <row r="233" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M233" s="74"/>
+      <c r="M233" s="60"/>
     </row>
     <row r="234" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M234" s="74"/>
+      <c r="M234" s="60"/>
     </row>
     <row r="235" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M235" s="74"/>
+      <c r="M235" s="60"/>
     </row>
     <row r="236" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M236" s="74"/>
+      <c r="M236" s="60"/>
     </row>
     <row r="237" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M237" s="74"/>
+      <c r="M237" s="60"/>
     </row>
     <row r="238" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M238" s="74"/>
+      <c r="M238" s="60"/>
     </row>
     <row r="239" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M239" s="74"/>
+      <c r="M239" s="60"/>
     </row>
     <row r="240" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M240" s="74"/>
+      <c r="M240" s="60"/>
     </row>
     <row r="241" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M241" s="74"/>
+      <c r="M241" s="60"/>
     </row>
     <row r="242" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M242" s="74"/>
+      <c r="M242" s="60"/>
     </row>
     <row r="243" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M243" s="74"/>
+      <c r="M243" s="60"/>
     </row>
     <row r="244" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M244" s="74"/>
+      <c r="M244" s="60"/>
     </row>
     <row r="245" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M245" s="74"/>
+      <c r="M245" s="60"/>
     </row>
     <row r="246" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M246" s="74"/>
+      <c r="M246" s="60"/>
     </row>
     <row r="247" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M247" s="74"/>
+      <c r="M247" s="60"/>
     </row>
     <row r="248" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M248" s="74"/>
+      <c r="M248" s="60"/>
     </row>
     <row r="249" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M249" s="74"/>
+      <c r="M249" s="60"/>
     </row>
     <row r="250" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M250" s="74"/>
+      <c r="M250" s="60"/>
     </row>
     <row r="251" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M251" s="74"/>
+      <c r="M251" s="60"/>
     </row>
     <row r="252" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M252" s="74"/>
+      <c r="M252" s="60"/>
     </row>
     <row r="253" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M253" s="74"/>
+      <c r="M253" s="60"/>
     </row>
     <row r="254" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M254" s="74"/>
+      <c r="M254" s="60"/>
     </row>
     <row r="255" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M255" s="74"/>
+      <c r="M255" s="60"/>
     </row>
     <row r="256" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M256" s="74"/>
+      <c r="M256" s="60"/>
     </row>
     <row r="257" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M257" s="74"/>
+      <c r="M257" s="60"/>
     </row>
     <row r="258" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M258" s="74"/>
+      <c r="M258" s="60"/>
     </row>
     <row r="259" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M259" s="74"/>
+      <c r="M259" s="60"/>
     </row>
     <row r="260" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M260" s="74"/>
+      <c r="M260" s="60"/>
     </row>
     <row r="261" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M261" s="74"/>
+      <c r="M261" s="60"/>
     </row>
     <row r="262" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M262" s="74"/>
+      <c r="M262" s="60"/>
     </row>
     <row r="263" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M263" s="74"/>
+      <c r="M263" s="60"/>
     </row>
     <row r="264" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M264" s="74"/>
+      <c r="M264" s="60"/>
     </row>
     <row r="265" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M265" s="74"/>
+      <c r="M265" s="60"/>
     </row>
     <row r="266" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M266" s="74"/>
+      <c r="M266" s="60"/>
     </row>
     <row r="267" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M267" s="74"/>
+      <c r="M267" s="60"/>
     </row>
     <row r="268" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M268" s="74"/>
+      <c r="M268" s="60"/>
     </row>
     <row r="269" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M269" s="74"/>
+      <c r="M269" s="60"/>
     </row>
     <row r="270" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M270" s="74"/>
+      <c r="M270" s="60"/>
     </row>
     <row r="271" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M271" s="74"/>
+      <c r="M271" s="60"/>
     </row>
     <row r="272" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M272" s="74"/>
+      <c r="M272" s="60"/>
     </row>
     <row r="273" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M273" s="74"/>
+      <c r="M273" s="60"/>
     </row>
     <row r="274" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M274" s="74"/>
+      <c r="M274" s="60"/>
     </row>
     <row r="275" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M275" s="74"/>
+      <c r="M275" s="60"/>
     </row>
     <row r="276" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M276" s="74"/>
+      <c r="M276" s="60"/>
+    </row>
+    <row r="277" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M277" s="60"/>
+    </row>
+    <row r="278" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M278" s="60"/>
+    </row>
+    <row r="279" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M279" s="60"/>
+    </row>
+    <row r="280" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M280" s="60"/>
+    </row>
+    <row r="281" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M281" s="60"/>
+    </row>
+    <row r="282" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M282" s="60"/>
+    </row>
+    <row r="283" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M283" s="60"/>
+    </row>
+    <row r="284" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M284" s="60"/>
+    </row>
+    <row r="285" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M285" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="C36:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C43:L43"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:L12"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="C87:E87"/>
+  <mergeCells count="96">
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
     <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E1:K5"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C49:L49"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="H58:I59"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C25:L27"/>
+    <mergeCell ref="C28:D30"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="E1:K5"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:L12"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="C39:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="H61:J62"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C112:L117"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="C100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="H98:I99"/>
+    <mergeCell ref="C98:E99"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="H74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="C72:E73"/>
+    <mergeCell ref="H72:J73"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB44E3-0055-4A25-B6DB-0F1B097C298B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3A012A-8474-4323-9C98-021C9E7BC95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
   <si>
     <t>RIQUEZA</t>
   </si>
@@ -727,6 +727,12 @@
   </si>
   <si>
     <t>{{NombreReporte}}</t>
+  </si>
+  <si>
+    <t>{{TotalGnsLotes}}</t>
+  </si>
+  <si>
+    <t>VOLUMEN DIARIO</t>
   </si>
 </sst>
 </file>
@@ -1615,6 +1621,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,8 +1645,8 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1665,9 +1674,6 @@
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -30699,8 +30705,8 @@
   </sheetPr>
   <dimension ref="A1:X285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30736,63 +30742,63 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="155" t="s">
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="M1" s="156"/>
+      <c r="M1" s="157"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="28"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="157" t="s">
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="158"/>
+      <c r="M2" s="159"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="28"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="159" t="s">
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="160" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="160"/>
+      <c r="M3" s="161"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="28"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
       <c r="L4" s="53" t="s">
         <v>7</v>
       </c>
@@ -30804,13 +30810,13 @@
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
       <c r="L5" s="88" t="s">
         <v>158</v>
       </c>
@@ -30872,54 +30878,54 @@
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
       <c r="B11" s="76"/>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
       <c r="M11" s="83"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="60"/>
       <c r="B12" s="76"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
       <c r="M12" s="83"/>
     </row>
     <row r="13" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="60"/>
       <c r="B13" s="76"/>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="146"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="69" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="146" t="s">
+      <c r="G13" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="69" t="s">
         <v>15</v>
       </c>
@@ -30931,8 +30937,8 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="60"/>
       <c r="B14" s="76"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="68" t="s">
         <v>46</v>
       </c>
@@ -31056,11 +31062,11 @@
     <row r="20" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="60"/>
       <c r="B20" s="76"/>
-      <c r="C20" s="161" t="s">
+      <c r="C20" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
       <c r="F20" s="107" t="s">
         <v>71</v>
       </c>
@@ -31129,50 +31135,50 @@
     <row r="25" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="60"/>
       <c r="B25" s="76"/>
-      <c r="C25" s="146" t="s">
+      <c r="C25" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
       <c r="M25" s="82"/>
       <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="60"/>
       <c r="B26" s="76"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
       <c r="M26" s="82"/>
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="60"/>
       <c r="B27" s="76"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
       <c r="M27" s="82"/>
       <c r="P27" s="13"/>
     </row>
@@ -31184,7 +31190,7 @@
       </c>
       <c r="D28" s="127"/>
       <c r="E28" s="114" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="F28" s="115"/>
       <c r="G28" s="114" t="s">
@@ -31235,10 +31241,10 @@
         <v>46</v>
       </c>
       <c r="J30" s="127"/>
-      <c r="K30" s="151" t="s">
+      <c r="K30" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="151"/>
+      <c r="L30" s="144"/>
       <c r="M30" s="82"/>
       <c r="P30" s="13"/>
     </row>
@@ -31249,18 +31255,18 @@
         <v>79</v>
       </c>
       <c r="D31" s="143"/>
-      <c r="E31" s="144" t="s">
+      <c r="E31" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="144"/>
+      <c r="F31" s="145"/>
       <c r="G31" s="134" t="s">
         <v>75</v>
       </c>
       <c r="H31" s="134"/>
-      <c r="I31" s="144" t="s">
+      <c r="I31" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="144"/>
+      <c r="J31" s="145"/>
       <c r="K31" s="134" t="s">
         <v>76</v>
       </c>
@@ -31273,12 +31279,12 @@
       <c r="B32" s="76"/>
       <c r="C32" s="143"/>
       <c r="D32" s="143"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
       <c r="G32" s="134"/>
       <c r="H32" s="134"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
       <c r="K32" s="134"/>
       <c r="L32" s="134"/>
       <c r="M32" s="82"/>
@@ -31372,14 +31378,14 @@
       <c r="F39" s="127"/>
       <c r="G39" s="127"/>
       <c r="H39" s="127"/>
-      <c r="I39" s="146" t="s">
+      <c r="I39" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="J39" s="146"/>
-      <c r="K39" s="146" t="s">
+      <c r="J39" s="147"/>
+      <c r="K39" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="146"/>
+      <c r="L39" s="147"/>
       <c r="M39" s="82"/>
       <c r="P39" s="13"/>
     </row>
@@ -31491,7 +31497,7 @@
     <row r="46" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="60"/>
       <c r="B46" s="76"/>
-      <c r="C46" s="145" t="s">
+      <c r="C46" s="146" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="139"/>
@@ -31660,7 +31666,7 @@
     <row r="52" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="76"/>
-      <c r="C52" s="145" t="s">
+      <c r="C52" s="146" t="s">
         <v>42</v>
       </c>
       <c r="D52" s="139"/>
@@ -31857,11 +31863,11 @@
     <row r="61" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="60"/>
       <c r="B61" s="10"/>
-      <c r="C61" s="146" t="s">
+      <c r="C61" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="146"/>
-      <c r="E61" s="146"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
       <c r="F61" s="34"/>
       <c r="H61" s="118" t="s">
         <v>47</v>
@@ -32268,19 +32274,19 @@
     <row r="87" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="60"/>
       <c r="B87" s="76"/>
-      <c r="C87" s="146" t="s">
+      <c r="C87" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="D87" s="146"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="146"/>
+      <c r="D87" s="147"/>
+      <c r="E87" s="147"/>
+      <c r="F87" s="147"/>
       <c r="G87" s="12"/>
-      <c r="H87" s="147" t="s">
+      <c r="H87" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="I87" s="147"/>
-      <c r="J87" s="147"/>
-      <c r="K87" s="147"/>
+      <c r="I87" s="148"/>
+      <c r="J87" s="148"/>
+      <c r="K87" s="148"/>
       <c r="L87" s="33"/>
       <c r="M87" s="82"/>
       <c r="N87" s="20"/>
@@ -32289,10 +32295,10 @@
     <row r="88" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="60"/>
       <c r="B88" s="76"/>
-      <c r="C88" s="146" t="s">
+      <c r="C88" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="146"/>
+      <c r="D88" s="147"/>
       <c r="E88" s="63" t="s">
         <v>48</v>
       </c>
@@ -32318,10 +32324,10 @@
     <row r="89" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="60"/>
       <c r="B89" s="76"/>
-      <c r="C89" s="149" t="s">
+      <c r="C89" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="150"/>
+      <c r="D89" s="151"/>
       <c r="E89" s="97" t="s">
         <v>122</v>
       </c>
@@ -32347,10 +32353,10 @@
     <row r="90" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="60"/>
       <c r="B90" s="76"/>
-      <c r="C90" s="149" t="s">
+      <c r="C90" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="150"/>
+      <c r="D90" s="151"/>
       <c r="E90" s="97" t="s">
         <v>123</v>
       </c>
@@ -32376,10 +32382,10 @@
     <row r="91" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="60"/>
       <c r="B91" s="76"/>
-      <c r="C91" s="149" t="s">
+      <c r="C91" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="150"/>
+      <c r="D91" s="151"/>
       <c r="E91" s="97" t="s">
         <v>124</v>
       </c>
@@ -32405,15 +32411,15 @@
     <row r="92" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="60"/>
       <c r="B92" s="76"/>
-      <c r="C92" s="149" t="s">
+      <c r="C92" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="150"/>
+      <c r="D92" s="151"/>
       <c r="E92" s="97" t="s">
         <v>125</v>
       </c>
       <c r="F92" s="97" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="H92" s="66"/>
       <c r="I92" s="66"/>
@@ -32436,11 +32442,11 @@
     <row r="94" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="60"/>
       <c r="B94" s="76"/>
-      <c r="C94" s="148" t="s">
+      <c r="C94" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="D94" s="148"/>
-      <c r="E94" s="148"/>
+      <c r="D94" s="149"/>
+      <c r="E94" s="149"/>
       <c r="F94" s="99" t="s">
         <v>138</v>
       </c>
@@ -33509,15 +33515,8 @@
     <mergeCell ref="J63:J64"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C25:L27"/>
     <mergeCell ref="C28:D30"/>
     <mergeCell ref="E28:F29"/>
@@ -33528,6 +33527,12 @@
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="C13:D14"/>
     <mergeCell ref="C11:L12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="C94:E94"/>
@@ -33553,6 +33558,7 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C106:D106"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="C66:D66"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppV2\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAC888E-CA9F-461A-888A-F084896B1197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C8812B-39F5-45F0-BDFD-5839A220FB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
   </bookViews>
@@ -350,9 +350,6 @@
     <t>TANQUE DE DESPACHO, PLACAS DE CISTERNAS Y VOLÚMENES DESPACHADOS DE CGN (GAL)</t>
   </si>
   <si>
-    <t>GNA TOTAL DE CNPC</t>
-  </si>
-  <si>
     <t>GNS TRASFERIDO</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
   </si>
   <si>
     <t>VOLUMEN</t>
-  </si>
-  <si>
-    <t>4.  VOLUMEN DE GAS Y PRODUCCIÓN DE GNA ADICIONAL DEL LOTE X (CNPC PERÚ):</t>
   </si>
   <si>
     <t>5.  VOLUMEN DE GAS Y PRODUCCIÓN DE ENEL:</t>
@@ -733,6 +727,12 @@
   </si>
   <si>
     <t>VOLUMEN DIARIO</t>
+  </si>
+  <si>
+    <t>4.  VOLUMEN DE GAS Y PRODUCCIÓN DE GNA ADICIONAL DEL LOTE X (OIG PERU SAC):</t>
+  </si>
+  <si>
+    <t>GNA TOTAL DE OIG PERU SAC</t>
   </si>
 </sst>
 </file>
@@ -1522,28 +1522,22 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1558,28 +1552,97 @@
     <xf numFmtId="164" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1615,79 +1678,16 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -30702,8 +30702,8 @@
   </sheetPr>
   <dimension ref="A1:X286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30739,63 +30739,63 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="131" t="s">
-        <v>160</v>
+      <c r="E1" s="152" t="s">
+        <v>158</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="134" t="s">
-        <v>157</v>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="155" t="s">
+        <v>155</v>
       </c>
-      <c r="M1" s="135"/>
+      <c r="M1" s="156"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="28"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="136" t="s">
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="137"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="28"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="138" t="s">
-        <v>156</v>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="159" t="s">
+        <v>154</v>
       </c>
-      <c r="M3" s="139"/>
+      <c r="M3" s="160"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="28"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
       <c r="L4" s="53" t="s">
         <v>7</v>
       </c>
@@ -30807,18 +30807,18 @@
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
       <c r="L5" s="87" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M5" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="12" x14ac:dyDescent="0.2">
@@ -30845,7 +30845,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M7" s="81"/>
     </row>
@@ -30875,129 +30875,129 @@
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
       <c r="B11" s="75"/>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
       <c r="M11" s="82"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="60"/>
       <c r="B12" s="75"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
       <c r="M12" s="82"/>
     </row>
     <row r="13" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="60"/>
       <c r="B13" s="75"/>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="118"/>
+      <c r="D13" s="146"/>
       <c r="E13" s="68" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="118" t="s">
+      <c r="G13" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
       <c r="K13" s="68" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M13" s="81"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="60"/>
       <c r="B14" s="75"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
       <c r="E14" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="140" t="s">
+      <c r="G14" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140" t="s">
-        <v>50</v>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161" t="s">
+        <v>49</v>
       </c>
-      <c r="J14" s="140"/>
+      <c r="J14" s="161"/>
       <c r="K14" s="67" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M14" s="81"/>
     </row>
     <row r="15" spans="1:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="60"/>
       <c r="B15" s="75"/>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="164" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="164"/>
+      <c r="E15" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="162"/>
+      <c r="I15" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="101" t="s">
+      <c r="J15" s="133"/>
+      <c r="K15" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="95" t="s">
+      <c r="L15" s="102" t="s">
         <v>75</v>
-      </c>
-      <c r="G15" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="141"/>
-      <c r="I15" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="142"/>
-      <c r="K15" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="102" t="s">
-        <v>77</v>
       </c>
       <c r="M15" s="83"/>
     </row>
     <row r="16" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="60"/>
       <c r="B16" s="75"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="95"/>
       <c r="F16" s="95"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
       <c r="K16" s="100"/>
       <c r="L16" s="100"/>
       <c r="M16" s="83"/>
@@ -31017,20 +31017,20 @@
     <row r="18" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="60"/>
       <c r="B18" s="75"/>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
       <c r="F18" s="58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
-      <c r="H18" s="117" t="s">
-        <v>66</v>
+      <c r="H18" s="134" t="s">
+        <v>64</v>
       </c>
-      <c r="I18" s="117"/>
+      <c r="I18" s="134"/>
       <c r="J18" s="69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K18" s="32"/>
       <c r="M18" s="81"/>
@@ -31040,13 +31040,13 @@
     <row r="19" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="60"/>
       <c r="B19" s="75"/>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
       <c r="F19" s="58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
@@ -31059,13 +31059,13 @@
     <row r="20" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="60"/>
       <c r="B20" s="75"/>
-      <c r="C20" s="153" t="s">
+      <c r="C20" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
       <c r="F20" s="106" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
@@ -31132,158 +31132,158 @@
     <row r="25" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="60"/>
       <c r="B25" s="75"/>
-      <c r="C25" s="118" t="s">
+      <c r="C25" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
       <c r="M25" s="81"/>
       <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="60"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
       <c r="M26" s="81"/>
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="60"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
       <c r="M27" s="81"/>
       <c r="P27" s="13"/>
     </row>
     <row r="28" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="60"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="125" t="s">
-        <v>85</v>
+      <c r="C28" s="126" t="s">
+        <v>83</v>
       </c>
-      <c r="D28" s="125"/>
-      <c r="E28" s="127" t="s">
-        <v>162</v>
+      <c r="D28" s="126"/>
+      <c r="E28" s="113" t="s">
+        <v>160</v>
       </c>
-      <c r="F28" s="128"/>
-      <c r="G28" s="127" t="s">
+      <c r="F28" s="114"/>
+      <c r="G28" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="128"/>
-      <c r="I28" s="119" t="s">
-        <v>67</v>
+      <c r="H28" s="114"/>
+      <c r="I28" s="117" t="s">
+        <v>65</v>
       </c>
-      <c r="J28" s="158"/>
-      <c r="K28" s="125" t="s">
+      <c r="J28" s="123"/>
+      <c r="K28" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="125"/>
+      <c r="L28" s="126"/>
       <c r="M28" s="81"/>
       <c r="P28" s="13"/>
     </row>
     <row r="29" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="60"/>
       <c r="B29" s="75"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
       <c r="M29" s="81"/>
       <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="60"/>
       <c r="B30" s="75"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126" t="s">
-        <v>46</v>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="166" t="s">
+        <v>45</v>
       </c>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125" t="s">
+      <c r="F30" s="126"/>
+      <c r="G30" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125" t="s">
-        <v>46</v>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126" t="s">
+        <v>45</v>
       </c>
-      <c r="J30" s="125"/>
-      <c r="K30" s="148" t="s">
+      <c r="J30" s="126"/>
+      <c r="K30" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="148"/>
+      <c r="L30" s="143"/>
       <c r="M30" s="81"/>
       <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="60"/>
       <c r="B31" s="75"/>
-      <c r="C31" s="152" t="s">
-        <v>79</v>
+      <c r="C31" s="142" t="s">
+        <v>77</v>
       </c>
-      <c r="D31" s="152"/>
-      <c r="E31" s="151" t="s">
+      <c r="D31" s="142"/>
+      <c r="E31" s="144" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="144"/>
+      <c r="G31" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="133"/>
+      <c r="I31" s="144" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="144"/>
+      <c r="K31" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="151"/>
-      <c r="G31" s="142" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="142"/>
-      <c r="I31" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="151"/>
-      <c r="K31" s="142" t="s">
-        <v>76</v>
-      </c>
-      <c r="L31" s="142"/>
+      <c r="L31" s="133"/>
       <c r="M31" s="81"/>
       <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="60"/>
       <c r="B32" s="75"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
       <c r="M32" s="81"/>
       <c r="P32" s="13"/>
     </row>
@@ -31315,7 +31315,7 @@
       <c r="A35" s="60"/>
       <c r="B35" s="75"/>
       <c r="C35" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -31340,12 +31340,12 @@
     <row r="37" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60"/>
       <c r="B37" s="75"/>
-      <c r="C37" s="114" t="s">
+      <c r="C37" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="114"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="103" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37"/>
       <c r="L37" s="33"/>
@@ -31367,34 +31367,34 @@
     <row r="39" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="60"/>
       <c r="B39" s="75"/>
-      <c r="C39" s="125" t="s">
-        <v>47</v>
+      <c r="C39" s="126" t="s">
+        <v>46</v>
       </c>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="118" t="s">
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="J39" s="118"/>
-      <c r="K39" s="118" t="s">
+      <c r="J39" s="146"/>
+      <c r="K39" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="118"/>
+      <c r="L39" s="146"/>
       <c r="M39" s="81"/>
       <c r="P39" s="13"/>
     </row>
     <row r="40" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
       <c r="B40" s="75"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
       <c r="I40" s="16" t="s">
         <v>27</v>
       </c>
@@ -31413,12 +31413,12 @@
     <row r="41" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="60"/>
       <c r="B41" s="75"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
       <c r="I41" s="56" t="s">
         <v>30</v>
       </c>
@@ -31444,37 +31444,37 @@
     <row r="42" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60"/>
       <c r="B42" s="75"/>
-      <c r="C42" s="116" t="s">
+      <c r="C42" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="J42" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="99" t="s">
+      <c r="K42" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="J42" s="99" t="s">
+      <c r="L42" s="99" t="s">
         <v>82</v>
-      </c>
-      <c r="K42" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="L42" s="99" t="s">
-        <v>84</v>
       </c>
       <c r="M42" s="81"/>
     </row>
     <row r="43" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="60"/>
       <c r="B43" s="75"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
       <c r="I43" s="99"/>
       <c r="J43" s="99"/>
       <c r="K43" s="99"/>
@@ -31494,18 +31494,18 @@
     <row r="46" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="60"/>
       <c r="B46" s="75"/>
-      <c r="C46" s="115" t="s">
+      <c r="C46" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="116"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="138"/>
       <c r="M46" s="84"/>
       <c r="N46" s="21"/>
       <c r="P46" s="13"/>
@@ -31564,34 +31564,34 @@
       <c r="A48" s="60"/>
       <c r="B48" s="75"/>
       <c r="C48" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="94" t="s">
+      <c r="L48" s="94" t="s">
         <v>90</v>
-      </c>
-      <c r="E48" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="G48" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H48" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="I48" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="J48" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="K48" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="L48" s="94" t="s">
-        <v>92</v>
       </c>
       <c r="M48" s="81"/>
       <c r="P48" s="13"/>
@@ -31663,18 +31663,18 @@
     <row r="52" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="75"/>
-      <c r="C52" s="115" t="s">
+      <c r="C52" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="116"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="116"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="138"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="138"/>
+      <c r="L52" s="138"/>
       <c r="M52" s="81"/>
       <c r="P52" s="13"/>
       <c r="R52" s="17"/>
@@ -31732,34 +31732,34 @@
       <c r="A54" s="60"/>
       <c r="B54" s="75"/>
       <c r="C54" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="94" t="s">
+      <c r="L54" s="94" t="s">
         <v>90</v>
-      </c>
-      <c r="E54" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H54" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="I54" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="J54" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="K54" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="L54" s="94" t="s">
-        <v>92</v>
       </c>
       <c r="M54" s="81"/>
       <c r="P54" s="13"/>
@@ -31832,7 +31832,7 @@
       <c r="A58" s="60"/>
       <c r="B58" s="10"/>
       <c r="C58" s="29" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
@@ -31860,50 +31860,50 @@
     <row r="61" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="60"/>
       <c r="B61" s="10"/>
-      <c r="C61" s="118" t="s">
-        <v>43</v>
+      <c r="C61" s="146" t="s">
+        <v>162</v>
       </c>
-      <c r="D61" s="118"/>
-      <c r="E61" s="118"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
       <c r="F61" s="34"/>
-      <c r="H61" s="119" t="s">
-        <v>47</v>
+      <c r="H61" s="117" t="s">
+        <v>46</v>
       </c>
-      <c r="I61" s="158"/>
-      <c r="J61" s="120"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="118"/>
       <c r="M61" s="83"/>
       <c r="N61" s="20"/>
     </row>
     <row r="62" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="60"/>
       <c r="B62" s="10"/>
-      <c r="C62" s="127" t="s">
+      <c r="C62" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="128"/>
-      <c r="E62" s="123" t="s">
+      <c r="D62" s="114"/>
+      <c r="E62" s="111" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="34"/>
-      <c r="H62" s="121"/>
-      <c r="I62" s="159"/>
-      <c r="J62" s="122"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="120"/>
       <c r="M62" s="83"/>
       <c r="N62" s="20"/>
     </row>
     <row r="63" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="60"/>
       <c r="B63" s="10"/>
-      <c r="C63" s="155"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="157"/>
+      <c r="C63" s="139"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="141"/>
       <c r="F63" s="34"/>
-      <c r="H63" s="119" t="s">
-        <v>54</v>
+      <c r="H63" s="117" t="s">
+        <v>53</v>
       </c>
-      <c r="I63" s="120"/>
-      <c r="J63" s="123" t="s">
-        <v>57</v>
+      <c r="I63" s="118"/>
+      <c r="J63" s="111" t="s">
+        <v>56</v>
       </c>
       <c r="M63" s="83"/>
       <c r="N63" s="20"/>
@@ -31911,35 +31911,35 @@
     <row r="64" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="60"/>
       <c r="B64" s="10"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="130"/>
+      <c r="C64" s="115"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F64" s="34"/>
-      <c r="H64" s="121"/>
-      <c r="I64" s="122"/>
-      <c r="J64" s="124"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="120"/>
+      <c r="J64" s="112"/>
       <c r="M64" s="83"/>
       <c r="N64" s="20"/>
     </row>
     <row r="65" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="60"/>
       <c r="B65" s="10"/>
-      <c r="C65" s="117" t="s">
+      <c r="C65" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="134"/>
+      <c r="E65" s="105" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="34"/>
+      <c r="H65" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="117"/>
-      <c r="E65" s="105" t="s">
+      <c r="I65" s="136"/>
+      <c r="J65" s="104" t="s">
         <v>104</v>
-      </c>
-      <c r="F65" s="34"/>
-      <c r="H65" s="149" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" s="150"/>
-      <c r="J65" s="104" t="s">
-        <v>106</v>
       </c>
       <c r="M65" s="83"/>
       <c r="N65" s="20"/>
@@ -31947,20 +31947,20 @@
     <row r="66" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="60"/>
       <c r="B66" s="10"/>
-      <c r="C66" s="117" t="s">
+      <c r="C66" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="134"/>
+      <c r="E66" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="34"/>
+      <c r="H66" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="117"/>
-      <c r="E66" s="105" t="s">
+      <c r="I66" s="136"/>
+      <c r="J66" s="104" t="s">
         <v>105</v>
-      </c>
-      <c r="F66" s="34"/>
-      <c r="H66" s="149" t="s">
-        <v>102</v>
-      </c>
-      <c r="I66" s="150"/>
-      <c r="J66" s="104" t="s">
-        <v>107</v>
       </c>
       <c r="M66" s="83"/>
       <c r="N66" s="20"/>
@@ -31971,12 +31971,12 @@
       <c r="C67" s="29"/>
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
-      <c r="H67" s="154" t="s">
-        <v>103</v>
+      <c r="H67" s="137" t="s">
+        <v>101</v>
       </c>
-      <c r="I67" s="154"/>
+      <c r="I67" s="137"/>
       <c r="J67" s="110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M67" s="83"/>
       <c r="N67" s="20"/>
@@ -32003,7 +32003,7 @@
       <c r="A70" s="60"/>
       <c r="B70" s="10"/>
       <c r="C70" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="34"/>
@@ -32024,53 +32024,53 @@
     <row r="72" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="60"/>
       <c r="B72" s="10"/>
-      <c r="C72" s="127" t="s">
-        <v>51</v>
+      <c r="C72" s="113" t="s">
+        <v>50</v>
       </c>
-      <c r="D72" s="161"/>
-      <c r="E72" s="128"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="114"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
-      <c r="H72" s="119" t="s">
-        <v>47</v>
+      <c r="H72" s="117" t="s">
+        <v>46</v>
       </c>
-      <c r="I72" s="158"/>
-      <c r="J72" s="120"/>
+      <c r="I72" s="123"/>
+      <c r="J72" s="118"/>
       <c r="M72" s="83"/>
       <c r="N72" s="20"/>
     </row>
     <row r="73" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="60"/>
       <c r="B73" s="10"/>
-      <c r="C73" s="129"/>
-      <c r="D73" s="162"/>
-      <c r="E73" s="130"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="116"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-      <c r="H73" s="121"/>
-      <c r="I73" s="159"/>
-      <c r="J73" s="122"/>
+      <c r="H73" s="119"/>
+      <c r="I73" s="124"/>
+      <c r="J73" s="120"/>
       <c r="M73" s="83"/>
       <c r="N73" s="20"/>
     </row>
     <row r="74" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="60"/>
       <c r="B74" s="10"/>
-      <c r="C74" s="127" t="s">
-        <v>55</v>
+      <c r="C74" s="113" t="s">
+        <v>54</v>
       </c>
-      <c r="D74" s="128"/>
-      <c r="E74" s="123" t="s">
-        <v>53</v>
+      <c r="D74" s="114"/>
+      <c r="E74" s="111" t="s">
+        <v>52</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
-      <c r="H74" s="119" t="s">
-        <v>54</v>
+      <c r="H74" s="117" t="s">
+        <v>53</v>
       </c>
-      <c r="I74" s="120"/>
-      <c r="J74" s="123" t="s">
-        <v>57</v>
+      <c r="I74" s="118"/>
+      <c r="J74" s="111" t="s">
+        <v>56</v>
       </c>
       <c r="M74" s="83"/>
       <c r="N74" s="20"/>
@@ -32078,34 +32078,34 @@
     <row r="75" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="60"/>
       <c r="B75" s="10"/>
-      <c r="C75" s="129"/>
-      <c r="D75" s="130"/>
-      <c r="E75" s="124"/>
+      <c r="C75" s="115"/>
+      <c r="D75" s="116"/>
+      <c r="E75" s="112"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
-      <c r="H75" s="121"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="124"/>
+      <c r="H75" s="119"/>
+      <c r="I75" s="120"/>
+      <c r="J75" s="112"/>
       <c r="M75" s="83"/>
       <c r="N75" s="20"/>
     </row>
     <row r="76" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="60"/>
       <c r="B76" s="75"/>
-      <c r="C76" s="112" t="s">
-        <v>112</v>
+      <c r="C76" s="132" t="s">
+        <v>110</v>
       </c>
-      <c r="D76" s="112"/>
+      <c r="D76" s="132"/>
       <c r="E76" s="108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F76" s="22"/>
-      <c r="H76" s="154" t="s">
-        <v>101</v>
+      <c r="H76" s="137" t="s">
+        <v>99</v>
       </c>
-      <c r="I76" s="154"/>
+      <c r="I76" s="137"/>
       <c r="J76" s="104" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K76" s="14"/>
       <c r="L76" s="33"/>
@@ -32115,20 +32115,20 @@
     <row r="77" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="60"/>
       <c r="B77" s="75"/>
-      <c r="C77" s="112" t="s">
-        <v>113</v>
+      <c r="C77" s="132" t="s">
+        <v>111</v>
       </c>
-      <c r="D77" s="112"/>
+      <c r="D77" s="132"/>
       <c r="E77" s="108" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F77" s="22"/>
-      <c r="H77" s="154" t="s">
-        <v>102</v>
+      <c r="H77" s="137" t="s">
+        <v>100</v>
       </c>
-      <c r="I77" s="154"/>
+      <c r="I77" s="137"/>
       <c r="J77" s="104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K77" s="14"/>
       <c r="L77" s="33"/>
@@ -32138,20 +32138,20 @@
     <row r="78" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="60"/>
       <c r="B78" s="75"/>
-      <c r="C78" s="112" t="s">
-        <v>114</v>
+      <c r="C78" s="132" t="s">
+        <v>112</v>
       </c>
-      <c r="D78" s="112"/>
+      <c r="D78" s="132"/>
       <c r="E78" s="108" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F78" s="22"/>
-      <c r="H78" s="154" t="s">
-        <v>103</v>
+      <c r="H78" s="137" t="s">
+        <v>101</v>
       </c>
-      <c r="I78" s="154"/>
+      <c r="I78" s="137"/>
       <c r="J78" s="104" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K78" s="14"/>
       <c r="L78" s="33"/>
@@ -32161,12 +32161,12 @@
     <row r="79" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="60"/>
       <c r="B79" s="75"/>
-      <c r="C79" s="112" t="s">
-        <v>45</v>
+      <c r="C79" s="132" t="s">
+        <v>44</v>
       </c>
-      <c r="D79" s="112"/>
+      <c r="D79" s="132"/>
       <c r="E79" s="108" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F79" s="22"/>
       <c r="K79" s="14"/>
@@ -32177,12 +32177,12 @@
     <row r="80" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="60"/>
       <c r="B80" s="75"/>
-      <c r="C80" s="112" t="s">
-        <v>115</v>
+      <c r="C80" s="132" t="s">
+        <v>113</v>
       </c>
-      <c r="D80" s="112"/>
+      <c r="D80" s="132"/>
       <c r="E80" s="108" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F80" s="22"/>
       <c r="J80" s="14"/>
@@ -32194,12 +32194,12 @@
     <row r="81" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="60"/>
       <c r="B81" s="75"/>
-      <c r="C81" s="112" t="s">
-        <v>103</v>
+      <c r="C81" s="132" t="s">
+        <v>101</v>
       </c>
-      <c r="D81" s="112"/>
+      <c r="D81" s="132"/>
       <c r="E81" s="108" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F81" s="22"/>
       <c r="J81" s="14"/>
@@ -32248,7 +32248,7 @@
       <c r="A85" s="60"/>
       <c r="B85" s="10"/>
       <c r="C85" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D85" s="36"/>
       <c r="E85" s="37"/>
@@ -32271,19 +32271,19 @@
     <row r="87" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="60"/>
       <c r="B87" s="75"/>
-      <c r="C87" s="118" t="s">
-        <v>49</v>
+      <c r="C87" s="146" t="s">
+        <v>48</v>
       </c>
-      <c r="D87" s="118"/>
-      <c r="E87" s="118"/>
-      <c r="F87" s="118"/>
+      <c r="D87" s="146"/>
+      <c r="E87" s="146"/>
+      <c r="F87" s="146"/>
       <c r="G87" s="12"/>
-      <c r="H87" s="144" t="s">
-        <v>56</v>
+      <c r="H87" s="148" t="s">
+        <v>55</v>
       </c>
-      <c r="I87" s="144"/>
-      <c r="J87" s="144"/>
-      <c r="K87" s="144"/>
+      <c r="I87" s="148"/>
+      <c r="J87" s="148"/>
+      <c r="K87" s="148"/>
       <c r="L87" s="33"/>
       <c r="M87" s="81"/>
       <c r="N87" s="20"/>
@@ -32292,15 +32292,15 @@
     <row r="88" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="60"/>
       <c r="B88" s="75"/>
-      <c r="C88" s="127" t="s">
+      <c r="C88" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="128"/>
-      <c r="E88" s="123" t="s">
-        <v>48</v>
+      <c r="D88" s="114"/>
+      <c r="E88" s="111" t="s">
+        <v>47</v>
       </c>
-      <c r="F88" s="123" t="s">
-        <v>44</v>
+      <c r="F88" s="111" t="s">
+        <v>43</v>
       </c>
       <c r="H88" s="63" t="s">
         <v>25</v>
@@ -32321,21 +32321,21 @@
     <row r="89" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="60"/>
       <c r="B89" s="75"/>
-      <c r="C89" s="129"/>
-      <c r="D89" s="130"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124"/>
+      <c r="C89" s="115"/>
+      <c r="D89" s="116"/>
+      <c r="E89" s="112"/>
+      <c r="F89" s="112"/>
       <c r="H89" s="64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I89" s="97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J89" s="97" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K89" s="97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L89" s="33"/>
       <c r="M89" s="81"/>
@@ -32344,27 +32344,27 @@
     <row r="90" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="60"/>
       <c r="B90" s="75"/>
-      <c r="C90" s="146" t="s">
+      <c r="C90" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="147"/>
+      <c r="D90" s="151"/>
       <c r="E90" s="96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F90" s="96" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H90" s="64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I90" s="97" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J90" s="97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K90" s="97" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L90" s="33"/>
       <c r="M90" s="81"/>
@@ -32373,27 +32373,27 @@
     <row r="91" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="60"/>
       <c r="B91" s="75"/>
-      <c r="C91" s="146" t="s">
+      <c r="C91" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="147"/>
+      <c r="D91" s="151"/>
       <c r="E91" s="96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F91" s="96" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H91" s="64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I91" s="97" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J91" s="97" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K91" s="97" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L91" s="33"/>
       <c r="M91" s="81"/>
@@ -32402,15 +32402,15 @@
     <row r="92" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="60"/>
       <c r="B92" s="75"/>
-      <c r="C92" s="146" t="s">
+      <c r="C92" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="147"/>
+      <c r="D92" s="151"/>
       <c r="E92" s="96" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F92" s="96" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L92" s="33"/>
       <c r="M92" s="81"/>
@@ -32419,15 +32419,15 @@
     <row r="93" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="60"/>
       <c r="B93" s="75"/>
-      <c r="C93" s="146" t="s">
-        <v>103</v>
+      <c r="C93" s="150" t="s">
+        <v>101</v>
       </c>
-      <c r="D93" s="147"/>
+      <c r="D93" s="151"/>
       <c r="E93" s="96" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F93" s="96" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H93" s="65"/>
       <c r="I93" s="65"/>
@@ -32450,13 +32450,13 @@
     <row r="95" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="60"/>
       <c r="B95" s="75"/>
-      <c r="C95" s="145" t="s">
-        <v>45</v>
+      <c r="C95" s="149" t="s">
+        <v>44</v>
       </c>
-      <c r="D95" s="145"/>
-      <c r="E95" s="145"/>
+      <c r="D95" s="149"/>
+      <c r="E95" s="149"/>
       <c r="F95" s="98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L95" s="33"/>
       <c r="M95" s="81"/>
@@ -32474,7 +32474,7 @@
       <c r="A97" s="60"/>
       <c r="B97" s="10"/>
       <c r="C97" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D97" s="26"/>
       <c r="E97" s="12"/>
@@ -32497,17 +32497,17 @@
     <row r="99" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="60"/>
       <c r="B99" s="75"/>
-      <c r="C99" s="127" t="s">
+      <c r="C99" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="161"/>
-      <c r="E99" s="128"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="114"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
-      <c r="H99" s="119" t="s">
-        <v>47</v>
+      <c r="H99" s="117" t="s">
+        <v>46</v>
       </c>
-      <c r="I99" s="120"/>
+      <c r="I99" s="118"/>
       <c r="L99" s="33"/>
       <c r="M99" s="81"/>
       <c r="N99" s="20"/>
@@ -32516,13 +32516,13 @@
     <row r="100" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="60"/>
       <c r="B100" s="75"/>
-      <c r="C100" s="129"/>
-      <c r="D100" s="162"/>
-      <c r="E100" s="130"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="122"/>
+      <c r="E100" s="116"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
-      <c r="H100" s="121"/>
-      <c r="I100" s="122"/>
+      <c r="H100" s="119"/>
+      <c r="I100" s="120"/>
       <c r="L100" s="33"/>
       <c r="M100" s="81"/>
       <c r="N100" s="20"/>
@@ -32531,20 +32531,20 @@
     <row r="101" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="60"/>
       <c r="B101" s="75"/>
-      <c r="C101" s="127" t="s">
+      <c r="C101" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" s="114"/>
+      <c r="E101" s="111" t="s">
         <v>52</v>
-      </c>
-      <c r="D101" s="128"/>
-      <c r="E101" s="123" t="s">
-        <v>53</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
-      <c r="H101" s="163" t="s">
-        <v>54</v>
+      <c r="H101" s="127" t="s">
+        <v>53</v>
       </c>
-      <c r="I101" s="165" t="s">
-        <v>57</v>
+      <c r="I101" s="129" t="s">
+        <v>56</v>
       </c>
       <c r="L101" s="33"/>
       <c r="M101" s="81"/>
@@ -32554,12 +32554,12 @@
     <row r="102" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="60"/>
       <c r="B102" s="75"/>
-      <c r="C102" s="129"/>
-      <c r="D102" s="130"/>
-      <c r="E102" s="124"/>
+      <c r="C102" s="115"/>
+      <c r="D102" s="116"/>
+      <c r="E102" s="112"/>
       <c r="F102" s="22"/>
-      <c r="H102" s="164"/>
-      <c r="I102" s="166"/>
+      <c r="H102" s="128"/>
+      <c r="I102" s="130"/>
       <c r="J102" s="14"/>
       <c r="K102" s="14"/>
       <c r="L102" s="33"/>
@@ -32569,18 +32569,18 @@
     <row r="103" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="60"/>
       <c r="B103" s="75"/>
-      <c r="C103" s="143" t="s">
-        <v>139</v>
+      <c r="C103" s="131" t="s">
+        <v>137</v>
       </c>
-      <c r="D103" s="143"/>
+      <c r="D103" s="131"/>
       <c r="E103" s="107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H103" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I103" s="104" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L103" s="18"/>
       <c r="M103" s="81"/>
@@ -32588,18 +32588,18 @@
     <row r="104" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="60"/>
       <c r="B104" s="75"/>
-      <c r="C104" s="143" t="s">
-        <v>140</v>
+      <c r="C104" s="131" t="s">
+        <v>138</v>
       </c>
-      <c r="D104" s="143"/>
+      <c r="D104" s="131"/>
       <c r="E104" s="107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H104" s="66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I104" s="104" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L104" s="18"/>
       <c r="M104" s="81"/>
@@ -32607,18 +32607,18 @@
     <row r="105" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="60"/>
       <c r="B105" s="75"/>
-      <c r="C105" s="143" t="s">
-        <v>141</v>
+      <c r="C105" s="131" t="s">
+        <v>139</v>
       </c>
-      <c r="D105" s="143"/>
+      <c r="D105" s="131"/>
       <c r="E105" s="107" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H105" s="66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I105" s="104" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L105" s="18"/>
       <c r="M105" s="81"/>
@@ -32626,12 +32626,12 @@
     <row r="106" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="60"/>
       <c r="B106" s="75"/>
-      <c r="C106" s="143" t="s">
-        <v>142</v>
+      <c r="C106" s="131" t="s">
+        <v>140</v>
       </c>
-      <c r="D106" s="143"/>
+      <c r="D106" s="131"/>
       <c r="E106" s="107" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L106" s="18"/>
       <c r="M106" s="81"/>
@@ -32639,12 +32639,12 @@
     <row r="107" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="60"/>
       <c r="B107" s="75"/>
-      <c r="C107" s="143" t="s">
-        <v>115</v>
+      <c r="C107" s="131" t="s">
+        <v>113</v>
       </c>
-      <c r="D107" s="143"/>
+      <c r="D107" s="131"/>
       <c r="E107" s="107" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L107" s="18"/>
       <c r="M107" s="81"/>
@@ -32652,12 +32652,12 @@
     <row r="108" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="60"/>
       <c r="B108" s="75"/>
-      <c r="C108" s="143" t="s">
-        <v>143</v>
+      <c r="C108" s="131" t="s">
+        <v>141</v>
       </c>
-      <c r="D108" s="143"/>
+      <c r="D108" s="131"/>
       <c r="E108" s="107" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L108" s="18"/>
       <c r="M108" s="81"/>
@@ -32665,12 +32665,12 @@
     <row r="109" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="60"/>
       <c r="B109" s="75"/>
-      <c r="C109" s="143" t="s">
-        <v>144</v>
+      <c r="C109" s="131" t="s">
+        <v>142</v>
       </c>
-      <c r="D109" s="143"/>
+      <c r="D109" s="131"/>
       <c r="E109" s="107" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L109" s="18"/>
       <c r="M109" s="81"/>
@@ -32691,7 +32691,7 @@
       <c r="A112" s="60"/>
       <c r="B112" s="10"/>
       <c r="C112" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G112" s="38"/>
       <c r="H112" s="39"/>
@@ -32703,93 +32703,93 @@
     <row r="113" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="60"/>
       <c r="B113" s="76"/>
-      <c r="C113" s="160" t="s">
-        <v>73</v>
+      <c r="C113" s="125" t="s">
+        <v>71</v>
       </c>
-      <c r="D113" s="160"/>
-      <c r="E113" s="160"/>
-      <c r="F113" s="160"/>
-      <c r="G113" s="160"/>
-      <c r="H113" s="160"/>
-      <c r="I113" s="160"/>
-      <c r="J113" s="160"/>
-      <c r="K113" s="160"/>
-      <c r="L113" s="160"/>
+      <c r="D113" s="125"/>
+      <c r="E113" s="125"/>
+      <c r="F113" s="125"/>
+      <c r="G113" s="125"/>
+      <c r="H113" s="125"/>
+      <c r="I113" s="125"/>
+      <c r="J113" s="125"/>
+      <c r="K113" s="125"/>
+      <c r="L113" s="125"/>
       <c r="M113" s="81"/>
     </row>
     <row r="114" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="60"/>
       <c r="B114" s="76"/>
-      <c r="C114" s="160"/>
-      <c r="D114" s="160"/>
-      <c r="E114" s="160"/>
-      <c r="F114" s="160"/>
-      <c r="G114" s="160"/>
-      <c r="H114" s="160"/>
-      <c r="I114" s="160"/>
-      <c r="J114" s="160"/>
-      <c r="K114" s="160"/>
-      <c r="L114" s="160"/>
+      <c r="C114" s="125"/>
+      <c r="D114" s="125"/>
+      <c r="E114" s="125"/>
+      <c r="F114" s="125"/>
+      <c r="G114" s="125"/>
+      <c r="H114" s="125"/>
+      <c r="I114" s="125"/>
+      <c r="J114" s="125"/>
+      <c r="K114" s="125"/>
+      <c r="L114" s="125"/>
       <c r="M114" s="81"/>
     </row>
     <row r="115" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="60"/>
       <c r="B115" s="76"/>
-      <c r="C115" s="160"/>
-      <c r="D115" s="160"/>
-      <c r="E115" s="160"/>
-      <c r="F115" s="160"/>
-      <c r="G115" s="160"/>
-      <c r="H115" s="160"/>
-      <c r="I115" s="160"/>
-      <c r="J115" s="160"/>
-      <c r="K115" s="160"/>
-      <c r="L115" s="160"/>
+      <c r="C115" s="125"/>
+      <c r="D115" s="125"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="125"/>
+      <c r="G115" s="125"/>
+      <c r="H115" s="125"/>
+      <c r="I115" s="125"/>
+      <c r="J115" s="125"/>
+      <c r="K115" s="125"/>
+      <c r="L115" s="125"/>
       <c r="M115" s="81"/>
     </row>
     <row r="116" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="60"/>
       <c r="B116" s="76"/>
-      <c r="C116" s="160"/>
-      <c r="D116" s="160"/>
-      <c r="E116" s="160"/>
-      <c r="F116" s="160"/>
-      <c r="G116" s="160"/>
-      <c r="H116" s="160"/>
-      <c r="I116" s="160"/>
-      <c r="J116" s="160"/>
-      <c r="K116" s="160"/>
-      <c r="L116" s="160"/>
+      <c r="C116" s="125"/>
+      <c r="D116" s="125"/>
+      <c r="E116" s="125"/>
+      <c r="F116" s="125"/>
+      <c r="G116" s="125"/>
+      <c r="H116" s="125"/>
+      <c r="I116" s="125"/>
+      <c r="J116" s="125"/>
+      <c r="K116" s="125"/>
+      <c r="L116" s="125"/>
       <c r="M116" s="81"/>
     </row>
     <row r="117" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="60"/>
       <c r="B117" s="75"/>
-      <c r="C117" s="160"/>
-      <c r="D117" s="160"/>
-      <c r="E117" s="160"/>
-      <c r="F117" s="160"/>
-      <c r="G117" s="160"/>
-      <c r="H117" s="160"/>
-      <c r="I117" s="160"/>
-      <c r="J117" s="160"/>
-      <c r="K117" s="160"/>
-      <c r="L117" s="160"/>
+      <c r="C117" s="125"/>
+      <c r="D117" s="125"/>
+      <c r="E117" s="125"/>
+      <c r="F117" s="125"/>
+      <c r="G117" s="125"/>
+      <c r="H117" s="125"/>
+      <c r="I117" s="125"/>
+      <c r="J117" s="125"/>
+      <c r="K117" s="125"/>
+      <c r="L117" s="125"/>
       <c r="M117" s="85"/>
     </row>
     <row r="118" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="60"/>
       <c r="B118" s="75"/>
-      <c r="C118" s="160"/>
-      <c r="D118" s="160"/>
-      <c r="E118" s="160"/>
-      <c r="F118" s="160"/>
-      <c r="G118" s="160"/>
-      <c r="H118" s="160"/>
-      <c r="I118" s="160"/>
-      <c r="J118" s="160"/>
-      <c r="K118" s="160"/>
-      <c r="L118" s="160"/>
+      <c r="C118" s="125"/>
+      <c r="D118" s="125"/>
+      <c r="E118" s="125"/>
+      <c r="F118" s="125"/>
+      <c r="G118" s="125"/>
+      <c r="H118" s="125"/>
+      <c r="I118" s="125"/>
+      <c r="J118" s="125"/>
+      <c r="K118" s="125"/>
+      <c r="L118" s="125"/>
       <c r="M118" s="85"/>
     </row>
     <row r="119" spans="1:14" s="23" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -32853,7 +32853,7 @@
       <c r="D124" s="32"/>
       <c r="E124" s="32"/>
       <c r="F124" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G124" s="32"/>
       <c r="H124" s="32"/>
@@ -32869,12 +32869,12 @@
       <c r="C125" s="46"/>
       <c r="D125" s="32"/>
       <c r="E125" s="32"/>
-      <c r="F125" s="111" t="s">
-        <v>155</v>
+      <c r="F125" s="163" t="s">
+        <v>153</v>
       </c>
-      <c r="G125" s="111"/>
-      <c r="H125" s="111"/>
-      <c r="I125" s="111"/>
+      <c r="G125" s="163"/>
+      <c r="H125" s="163"/>
+      <c r="I125" s="163"/>
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125"/>
@@ -33509,12 +33509,82 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="H74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="C72:E73"/>
-    <mergeCell ref="H72:J73"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C25:L27"/>
+    <mergeCell ref="C28:D30"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="E1:K5"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:L12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="C39:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="H61:J62"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C113:L118"/>
     <mergeCell ref="G28:H29"/>
     <mergeCell ref="I28:J29"/>
@@ -33531,82 +33601,12 @@
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C105:D105"/>
     <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="C39:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C62:D64"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="H61:J62"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C46:L46"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="C25:L27"/>
-    <mergeCell ref="C28:D30"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="E1:K5"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:L12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="H74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="C72:E73"/>
+    <mergeCell ref="H72:J73"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppV2\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C8812B-39F5-45F0-BDFD-5839A220FB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1807EF67-44D4-47BF-BC8F-61E136966B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
   <si>
     <t>RIQUEZA</t>
   </si>
@@ -580,9 +580,6 @@
   </si>
   <si>
     <t>{{GasCombustible5}}</t>
-  </si>
-  <si>
-    <t>{{TotalDistribucion5}}</t>
   </si>
   <si>
     <t>{{LoteZ69Gna}}</t>
@@ -30700,10 +30697,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X286"/>
+  <dimension ref="A1:X285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30740,7 +30737,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="152"/>
       <c r="G1" s="152"/>
@@ -30749,7 +30746,7 @@
       <c r="J1" s="152"/>
       <c r="K1" s="152"/>
       <c r="L1" s="155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M1" s="156"/>
     </row>
@@ -30781,7 +30778,7 @@
       <c r="J3" s="153"/>
       <c r="K3" s="153"/>
       <c r="L3" s="159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M3" s="160"/>
     </row>
@@ -30815,10 +30812,10 @@
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M5" s="87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="12" x14ac:dyDescent="0.2">
@@ -31187,7 +31184,7 @@
       </c>
       <c r="D28" s="126"/>
       <c r="E28" s="113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28" s="114"/>
       <c r="G28" s="113" t="s">
@@ -31832,7 +31829,7 @@
       <c r="A58" s="60"/>
       <c r="B58" s="10"/>
       <c r="C58" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
@@ -31861,7 +31858,7 @@
       <c r="A61" s="60"/>
       <c r="B61" s="10"/>
       <c r="C61" s="146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D61" s="146"/>
       <c r="E61" s="146"/>
@@ -32194,13 +32191,9 @@
     <row r="81" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="60"/>
       <c r="B81" s="75"/>
-      <c r="C81" s="132" t="s">
-        <v>101</v>
-      </c>
-      <c r="D81" s="132"/>
-      <c r="E81" s="108" t="s">
-        <v>119</v>
-      </c>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="62"/>
       <c r="F81" s="22"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
@@ -32224,32 +32217,30 @@
     <row r="83" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="60"/>
       <c r="B83" s="75"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="22"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="49"/>
       <c r="L83" s="33"/>
       <c r="M83" s="81"/>
-      <c r="N83" s="20"/>
     </row>
     <row r="84" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="60"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="49"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="36"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
       <c r="L84" s="33"/>
       <c r="M84" s="81"/>
+      <c r="N84" s="20"/>
     </row>
     <row r="85" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="60"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="29" t="s">
-        <v>58</v>
-      </c>
+      <c r="B85" s="75"/>
+      <c r="C85" s="36"/>
       <c r="D85" s="36"/>
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
@@ -32260,59 +32251,71 @@
     <row r="86" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="60"/>
       <c r="B86" s="75"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
+      <c r="C86" s="146" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="146"/>
+      <c r="E86" s="146"/>
+      <c r="F86" s="146"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="148" t="s">
+        <v>55</v>
+      </c>
+      <c r="I86" s="148"/>
+      <c r="J86" s="148"/>
+      <c r="K86" s="148"/>
       <c r="L86" s="33"/>
       <c r="M86" s="81"/>
       <c r="N86" s="20"/>
+      <c r="P86" s="22"/>
     </row>
     <row r="87" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="60"/>
       <c r="B87" s="75"/>
-      <c r="C87" s="146" t="s">
-        <v>48</v>
+      <c r="C87" s="113" t="s">
+        <v>12</v>
       </c>
-      <c r="D87" s="146"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="146"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="148" t="s">
-        <v>55</v>
+      <c r="D87" s="114"/>
+      <c r="E87" s="111" t="s">
+        <v>47</v>
       </c>
-      <c r="I87" s="148"/>
-      <c r="J87" s="148"/>
-      <c r="K87" s="148"/>
+      <c r="F87" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J87" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="K87" s="63" t="s">
+        <v>2</v>
+      </c>
       <c r="L87" s="33"/>
       <c r="M87" s="81"/>
       <c r="N87" s="20"/>
-      <c r="P87" s="22"/>
     </row>
     <row r="88" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="60"/>
       <c r="B88" s="75"/>
-      <c r="C88" s="113" t="s">
-        <v>12</v>
+      <c r="C88" s="115"/>
+      <c r="D88" s="116"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
+      <c r="H88" s="64" t="s">
+        <v>99</v>
       </c>
-      <c r="D88" s="114"/>
-      <c r="E88" s="111" t="s">
-        <v>47</v>
+      <c r="I88" s="97" t="s">
+        <v>126</v>
       </c>
-      <c r="F88" s="111" t="s">
-        <v>43</v>
+      <c r="J88" s="97" t="s">
+        <v>129</v>
       </c>
-      <c r="H88" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I88" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="J88" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="K88" s="63" t="s">
-        <v>2</v>
+      <c r="K88" s="97" t="s">
+        <v>132</v>
       </c>
       <c r="L88" s="33"/>
       <c r="M88" s="81"/>
@@ -32321,12 +32324,18 @@
     <row r="89" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="60"/>
       <c r="B89" s="75"/>
-      <c r="C89" s="115"/>
-      <c r="D89" s="116"/>
-      <c r="E89" s="112"/>
-      <c r="F89" s="112"/>
+      <c r="C89" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="151"/>
+      <c r="E89" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" s="96" t="s">
+        <v>123</v>
+      </c>
       <c r="H89" s="64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I89" s="97" t="s">
         <v>127</v>
@@ -32345,7 +32354,7 @@
       <c r="A90" s="60"/>
       <c r="B90" s="75"/>
       <c r="C90" s="150" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90" s="151"/>
       <c r="E90" s="96" t="s">
@@ -32355,7 +32364,7 @@
         <v>124</v>
       </c>
       <c r="H90" s="64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I90" s="97" t="s">
         <v>128</v>
@@ -32374,7 +32383,7 @@
       <c r="A91" s="60"/>
       <c r="B91" s="75"/>
       <c r="C91" s="150" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" s="151"/>
       <c r="E91" s="96" t="s">
@@ -32382,18 +32391,6 @@
       </c>
       <c r="F91" s="96" t="s">
         <v>125</v>
-      </c>
-      <c r="H91" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="I91" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="J91" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="K91" s="97" t="s">
-        <v>135</v>
       </c>
       <c r="L91" s="33"/>
       <c r="M91" s="81"/>
@@ -32403,15 +32400,19 @@
       <c r="A92" s="60"/>
       <c r="B92" s="75"/>
       <c r="C92" s="150" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D92" s="151"/>
       <c r="E92" s="96" t="s">
         <v>122</v>
       </c>
       <c r="F92" s="96" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
       <c r="L92" s="33"/>
       <c r="M92" s="81"/>
       <c r="N92" s="20"/>
@@ -32419,65 +32420,55 @@
     <row r="93" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="60"/>
       <c r="B93" s="75"/>
-      <c r="C93" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="D93" s="151"/>
-      <c r="E93" s="96" t="s">
-        <v>123</v>
-      </c>
-      <c r="F93" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
       <c r="L93" s="33"/>
       <c r="M93" s="81"/>
-      <c r="N93" s="20"/>
     </row>
     <row r="94" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="60"/>
       <c r="B94" s="75"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
+      <c r="C94" s="149" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" s="149"/>
+      <c r="E94" s="149"/>
+      <c r="F94" s="98" t="s">
+        <v>135</v>
+      </c>
       <c r="L94" s="33"/>
       <c r="M94" s="81"/>
     </row>
     <row r="95" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="60"/>
       <c r="B95" s="75"/>
-      <c r="C95" s="149" t="s">
-        <v>44</v>
-      </c>
-      <c r="D95" s="149"/>
-      <c r="E95" s="149"/>
-      <c r="F95" s="98" t="s">
-        <v>136</v>
-      </c>
       <c r="L95" s="33"/>
       <c r="M95" s="81"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
     </row>
     <row r="96" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="60"/>
-      <c r="B96" s="75"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
       <c r="L96" s="33"/>
       <c r="M96" s="81"/>
       <c r="N96" s="20"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
     </row>
     <row r="97" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="60"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="12"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="27"/>
       <c r="F97" s="12"/>
       <c r="L97" s="33"/>
       <c r="M97" s="81"/>
@@ -32486,28 +32477,32 @@
     <row r="98" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="60"/>
       <c r="B98" s="75"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="27"/>
+      <c r="C98" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="121"/>
+      <c r="E98" s="114"/>
       <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" s="118"/>
       <c r="L98" s="33"/>
       <c r="M98" s="81"/>
       <c r="N98" s="20"/>
+      <c r="P98" s="22"/>
     </row>
     <row r="99" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="60"/>
       <c r="B99" s="75"/>
-      <c r="C99" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="121"/>
-      <c r="E99" s="114"/>
+      <c r="C99" s="115"/>
+      <c r="D99" s="122"/>
+      <c r="E99" s="116"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
-      <c r="H99" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="I99" s="118"/>
+      <c r="H99" s="119"/>
+      <c r="I99" s="120"/>
       <c r="L99" s="33"/>
       <c r="M99" s="81"/>
       <c r="N99" s="20"/>
@@ -32516,13 +32511,21 @@
     <row r="100" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="60"/>
       <c r="B100" s="75"/>
-      <c r="C100" s="115"/>
-      <c r="D100" s="122"/>
-      <c r="E100" s="116"/>
+      <c r="C100" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="114"/>
+      <c r="E100" s="111" t="s">
+        <v>52</v>
+      </c>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
-      <c r="H100" s="119"/>
-      <c r="I100" s="120"/>
+      <c r="H100" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="I100" s="129" t="s">
+        <v>56</v>
+      </c>
       <c r="L100" s="33"/>
       <c r="M100" s="81"/>
       <c r="N100" s="20"/>
@@ -32531,40 +32534,36 @@
     <row r="101" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="60"/>
       <c r="B101" s="75"/>
-      <c r="C101" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="D101" s="114"/>
-      <c r="E101" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="I101" s="129" t="s">
-        <v>56</v>
-      </c>
+      <c r="C101" s="115"/>
+      <c r="D101" s="116"/>
+      <c r="E101" s="112"/>
+      <c r="F101" s="22"/>
+      <c r="H101" s="128"/>
+      <c r="I101" s="130"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
       <c r="L101" s="33"/>
       <c r="M101" s="81"/>
       <c r="N101" s="20"/>
-      <c r="P101" s="22"/>
     </row>
     <row r="102" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="60"/>
       <c r="B102" s="75"/>
-      <c r="C102" s="115"/>
-      <c r="D102" s="116"/>
-      <c r="E102" s="112"/>
-      <c r="F102" s="22"/>
-      <c r="H102" s="128"/>
-      <c r="I102" s="130"/>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="33"/>
+      <c r="C102" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102" s="131"/>
+      <c r="E102" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="H102" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I102" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="L102" s="18"/>
       <c r="M102" s="81"/>
-      <c r="N102" s="20"/>
     </row>
     <row r="103" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="60"/>
@@ -32577,7 +32576,7 @@
         <v>143</v>
       </c>
       <c r="H103" s="66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I103" s="104" t="s">
         <v>150</v>
@@ -32596,7 +32595,7 @@
         <v>144</v>
       </c>
       <c r="H104" s="66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I104" s="104" t="s">
         <v>151</v>
@@ -32614,12 +32613,6 @@
       <c r="E105" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="H105" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="I105" s="104" t="s">
-        <v>152</v>
-      </c>
       <c r="L105" s="18"/>
       <c r="M105" s="81"/>
     </row>
@@ -32627,7 +32620,7 @@
       <c r="A106" s="60"/>
       <c r="B106" s="75"/>
       <c r="C106" s="131" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D106" s="131"/>
       <c r="E106" s="107" t="s">
@@ -32640,7 +32633,7 @@
       <c r="A107" s="60"/>
       <c r="B107" s="75"/>
       <c r="C107" s="131" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D107" s="131"/>
       <c r="E107" s="107" t="s">
@@ -32665,13 +32658,6 @@
     <row r="109" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="60"/>
       <c r="B109" s="75"/>
-      <c r="C109" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="D109" s="131"/>
-      <c r="E109" s="107" t="s">
-        <v>149</v>
-      </c>
       <c r="L109" s="18"/>
       <c r="M109" s="81"/>
     </row>
@@ -32683,29 +32669,38 @@
     </row>
     <row r="111" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="60"/>
-      <c r="B111" s="75"/>
-      <c r="L111" s="18"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G111" s="38"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
       <c r="M111" s="81"/>
     </row>
     <row r="112" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="60"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="29" t="s">
-        <v>60</v>
+      <c r="B112" s="76"/>
+      <c r="C112" s="125" t="s">
+        <v>71</v>
       </c>
-      <c r="G112" s="38"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="41"/>
+      <c r="D112" s="125"/>
+      <c r="E112" s="125"/>
+      <c r="F112" s="125"/>
+      <c r="G112" s="125"/>
+      <c r="H112" s="125"/>
+      <c r="I112" s="125"/>
+      <c r="J112" s="125"/>
+      <c r="K112" s="125"/>
+      <c r="L112" s="125"/>
       <c r="M112" s="81"/>
     </row>
     <row r="113" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="60"/>
       <c r="B113" s="76"/>
-      <c r="C113" s="125" t="s">
-        <v>71</v>
-      </c>
+      <c r="C113" s="125"/>
       <c r="D113" s="125"/>
       <c r="E113" s="125"/>
       <c r="F113" s="125"/>
@@ -32749,7 +32744,7 @@
     </row>
     <row r="116" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="60"/>
-      <c r="B116" s="76"/>
+      <c r="B116" s="75"/>
       <c r="C116" s="125"/>
       <c r="D116" s="125"/>
       <c r="E116" s="125"/>
@@ -32760,7 +32755,7 @@
       <c r="J116" s="125"/>
       <c r="K116" s="125"/>
       <c r="L116" s="125"/>
-      <c r="M116" s="81"/>
+      <c r="M116" s="85"/>
     </row>
     <row r="117" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="60"/>
@@ -32777,104 +32772,104 @@
       <c r="L117" s="125"/>
       <c r="M117" s="85"/>
     </row>
-    <row r="118" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="60"/>
-      <c r="B118" s="75"/>
-      <c r="C118" s="125"/>
-      <c r="D118" s="125"/>
-      <c r="E118" s="125"/>
-      <c r="F118" s="125"/>
-      <c r="G118" s="125"/>
-      <c r="H118" s="125"/>
-      <c r="I118" s="125"/>
-      <c r="J118" s="125"/>
-      <c r="K118" s="125"/>
-      <c r="L118" s="125"/>
-      <c r="M118" s="85"/>
+    <row r="118" spans="1:14" s="23" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="59"/>
+      <c r="B118" s="77"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="81"/>
     </row>
     <row r="119" spans="1:14" s="23" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="59"/>
       <c r="B119" s="77"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="81"/>
+      <c r="M119" s="86"/>
     </row>
-    <row r="120" spans="1:14" s="23" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="59"/>
-      <c r="B120" s="77"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+    <row r="120" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="60"/>
+      <c r="B120" s="78"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="42"/>
       <c r="M120" s="86"/>
+      <c r="N120" s="24"/>
     </row>
     <row r="121" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="60"/>
-      <c r="B121" s="78"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="42"/>
+      <c r="B121" s="77"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
       <c r="M121" s="86"/>
-      <c r="N121" s="24"/>
     </row>
     <row r="122" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="60"/>
-      <c r="B122" s="77"/>
+      <c r="B122" s="79"/>
       <c r="C122" s="43"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="44"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
       <c r="M122" s="86"/>
     </row>
     <row r="123" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="60"/>
-      <c r="B123" s="79"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="44"/>
-      <c r="I123" s="44"/>
+      <c r="B123" s="75"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="45"/>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123"/>
       <c r="M123" s="86"/>
     </row>
-    <row r="124" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="60"/>
       <c r="B124" s="75"/>
+      <c r="C124" s="46"/>
       <c r="D124" s="32"/>
       <c r="E124" s="32"/>
-      <c r="F124" s="32" t="s">
-        <v>62</v>
+      <c r="F124" s="163" t="s">
+        <v>152</v>
       </c>
-      <c r="G124" s="32"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="45"/>
+      <c r="G124" s="163"/>
+      <c r="H124" s="163"/>
+      <c r="I124" s="163"/>
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124"/>
       <c r="M124" s="86"/>
     </row>
-    <row r="125" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="60"/>
       <c r="B125" s="75"/>
       <c r="C125" s="46"/>
       <c r="D125" s="32"/>
       <c r="E125" s="32"/>
-      <c r="F125" s="163" t="s">
-        <v>153</v>
-      </c>
-      <c r="G125" s="163"/>
-      <c r="H125" s="163"/>
-      <c r="I125" s="163"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="47"/>
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125"/>
@@ -32883,36 +32878,27 @@
     <row r="126" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="60"/>
       <c r="B126" s="75"/>
-      <c r="C126" s="46"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="47"/>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
+      <c r="C126" s="91"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="92"/>
+      <c r="F126" s="92"/>
+      <c r="G126" s="92"/>
+      <c r="H126" s="92"/>
+      <c r="I126" s="92"/>
+      <c r="J126" s="93"/>
+      <c r="K126" s="93"/>
+      <c r="L126" s="93"/>
       <c r="M126" s="86"/>
     </row>
-    <row r="127" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="60"/>
       <c r="B127" s="75"/>
-      <c r="C127" s="91"/>
-      <c r="D127" s="92"/>
-      <c r="E127" s="92"/>
-      <c r="F127" s="92"/>
-      <c r="G127" s="92"/>
-      <c r="H127" s="92"/>
-      <c r="I127" s="92"/>
-      <c r="J127" s="93"/>
-      <c r="K127" s="93"/>
-      <c r="L127" s="93"/>
-      <c r="M127" s="86"/>
+      <c r="M127" s="81"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="60"/>
       <c r="B128" s="75"/>
+      <c r="C128" s="25"/>
       <c r="M128" s="81"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -32928,9 +32914,7 @@
       <c r="M130" s="81"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="60"/>
       <c r="B131" s="75"/>
-      <c r="C131" s="25"/>
       <c r="M131" s="81"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -32959,6 +32943,16 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B138" s="75"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="60"/>
+      <c r="F138" s="60"/>
+      <c r="G138" s="60"/>
+      <c r="H138" s="60"/>
+      <c r="I138" s="60"/>
+      <c r="J138" s="60"/>
+      <c r="K138" s="60"/>
+      <c r="L138" s="60"/>
       <c r="M138" s="81"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -33004,7 +32998,7 @@
       <c r="M141" s="81"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B142" s="75"/>
+      <c r="B142" s="88"/>
       <c r="C142" s="60"/>
       <c r="D142" s="60"/>
       <c r="E142" s="60"/>
@@ -33015,10 +33009,10 @@
       <c r="J142" s="60"/>
       <c r="K142" s="60"/>
       <c r="L142" s="60"/>
-      <c r="M142" s="81"/>
+      <c r="M142" s="89"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B143" s="88"/>
+      <c r="B143" s="90"/>
       <c r="C143" s="60"/>
       <c r="D143" s="60"/>
       <c r="E143" s="60"/>
@@ -33029,10 +33023,12 @@
       <c r="J143" s="60"/>
       <c r="K143" s="60"/>
       <c r="L143" s="60"/>
-      <c r="M143" s="89"/>
+      <c r="M143" s="60"/>
+      <c r="N143" s="60"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B144" s="90"/>
+      <c r="A144" s="60"/>
+      <c r="B144" s="60"/>
       <c r="C144" s="60"/>
       <c r="D144" s="60"/>
       <c r="E144" s="60"/>
@@ -33046,8 +33042,7 @@
       <c r="M144" s="60"/>
       <c r="N144" s="60"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A145" s="60"/>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="60"/>
       <c r="C145" s="60"/>
       <c r="D145" s="60"/>
@@ -33062,71 +33057,59 @@
       <c r="M145" s="60"/>
       <c r="N145" s="60"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B146" s="60"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="60"/>
-      <c r="F146" s="60"/>
-      <c r="G146" s="60"/>
-      <c r="H146" s="60"/>
-      <c r="I146" s="60"/>
-      <c r="J146" s="60"/>
-      <c r="K146" s="60"/>
-      <c r="L146" s="60"/>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M146" s="60"/>
-      <c r="N146" s="60"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M147" s="60"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M148" s="60"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M149" s="60"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M150" s="60"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M151" s="60"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M152" s="60"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M153" s="60"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M154" s="60"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M155" s="60"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M156" s="60"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M157" s="60"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C158" s="60"/>
+      <c r="D158" s="60"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="60"/>
+      <c r="G158" s="60"/>
+      <c r="H158" s="60"/>
+      <c r="I158" s="60"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="60"/>
+      <c r="L158" s="60"/>
       <c r="M158" s="60"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C159" s="60"/>
-      <c r="D159" s="60"/>
-      <c r="E159" s="60"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="60"/>
-      <c r="H159" s="60"/>
-      <c r="I159" s="60"/>
-      <c r="J159" s="60"/>
-      <c r="K159" s="60"/>
-      <c r="L159" s="60"/>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M159" s="60"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M160" s="60"/>
     </row>
     <row r="161" spans="13:13" x14ac:dyDescent="0.2">
@@ -33504,15 +33487,11 @@
     <row r="285" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M285" s="60"/>
     </row>
-    <row r="286" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M286" s="60"/>
-    </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="F125:I125"/>
+  <mergeCells count="97">
+    <mergeCell ref="F124:I124"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C37:D37"/>
@@ -33541,18 +33520,18 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C86:F86"/>
     <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C87:F87"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="K30:L30"/>
@@ -33569,7 +33548,7 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C106:D106"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="H66:I66"/>
@@ -33585,22 +33564,22 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C113:L118"/>
+    <mergeCell ref="C112:L117"/>
     <mergeCell ref="G28:H29"/>
     <mergeCell ref="I28:J29"/>
     <mergeCell ref="K28:L29"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="H99:I100"/>
-    <mergeCell ref="C99:E100"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="C100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="H98:I99"/>
+    <mergeCell ref="C98:E99"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="C107:D107"/>
     <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C104:D104"/>
     <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
     <mergeCell ref="E74:E75"/>
     <mergeCell ref="C74:D75"/>
     <mergeCell ref="H74:I75"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppV2\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1807EF67-44D4-47BF-BC8F-61E136966B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B67D0F-740E-4A9E-BC46-1B81CE707D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
   </bookViews>
@@ -1519,22 +1519,28 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1549,97 +1555,28 @@
     <xf numFmtId="164" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1675,16 +1612,79 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -30699,8 +30699,8 @@
   </sheetPr>
   <dimension ref="A1:X285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30736,63 +30736,63 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="155" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="156"/>
+      <c r="M1" s="135"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="28"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="157" t="s">
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="158"/>
+      <c r="M2" s="137"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="28"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="159" t="s">
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="138" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="160"/>
+      <c r="M3" s="139"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="28"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
       <c r="L4" s="53" t="s">
         <v>7</v>
       </c>
@@ -30804,13 +30804,13 @@
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
       <c r="L5" s="87" t="s">
         <v>155</v>
       </c>
@@ -30872,54 +30872,54 @@
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
       <c r="B11" s="75"/>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
       <c r="M11" s="82"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="60"/>
       <c r="B12" s="75"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
       <c r="M12" s="82"/>
     </row>
     <row r="13" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="60"/>
       <c r="B13" s="75"/>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="146"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="68" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="146" t="s">
+      <c r="G13" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
       <c r="K13" s="68" t="s">
         <v>15</v>
       </c>
@@ -30931,22 +30931,22 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="60"/>
       <c r="B14" s="75"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="67" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="161" t="s">
+      <c r="G14" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161" t="s">
+      <c r="H14" s="140"/>
+      <c r="I14" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="161"/>
+      <c r="J14" s="140"/>
       <c r="K14" s="67" t="s">
         <v>16</v>
       </c>
@@ -30958,24 +30958,24 @@
     <row r="15" spans="1:16" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="60"/>
       <c r="B15" s="75"/>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="164"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="101" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="162" t="s">
+      <c r="G15" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="162"/>
-      <c r="I15" s="133" t="s">
+      <c r="H15" s="141"/>
+      <c r="I15" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="133"/>
+      <c r="J15" s="142"/>
       <c r="K15" s="100" t="s">
         <v>74</v>
       </c>
@@ -30987,14 +30987,14 @@
     <row r="16" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="60"/>
       <c r="B16" s="75"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="95"/>
       <c r="F16" s="95"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
       <c r="K16" s="100"/>
       <c r="L16" s="100"/>
       <c r="M16" s="83"/>
@@ -31014,18 +31014,18 @@
     <row r="18" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="60"/>
       <c r="B18" s="75"/>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
       <c r="F18" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="134" t="s">
+      <c r="H18" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="134"/>
+      <c r="I18" s="117"/>
       <c r="J18" s="69" t="s">
         <v>76</v>
       </c>
@@ -31037,11 +31037,11 @@
     <row r="19" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="60"/>
       <c r="B19" s="75"/>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
       <c r="F19" s="58" t="s">
         <v>68</v>
       </c>
@@ -31056,11 +31056,11 @@
     <row r="20" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="60"/>
       <c r="B20" s="75"/>
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
       <c r="F20" s="106" t="s">
         <v>69</v>
       </c>
@@ -31129,158 +31129,158 @@
     <row r="25" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="60"/>
       <c r="B25" s="75"/>
-      <c r="C25" s="146" t="s">
+      <c r="C25" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
       <c r="M25" s="81"/>
       <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="60"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
       <c r="M26" s="81"/>
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="60"/>
       <c r="B27" s="75"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
       <c r="M27" s="81"/>
       <c r="P27" s="13"/>
     </row>
     <row r="28" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="60"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="113" t="s">
+      <c r="D28" s="125"/>
+      <c r="E28" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="F28" s="114"/>
-      <c r="G28" s="113" t="s">
+      <c r="F28" s="128"/>
+      <c r="G28" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="114"/>
-      <c r="I28" s="117" t="s">
+      <c r="H28" s="128"/>
+      <c r="I28" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="123"/>
-      <c r="K28" s="126" t="s">
+      <c r="J28" s="158"/>
+      <c r="K28" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="126"/>
+      <c r="L28" s="125"/>
       <c r="M28" s="81"/>
       <c r="P28" s="13"/>
     </row>
     <row r="29" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="60"/>
       <c r="B29" s="75"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
       <c r="M29" s="81"/>
       <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="60"/>
       <c r="B30" s="75"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="166" t="s">
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126" t="s">
+      <c r="F30" s="125"/>
+      <c r="G30" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126" t="s">
+      <c r="H30" s="125"/>
+      <c r="I30" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="126"/>
-      <c r="K30" s="143" t="s">
+      <c r="J30" s="125"/>
+      <c r="K30" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="143"/>
+      <c r="L30" s="148"/>
       <c r="M30" s="81"/>
       <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="60"/>
       <c r="B31" s="75"/>
-      <c r="C31" s="142" t="s">
+      <c r="C31" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="142"/>
-      <c r="E31" s="144" t="s">
+      <c r="D31" s="152"/>
+      <c r="E31" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="144"/>
-      <c r="G31" s="133" t="s">
+      <c r="F31" s="142"/>
+      <c r="G31" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="133"/>
-      <c r="I31" s="144" t="s">
+      <c r="H31" s="142"/>
+      <c r="I31" s="151" t="s">
         <v>75</v>
       </c>
-      <c r="J31" s="144"/>
-      <c r="K31" s="133" t="s">
+      <c r="J31" s="151"/>
+      <c r="K31" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="133"/>
+      <c r="L31" s="142"/>
       <c r="M31" s="81"/>
       <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="60"/>
       <c r="B32" s="75"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
       <c r="M32" s="81"/>
       <c r="P32" s="13"/>
     </row>
@@ -31337,10 +31337,10 @@
     <row r="37" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60"/>
       <c r="B37" s="75"/>
-      <c r="C37" s="165" t="s">
+      <c r="C37" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="165"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="103" t="s">
         <v>70</v>
       </c>
@@ -31364,34 +31364,34 @@
     <row r="39" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="60"/>
       <c r="B39" s="75"/>
-      <c r="C39" s="126" t="s">
+      <c r="C39" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="146" t="s">
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="J39" s="146"/>
-      <c r="K39" s="146" t="s">
+      <c r="J39" s="118"/>
+      <c r="K39" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="146"/>
+      <c r="L39" s="118"/>
       <c r="M39" s="81"/>
       <c r="P39" s="13"/>
     </row>
     <row r="40" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
       <c r="B40" s="75"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
       <c r="I40" s="16" t="s">
         <v>27</v>
       </c>
@@ -31410,12 +31410,12 @@
     <row r="41" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="60"/>
       <c r="B41" s="75"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
       <c r="I41" s="56" t="s">
         <v>30</v>
       </c>
@@ -31441,14 +31441,14 @@
     <row r="42" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60"/>
       <c r="B42" s="75"/>
-      <c r="C42" s="138" t="s">
+      <c r="C42" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
       <c r="I42" s="99" t="s">
         <v>79</v>
       </c>
@@ -31466,12 +31466,12 @@
     <row r="43" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="60"/>
       <c r="B43" s="75"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
       <c r="I43" s="99"/>
       <c r="J43" s="99"/>
       <c r="K43" s="99"/>
@@ -31491,18 +31491,18 @@
     <row r="46" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="60"/>
       <c r="B46" s="75"/>
-      <c r="C46" s="145" t="s">
+      <c r="C46" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="138"/>
-      <c r="L46" s="138"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
       <c r="M46" s="84"/>
       <c r="N46" s="21"/>
       <c r="P46" s="13"/>
@@ -31660,18 +31660,18 @@
     <row r="52" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="75"/>
-      <c r="C52" s="145" t="s">
+      <c r="C52" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="138"/>
-      <c r="E52" s="138"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="138"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
       <c r="M52" s="81"/>
       <c r="P52" s="13"/>
       <c r="R52" s="17"/>
@@ -31857,49 +31857,49 @@
     <row r="61" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="60"/>
       <c r="B61" s="10"/>
-      <c r="C61" s="146" t="s">
+      <c r="C61" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="146"/>
-      <c r="E61" s="146"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
       <c r="F61" s="34"/>
-      <c r="H61" s="117" t="s">
+      <c r="H61" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="I61" s="123"/>
-      <c r="J61" s="118"/>
+      <c r="I61" s="158"/>
+      <c r="J61" s="120"/>
       <c r="M61" s="83"/>
       <c r="N61" s="20"/>
     </row>
     <row r="62" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="60"/>
       <c r="B62" s="10"/>
-      <c r="C62" s="113" t="s">
+      <c r="C62" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="114"/>
-      <c r="E62" s="111" t="s">
+      <c r="D62" s="128"/>
+      <c r="E62" s="123" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="34"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="120"/>
+      <c r="H62" s="121"/>
+      <c r="I62" s="159"/>
+      <c r="J62" s="122"/>
       <c r="M62" s="83"/>
       <c r="N62" s="20"/>
     </row>
     <row r="63" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="60"/>
       <c r="B63" s="10"/>
-      <c r="C63" s="139"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="141"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="157"/>
       <c r="F63" s="34"/>
-      <c r="H63" s="117" t="s">
+      <c r="H63" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="I63" s="118"/>
-      <c r="J63" s="111" t="s">
+      <c r="I63" s="120"/>
+      <c r="J63" s="123" t="s">
         <v>56</v>
       </c>
       <c r="M63" s="83"/>
@@ -31908,33 +31908,33 @@
     <row r="64" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="60"/>
       <c r="B64" s="10"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="116"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="130"/>
       <c r="E64" s="109" t="s">
         <v>45</v>
       </c>
       <c r="F64" s="34"/>
-      <c r="H64" s="119"/>
-      <c r="I64" s="120"/>
-      <c r="J64" s="112"/>
+      <c r="H64" s="121"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="124"/>
       <c r="M64" s="83"/>
       <c r="N64" s="20"/>
     </row>
     <row r="65" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="60"/>
       <c r="B65" s="10"/>
-      <c r="C65" s="134" t="s">
+      <c r="C65" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="134"/>
+      <c r="D65" s="117"/>
       <c r="E65" s="105" t="s">
         <v>102</v>
       </c>
       <c r="F65" s="34"/>
-      <c r="H65" s="135" t="s">
+      <c r="H65" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="I65" s="136"/>
+      <c r="I65" s="150"/>
       <c r="J65" s="104" t="s">
         <v>104</v>
       </c>
@@ -31944,18 +31944,18 @@
     <row r="66" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="60"/>
       <c r="B66" s="10"/>
-      <c r="C66" s="134" t="s">
+      <c r="C66" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="134"/>
+      <c r="D66" s="117"/>
       <c r="E66" s="105" t="s">
         <v>103</v>
       </c>
       <c r="F66" s="34"/>
-      <c r="H66" s="135" t="s">
+      <c r="H66" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="I66" s="136"/>
+      <c r="I66" s="150"/>
       <c r="J66" s="104" t="s">
         <v>105</v>
       </c>
@@ -31968,10 +31968,10 @@
       <c r="C67" s="29"/>
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
-      <c r="H67" s="137" t="s">
+      <c r="H67" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="I67" s="137"/>
+      <c r="I67" s="154"/>
       <c r="J67" s="110" t="s">
         <v>106</v>
       </c>
@@ -32021,52 +32021,52 @@
     <row r="72" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="60"/>
       <c r="B72" s="10"/>
-      <c r="C72" s="113" t="s">
+      <c r="C72" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="D72" s="121"/>
-      <c r="E72" s="114"/>
+      <c r="D72" s="161"/>
+      <c r="E72" s="128"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
-      <c r="H72" s="117" t="s">
+      <c r="H72" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="I72" s="123"/>
-      <c r="J72" s="118"/>
+      <c r="I72" s="158"/>
+      <c r="J72" s="120"/>
       <c r="M72" s="83"/>
       <c r="N72" s="20"/>
     </row>
     <row r="73" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="60"/>
       <c r="B73" s="10"/>
-      <c r="C73" s="115"/>
-      <c r="D73" s="122"/>
-      <c r="E73" s="116"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="162"/>
+      <c r="E73" s="130"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-      <c r="H73" s="119"/>
-      <c r="I73" s="124"/>
-      <c r="J73" s="120"/>
+      <c r="H73" s="121"/>
+      <c r="I73" s="159"/>
+      <c r="J73" s="122"/>
       <c r="M73" s="83"/>
       <c r="N73" s="20"/>
     </row>
     <row r="74" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="60"/>
       <c r="B74" s="10"/>
-      <c r="C74" s="113" t="s">
+      <c r="C74" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="D74" s="114"/>
-      <c r="E74" s="111" t="s">
+      <c r="D74" s="128"/>
+      <c r="E74" s="123" t="s">
         <v>52</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
-      <c r="H74" s="117" t="s">
+      <c r="H74" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="I74" s="118"/>
-      <c r="J74" s="111" t="s">
+      <c r="I74" s="120"/>
+      <c r="J74" s="123" t="s">
         <v>56</v>
       </c>
       <c r="M74" s="83"/>
@@ -32075,32 +32075,32 @@
     <row r="75" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="60"/>
       <c r="B75" s="10"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="116"/>
-      <c r="E75" s="112"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="124"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
-      <c r="H75" s="119"/>
-      <c r="I75" s="120"/>
-      <c r="J75" s="112"/>
+      <c r="H75" s="121"/>
+      <c r="I75" s="122"/>
+      <c r="J75" s="124"/>
       <c r="M75" s="83"/>
       <c r="N75" s="20"/>
     </row>
     <row r="76" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="60"/>
       <c r="B76" s="75"/>
-      <c r="C76" s="132" t="s">
+      <c r="C76" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="132"/>
+      <c r="D76" s="112"/>
       <c r="E76" s="108" t="s">
         <v>114</v>
       </c>
       <c r="F76" s="22"/>
-      <c r="H76" s="137" t="s">
+      <c r="H76" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="I76" s="137"/>
+      <c r="I76" s="154"/>
       <c r="J76" s="104" t="s">
         <v>107</v>
       </c>
@@ -32112,18 +32112,18 @@
     <row r="77" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="60"/>
       <c r="B77" s="75"/>
-      <c r="C77" s="132" t="s">
+      <c r="C77" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="132"/>
+      <c r="D77" s="112"/>
       <c r="E77" s="108" t="s">
         <v>115</v>
       </c>
       <c r="F77" s="22"/>
-      <c r="H77" s="137" t="s">
+      <c r="H77" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="I77" s="137"/>
+      <c r="I77" s="154"/>
       <c r="J77" s="104" t="s">
         <v>108</v>
       </c>
@@ -32135,18 +32135,18 @@
     <row r="78" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="60"/>
       <c r="B78" s="75"/>
-      <c r="C78" s="132" t="s">
+      <c r="C78" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="D78" s="132"/>
+      <c r="D78" s="112"/>
       <c r="E78" s="108" t="s">
         <v>116</v>
       </c>
       <c r="F78" s="22"/>
-      <c r="H78" s="137" t="s">
+      <c r="H78" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="I78" s="137"/>
+      <c r="I78" s="154"/>
       <c r="J78" s="104" t="s">
         <v>109</v>
       </c>
@@ -32158,10 +32158,10 @@
     <row r="79" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="60"/>
       <c r="B79" s="75"/>
-      <c r="C79" s="132" t="s">
+      <c r="C79" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="132"/>
+      <c r="D79" s="112"/>
       <c r="E79" s="108" t="s">
         <v>117</v>
       </c>
@@ -32174,10 +32174,10 @@
     <row r="80" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="60"/>
       <c r="B80" s="75"/>
-      <c r="C80" s="132" t="s">
+      <c r="C80" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="D80" s="132"/>
+      <c r="D80" s="112"/>
       <c r="E80" s="108" t="s">
         <v>118</v>
       </c>
@@ -32251,19 +32251,19 @@
     <row r="86" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="60"/>
       <c r="B86" s="75"/>
-      <c r="C86" s="146" t="s">
+      <c r="C86" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="146"/>
-      <c r="E86" s="146"/>
-      <c r="F86" s="146"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
       <c r="G86" s="12"/>
-      <c r="H86" s="148" t="s">
+      <c r="H86" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="I86" s="148"/>
-      <c r="J86" s="148"/>
-      <c r="K86" s="148"/>
+      <c r="I86" s="144"/>
+      <c r="J86" s="144"/>
+      <c r="K86" s="144"/>
       <c r="L86" s="33"/>
       <c r="M86" s="81"/>
       <c r="N86" s="20"/>
@@ -32272,14 +32272,14 @@
     <row r="87" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="60"/>
       <c r="B87" s="75"/>
-      <c r="C87" s="113" t="s">
+      <c r="C87" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="114"/>
-      <c r="E87" s="111" t="s">
+      <c r="D87" s="128"/>
+      <c r="E87" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="F87" s="111" t="s">
+      <c r="F87" s="123" t="s">
         <v>43</v>
       </c>
       <c r="H87" s="63" t="s">
@@ -32301,10 +32301,10 @@
     <row r="88" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="60"/>
       <c r="B88" s="75"/>
-      <c r="C88" s="115"/>
-      <c r="D88" s="116"/>
-      <c r="E88" s="112"/>
-      <c r="F88" s="112"/>
+      <c r="C88" s="129"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
       <c r="H88" s="64" t="s">
         <v>99</v>
       </c>
@@ -32324,10 +32324,10 @@
     <row r="89" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="60"/>
       <c r="B89" s="75"/>
-      <c r="C89" s="150" t="s">
+      <c r="C89" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="151"/>
+      <c r="D89" s="147"/>
       <c r="E89" s="96" t="s">
         <v>119</v>
       </c>
@@ -32353,10 +32353,10 @@
     <row r="90" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="60"/>
       <c r="B90" s="75"/>
-      <c r="C90" s="150" t="s">
+      <c r="C90" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="151"/>
+      <c r="D90" s="147"/>
       <c r="E90" s="96" t="s">
         <v>120</v>
       </c>
@@ -32382,10 +32382,10 @@
     <row r="91" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="60"/>
       <c r="B91" s="75"/>
-      <c r="C91" s="150" t="s">
+      <c r="C91" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="151"/>
+      <c r="D91" s="147"/>
       <c r="E91" s="96" t="s">
         <v>121</v>
       </c>
@@ -32399,10 +32399,10 @@
     <row r="92" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="60"/>
       <c r="B92" s="75"/>
-      <c r="C92" s="150" t="s">
+      <c r="C92" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="D92" s="151"/>
+      <c r="D92" s="147"/>
       <c r="E92" s="96" t="s">
         <v>122</v>
       </c>
@@ -32430,11 +32430,11 @@
     <row r="94" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="60"/>
       <c r="B94" s="75"/>
-      <c r="C94" s="149" t="s">
+      <c r="C94" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="149"/>
-      <c r="E94" s="149"/>
+      <c r="D94" s="145"/>
+      <c r="E94" s="145"/>
       <c r="F94" s="98" t="s">
         <v>135</v>
       </c>
@@ -32477,17 +32477,17 @@
     <row r="98" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="60"/>
       <c r="B98" s="75"/>
-      <c r="C98" s="113" t="s">
+      <c r="C98" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="121"/>
-      <c r="E98" s="114"/>
+      <c r="D98" s="161"/>
+      <c r="E98" s="128"/>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
-      <c r="H98" s="117" t="s">
+      <c r="H98" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="I98" s="118"/>
+      <c r="I98" s="120"/>
       <c r="L98" s="33"/>
       <c r="M98" s="81"/>
       <c r="N98" s="20"/>
@@ -32496,13 +32496,13 @@
     <row r="99" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="60"/>
       <c r="B99" s="75"/>
-      <c r="C99" s="115"/>
-      <c r="D99" s="122"/>
-      <c r="E99" s="116"/>
+      <c r="C99" s="129"/>
+      <c r="D99" s="162"/>
+      <c r="E99" s="130"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
-      <c r="H99" s="119"/>
-      <c r="I99" s="120"/>
+      <c r="H99" s="121"/>
+      <c r="I99" s="122"/>
       <c r="L99" s="33"/>
       <c r="M99" s="81"/>
       <c r="N99" s="20"/>
@@ -32511,19 +32511,19 @@
     <row r="100" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="60"/>
       <c r="B100" s="75"/>
-      <c r="C100" s="113" t="s">
+      <c r="C100" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="D100" s="114"/>
-      <c r="E100" s="111" t="s">
+      <c r="D100" s="128"/>
+      <c r="E100" s="123" t="s">
         <v>52</v>
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
-      <c r="H100" s="127" t="s">
+      <c r="H100" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="I100" s="129" t="s">
+      <c r="I100" s="165" t="s">
         <v>56</v>
       </c>
       <c r="L100" s="33"/>
@@ -32534,12 +32534,12 @@
     <row r="101" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="60"/>
       <c r="B101" s="75"/>
-      <c r="C101" s="115"/>
-      <c r="D101" s="116"/>
-      <c r="E101" s="112"/>
+      <c r="C101" s="129"/>
+      <c r="D101" s="130"/>
+      <c r="E101" s="124"/>
       <c r="F101" s="22"/>
-      <c r="H101" s="128"/>
-      <c r="I101" s="130"/>
+      <c r="H101" s="164"/>
+      <c r="I101" s="166"/>
       <c r="J101" s="14"/>
       <c r="K101" s="14"/>
       <c r="L101" s="33"/>
@@ -32549,10 +32549,10 @@
     <row r="102" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="60"/>
       <c r="B102" s="75"/>
-      <c r="C102" s="131" t="s">
+      <c r="C102" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="D102" s="131"/>
+      <c r="D102" s="143"/>
       <c r="E102" s="107" t="s">
         <v>142</v>
       </c>
@@ -32568,10 +32568,10 @@
     <row r="103" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="60"/>
       <c r="B103" s="75"/>
-      <c r="C103" s="131" t="s">
+      <c r="C103" s="143" t="s">
         <v>137</v>
       </c>
-      <c r="D103" s="131"/>
+      <c r="D103" s="143"/>
       <c r="E103" s="107" t="s">
         <v>143</v>
       </c>
@@ -32587,10 +32587,10 @@
     <row r="104" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="60"/>
       <c r="B104" s="75"/>
-      <c r="C104" s="131" t="s">
+      <c r="C104" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="D104" s="131"/>
+      <c r="D104" s="143"/>
       <c r="E104" s="107" t="s">
         <v>144</v>
       </c>
@@ -32606,10 +32606,10 @@
     <row r="105" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="60"/>
       <c r="B105" s="75"/>
-      <c r="C105" s="131" t="s">
+      <c r="C105" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="D105" s="131"/>
+      <c r="D105" s="143"/>
       <c r="E105" s="107" t="s">
         <v>145</v>
       </c>
@@ -32619,10 +32619,10 @@
     <row r="106" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="60"/>
       <c r="B106" s="75"/>
-      <c r="C106" s="131" t="s">
+      <c r="C106" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="D106" s="131"/>
+      <c r="D106" s="143"/>
       <c r="E106" s="107" t="s">
         <v>146</v>
       </c>
@@ -32632,10 +32632,10 @@
     <row r="107" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="60"/>
       <c r="B107" s="75"/>
-      <c r="C107" s="131" t="s">
+      <c r="C107" s="143" t="s">
         <v>140</v>
       </c>
-      <c r="D107" s="131"/>
+      <c r="D107" s="143"/>
       <c r="E107" s="107" t="s">
         <v>147</v>
       </c>
@@ -32645,10 +32645,10 @@
     <row r="108" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="60"/>
       <c r="B108" s="75"/>
-      <c r="C108" s="131" t="s">
+      <c r="C108" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="D108" s="131"/>
+      <c r="D108" s="143"/>
       <c r="E108" s="107" t="s">
         <v>148</v>
       </c>
@@ -32683,93 +32683,93 @@
     <row r="112" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="60"/>
       <c r="B112" s="76"/>
-      <c r="C112" s="125" t="s">
+      <c r="C112" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="D112" s="125"/>
-      <c r="E112" s="125"/>
-      <c r="F112" s="125"/>
-      <c r="G112" s="125"/>
-      <c r="H112" s="125"/>
-      <c r="I112" s="125"/>
-      <c r="J112" s="125"/>
-      <c r="K112" s="125"/>
-      <c r="L112" s="125"/>
+      <c r="D112" s="160"/>
+      <c r="E112" s="160"/>
+      <c r="F112" s="160"/>
+      <c r="G112" s="160"/>
+      <c r="H112" s="160"/>
+      <c r="I112" s="160"/>
+      <c r="J112" s="160"/>
+      <c r="K112" s="160"/>
+      <c r="L112" s="160"/>
       <c r="M112" s="81"/>
     </row>
     <row r="113" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="60"/>
       <c r="B113" s="76"/>
-      <c r="C113" s="125"/>
-      <c r="D113" s="125"/>
-      <c r="E113" s="125"/>
-      <c r="F113" s="125"/>
-      <c r="G113" s="125"/>
-      <c r="H113" s="125"/>
-      <c r="I113" s="125"/>
-      <c r="J113" s="125"/>
-      <c r="K113" s="125"/>
-      <c r="L113" s="125"/>
+      <c r="C113" s="160"/>
+      <c r="D113" s="160"/>
+      <c r="E113" s="160"/>
+      <c r="F113" s="160"/>
+      <c r="G113" s="160"/>
+      <c r="H113" s="160"/>
+      <c r="I113" s="160"/>
+      <c r="J113" s="160"/>
+      <c r="K113" s="160"/>
+      <c r="L113" s="160"/>
       <c r="M113" s="81"/>
     </row>
     <row r="114" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="60"/>
       <c r="B114" s="76"/>
-      <c r="C114" s="125"/>
-      <c r="D114" s="125"/>
-      <c r="E114" s="125"/>
-      <c r="F114" s="125"/>
-      <c r="G114" s="125"/>
-      <c r="H114" s="125"/>
-      <c r="I114" s="125"/>
-      <c r="J114" s="125"/>
-      <c r="K114" s="125"/>
-      <c r="L114" s="125"/>
+      <c r="C114" s="160"/>
+      <c r="D114" s="160"/>
+      <c r="E114" s="160"/>
+      <c r="F114" s="160"/>
+      <c r="G114" s="160"/>
+      <c r="H114" s="160"/>
+      <c r="I114" s="160"/>
+      <c r="J114" s="160"/>
+      <c r="K114" s="160"/>
+      <c r="L114" s="160"/>
       <c r="M114" s="81"/>
     </row>
     <row r="115" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="60"/>
       <c r="B115" s="76"/>
-      <c r="C115" s="125"/>
-      <c r="D115" s="125"/>
-      <c r="E115" s="125"/>
-      <c r="F115" s="125"/>
-      <c r="G115" s="125"/>
-      <c r="H115" s="125"/>
-      <c r="I115" s="125"/>
-      <c r="J115" s="125"/>
-      <c r="K115" s="125"/>
-      <c r="L115" s="125"/>
+      <c r="C115" s="160"/>
+      <c r="D115" s="160"/>
+      <c r="E115" s="160"/>
+      <c r="F115" s="160"/>
+      <c r="G115" s="160"/>
+      <c r="H115" s="160"/>
+      <c r="I115" s="160"/>
+      <c r="J115" s="160"/>
+      <c r="K115" s="160"/>
+      <c r="L115" s="160"/>
       <c r="M115" s="81"/>
     </row>
     <row r="116" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="60"/>
       <c r="B116" s="75"/>
-      <c r="C116" s="125"/>
-      <c r="D116" s="125"/>
-      <c r="E116" s="125"/>
-      <c r="F116" s="125"/>
-      <c r="G116" s="125"/>
-      <c r="H116" s="125"/>
-      <c r="I116" s="125"/>
-      <c r="J116" s="125"/>
-      <c r="K116" s="125"/>
-      <c r="L116" s="125"/>
+      <c r="C116" s="160"/>
+      <c r="D116" s="160"/>
+      <c r="E116" s="160"/>
+      <c r="F116" s="160"/>
+      <c r="G116" s="160"/>
+      <c r="H116" s="160"/>
+      <c r="I116" s="160"/>
+      <c r="J116" s="160"/>
+      <c r="K116" s="160"/>
+      <c r="L116" s="160"/>
       <c r="M116" s="85"/>
     </row>
     <row r="117" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="60"/>
       <c r="B117" s="75"/>
-      <c r="C117" s="125"/>
-      <c r="D117" s="125"/>
-      <c r="E117" s="125"/>
-      <c r="F117" s="125"/>
-      <c r="G117" s="125"/>
-      <c r="H117" s="125"/>
-      <c r="I117" s="125"/>
-      <c r="J117" s="125"/>
-      <c r="K117" s="125"/>
-      <c r="L117" s="125"/>
+      <c r="C117" s="160"/>
+      <c r="D117" s="160"/>
+      <c r="E117" s="160"/>
+      <c r="F117" s="160"/>
+      <c r="G117" s="160"/>
+      <c r="H117" s="160"/>
+      <c r="I117" s="160"/>
+      <c r="J117" s="160"/>
+      <c r="K117" s="160"/>
+      <c r="L117" s="160"/>
       <c r="M117" s="85"/>
     </row>
     <row r="118" spans="1:14" s="23" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -32849,12 +32849,12 @@
       <c r="C124" s="46"/>
       <c r="D124" s="32"/>
       <c r="E124" s="32"/>
-      <c r="F124" s="163" t="s">
+      <c r="F124" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="G124" s="163"/>
-      <c r="H124" s="163"/>
-      <c r="I124" s="163"/>
+      <c r="G124" s="111"/>
+      <c r="H124" s="111"/>
+      <c r="I124" s="111"/>
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124"/>
@@ -33489,6 +33489,87 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="H74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="C72:E73"/>
+    <mergeCell ref="H72:J73"/>
+    <mergeCell ref="C112:L117"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I28:J29"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="C100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="H98:I99"/>
+    <mergeCell ref="C98:E99"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="C39:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="H61:J62"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="C28:D30"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="E1:K5"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:L12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="F124:I124"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="C80:D80"/>
@@ -33505,87 +33586,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C25:L27"/>
-    <mergeCell ref="C28:D30"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="E1:K5"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:L12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C46:L46"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="C39:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C62:D64"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="H61:J62"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C112:L117"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="I28:J29"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="C100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="H98:I99"/>
-    <mergeCell ref="C98:E99"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="H74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="C72:E73"/>
-    <mergeCell ref="H72:J73"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaReporteDiario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppV2\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAC888E-CA9F-461A-888A-F084896B1197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B67D0F-740E-4A9E-BC46-1B81CE707D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="664" xr2:uid="{3B2FCDE3-AFC0-46E3-A7F2-136C8F41A25F}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
   <si>
     <t>RIQUEZA</t>
   </si>
@@ -350,9 +350,6 @@
     <t>TANQUE DE DESPACHO, PLACAS DE CISTERNAS Y VOLÚMENES DESPACHADOS DE CGN (GAL)</t>
   </si>
   <si>
-    <t>GNA TOTAL DE CNPC</t>
-  </si>
-  <si>
     <t>GNS TRASFERIDO</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
   </si>
   <si>
     <t>VOLUMEN</t>
-  </si>
-  <si>
-    <t>4.  VOLUMEN DE GAS Y PRODUCCIÓN DE GNA ADICIONAL DEL LOTE X (CNPC PERÚ):</t>
   </si>
   <si>
     <t>5.  VOLUMEN DE GAS Y PRODUCCIÓN DE ENEL:</t>
@@ -588,9 +582,6 @@
     <t>{{GasCombustible5}}</t>
   </si>
   <si>
-    <t>{{TotalDistribucion5}}</t>
-  </si>
-  <si>
     <t>{{LoteZ69Gna}}</t>
   </si>
   <si>
@@ -733,6 +724,12 @@
   </si>
   <si>
     <t>VOLUMEN DIARIO</t>
+  </si>
+  <si>
+    <t>4.  VOLUMEN DE GAS Y PRODUCCIÓN DE GNA ADICIONAL DEL LOTE X (OIG PERU SAC):</t>
+  </si>
+  <si>
+    <t>GNA TOTAL DE OIG PERU SAC</t>
   </si>
 </sst>
 </file>
@@ -30700,10 +30697,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X286"/>
+  <dimension ref="A1:X285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30740,7 +30737,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="131" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F1" s="131"/>
       <c r="G1" s="131"/>
@@ -30749,7 +30746,7 @@
       <c r="J1" s="131"/>
       <c r="K1" s="131"/>
       <c r="L1" s="134" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M1" s="135"/>
     </row>
@@ -30781,7 +30778,7 @@
       <c r="J3" s="132"/>
       <c r="K3" s="132"/>
       <c r="L3" s="138" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M3" s="139"/>
     </row>
@@ -30815,10 +30812,10 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
       <c r="L5" s="87" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M5" s="87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="12" x14ac:dyDescent="0.2">
@@ -30845,7 +30842,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M7" s="81"/>
     </row>
@@ -30927,7 +30924,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M13" s="81"/>
     </row>
@@ -30937,7 +30934,7 @@
       <c r="C14" s="118"/>
       <c r="D14" s="118"/>
       <c r="E14" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="67" t="s">
         <v>3</v>
@@ -30947,14 +30944,14 @@
       </c>
       <c r="H14" s="140"/>
       <c r="I14" s="140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="140"/>
       <c r="K14" s="67" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M14" s="81"/>
     </row>
@@ -30962,28 +30959,28 @@
       <c r="A15" s="60"/>
       <c r="B15" s="75"/>
       <c r="C15" s="113" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="113"/>
       <c r="E15" s="101" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" s="95" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G15" s="141" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H15" s="141"/>
       <c r="I15" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J15" s="142"/>
       <c r="K15" s="100" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L15" s="102" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M15" s="83"/>
     </row>
@@ -31023,14 +31020,14 @@
       <c r="D18" s="112"/>
       <c r="E18" s="112"/>
       <c r="F18" s="58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H18" s="117" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" s="117"/>
       <c r="J18" s="69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K18" s="32"/>
       <c r="M18" s="81"/>
@@ -31046,7 +31043,7 @@
       <c r="D19" s="112"/>
       <c r="E19" s="112"/>
       <c r="F19" s="58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
@@ -31065,7 +31062,7 @@
       <c r="D20" s="153"/>
       <c r="E20" s="153"/>
       <c r="F20" s="106" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
@@ -31183,11 +31180,11 @@
       <c r="A28" s="60"/>
       <c r="B28" s="75"/>
       <c r="C28" s="125" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="125"/>
       <c r="E28" s="127" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F28" s="128"/>
       <c r="G28" s="127" t="s">
@@ -31195,7 +31192,7 @@
       </c>
       <c r="H28" s="128"/>
       <c r="I28" s="119" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J28" s="158"/>
       <c r="K28" s="125" t="s">
@@ -31227,7 +31224,7 @@
       <c r="C30" s="125"/>
       <c r="D30" s="125"/>
       <c r="E30" s="126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="125"/>
       <c r="G30" s="125" t="s">
@@ -31235,7 +31232,7 @@
       </c>
       <c r="H30" s="125"/>
       <c r="I30" s="125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" s="125"/>
       <c r="K30" s="148" t="s">
@@ -31249,23 +31246,23 @@
       <c r="A31" s="60"/>
       <c r="B31" s="75"/>
       <c r="C31" s="152" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="152"/>
-      <c r="E31" s="151" t="s">
-        <v>74</v>
+      <c r="E31" s="142" t="s">
+        <v>72</v>
       </c>
-      <c r="F31" s="151"/>
+      <c r="F31" s="142"/>
       <c r="G31" s="142" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H31" s="142"/>
       <c r="I31" s="151" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J31" s="151"/>
       <c r="K31" s="142" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L31" s="142"/>
       <c r="M31" s="81"/>
@@ -31276,8 +31273,8 @@
       <c r="B32" s="75"/>
       <c r="C32" s="152"/>
       <c r="D32" s="152"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
       <c r="G32" s="142"/>
       <c r="H32" s="142"/>
       <c r="I32" s="151"/>
@@ -31315,7 +31312,7 @@
       <c r="A35" s="60"/>
       <c r="B35" s="75"/>
       <c r="C35" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -31345,7 +31342,7 @@
       </c>
       <c r="D37" s="114"/>
       <c r="E37" s="103" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37"/>
       <c r="L37" s="33"/>
@@ -31368,7 +31365,7 @@
       <c r="A39" s="60"/>
       <c r="B39" s="75"/>
       <c r="C39" s="125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
@@ -31445,7 +31442,7 @@
       <c r="A42" s="60"/>
       <c r="B42" s="75"/>
       <c r="C42" s="116" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D42" s="116"/>
       <c r="E42" s="116"/>
@@ -31453,16 +31450,16 @@
       <c r="G42" s="116"/>
       <c r="H42" s="116"/>
       <c r="I42" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="J42" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="J42" s="99" t="s">
+      <c r="L42" s="99" t="s">
         <v>82</v>
-      </c>
-      <c r="K42" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="L42" s="99" t="s">
-        <v>84</v>
       </c>
       <c r="M42" s="81"/>
     </row>
@@ -31564,34 +31561,34 @@
       <c r="A48" s="60"/>
       <c r="B48" s="75"/>
       <c r="C48" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="94" t="s">
+      <c r="L48" s="94" t="s">
         <v>90</v>
-      </c>
-      <c r="E48" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="G48" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H48" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="I48" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="J48" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="K48" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="L48" s="94" t="s">
-        <v>92</v>
       </c>
       <c r="M48" s="81"/>
       <c r="P48" s="13"/>
@@ -31732,34 +31729,34 @@
       <c r="A54" s="60"/>
       <c r="B54" s="75"/>
       <c r="C54" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="94" t="s">
+      <c r="L54" s="94" t="s">
         <v>90</v>
-      </c>
-      <c r="E54" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H54" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="I54" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="J54" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="K54" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="L54" s="94" t="s">
-        <v>92</v>
       </c>
       <c r="M54" s="81"/>
       <c r="P54" s="13"/>
@@ -31832,7 +31829,7 @@
       <c r="A58" s="60"/>
       <c r="B58" s="10"/>
       <c r="C58" s="29" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
@@ -31861,13 +31858,13 @@
       <c r="A61" s="60"/>
       <c r="B61" s="10"/>
       <c r="C61" s="118" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="D61" s="118"/>
       <c r="E61" s="118"/>
       <c r="F61" s="34"/>
       <c r="H61" s="119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I61" s="158"/>
       <c r="J61" s="120"/>
@@ -31899,11 +31896,11 @@
       <c r="E63" s="157"/>
       <c r="F63" s="34"/>
       <c r="H63" s="119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I63" s="120"/>
       <c r="J63" s="123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M63" s="83"/>
       <c r="N63" s="20"/>
@@ -31914,7 +31911,7 @@
       <c r="C64" s="129"/>
       <c r="D64" s="130"/>
       <c r="E64" s="109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F64" s="34"/>
       <c r="H64" s="121"/>
@@ -31927,19 +31924,19 @@
       <c r="A65" s="60"/>
       <c r="B65" s="10"/>
       <c r="C65" s="117" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D65" s="117"/>
       <c r="E65" s="105" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F65" s="34"/>
       <c r="H65" s="149" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I65" s="150"/>
       <c r="J65" s="104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M65" s="83"/>
       <c r="N65" s="20"/>
@@ -31948,19 +31945,19 @@
       <c r="A66" s="60"/>
       <c r="B66" s="10"/>
       <c r="C66" s="117" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D66" s="117"/>
       <c r="E66" s="105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F66" s="34"/>
       <c r="H66" s="149" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I66" s="150"/>
       <c r="J66" s="104" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M66" s="83"/>
       <c r="N66" s="20"/>
@@ -31972,11 +31969,11 @@
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
       <c r="H67" s="154" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I67" s="154"/>
       <c r="J67" s="110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M67" s="83"/>
       <c r="N67" s="20"/>
@@ -32003,7 +32000,7 @@
       <c r="A70" s="60"/>
       <c r="B70" s="10"/>
       <c r="C70" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="34"/>
@@ -32025,14 +32022,14 @@
       <c r="A72" s="60"/>
       <c r="B72" s="10"/>
       <c r="C72" s="127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" s="161"/>
       <c r="E72" s="128"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" s="158"/>
       <c r="J72" s="120"/>
@@ -32057,20 +32054,20 @@
       <c r="A74" s="60"/>
       <c r="B74" s="10"/>
       <c r="C74" s="127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D74" s="128"/>
       <c r="E74" s="123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I74" s="120"/>
       <c r="J74" s="123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M74" s="83"/>
       <c r="N74" s="20"/>
@@ -32093,19 +32090,19 @@
       <c r="A76" s="60"/>
       <c r="B76" s="75"/>
       <c r="C76" s="112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D76" s="112"/>
       <c r="E76" s="108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F76" s="22"/>
       <c r="H76" s="154" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I76" s="154"/>
       <c r="J76" s="104" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K76" s="14"/>
       <c r="L76" s="33"/>
@@ -32116,19 +32113,19 @@
       <c r="A77" s="60"/>
       <c r="B77" s="75"/>
       <c r="C77" s="112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D77" s="112"/>
       <c r="E77" s="108" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F77" s="22"/>
       <c r="H77" s="154" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I77" s="154"/>
       <c r="J77" s="104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K77" s="14"/>
       <c r="L77" s="33"/>
@@ -32139,19 +32136,19 @@
       <c r="A78" s="60"/>
       <c r="B78" s="75"/>
       <c r="C78" s="112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D78" s="112"/>
       <c r="E78" s="108" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F78" s="22"/>
       <c r="H78" s="154" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I78" s="154"/>
       <c r="J78" s="104" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K78" s="14"/>
       <c r="L78" s="33"/>
@@ -32162,11 +32159,11 @@
       <c r="A79" s="60"/>
       <c r="B79" s="75"/>
       <c r="C79" s="112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D79" s="112"/>
       <c r="E79" s="108" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F79" s="22"/>
       <c r="K79" s="14"/>
@@ -32178,11 +32175,11 @@
       <c r="A80" s="60"/>
       <c r="B80" s="75"/>
       <c r="C80" s="112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D80" s="112"/>
       <c r="E80" s="108" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F80" s="22"/>
       <c r="J80" s="14"/>
@@ -32194,13 +32191,9 @@
     <row r="81" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="60"/>
       <c r="B81" s="75"/>
-      <c r="C81" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="D81" s="112"/>
-      <c r="E81" s="108" t="s">
-        <v>121</v>
-      </c>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="62"/>
       <c r="F81" s="22"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
@@ -32224,32 +32217,30 @@
     <row r="83" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="60"/>
       <c r="B83" s="75"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="22"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="49"/>
       <c r="L83" s="33"/>
       <c r="M83" s="81"/>
-      <c r="N83" s="20"/>
     </row>
     <row r="84" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="60"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="49"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="36"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
       <c r="L84" s="33"/>
       <c r="M84" s="81"/>
+      <c r="N84" s="20"/>
     </row>
     <row r="85" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="60"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="29" t="s">
-        <v>60</v>
-      </c>
+      <c r="B85" s="75"/>
+      <c r="C85" s="36"/>
       <c r="D85" s="36"/>
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
@@ -32260,59 +32251,71 @@
     <row r="86" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="60"/>
       <c r="B86" s="75"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
+      <c r="C86" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="144" t="s">
+        <v>55</v>
+      </c>
+      <c r="I86" s="144"/>
+      <c r="J86" s="144"/>
+      <c r="K86" s="144"/>
       <c r="L86" s="33"/>
       <c r="M86" s="81"/>
       <c r="N86" s="20"/>
+      <c r="P86" s="22"/>
     </row>
     <row r="87" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="60"/>
       <c r="B87" s="75"/>
-      <c r="C87" s="118" t="s">
-        <v>49</v>
+      <c r="C87" s="127" t="s">
+        <v>12</v>
       </c>
-      <c r="D87" s="118"/>
-      <c r="E87" s="118"/>
-      <c r="F87" s="118"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="144" t="s">
-        <v>56</v>
+      <c r="D87" s="128"/>
+      <c r="E87" s="123" t="s">
+        <v>47</v>
       </c>
-      <c r="I87" s="144"/>
-      <c r="J87" s="144"/>
-      <c r="K87" s="144"/>
+      <c r="F87" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J87" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="K87" s="63" t="s">
+        <v>2</v>
+      </c>
       <c r="L87" s="33"/>
       <c r="M87" s="81"/>
       <c r="N87" s="20"/>
-      <c r="P87" s="22"/>
     </row>
     <row r="88" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="60"/>
       <c r="B88" s="75"/>
-      <c r="C88" s="127" t="s">
-        <v>12</v>
+      <c r="C88" s="129"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
+      <c r="H88" s="64" t="s">
+        <v>99</v>
       </c>
-      <c r="D88" s="128"/>
-      <c r="E88" s="123" t="s">
-        <v>48</v>
+      <c r="I88" s="97" t="s">
+        <v>126</v>
       </c>
-      <c r="F88" s="123" t="s">
-        <v>44</v>
+      <c r="J88" s="97" t="s">
+        <v>129</v>
       </c>
-      <c r="H88" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I88" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="J88" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="K88" s="63" t="s">
-        <v>2</v>
+      <c r="K88" s="97" t="s">
+        <v>132</v>
       </c>
       <c r="L88" s="33"/>
       <c r="M88" s="81"/>
@@ -32321,21 +32324,27 @@
     <row r="89" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="60"/>
       <c r="B89" s="75"/>
-      <c r="C89" s="129"/>
-      <c r="D89" s="130"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124"/>
+      <c r="C89" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="147"/>
+      <c r="E89" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" s="96" t="s">
+        <v>123</v>
+      </c>
       <c r="H89" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I89" s="97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J89" s="97" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K89" s="97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L89" s="33"/>
       <c r="M89" s="81"/>
@@ -32345,26 +32354,26 @@
       <c r="A90" s="60"/>
       <c r="B90" s="75"/>
       <c r="C90" s="146" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90" s="147"/>
       <c r="E90" s="96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F90" s="96" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H90" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I90" s="97" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J90" s="97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K90" s="97" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L90" s="33"/>
       <c r="M90" s="81"/>
@@ -32374,26 +32383,14 @@
       <c r="A91" s="60"/>
       <c r="B91" s="75"/>
       <c r="C91" s="146" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" s="147"/>
       <c r="E91" s="96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F91" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="H91" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="I91" s="97" t="s">
-        <v>131</v>
-      </c>
-      <c r="J91" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="K91" s="97" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L91" s="33"/>
       <c r="M91" s="81"/>
@@ -32403,15 +32400,19 @@
       <c r="A92" s="60"/>
       <c r="B92" s="75"/>
       <c r="C92" s="146" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D92" s="147"/>
       <c r="E92" s="96" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F92" s="96" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
       <c r="L92" s="33"/>
       <c r="M92" s="81"/>
       <c r="N92" s="20"/>
@@ -32419,65 +32420,55 @@
     <row r="93" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="60"/>
       <c r="B93" s="75"/>
-      <c r="C93" s="146" t="s">
-        <v>103</v>
-      </c>
-      <c r="D93" s="147"/>
-      <c r="E93" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="F93" s="96" t="s">
-        <v>161</v>
-      </c>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
       <c r="L93" s="33"/>
       <c r="M93" s="81"/>
-      <c r="N93" s="20"/>
     </row>
     <row r="94" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="60"/>
       <c r="B94" s="75"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
+      <c r="C94" s="145" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" s="145"/>
+      <c r="E94" s="145"/>
+      <c r="F94" s="98" t="s">
+        <v>135</v>
+      </c>
       <c r="L94" s="33"/>
       <c r="M94" s="81"/>
     </row>
     <row r="95" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="60"/>
       <c r="B95" s="75"/>
-      <c r="C95" s="145" t="s">
-        <v>45</v>
-      </c>
-      <c r="D95" s="145"/>
-      <c r="E95" s="145"/>
-      <c r="F95" s="98" t="s">
-        <v>138</v>
-      </c>
       <c r="L95" s="33"/>
       <c r="M95" s="81"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
     </row>
     <row r="96" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="60"/>
-      <c r="B96" s="75"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
       <c r="L96" s="33"/>
       <c r="M96" s="81"/>
       <c r="N96" s="20"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
     </row>
     <row r="97" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="60"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="12"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="27"/>
       <c r="F97" s="12"/>
       <c r="L97" s="33"/>
       <c r="M97" s="81"/>
@@ -32486,28 +32477,32 @@
     <row r="98" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="60"/>
       <c r="B98" s="75"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="27"/>
+      <c r="C98" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="161"/>
+      <c r="E98" s="128"/>
       <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="119" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" s="120"/>
       <c r="L98" s="33"/>
       <c r="M98" s="81"/>
       <c r="N98" s="20"/>
+      <c r="P98" s="22"/>
     </row>
     <row r="99" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="60"/>
       <c r="B99" s="75"/>
-      <c r="C99" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="161"/>
-      <c r="E99" s="128"/>
+      <c r="C99" s="129"/>
+      <c r="D99" s="162"/>
+      <c r="E99" s="130"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
-      <c r="H99" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="I99" s="120"/>
+      <c r="H99" s="121"/>
+      <c r="I99" s="122"/>
       <c r="L99" s="33"/>
       <c r="M99" s="81"/>
       <c r="N99" s="20"/>
@@ -32516,13 +32511,21 @@
     <row r="100" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="60"/>
       <c r="B100" s="75"/>
-      <c r="C100" s="129"/>
-      <c r="D100" s="162"/>
-      <c r="E100" s="130"/>
+      <c r="C100" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="128"/>
+      <c r="E100" s="123" t="s">
+        <v>52</v>
+      </c>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
-      <c r="H100" s="121"/>
-      <c r="I100" s="122"/>
+      <c r="H100" s="163" t="s">
+        <v>53</v>
+      </c>
+      <c r="I100" s="165" t="s">
+        <v>56</v>
+      </c>
       <c r="L100" s="33"/>
       <c r="M100" s="81"/>
       <c r="N100" s="20"/>
@@ -32531,56 +32534,52 @@
     <row r="101" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="60"/>
       <c r="B101" s="75"/>
-      <c r="C101" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="D101" s="128"/>
-      <c r="E101" s="123" t="s">
-        <v>53</v>
-      </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="163" t="s">
-        <v>54</v>
-      </c>
-      <c r="I101" s="165" t="s">
-        <v>57</v>
-      </c>
+      <c r="C101" s="129"/>
+      <c r="D101" s="130"/>
+      <c r="E101" s="124"/>
+      <c r="F101" s="22"/>
+      <c r="H101" s="164"/>
+      <c r="I101" s="166"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
       <c r="L101" s="33"/>
       <c r="M101" s="81"/>
       <c r="N101" s="20"/>
-      <c r="P101" s="22"/>
     </row>
     <row r="102" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="60"/>
       <c r="B102" s="75"/>
-      <c r="C102" s="129"/>
-      <c r="D102" s="130"/>
-      <c r="E102" s="124"/>
-      <c r="F102" s="22"/>
-      <c r="H102" s="164"/>
-      <c r="I102" s="166"/>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="33"/>
+      <c r="C102" s="143" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102" s="143"/>
+      <c r="E102" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="H102" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I102" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="L102" s="18"/>
       <c r="M102" s="81"/>
-      <c r="N102" s="20"/>
     </row>
     <row r="103" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="60"/>
       <c r="B103" s="75"/>
       <c r="C103" s="143" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D103" s="143"/>
       <c r="E103" s="107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H103" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I103" s="104" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L103" s="18"/>
       <c r="M103" s="81"/>
@@ -32589,17 +32588,17 @@
       <c r="A104" s="60"/>
       <c r="B104" s="75"/>
       <c r="C104" s="143" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D104" s="143"/>
       <c r="E104" s="107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H104" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I104" s="104" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L104" s="18"/>
       <c r="M104" s="81"/>
@@ -32608,17 +32607,11 @@
       <c r="A105" s="60"/>
       <c r="B105" s="75"/>
       <c r="C105" s="143" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D105" s="143"/>
       <c r="E105" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="H105" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="I105" s="104" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="L105" s="18"/>
       <c r="M105" s="81"/>
@@ -32627,11 +32620,11 @@
       <c r="A106" s="60"/>
       <c r="B106" s="75"/>
       <c r="C106" s="143" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D106" s="143"/>
       <c r="E106" s="107" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L106" s="18"/>
       <c r="M106" s="81"/>
@@ -32640,11 +32633,11 @@
       <c r="A107" s="60"/>
       <c r="B107" s="75"/>
       <c r="C107" s="143" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D107" s="143"/>
       <c r="E107" s="107" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L107" s="18"/>
       <c r="M107" s="81"/>
@@ -32653,11 +32646,11 @@
       <c r="A108" s="60"/>
       <c r="B108" s="75"/>
       <c r="C108" s="143" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D108" s="143"/>
       <c r="E108" s="107" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L108" s="18"/>
       <c r="M108" s="81"/>
@@ -32665,13 +32658,6 @@
     <row r="109" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="60"/>
       <c r="B109" s="75"/>
-      <c r="C109" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="D109" s="143"/>
-      <c r="E109" s="107" t="s">
-        <v>151</v>
-      </c>
       <c r="L109" s="18"/>
       <c r="M109" s="81"/>
     </row>
@@ -32683,29 +32669,38 @@
     </row>
     <row r="111" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="60"/>
-      <c r="B111" s="75"/>
-      <c r="L111" s="18"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G111" s="38"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
       <c r="M111" s="81"/>
     </row>
     <row r="112" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="60"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="29" t="s">
-        <v>62</v>
+      <c r="B112" s="76"/>
+      <c r="C112" s="160" t="s">
+        <v>71</v>
       </c>
-      <c r="G112" s="38"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="41"/>
+      <c r="D112" s="160"/>
+      <c r="E112" s="160"/>
+      <c r="F112" s="160"/>
+      <c r="G112" s="160"/>
+      <c r="H112" s="160"/>
+      <c r="I112" s="160"/>
+      <c r="J112" s="160"/>
+      <c r="K112" s="160"/>
+      <c r="L112" s="160"/>
       <c r="M112" s="81"/>
     </row>
     <row r="113" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="60"/>
       <c r="B113" s="76"/>
-      <c r="C113" s="160" t="s">
-        <v>73</v>
-      </c>
+      <c r="C113" s="160"/>
       <c r="D113" s="160"/>
       <c r="E113" s="160"/>
       <c r="F113" s="160"/>
@@ -32749,7 +32744,7 @@
     </row>
     <row r="116" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="60"/>
-      <c r="B116" s="76"/>
+      <c r="B116" s="75"/>
       <c r="C116" s="160"/>
       <c r="D116" s="160"/>
       <c r="E116" s="160"/>
@@ -32760,7 +32755,7 @@
       <c r="J116" s="160"/>
       <c r="K116" s="160"/>
       <c r="L116" s="160"/>
-      <c r="M116" s="81"/>
+      <c r="M116" s="85"/>
     </row>
     <row r="117" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="60"/>
@@ -32777,104 +32772,104 @@
       <c r="L117" s="160"/>
       <c r="M117" s="85"/>
     </row>
-    <row r="118" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="60"/>
-      <c r="B118" s="75"/>
-      <c r="C118" s="160"/>
-      <c r="D118" s="160"/>
-      <c r="E118" s="160"/>
-      <c r="F118" s="160"/>
-      <c r="G118" s="160"/>
-      <c r="H118" s="160"/>
-      <c r="I118" s="160"/>
-      <c r="J118" s="160"/>
-      <c r="K118" s="160"/>
-      <c r="L118" s="160"/>
-      <c r="M118" s="85"/>
+    <row r="118" spans="1:14" s="23" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="59"/>
+      <c r="B118" s="77"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="81"/>
     </row>
     <row r="119" spans="1:14" s="23" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="59"/>
       <c r="B119" s="77"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="81"/>
+      <c r="M119" s="86"/>
     </row>
-    <row r="120" spans="1:14" s="23" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="59"/>
-      <c r="B120" s="77"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+    <row r="120" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="60"/>
+      <c r="B120" s="78"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="42"/>
       <c r="M120" s="86"/>
+      <c r="N120" s="24"/>
     </row>
     <row r="121" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="60"/>
-      <c r="B121" s="78"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="42"/>
+      <c r="B121" s="77"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
       <c r="M121" s="86"/>
-      <c r="N121" s="24"/>
     </row>
     <row r="122" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="60"/>
-      <c r="B122" s="77"/>
+      <c r="B122" s="79"/>
       <c r="C122" s="43"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="44"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
       <c r="M122" s="86"/>
     </row>
     <row r="123" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="60"/>
-      <c r="B123" s="79"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="44"/>
-      <c r="I123" s="44"/>
+      <c r="B123" s="75"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="45"/>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123"/>
       <c r="M123" s="86"/>
     </row>
-    <row r="124" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="60"/>
       <c r="B124" s="75"/>
+      <c r="C124" s="46"/>
       <c r="D124" s="32"/>
       <c r="E124" s="32"/>
-      <c r="F124" s="32" t="s">
-        <v>64</v>
+      <c r="F124" s="111" t="s">
+        <v>152</v>
       </c>
-      <c r="G124" s="32"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="45"/>
+      <c r="G124" s="111"/>
+      <c r="H124" s="111"/>
+      <c r="I124" s="111"/>
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124"/>
       <c r="M124" s="86"/>
     </row>
-    <row r="125" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="60"/>
       <c r="B125" s="75"/>
       <c r="C125" s="46"/>
       <c r="D125" s="32"/>
       <c r="E125" s="32"/>
-      <c r="F125" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G125" s="111"/>
-      <c r="H125" s="111"/>
-      <c r="I125" s="111"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="47"/>
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125"/>
@@ -32883,36 +32878,27 @@
     <row r="126" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="60"/>
       <c r="B126" s="75"/>
-      <c r="C126" s="46"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="47"/>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
+      <c r="C126" s="91"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="92"/>
+      <c r="F126" s="92"/>
+      <c r="G126" s="92"/>
+      <c r="H126" s="92"/>
+      <c r="I126" s="92"/>
+      <c r="J126" s="93"/>
+      <c r="K126" s="93"/>
+      <c r="L126" s="93"/>
       <c r="M126" s="86"/>
     </row>
-    <row r="127" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="60"/>
       <c r="B127" s="75"/>
-      <c r="C127" s="91"/>
-      <c r="D127" s="92"/>
-      <c r="E127" s="92"/>
-      <c r="F127" s="92"/>
-      <c r="G127" s="92"/>
-      <c r="H127" s="92"/>
-      <c r="I127" s="92"/>
-      <c r="J127" s="93"/>
-      <c r="K127" s="93"/>
-      <c r="L127" s="93"/>
-      <c r="M127" s="86"/>
+      <c r="M127" s="81"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="60"/>
       <c r="B128" s="75"/>
+      <c r="C128" s="25"/>
       <c r="M128" s="81"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -32928,9 +32914,7 @@
       <c r="M130" s="81"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="60"/>
       <c r="B131" s="75"/>
-      <c r="C131" s="25"/>
       <c r="M131" s="81"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -32959,6 +32943,16 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B138" s="75"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="60"/>
+      <c r="F138" s="60"/>
+      <c r="G138" s="60"/>
+      <c r="H138" s="60"/>
+      <c r="I138" s="60"/>
+      <c r="J138" s="60"/>
+      <c r="K138" s="60"/>
+      <c r="L138" s="60"/>
       <c r="M138" s="81"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -33004,7 +32998,7 @@
       <c r="M141" s="81"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B142" s="75"/>
+      <c r="B142" s="88"/>
       <c r="C142" s="60"/>
       <c r="D142" s="60"/>
       <c r="E142" s="60"/>
@@ -33015,10 +33009,10 @@
       <c r="J142" s="60"/>
       <c r="K142" s="60"/>
       <c r="L142" s="60"/>
-      <c r="M142" s="81"/>
+      <c r="M142" s="89"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B143" s="88"/>
+      <c r="B143" s="90"/>
       <c r="C143" s="60"/>
       <c r="D143" s="60"/>
       <c r="E143" s="60"/>
@@ -33029,10 +33023,12 @@
       <c r="J143" s="60"/>
       <c r="K143" s="60"/>
       <c r="L143" s="60"/>
-      <c r="M143" s="89"/>
+      <c r="M143" s="60"/>
+      <c r="N143" s="60"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B144" s="90"/>
+      <c r="A144" s="60"/>
+      <c r="B144" s="60"/>
       <c r="C144" s="60"/>
       <c r="D144" s="60"/>
       <c r="E144" s="60"/>
@@ -33046,8 +33042,7 @@
       <c r="M144" s="60"/>
       <c r="N144" s="60"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A145" s="60"/>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="60"/>
       <c r="C145" s="60"/>
       <c r="D145" s="60"/>
@@ -33062,71 +33057,59 @@
       <c r="M145" s="60"/>
       <c r="N145" s="60"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B146" s="60"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="60"/>
-      <c r="F146" s="60"/>
-      <c r="G146" s="60"/>
-      <c r="H146" s="60"/>
-      <c r="I146" s="60"/>
-      <c r="J146" s="60"/>
-      <c r="K146" s="60"/>
-      <c r="L146" s="60"/>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M146" s="60"/>
-      <c r="N146" s="60"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M147" s="60"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M148" s="60"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M149" s="60"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M150" s="60"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M151" s="60"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M152" s="60"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M153" s="60"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M154" s="60"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M155" s="60"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M156" s="60"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M157" s="60"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C158" s="60"/>
+      <c r="D158" s="60"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="60"/>
+      <c r="G158" s="60"/>
+      <c r="H158" s="60"/>
+      <c r="I158" s="60"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="60"/>
+      <c r="L158" s="60"/>
       <c r="M158" s="60"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C159" s="60"/>
-      <c r="D159" s="60"/>
-      <c r="E159" s="60"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="60"/>
-      <c r="H159" s="60"/>
-      <c r="I159" s="60"/>
-      <c r="J159" s="60"/>
-      <c r="K159" s="60"/>
-      <c r="L159" s="60"/>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M159" s="60"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M160" s="60"/>
     </row>
     <row r="161" spans="13:13" x14ac:dyDescent="0.2">
@@ -33504,34 +33487,31 @@
     <row r="285" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M285" s="60"/>
     </row>
-    <row r="286" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M286" s="60"/>
-    </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="97">
     <mergeCell ref="E74:E75"/>
     <mergeCell ref="C74:D75"/>
     <mergeCell ref="H74:I75"/>
     <mergeCell ref="J74:J75"/>
     <mergeCell ref="C72:E73"/>
     <mergeCell ref="H72:J73"/>
-    <mergeCell ref="C113:L118"/>
+    <mergeCell ref="C112:L117"/>
     <mergeCell ref="G28:H29"/>
     <mergeCell ref="I28:J29"/>
     <mergeCell ref="K28:L29"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="H99:I100"/>
-    <mergeCell ref="C99:E100"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="C100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="H98:I99"/>
+    <mergeCell ref="C98:E99"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="C107:D107"/>
     <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C104:D104"/>
     <mergeCell ref="C105:D105"/>
     <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="H66:I66"/>
@@ -33563,19 +33543,18 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C86:F86"/>
     <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C87:F87"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="C25:L27"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
     <mergeCell ref="C28:D30"/>
     <mergeCell ref="E28:F29"/>
     <mergeCell ref="E1:K5"/>
@@ -33591,10 +33570,9 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="F124:I124"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C37:D37"/>
@@ -33607,6 +33585,7 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C25:L27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
